--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K2" t="n">
         <v>5.3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.44</v>
+        <v>2.74</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V2" t="n">
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="G3" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.82</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.99</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
         <v>1.99</v>
@@ -838,76 +838,76 @@
         <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
         <v>970</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>970</v>
       </c>
-      <c r="AD3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK3" t="n">
         <v>22</v>
       </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
         <v>1.56</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="n">
         <v>7</v>
@@ -955,46 +955,46 @@
         <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y4" t="n">
         <v>30</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>34</v>
       </c>
       <c r="Z4" t="n">
         <v>65</v>
@@ -1003,16 +1003,16 @@
         <v>180</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="n">
         <v>11.5</v>
@@ -1021,28 +1021,28 @@
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
         <v>6.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -1090,94 +1090,94 @@
         <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>1.24</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.01</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1621,10 +1621,10 @@
         <v>13.5</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K9" t="n">
         <v>8</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>1.77</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>2.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
         <v>1.74</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="G12" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="G13" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
-        <v>7.8</v>
+        <v>1.09</v>
       </c>
       <c r="I13" t="n">
         <v>980</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K13" t="n">
-        <v>11.5</v>
+        <v>85</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
@@ -2434,7 +2434,7 @@
         <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
@@ -2488,7 +2488,7 @@
         <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC15" t="n">
         <v>6.6</v>
@@ -2509,7 +2509,7 @@
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
         <v>55</v>
@@ -2518,7 +2518,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
         <v>200</v>
@@ -2566,7 +2566,7 @@
         <v>1.68</v>
       </c>
       <c r="I16" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J16" t="n">
         <v>3.55</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.88</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.64</v>
-      </c>
       <c r="I17" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G21" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H21" t="n">
         <v>2.48</v>
       </c>
       <c r="I21" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q21" t="n">
         <v>1.72</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="I23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>2.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G25" t="n">
         <v>2.92</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I25" t="n">
         <v>3.05</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="G27" t="n">
-        <v>13</v>
+        <v>6.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4855,19 +4855,19 @@
         <v>4.2</v>
       </c>
       <c r="G33" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H33" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="I33" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="J33" t="n">
         <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4993,10 +4993,10 @@
         <v>6.8</v>
       </c>
       <c r="H34" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="I34" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J34" t="n">
         <v>4.2</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q34" t="n">
         <v>1.01</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
         <v>1.29</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="H36" t="n">
-        <v>2.14</v>
+        <v>4.6</v>
       </c>
       <c r="I36" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J36" t="n">
-        <v>2.14</v>
+        <v>4.3</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.04</v>
+        <v>1.34</v>
       </c>
       <c r="G38" t="n">
-        <v>980</v>
+        <v>1.42</v>
       </c>
       <c r="H38" t="n">
-        <v>1.04</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="J38" t="n">
-        <v>1.02</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>980</v>
+        <v>6</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.07</v>
+        <v>2.18</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5668,7 +5668,7 @@
         <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I39" t="n">
         <v>1.79</v>
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G40" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H40" t="n">
         <v>6.2</v>
@@ -5812,7 +5812,7 @@
         <v>4.7</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5824,7 +5824,7 @@
         <v>5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P40" t="n">
         <v>2.4</v>
@@ -5836,13 +5836,13 @@
         <v>1.55</v>
       </c>
       <c r="S40" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T40" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U40" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -5872,10 +5872,10 @@
         <v>24</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG40" t="n">
         <v>10.5</v>
@@ -5974,7 +5974,7 @@
         <v>3.6</v>
       </c>
       <c r="T41" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U41" t="n">
         <v>2.14</v>
@@ -6073,7 +6073,7 @@
         <v>6.4</v>
       </c>
       <c r="H42" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="I42" t="n">
         <v>1.77</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.4</v>
+        <v>2.64</v>
       </c>
       <c r="G44" t="n">
         <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>1.52</v>
+        <v>2.76</v>
       </c>
       <c r="I44" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J44" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.63</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="H45" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="I45" t="n">
         <v>2.6</v>
       </c>
       <c r="J45" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>980</v>
+        <v>3.6</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>5.9</v>
       </c>
       <c r="J46" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
         <v>4.3</v>
@@ -6643,16 +6643,16 @@
         <v>1.87</v>
       </c>
       <c r="R46" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S46" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T46" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U46" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6661,22 +6661,22 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y46" t="n">
         <v>20</v>
       </c>
       <c r="Z46" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AA46" t="n">
         <v>170</v>
       </c>
       <c r="AB46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC46" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>9.4</v>
       </c>
       <c r="AD46" t="n">
         <v>22</v>
@@ -6688,7 +6688,7 @@
         <v>10.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH46" t="n">
         <v>20</v>
@@ -6697,7 +6697,7 @@
         <v>90</v>
       </c>
       <c r="AJ46" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK46" t="n">
         <v>17.5</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.62</v>
+        <v>3.8</v>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="H47" t="n">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="I47" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="J47" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6886,7 +6886,7 @@
         <v>8.4</v>
       </c>
       <c r="I48" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="J48" t="n">
         <v>6</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="G49" t="n">
         <v>1000</v>
@@ -7021,10 +7021,10 @@
         <v>1.04</v>
       </c>
       <c r="I49" t="n">
-        <v>1000</v>
+        <v>1.64</v>
       </c>
       <c r="J49" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="K49" t="n">
         <v>950</v>
@@ -7045,7 +7045,7 @@
         <v>1.24</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7159,10 +7159,10 @@
         <v>13</v>
       </c>
       <c r="J50" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K50" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7186,10 +7186,10 @@
         <v>1.4</v>
       </c>
       <c r="S50" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T50" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U50" t="n">
         <v>1.65</v>
@@ -7219,13 +7219,13 @@
         <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE50" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AF50" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AG50" t="n">
         <v>11.5</v>
@@ -7246,7 +7246,7 @@
         <v>55</v>
       </c>
       <c r="AM50" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AN50" t="n">
         <v>6.4</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
         <v>3.3</v>
@@ -7426,10 +7426,10 @@
         <v>2.66</v>
       </c>
       <c r="I52" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J52" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
         <v>3.2</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q52" t="n">
         <v>2.58</v>
@@ -7552,19 +7552,19 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G53" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
         <v>2.26</v>
       </c>
       <c r="I53" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="J53" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K53" t="n">
         <v>4.4</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="H55" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I55" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="J55" t="n">
-        <v>2.58</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7966,13 +7966,13 @@
         <v>7.4</v>
       </c>
       <c r="I56" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J56" t="n">
         <v>5</v>
       </c>
       <c r="K56" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="G57" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="H57" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I57" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J57" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K57" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G58" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="H58" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="I58" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="G59" t="n">
-        <v>980</v>
+        <v>1.85</v>
       </c>
       <c r="H59" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="I59" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="J59" t="n">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="K59" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.24</v>
+        <v>1.75</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8527,19 +8527,19 @@
         <v>1.28</v>
       </c>
       <c r="P60" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q60" t="n">
         <v>1.81</v>
       </c>
       <c r="R60" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S60" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T60" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U60" t="n">
         <v>2.08</v>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H61" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I61" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="J61" t="n">
         <v>3.3</v>
@@ -8656,7 +8656,7 @@
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O61" t="n">
         <v>1.36</v>
@@ -8665,16 +8665,16 @@
         <v>1.87</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R61" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S61" t="n">
         <v>3.7</v>
       </c>
       <c r="T61" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U61" t="n">
         <v>2.14</v>
@@ -8728,13 +8728,13 @@
         <v>38</v>
       </c>
       <c r="AL61" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM61" t="n">
         <v>95</v>
       </c>
       <c r="AN61" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO61" t="n">
         <v>25</v>
@@ -8905,13 +8905,13 @@
         <v>1.72</v>
       </c>
       <c r="G63" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H63" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I63" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J63" t="n">
         <v>4</v>
@@ -8932,7 +8932,7 @@
         <v>1.34</v>
       </c>
       <c r="P63" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q63" t="n">
         <v>2</v>
@@ -8941,13 +8941,13 @@
         <v>1.36</v>
       </c>
       <c r="S63" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T63" t="n">
         <v>1.94</v>
       </c>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -8968,7 +8968,7 @@
         <v>500</v>
       </c>
       <c r="AB63" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC63" t="n">
         <v>9</v>
@@ -8989,7 +8989,7 @@
         <v>22</v>
       </c>
       <c r="AI63" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ63" t="n">
         <v>18</v>
@@ -9046,10 +9046,10 @@
         <v>2.5</v>
       </c>
       <c r="I64" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J64" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K64" t="n">
         <v>3.55</v>
@@ -9070,13 +9070,13 @@
         <v>1.97</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R64" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S64" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T64" t="n">
         <v>1.76</v>
@@ -9856,10 +9856,10 @@
         <v>2.16</v>
       </c>
       <c r="I70" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J70" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K70" t="n">
         <v>3.4</v>
@@ -9871,7 +9871,7 @@
         <v>1.1</v>
       </c>
       <c r="N70" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O70" t="n">
         <v>1.45</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H71" t="n">
         <v>2.52</v>
       </c>
-      <c r="G71" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2.38</v>
-      </c>
       <c r="I71" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J71" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K71" t="n">
-        <v>5.7</v>
+        <v>3.85</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q71" t="n">
         <v>1.8</v>
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10396,10 +10396,10 @@
         <v>1.83</v>
       </c>
       <c r="I74" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J74" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="K74" t="n">
         <v>6.2</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10657,10 +10657,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G76" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H76" t="n">
         <v>4.3</v>
@@ -10669,7 +10669,7 @@
         <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="K76" t="n">
         <v>3.1</v>
@@ -10690,7 +10690,7 @@
         <v>1.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10795,7 +10795,7 @@
         <v>2.16</v>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H77" t="n">
         <v>3.4</v>
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="H78" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I78" t="n">
-        <v>8.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="J78" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K78" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -10951,16 +10951,16 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1.79</v>
+        <v>3.7</v>
       </c>
       <c r="O78" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P78" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G79" t="n">
         <v>7.4</v>
@@ -11095,7 +11095,7 @@
         <v>1.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="G80" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H80" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I80" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J80" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K80" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -11227,10 +11227,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11332,22 +11332,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="G81" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J81" t="n">
         <v>3.65</v>
       </c>
-      <c r="H81" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2.58</v>
-      </c>
       <c r="K81" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11467,19 +11467,19 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G82" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="H82" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I82" t="n">
         <v>4.4</v>
       </c>
       <c r="J82" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K82" t="n">
         <v>3.65</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11602,22 +11602,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="G83" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="H83" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="I83" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="J83" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K83" t="n">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,16 +11626,16 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="O83" t="n">
         <v>1.37</v>
       </c>
       <c r="P83" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R83" t="n">
         <v>1.24</v>
@@ -11650,10 +11650,10 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="W83" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -12037,16 +12037,16 @@
         <v>1.28</v>
       </c>
       <c r="P86" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R86" t="n">
         <v>1.44</v>
       </c>
       <c r="S86" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T86" t="n">
         <v>1.84</v>
@@ -12088,13 +12088,13 @@
         <v>11</v>
       </c>
       <c r="AG86" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH86" t="n">
         <v>21</v>
       </c>
       <c r="AI86" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ86" t="n">
         <v>17</v>
@@ -12172,7 +12172,7 @@
         <v>1.32</v>
       </c>
       <c r="P87" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q87" t="n">
         <v>1.96</v>
@@ -12184,10 +12184,10 @@
         <v>3.5</v>
       </c>
       <c r="T87" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="U87" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y87" t="n">
         <v>36</v>
@@ -12289,7 +12289,7 @@
         <v>1.61</v>
       </c>
       <c r="J88" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K88" t="n">
         <v>5</v>
@@ -12322,7 +12322,7 @@
         <v>1.55</v>
       </c>
       <c r="U88" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>42</v>
       </c>
       <c r="AO88" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="89">
@@ -12412,19 +12412,19 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="G89" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="H89" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I89" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="J89" t="n">
-        <v>2.76</v>
+        <v>3.65</v>
       </c>
       <c r="K89" t="n">
         <v>3.95</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12556,7 +12556,7 @@
         <v>1.49</v>
       </c>
       <c r="I90" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="J90" t="n">
         <v>4.1</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12685,10 +12685,10 @@
         <v>2.98</v>
       </c>
       <c r="G91" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H91" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I91" t="n">
         <v>2.66</v>
@@ -12706,10 +12706,10 @@
         <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="O91" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P91" t="n">
         <v>1.68</v>
@@ -12724,7 +12724,7 @@
         <v>4.2</v>
       </c>
       <c r="T91" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U91" t="n">
         <v>1.77</v>
@@ -12733,7 +12733,7 @@
         <v>1.6</v>
       </c>
       <c r="W91" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="X91" t="n">
         <v>12</v>
@@ -12742,7 +12742,7 @@
         <v>10.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA91" t="n">
         <v>980</v>
@@ -12757,16 +12757,16 @@
         <v>14.5</v>
       </c>
       <c r="AE91" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF91" t="n">
         <v>980</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>21</v>
       </c>
       <c r="AG91" t="n">
         <v>16</v>
       </c>
       <c r="AH91" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI91" t="n">
         <v>55</v>
@@ -12775,7 +12775,7 @@
         <v>65</v>
       </c>
       <c r="AK91" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL91" t="n">
         <v>60</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.09</v>
+        <v>2.74</v>
       </c>
       <c r="G92" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
-        <v>1.09</v>
+        <v>2.6</v>
       </c>
       <c r="I92" t="n">
-        <v>1000</v>
+        <v>2.88</v>
       </c>
       <c r="J92" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="K92" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12847,10 +12847,10 @@
         <v>1.31</v>
       </c>
       <c r="P92" t="n">
-        <v>1.24</v>
+        <v>1.94</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H2" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
         <v>4.7</v>
@@ -691,46 +691,46 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AB2" t="n">
         <v>9.6</v>
@@ -739,10 +739,10 @@
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="n">
         <v>9.6</v>
@@ -751,28 +751,28 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK2" t="n">
         <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
@@ -826,34 +826,34 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
         <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -865,7 +865,7 @@
         <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -889,7 +889,7 @@
         <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
         <v>25</v>
@@ -901,13 +901,13 @@
         <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
         <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
         <v>4.9</v>
@@ -967,28 +967,28 @@
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="X4" t="n">
         <v>27</v>
@@ -1003,7 +1003,7 @@
         <v>180</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
         <v>12</v>
@@ -1042,7 +1042,7 @@
         <v>6.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1225,94 +1225,94 @@
         <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.01</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1621,10 +1621,10 @@
         <v>13.5</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K9" t="n">
         <v>8</v>
@@ -1645,7 +1645,7 @@
         <v>2.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G10" t="n">
         <v>1.77</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="Q10" t="n">
         <v>1.35</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
         <v>3.35</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
         <v>1.74</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
         <v>3.95</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="G15" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
@@ -2434,10 +2434,10 @@
         <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>2.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
         <v>5.4</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -2488,7 +2488,7 @@
         <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>6.6</v>
@@ -2500,13 +2500,13 @@
         <v>48</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG15" t="n">
         <v>14.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
         <v>75</v>
@@ -2695,13 +2695,13 @@
         <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I17" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
         <v>3.45</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.49</v>
+        <v>2.26</v>
       </c>
       <c r="G20" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="H20" t="n">
         <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G21" t="n">
         <v>3.05</v>
@@ -3241,7 +3241,7 @@
         <v>2.48</v>
       </c>
       <c r="I21" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
         <v>1.72</v>
@@ -3373,16 +3373,16 @@
         <v>3.55</v>
       </c>
       <c r="H22" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I22" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
         <v>1.57</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H24" t="n">
         <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="G25" t="n">
         <v>2.92</v>
       </c>
       <c r="H25" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
         <v>3.05</v>
@@ -3805,7 +3805,7 @@
         <v>1.83</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>2.68</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J26" t="n">
         <v>2.84</v>
@@ -4048,7 +4048,7 @@
         <v>6.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I27" t="n">
         <v>1.88</v>
@@ -4075,7 +4075,7 @@
         <v>1.85</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G33" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H33" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="J33" t="n">
         <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G34" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H34" t="n">
         <v>1.58</v>
       </c>
       <c r="I34" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="J34" t="n">
         <v>4.2</v>
@@ -5269,10 +5269,10 @@
         <v>6.4</v>
       </c>
       <c r="J36" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K36" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="G38" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H38" t="n">
         <v>9.800000000000001</v>
@@ -5539,10 +5539,10 @@
         <v>12</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q38" t="n">
         <v>1.67</v>
@@ -5689,7 +5689,7 @@
         <v>4.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
         <v>2.34</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G40" t="n">
         <v>1.58</v>
@@ -5809,10 +5809,10 @@
         <v>6.6</v>
       </c>
       <c r="J40" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K40" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5824,22 +5824,22 @@
         <v>5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P40" t="n">
         <v>2.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R40" t="n">
         <v>1.55</v>
       </c>
       <c r="S40" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T40" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U40" t="n">
         <v>2.16</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G41" t="n">
         <v>2.3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
         <v>3.7</v>
       </c>
       <c r="J41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.5</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5956,25 +5956,25 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O41" t="n">
         <v>1.35</v>
       </c>
       <c r="P41" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R41" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S41" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T41" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U41" t="n">
         <v>2.14</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y41" t="n">
         <v>13.5</v>
@@ -5998,7 +5998,7 @@
         <v>70</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC41" t="n">
         <v>7.8</v>
@@ -6016,7 +6016,7 @@
         <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI41" t="n">
         <v>55</v>
@@ -6025,19 +6025,19 @@
         <v>30</v>
       </c>
       <c r="AK41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL41" t="n">
         <v>40</v>
       </c>
       <c r="AM41" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN41" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -6073,7 +6073,7 @@
         <v>6.4</v>
       </c>
       <c r="H42" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="I42" t="n">
         <v>1.77</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G44" t="n">
         <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="I44" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J44" t="n">
         <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G45" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H45" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I45" t="n">
         <v>2.6</v>
@@ -6487,7 +6487,7 @@
         <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>1.77</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>1.71</v>
       </c>
       <c r="H46" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I46" t="n">
         <v>5.9</v>
@@ -6622,7 +6622,7 @@
         <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6631,25 +6631,25 @@
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R46" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S46" t="n">
         <v>3.15</v>
       </c>
       <c r="T46" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U46" t="n">
         <v>2.06</v>
@@ -6754,7 +6754,7 @@
         <v>2.36</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K47" t="n">
         <v>3.5</v>
@@ -6883,7 +6883,7 @@
         <v>1.32</v>
       </c>
       <c r="H48" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="I48" t="n">
         <v>980</v>
@@ -6907,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q48" t="n">
         <v>1.64</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.56</v>
+        <v>5.7</v>
       </c>
       <c r="G49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H49" t="n">
         <v>1.04</v>
       </c>
       <c r="I49" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="J49" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K49" t="n">
         <v>950</v>
@@ -7045,7 +7045,7 @@
         <v>1.24</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>13</v>
       </c>
       <c r="J50" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K50" t="n">
         <v>5.9</v>
@@ -7186,7 +7186,7 @@
         <v>1.4</v>
       </c>
       <c r="S50" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T50" t="n">
         <v>2.48</v>
@@ -7222,10 +7222,10 @@
         <v>48</v>
       </c>
       <c r="AE50" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AF50" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG50" t="n">
         <v>11.5</v>
@@ -7297,7 +7297,7 @@
         <v>3.3</v>
       </c>
       <c r="K51" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="G52" t="n">
         <v>3.3</v>
       </c>
       <c r="H52" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="I52" t="n">
         <v>2.88</v>
@@ -7432,7 +7432,7 @@
         <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7450,7 +7450,7 @@
         <v>1.56</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>3.05</v>
       </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H53" t="n">
         <v>2.26</v>
@@ -7564,7 +7564,7 @@
         <v>2.46</v>
       </c>
       <c r="J53" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K53" t="n">
         <v>4.4</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q53" t="n">
         <v>1.6</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="G54" t="n">
         <v>1.89</v>
@@ -7696,13 +7696,13 @@
         <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
         <v>3.8</v>
       </c>
       <c r="K54" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7720,7 +7720,7 @@
         <v>2.28</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="G55" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="H55" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I55" t="n">
         <v>2.52</v>
@@ -7837,7 +7837,7 @@
         <v>3.6</v>
       </c>
       <c r="K55" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="G56" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H56" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I56" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J56" t="n">
         <v>5</v>
       </c>
       <c r="K56" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G57" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I57" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J57" t="n">
         <v>3.3</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q57" t="n">
         <v>2.2</v>
@@ -8362,10 +8362,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G59" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="H59" t="n">
         <v>5.1</v>
@@ -8377,7 +8377,7 @@
         <v>3.65</v>
       </c>
       <c r="K59" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         <v>5.8</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K60" t="n">
         <v>4.4</v>
@@ -8524,7 +8524,7 @@
         <v>4.1</v>
       </c>
       <c r="O60" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P60" t="n">
         <v>2.12</v>
@@ -8533,13 +8533,13 @@
         <v>1.81</v>
       </c>
       <c r="R60" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S60" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T60" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U60" t="n">
         <v>2.08</v>
@@ -8632,19 +8632,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G61" t="n">
         <v>3.25</v>
       </c>
       <c r="H61" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I61" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J61" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K61" t="n">
         <v>3.4</v>
@@ -8656,13 +8656,13 @@
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O61" t="n">
         <v>1.36</v>
       </c>
       <c r="P61" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q61" t="n">
         <v>2.06</v>
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G63" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H63" t="n">
         <v>5.8</v>
@@ -8968,7 +8968,7 @@
         <v>500</v>
       </c>
       <c r="AB63" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC63" t="n">
         <v>9</v>
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G64" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I64" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J64" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K64" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -9061,28 +9061,28 @@
         <v>1.07</v>
       </c>
       <c r="N64" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O64" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P64" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="R64" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S64" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T64" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U64" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -9091,10 +9091,10 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y64" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z64" t="n">
         <v>17</v>
@@ -9106,13 +9106,13 @@
         <v>12.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD64" t="n">
         <v>12</v>
       </c>
       <c r="AE64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AF64" t="n">
         <v>22</v>
@@ -9142,7 +9142,7 @@
         <v>34</v>
       </c>
       <c r="AO64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
@@ -9712,19 +9712,19 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.04</v>
+        <v>5.5</v>
       </c>
       <c r="G69" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="H69" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="I69" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="J69" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="K69" t="n">
         <v>5</v>
@@ -9847,10 +9847,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G70" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H70" t="n">
         <v>2.16</v>
@@ -9862,7 +9862,7 @@
         <v>3.3</v>
       </c>
       <c r="K70" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9922,10 +9922,10 @@
         <v>11.5</v>
       </c>
       <c r="AE70" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF70" t="n">
         <v>29</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>28</v>
       </c>
       <c r="AG70" t="n">
         <v>17.5</v>
@@ -9937,7 +9937,7 @@
         <v>50</v>
       </c>
       <c r="AJ70" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AK70" t="n">
         <v>60</v>
@@ -9952,7 +9952,7 @@
         <v>75</v>
       </c>
       <c r="AO70" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="G71" t="n">
         <v>3.3</v>
       </c>
       <c r="H71" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="I71" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K71" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10252,10 +10252,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="G73" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="H73" t="n">
         <v>1.46</v>
@@ -10264,10 +10264,10 @@
         <v>1.71</v>
       </c>
       <c r="J73" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="K73" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G75" t="n">
         <v>2.18</v>
@@ -10579,10 +10579,10 @@
         <v>10</v>
       </c>
       <c r="Y75" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z75" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA75" t="n">
         <v>120</v>
@@ -10657,19 +10657,19 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G76" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H76" t="n">
         <v>4.3</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J76" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="K76" t="n">
         <v>3.1</v>
@@ -10687,10 +10687,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10792,23 +10792,23 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="G77" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="H77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J77" t="n">
         <v>3.4</v>
       </c>
-      <c r="I77" t="n">
+      <c r="K77" t="n">
         <v>3.8</v>
       </c>
-      <c r="J77" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K77" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="G78" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="H78" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I78" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K78" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -10951,16 +10951,16 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O78" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P78" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G79" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H79" t="n">
         <v>1.6</v>
       </c>
       <c r="I79" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="J79" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K79" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11095,7 +11095,7 @@
         <v>1.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G80" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H80" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I80" t="n">
         <v>5.2</v>
       </c>
       <c r="J80" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K80" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q81" t="n">
         <v>1.62</v>
@@ -11467,13 +11467,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G82" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I82" t="n">
         <v>4.4</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11611,7 +11611,7 @@
         <v>1.92</v>
       </c>
       <c r="I83" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J83" t="n">
         <v>3.05</v>
@@ -11626,16 +11626,16 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O83" t="n">
         <v>1.37</v>
       </c>
       <c r="P83" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R83" t="n">
         <v>1.24</v>
@@ -11650,7 +11650,7 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W83" t="n">
         <v>1.23</v>
@@ -12010,7 +12010,7 @@
         <v>1.67</v>
       </c>
       <c r="G86" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="H86" t="n">
         <v>5.5</v>
@@ -12019,7 +12019,7 @@
         <v>5.9</v>
       </c>
       <c r="J86" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K86" t="n">
         <v>4.4</v>
@@ -12037,7 +12037,7 @@
         <v>1.28</v>
       </c>
       <c r="P86" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q86" t="n">
         <v>1.83</v>
@@ -12046,7 +12046,7 @@
         <v>1.44</v>
       </c>
       <c r="S86" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T86" t="n">
         <v>1.84</v>
@@ -12094,7 +12094,7 @@
         <v>21</v>
       </c>
       <c r="AI86" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ86" t="n">
         <v>17</v>
@@ -12154,7 +12154,7 @@
         <v>15</v>
       </c>
       <c r="J87" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K87" t="n">
         <v>5.7</v>
@@ -12172,7 +12172,7 @@
         <v>1.32</v>
       </c>
       <c r="P87" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q87" t="n">
         <v>1.96</v>
@@ -12277,10 +12277,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G88" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H88" t="n">
         <v>1.59</v>
@@ -12322,7 +12322,7 @@
         <v>1.55</v>
       </c>
       <c r="U88" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>10.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF88" t="n">
         <v>60</v>
@@ -12415,7 +12415,7 @@
         <v>1.9</v>
       </c>
       <c r="G89" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H89" t="n">
         <v>4.2</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12553,16 +12553,16 @@
         <v>9.4</v>
       </c>
       <c r="H90" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="I90" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="J90" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K90" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12685,10 +12685,10 @@
         <v>2.98</v>
       </c>
       <c r="G91" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="H91" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I91" t="n">
         <v>2.66</v>
@@ -12697,7 +12697,7 @@
         <v>3.3</v>
       </c>
       <c r="K91" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L91" t="n">
         <v>1.01</v>
@@ -12706,10 +12706,10 @@
         <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O91" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P91" t="n">
         <v>1.68</v>
@@ -12733,7 +12733,7 @@
         <v>1.6</v>
       </c>
       <c r="W91" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="X91" t="n">
         <v>12</v>
@@ -12760,7 +12760,7 @@
         <v>34</v>
       </c>
       <c r="AF91" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG91" t="n">
         <v>16</v>
@@ -12775,7 +12775,7 @@
         <v>65</v>
       </c>
       <c r="AK91" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL91" t="n">
         <v>60</v>
@@ -12787,7 +12787,7 @@
         <v>55</v>
       </c>
       <c r="AO91" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O92" t="n">
         <v>1.31</v>
@@ -12850,7 +12850,7 @@
         <v>1.94</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G2" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H2" t="n">
         <v>7</v>
@@ -679,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
         <v>5.3</v>
@@ -694,82 +694,82 @@
         <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
         <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="n">
         <v>270</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
         <v>130</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
         <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
         <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
         <v>150</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,7 +826,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -838,76 +838,76 @@
         <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
         <v>55</v>
       </c>
       <c r="AF3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG3" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -967,19 +967,19 @@
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.59</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
         <v>2.24</v>
@@ -988,19 +988,19 @@
         <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="X4" t="n">
         <v>27</v>
       </c>
       <c r="Y4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="n">
         <v>11.5</v>
@@ -1009,10 +1009,10 @@
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="n">
         <v>11.5</v>
@@ -1030,19 +1030,19 @@
         <v>15.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1360,94 +1360,94 @@
         <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1489,100 +1489,100 @@
         <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P8" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1630,94 +1630,94 @@
         <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="Q9" t="n">
         <v>1.51</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>1.54</v>
       </c>
       <c r="G10" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H10" t="n">
         <v>5.1</v>
@@ -1759,22 +1759,22 @@
         <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
         <v>6.4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P10" t="n">
         <v>2.98</v>
@@ -1783,76 +1783,76 @@
         <v>1.35</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.24</v>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
@@ -1900,94 +1900,94 @@
         <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2032,97 +2032,97 @@
         <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,34 +2152,34 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="G13" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="H13" t="n">
-        <v>1.09</v>
+        <v>7.8</v>
       </c>
       <c r="I13" t="n">
         <v>980</v>
       </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
         <v>2.14</v>
@@ -2188,76 +2188,76 @@
         <v>1.48</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.01</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>3.05</v>
@@ -2431,22 +2431,22 @@
         <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K15" t="n">
         <v>2.96</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M15" t="n">
         <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O15" t="n">
         <v>1.55</v>
@@ -2467,67 +2467,67 @@
         <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="X15" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
         <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="n">
         <v>70</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO15" t="n">
         <v>55</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I16" t="n">
         <v>2.06</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G17" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="H17" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J17" t="n">
         <v>3.45</v>
@@ -2710,16 +2710,16 @@
         <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
         <v>2.06</v>
@@ -2728,76 +2728,76 @@
         <v>1.76</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2845,16 +2845,16 @@
         <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
         <v>1.24</v>
@@ -2863,76 +2863,76 @@
         <v>1.01</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2980,94 +2980,94 @@
         <v>1000</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
         <v>1.24</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.01</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G20" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="H20" t="n">
         <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q20" t="n">
         <v>1.68</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
         <v>3.55</v>
@@ -3376,13 +3376,13 @@
         <v>2.22</v>
       </c>
       <c r="I22" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
         <v>4.1</v>
@@ -3517,7 +3517,7 @@
         <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
         <v>1.94</v>
@@ -3643,7 +3643,7 @@
         <v>1.97</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
         <v>4.8</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q24" t="n">
         <v>1.61</v>
@@ -3805,7 +3805,7 @@
         <v>1.83</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>1.74</v>
       </c>
       <c r="I27" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
         <v>3.55</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>2.1</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G34" t="n">
         <v>6.6</v>
       </c>
       <c r="H34" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="I34" t="n">
         <v>1.69</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G35" t="n">
         <v>2.66</v>
       </c>
       <c r="H35" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I35" t="n">
         <v>3.75</v>
@@ -5137,7 +5137,7 @@
         <v>2.8</v>
       </c>
       <c r="K35" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>1.41</v>
       </c>
       <c r="H38" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I38" t="n">
         <v>12</v>
@@ -5560,7 +5560,7 @@
         <v>2.22</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5668,10 +5668,10 @@
         <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I39" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J39" t="n">
         <v>4.2</v>
@@ -5695,7 +5695,7 @@
         <v>2.34</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R39" t="n">
         <v>1.52</v>
@@ -5722,10 +5722,10 @@
         <v>11</v>
       </c>
       <c r="Z39" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB39" t="n">
         <v>21</v>
@@ -5740,10 +5740,10 @@
         <v>17.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG39" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH39" t="n">
         <v>18</v>
@@ -5752,13 +5752,13 @@
         <v>30</v>
       </c>
       <c r="AJ39" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
         <v>80</v>
@@ -5767,7 +5767,7 @@
         <v>50</v>
       </c>
       <c r="AO39" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G40" t="n">
         <v>1.58</v>
@@ -5812,7 +5812,7 @@
         <v>4.8</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5824,7 +5824,7 @@
         <v>5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P40" t="n">
         <v>2.4</v>
@@ -5872,7 +5872,7 @@
         <v>24</v>
       </c>
       <c r="AE40" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
         <v>10.5</v>
@@ -5887,7 +5887,7 @@
         <v>70</v>
       </c>
       <c r="AJ40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK40" t="n">
         <v>15.5</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I41" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J41" t="n">
         <v>3.4</v>
@@ -5965,13 +5965,13 @@
         <v>1.9</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R41" t="n">
         <v>1.35</v>
       </c>
       <c r="S41" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T41" t="n">
         <v>1.83</v>
@@ -5989,10 +5989,10 @@
         <v>13.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA41" t="n">
         <v>70</v>
@@ -6001,7 +6001,7 @@
         <v>9.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD41" t="n">
         <v>15</v>
@@ -6016,7 +6016,7 @@
         <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI41" t="n">
         <v>55</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H44" t="n">
         <v>2.92</v>
       </c>
       <c r="I44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J44" t="n">
         <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G45" t="n">
         <v>3.45</v>
@@ -6487,7 +6487,7 @@
         <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>1.77</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G46" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="H46" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="I46" t="n">
         <v>5.9</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K46" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6640,10 +6640,10 @@
         <v>2.1</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R46" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S46" t="n">
         <v>3.15</v>
@@ -6661,19 +6661,19 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z46" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AA46" t="n">
         <v>170</v>
       </c>
       <c r="AB46" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC46" t="n">
         <v>9.199999999999999</v>
@@ -6709,7 +6709,7 @@
         <v>130</v>
       </c>
       <c r="AN46" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO46" t="n">
         <v>110</v>
@@ -7015,10 +7015,10 @@
         <v>5.7</v>
       </c>
       <c r="G49" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="H49" t="n">
-        <v>1.04</v>
+        <v>1.36</v>
       </c>
       <c r="I49" t="n">
         <v>1.61</v>
@@ -7027,7 +7027,7 @@
         <v>4.3</v>
       </c>
       <c r="K49" t="n">
-        <v>950</v>
+        <v>11.5</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q49" t="n">
         <v>1.53</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="G50" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="H50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I50" t="n">
         <v>11.5</v>
       </c>
-      <c r="I50" t="n">
-        <v>13</v>
-      </c>
       <c r="J50" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="K50" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7171,28 +7171,28 @@
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O50" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P50" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R50" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S50" t="n">
         <v>3.35</v>
       </c>
       <c r="T50" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="U50" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -7201,13 +7201,13 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
@@ -7216,40 +7216,40 @@
         <v>7.2</v>
       </c>
       <c r="AC50" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AE50" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="AF50" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AG50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>10.5</v>
       </c>
       <c r="AK50" t="n">
         <v>16.5</v>
       </c>
       <c r="AL50" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AM50" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AN50" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO50" t="n">
         <v>1000</v>
@@ -7315,7 +7315,7 @@
         <v>1.87</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G52" t="n">
         <v>3.3</v>
       </c>
       <c r="H52" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I52" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J52" t="n">
         <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G53" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
         <v>2.26</v>
@@ -7564,10 +7564,10 @@
         <v>2.46</v>
       </c>
       <c r="J53" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K53" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7687,13 +7687,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G54" t="n">
         <v>1.89</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I54" t="n">
         <v>8</v>
@@ -7702,7 +7702,7 @@
         <v>3.8</v>
       </c>
       <c r="K54" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H57" t="n">
         <v>4.1</v>
       </c>
       <c r="I57" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J57" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K57" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G59" t="n">
         <v>1.89</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,10 +8497,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G60" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H60" t="n">
         <v>5.3</v>
@@ -8542,7 +8542,7 @@
         <v>1.86</v>
       </c>
       <c r="U60" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8551,19 +8551,19 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y60" t="n">
         <v>21</v>
       </c>
       <c r="Z60" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA60" t="n">
         <v>170</v>
       </c>
       <c r="AB60" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC60" t="n">
         <v>9.4</v>
@@ -8572,10 +8572,10 @@
         <v>23</v>
       </c>
       <c r="AE60" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF60" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG60" t="n">
         <v>9.6</v>
@@ -8590,7 +8590,7 @@
         <v>18.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL60" t="n">
         <v>36</v>
@@ -8599,10 +8599,10 @@
         <v>130</v>
       </c>
       <c r="AN60" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO60" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
@@ -8635,7 +8635,7 @@
         <v>3.15</v>
       </c>
       <c r="G61" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H61" t="n">
         <v>2.54</v>
@@ -8644,7 +8644,7 @@
         <v>2.6</v>
       </c>
       <c r="J61" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K61" t="n">
         <v>3.4</v>
@@ -8656,7 +8656,7 @@
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O61" t="n">
         <v>1.36</v>
@@ -8668,7 +8668,7 @@
         <v>2.06</v>
       </c>
       <c r="R61" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S61" t="n">
         <v>3.7</v>
@@ -8902,16 +8902,16 @@
         </is>
       </c>
       <c r="F63" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G63" t="n">
         <v>1.73</v>
       </c>
-      <c r="G63" t="n">
-        <v>1.74</v>
-      </c>
       <c r="H63" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I63" t="n">
         <v>5.8</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.9</v>
       </c>
       <c r="J63" t="n">
         <v>4</v>
@@ -8944,7 +8944,7 @@
         <v>3.55</v>
       </c>
       <c r="T63" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U63" t="n">
         <v>1.99</v>
@@ -8962,7 +8962,7 @@
         <v>18.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA63" t="n">
         <v>500</v>
@@ -9043,7 +9043,7 @@
         <v>3.2</v>
       </c>
       <c r="H64" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I64" t="n">
         <v>2.62</v>
@@ -9070,19 +9070,19 @@
         <v>1.94</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="R64" t="n">
         <v>1.36</v>
       </c>
       <c r="S64" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T64" t="n">
         <v>1.78</v>
       </c>
       <c r="U64" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>12.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD64" t="n">
         <v>12</v>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G69" t="n">
         <v>1000</v>
@@ -9721,7 +9721,7 @@
         <v>1.26</v>
       </c>
       <c r="I69" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="J69" t="n">
         <v>4.7</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G70" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H70" t="n">
         <v>2.16</v>
       </c>
       <c r="I70" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K70" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.35</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>2.34</v>
       </c>
       <c r="R70" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S70" t="n">
         <v>4.5</v>
@@ -9919,16 +9919,16 @@
         <v>7.4</v>
       </c>
       <c r="AD70" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE70" t="n">
         <v>28</v>
       </c>
       <c r="AF70" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG70" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH70" t="n">
         <v>22</v>
@@ -9940,7 +9940,7 @@
         <v>110</v>
       </c>
       <c r="AK70" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL70" t="n">
         <v>75</v>
@@ -9985,10 +9985,10 @@
         <v>2.76</v>
       </c>
       <c r="G71" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -10015,7 +10015,7 @@
         <v>1.72</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -10123,16 +10123,16 @@
         <v>1.17</v>
       </c>
       <c r="H72" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="I72" t="n">
         <v>32</v>
       </c>
       <c r="J72" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10261,7 +10261,7 @@
         <v>1.46</v>
       </c>
       <c r="I73" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="J73" t="n">
         <v>4.2</v>
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q73" t="n">
         <v>1.5</v>
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G74" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H74" t="n">
         <v>1.83</v>
@@ -10399,10 +10399,10 @@
         <v>2.28</v>
       </c>
       <c r="J74" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K74" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10522,13 +10522,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G75" t="n">
         <v>2.18</v>
       </c>
       <c r="H75" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I75" t="n">
         <v>4.4</v>
@@ -10537,7 +10537,7 @@
         <v>3.25</v>
       </c>
       <c r="K75" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -10564,7 +10564,7 @@
         <v>4.4</v>
       </c>
       <c r="T75" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U75" t="n">
         <v>1.91</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G76" t="n">
         <v>2.32</v>
@@ -10666,7 +10666,7 @@
         <v>4.3</v>
       </c>
       <c r="I76" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
         <v>2.84</v>
@@ -10795,10 +10795,10 @@
         <v>2.28</v>
       </c>
       <c r="G77" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="H77" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I77" t="n">
         <v>3.5</v>
@@ -10807,7 +10807,7 @@
         <v>3.4</v>
       </c>
       <c r="K77" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10927,13 +10927,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="G78" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="H78" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I78" t="n">
         <v>5.1</v>
@@ -10951,16 +10951,16 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O78" t="n">
         <v>1.3</v>
       </c>
       <c r="P78" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G79" t="n">
         <v>7.6</v>
@@ -11095,7 +11095,7 @@
         <v>1.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11200,7 +11200,7 @@
         <v>1.91</v>
       </c>
       <c r="G80" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>4.5</v>
@@ -11227,10 +11227,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11335,7 +11335,7 @@
         <v>2.72</v>
       </c>
       <c r="G81" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H81" t="n">
         <v>2.34</v>
@@ -11641,7 +11641,7 @@
         <v>1.24</v>
       </c>
       <c r="S83" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T83" t="n">
         <v>1.01</v>
@@ -12094,7 +12094,7 @@
         <v>21</v>
       </c>
       <c r="AI86" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ86" t="n">
         <v>17</v>
@@ -12112,7 +12112,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO86" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87">
@@ -12172,22 +12172,22 @@
         <v>1.32</v>
       </c>
       <c r="P87" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q87" t="n">
         <v>1.96</v>
       </c>
       <c r="R87" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S87" t="n">
         <v>3.5</v>
       </c>
       <c r="T87" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U87" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y87" t="n">
         <v>36</v>
@@ -12208,7 +12208,7 @@
         <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC87" t="n">
         <v>13</v>
@@ -12223,10 +12223,10 @@
         <v>6.8</v>
       </c>
       <c r="AG87" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI87" t="n">
         <v>320</v>
@@ -12235,10 +12235,10 @@
         <v>9.4</v>
       </c>
       <c r="AK87" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL87" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM87" t="n">
         <v>390</v>
@@ -12277,10 +12277,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H88" t="n">
         <v>1.59</v>
@@ -12301,7 +12301,7 @@
         <v>1.02</v>
       </c>
       <c r="N88" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O88" t="n">
         <v>1.14</v>
@@ -12310,7 +12310,7 @@
         <v>3.15</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R88" t="n">
         <v>1.88</v>
@@ -12322,7 +12322,7 @@
         <v>1.55</v>
       </c>
       <c r="U88" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>10.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF88" t="n">
         <v>60</v>
@@ -12418,7 +12418,7 @@
         <v>2.04</v>
       </c>
       <c r="H89" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I89" t="n">
         <v>4.7</v>
@@ -12445,7 +12445,7 @@
         <v>1.99</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12580,7 +12580,7 @@
         <v>1.79</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12685,7 +12685,7 @@
         <v>2.98</v>
       </c>
       <c r="G91" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H91" t="n">
         <v>2.46</v>
@@ -12697,13 +12697,13 @@
         <v>3.3</v>
       </c>
       <c r="K91" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L91" t="n">
         <v>1.01</v>
       </c>
       <c r="M91" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N91" t="n">
         <v>2.94</v>
@@ -12721,22 +12721,22 @@
         <v>1.24</v>
       </c>
       <c r="S91" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="T91" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U91" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="V91" t="n">
         <v>1.6</v>
       </c>
       <c r="W91" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y91" t="n">
         <v>10.5</v>
@@ -12745,7 +12745,7 @@
         <v>18.5</v>
       </c>
       <c r="AA91" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB91" t="n">
         <v>12</v>
@@ -12763,22 +12763,22 @@
         <v>25</v>
       </c>
       <c r="AG91" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI91" t="n">
         <v>55</v>
       </c>
       <c r="AJ91" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK91" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL91" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM91" t="n">
         <v>170</v>
@@ -12787,7 +12787,7 @@
         <v>55</v>
       </c>
       <c r="AO91" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
     </row>
     <row r="92">
@@ -12820,13 +12820,13 @@
         <v>2.74</v>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H92" t="n">
         <v>2.6</v>
       </c>
       <c r="I92" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="J92" t="n">
         <v>3.4</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O92" t="n">
         <v>1.31</v>
@@ -12850,7 +12850,7 @@
         <v>1.94</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -676,10 +676,10 @@
         <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
         <v>5.3</v>
@@ -700,10 +700,10 @@
         <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>2.78</v>
@@ -715,7 +715,7 @@
         <v>1.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
         <v>2.84</v>
@@ -730,13 +730,13 @@
         <v>80</v>
       </c>
       <c r="AA2" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB2" t="n">
         <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
         <v>34</v>
@@ -751,7 +751,7 @@
         <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
         <v>110</v>
@@ -802,76 +802,76 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S3" t="n">
         <v>3.55</v>
       </c>
-      <c r="K3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
         <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>18.5</v>
@@ -880,7 +880,7 @@
         <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
         <v>13.5</v>
@@ -904,7 +904,7 @@
         <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AO3" t="n">
         <v>48</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -967,28 +967,28 @@
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S4" t="n">
         <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="X4" t="n">
         <v>27</v>
@@ -1000,34 +1000,34 @@
         <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC4" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="n">
         <v>12</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
@@ -1042,7 +1042,7 @@
         <v>6.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="n">
         <v>3.45</v>
@@ -1489,10 +1489,10 @@
         <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1510,10 +1510,10 @@
         <v>1.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S8" t="n">
         <v>3.5</v>
@@ -1528,7 +1528,7 @@
         <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1639,7 +1639,7 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
         <v>2.54</v>
@@ -1648,7 +1648,7 @@
         <v>1.51</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>2.28</v>
@@ -1750,10 +1750,10 @@
         <v>1.54</v>
       </c>
       <c r="G10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
         <v>7</v>
@@ -1771,22 +1771,22 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>2.98</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>2.98</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1798,7 +1798,7 @@
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1888,16 +1888,16 @@
         <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
         <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>1.34</v>
@@ -1906,28 +1906,28 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="V11" t="n">
         <v>1.42</v>
@@ -1936,58 +1936,58 @@
         <v>1.71</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="n">
         <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
         <v>17</v>
       </c>
-      <c r="AE11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>18</v>
-      </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
@@ -2038,91 +2038,91 @@
         <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>36</v>
       </c>
-      <c r="AA12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>44</v>
-      </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO12" t="n">
         <v>65</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I13" t="n">
         <v>980</v>
@@ -2167,7 +2167,7 @@
         <v>4.8</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2188,10 +2188,10 @@
         <v>1.48</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
         <v>2.94</v>
@@ -2338,7 +2338,7 @@
         <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2431,43 +2431,43 @@
         <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K15" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L15" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="M15" t="n">
         <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O15" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P15" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R15" t="n">
         <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T15" t="n">
         <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V15" t="n">
         <v>1.47</v>
@@ -2497,7 +2497,7 @@
         <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF15" t="n">
         <v>17</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G16" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="H16" t="n">
         <v>1.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,19 +2581,19 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="O16" t="n">
         <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
         <v>2.46</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W16" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="I17" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2728,7 +2728,7 @@
         <v>1.76</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
         <v>2.52</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2860,10 +2860,10 @@
         <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
         <v>1.02</v>
@@ -2998,7 +2998,7 @@
         <v>1.02</v>
       </c>
       <c r="R19" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
         <v>1.02</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G20" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="H20" t="n">
         <v>2.9</v>
@@ -3109,100 +3109,100 @@
         <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
         <v>2.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G21" t="n">
         <v>3.05</v>
@@ -3241,7 +3241,7 @@
         <v>2.48</v>
       </c>
       <c r="I21" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
@@ -3250,94 +3250,94 @@
         <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
         <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G22" t="n">
         <v>3.55</v>
@@ -3382,97 +3382,97 @@
         <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
         <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
@@ -3520,94 +3520,94 @@
         <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.94</v>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G24" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
         <v>2.34</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>2.58</v>
       </c>
       <c r="G25" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="H25" t="n">
         <v>2.8</v>
@@ -3790,94 +3790,94 @@
         <v>3.65</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P25" t="n">
         <v>1.83</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G26" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K26" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="M26" t="n">
         <v>1.18</v>
@@ -3949,31 +3949,31 @@
         <v>7.8</v>
       </c>
       <c r="T26" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="U26" t="n">
         <v>1.61</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X26" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y26" t="n">
         <v>8.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC26" t="n">
         <v>6.8</v>
@@ -3994,25 +3994,25 @@
         <v>32</v>
       </c>
       <c r="AI26" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK26" t="n">
         <v>46</v>
       </c>
-      <c r="AK26" t="n">
-        <v>48</v>
-      </c>
       <c r="AL26" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AM26" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="AN26" t="n">
         <v>65</v>
       </c>
       <c r="AO26" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -4054,100 +4054,100 @@
         <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
         <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P29" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4855,13 +4855,13 @@
         <v>4.4</v>
       </c>
       <c r="G33" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H33" t="n">
         <v>1.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="J33" t="n">
         <v>3.75</v>
@@ -4870,94 +4870,94 @@
         <v>4.2</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q33" t="n">
         <v>1.79</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4987,112 +4987,112 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G34" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H34" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="I34" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J34" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K34" t="n">
         <v>4.8</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P34" t="n">
         <v>2.38</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="G35" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H35" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="K35" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G36" t="n">
         <v>1.78</v>
@@ -5266,103 +5266,103 @@
         <v>4.6</v>
       </c>
       <c r="I36" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="J36" t="n">
         <v>4.2</v>
       </c>
       <c r="K36" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P36" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5530,109 +5530,109 @@
         <v>1.32</v>
       </c>
       <c r="G38" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J38" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K38" t="n">
         <v>6.4</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G39" t="n">
         <v>5</v>
       </c>
       <c r="H39" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I39" t="n">
         <v>1.79</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.8</v>
       </c>
       <c r="J39" t="n">
         <v>4.2</v>
@@ -5680,85 +5680,85 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O39" t="n">
         <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S39" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T39" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U39" t="n">
         <v>2.28</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB39" t="n">
         <v>20</v>
       </c>
-      <c r="Y39" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>21</v>
-      </c>
       <c r="AC39" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD39" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE39" t="n">
         <v>17.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG39" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ39" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK39" t="n">
         <v>55</v>
       </c>
       <c r="AL39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
         <v>80</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G40" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H40" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I40" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
         <v>4.8</v>
@@ -5815,7 +5815,7 @@
         <v>4.9</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -5824,7 +5824,7 @@
         <v>5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P40" t="n">
         <v>2.4</v>
@@ -5833,31 +5833,31 @@
         <v>1.66</v>
       </c>
       <c r="R40" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S40" t="n">
         <v>2.66</v>
       </c>
       <c r="T40" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U40" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="X40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z40" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA40" t="n">
         <v>190</v>
@@ -5866,40 +5866,40 @@
         <v>10.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD40" t="n">
         <v>24</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF40" t="n">
         <v>10.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH40" t="n">
         <v>21</v>
       </c>
       <c r="AI40" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ40" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL40" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM40" t="n">
         <v>95</v>
       </c>
       <c r="AN40" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO40" t="n">
         <v>80</v>
@@ -5944,13 +5944,13 @@
         <v>3.65</v>
       </c>
       <c r="J41" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.4</v>
       </c>
-      <c r="K41" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M41" t="n">
         <v>1.08</v>
@@ -5962,7 +5962,7 @@
         <v>1.35</v>
       </c>
       <c r="P41" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q41" t="n">
         <v>2.06</v>
@@ -5980,19 +5980,19 @@
         <v>2.14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X41" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y41" t="n">
         <v>13</v>
       </c>
       <c r="Z41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA41" t="n">
         <v>70</v>
@@ -6004,13 +6004,13 @@
         <v>7.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG41" t="n">
         <v>11</v>
@@ -6031,13 +6031,13 @@
         <v>40</v>
       </c>
       <c r="AM41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN41" t="n">
         <v>19.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G42" t="n">
         <v>6.4</v>
@@ -6076,25 +6076,25 @@
         <v>1.69</v>
       </c>
       <c r="I42" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J42" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K42" t="n">
         <v>4.5</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
         <v>1.98</v>
@@ -6103,76 +6103,76 @@
         <v>1.89</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6202,112 +6202,112 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -6340,7 +6340,7 @@
         <v>2.7</v>
       </c>
       <c r="G44" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H44" t="n">
         <v>2.92</v>
@@ -6355,94 +6355,94 @@
         <v>3.5</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q44" t="n">
         <v>2.04</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6490,16 +6490,16 @@
         <v>3.4</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
         <v>1.77</v>
@@ -6508,76 +6508,76 @@
         <v>1.92</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G46" t="n">
         <v>1.67</v>
       </c>
-      <c r="G46" t="n">
-        <v>1.68</v>
-      </c>
       <c r="H46" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J46" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K46" t="n">
         <v>4.3</v>
@@ -6649,7 +6649,7 @@
         <v>3.15</v>
       </c>
       <c r="T46" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U46" t="n">
         <v>2.06</v>
@@ -6667,13 +6667,13 @@
         <v>21</v>
       </c>
       <c r="Z46" t="n">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="AA46" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC46" t="n">
         <v>9.199999999999999</v>
@@ -6682,10 +6682,10 @@
         <v>22</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG46" t="n">
         <v>9.6</v>
@@ -6694,25 +6694,25 @@
         <v>20</v>
       </c>
       <c r="AI46" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK46" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL46" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN46" t="n">
         <v>9.4</v>
       </c>
       <c r="AO46" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G47" t="n">
         <v>4.4</v>
@@ -6775,7 +6775,7 @@
         <v>1.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="G49" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="H49" t="n">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="I49" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="J49" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K49" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G50" t="n">
         <v>1.38</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.39</v>
       </c>
       <c r="H50" t="n">
         <v>10.5</v>
@@ -7159,10 +7159,10 @@
         <v>11.5</v>
       </c>
       <c r="J50" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K50" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7171,13 +7171,13 @@
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O50" t="n">
         <v>1.32</v>
       </c>
       <c r="P50" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q50" t="n">
         <v>1.94</v>
@@ -7201,19 +7201,19 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y50" t="n">
         <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC50" t="n">
         <v>12.5</v>
@@ -7222,7 +7222,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AF50" t="n">
         <v>7.4</v>
@@ -7234,16 +7234,16 @@
         <v>36</v>
       </c>
       <c r="AI50" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK50" t="n">
         <v>16.5</v>
       </c>
       <c r="AL50" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AM50" t="n">
         <v>280</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G51" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H51" t="n">
         <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J51" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K51" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7555,16 +7555,16 @@
         <v>3.15</v>
       </c>
       <c r="G53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J53" t="n">
         <v>3.7</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.45</v>
       </c>
       <c r="K53" t="n">
         <v>4.3</v>
@@ -7585,7 +7585,7 @@
         <v>2.36</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="G54" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="H54" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="I54" t="n">
         <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K54" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="G55" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="J55" t="n">
-        <v>3.6</v>
+        <v>2.58</v>
       </c>
       <c r="K55" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>8.4</v>
       </c>
       <c r="J56" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K56" t="n">
         <v>5.6</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G57" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="H57" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J57" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G58" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H58" t="n">
         <v>5.7</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J58" t="n">
         <v>4.5</v>
       </c>
       <c r="K58" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="G60" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="H60" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I60" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J60" t="n">
         <v>4.2</v>
       </c>
       <c r="K60" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8521,28 +8521,28 @@
         <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O60" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P60" t="n">
         <v>2.12</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R60" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S60" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T60" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U60" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8551,28 +8551,28 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z60" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AA60" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AB60" t="n">
         <v>9</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD60" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE60" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF60" t="n">
         <v>10.5</v>
@@ -8581,28 +8581,28 @@
         <v>9.6</v>
       </c>
       <c r="AH60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI60" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ60" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL60" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM60" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN60" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO60" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H61" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I61" t="n">
         <v>2.54</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2.6</v>
       </c>
       <c r="J61" t="n">
         <v>3.3</v>
@@ -8656,7 +8656,7 @@
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O61" t="n">
         <v>1.36</v>
@@ -8665,16 +8665,16 @@
         <v>1.86</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R61" t="n">
         <v>1.33</v>
       </c>
       <c r="S61" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T61" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U61" t="n">
         <v>2.14</v>
@@ -8692,49 +8692,49 @@
         <v>10.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA61" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AB61" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD61" t="n">
         <v>12</v>
       </c>
       <c r="AE61" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF61" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG61" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI61" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ61" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL61" t="n">
         <v>55</v>
       </c>
-      <c r="AK61" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>48</v>
-      </c>
       <c r="AM61" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN61" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AO61" t="n">
         <v>25</v>
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G63" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H63" t="n">
         <v>5.7</v>
@@ -8914,10 +8914,10 @@
         <v>5.8</v>
       </c>
       <c r="J63" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K63" t="n">
         <v>4</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4.1</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -8935,19 +8935,19 @@
         <v>1.98</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R63" t="n">
         <v>1.36</v>
       </c>
       <c r="S63" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T63" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U63" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -8971,7 +8971,7 @@
         <v>8</v>
       </c>
       <c r="AC63" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD63" t="n">
         <v>22</v>
@@ -8980,7 +8980,7 @@
         <v>85</v>
       </c>
       <c r="AF63" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG63" t="n">
         <v>9.6</v>
@@ -8989,10 +8989,10 @@
         <v>22</v>
       </c>
       <c r="AI63" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ63" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK63" t="n">
         <v>18</v>
@@ -9001,13 +9001,13 @@
         <v>36</v>
       </c>
       <c r="AM63" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN63" t="n">
         <v>11.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -9037,19 +9037,19 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H64" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="I64" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="J64" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K64" t="n">
         <v>3.4</v>
@@ -9070,7 +9070,7 @@
         <v>1.94</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R64" t="n">
         <v>1.36</v>
@@ -9097,10 +9097,10 @@
         <v>11</v>
       </c>
       <c r="Z64" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB64" t="n">
         <v>12.5</v>
@@ -9109,40 +9109,40 @@
         <v>7.6</v>
       </c>
       <c r="AD64" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG64" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI64" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ64" t="n">
         <v>55</v>
       </c>
       <c r="AK64" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL64" t="n">
         <v>48</v>
       </c>
       <c r="AM64" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN64" t="n">
         <v>34</v>
       </c>
       <c r="AO64" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="Q67" t="n">
         <v>1.01</v>
@@ -9712,16 +9712,16 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="G69" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="I69" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="J69" t="n">
         <v>4.7</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.96</v>
+        <v>1.25</v>
       </c>
       <c r="Q69" t="n">
         <v>1.01</v>
@@ -9847,19 +9847,19 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G70" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H70" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I70" t="n">
         <v>2.16</v>
       </c>
-      <c r="I70" t="n">
-        <v>2.18</v>
-      </c>
       <c r="J70" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
         <v>3.3</v>
@@ -9883,13 +9883,13 @@
         <v>2.34</v>
       </c>
       <c r="R70" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S70" t="n">
         <v>4.5</v>
       </c>
       <c r="T70" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U70" t="n">
         <v>1.93</v>
@@ -9901,19 +9901,19 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z70" t="n">
         <v>13</v>
       </c>
       <c r="AA70" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB70" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC70" t="n">
         <v>7.4</v>
@@ -9922,37 +9922,37 @@
         <v>11</v>
       </c>
       <c r="AE70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF70" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG70" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH70" t="n">
         <v>22</v>
       </c>
       <c r="AI70" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ70" t="n">
         <v>110</v>
       </c>
       <c r="AK70" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL70" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AM70" t="n">
         <v>170</v>
       </c>
       <c r="AN70" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AO70" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -9988,7 +9988,7 @@
         <v>3.4</v>
       </c>
       <c r="H71" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -10012,10 +10012,10 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -10123,16 +10123,16 @@
         <v>1.17</v>
       </c>
       <c r="H72" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="I72" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J72" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="K72" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G73" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="I73" t="n">
         <v>1.69</v>
       </c>
       <c r="J73" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K73" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G74" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H74" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="I74" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J74" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="K74" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10522,13 +10522,13 @@
         </is>
       </c>
       <c r="F75" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G75" t="n">
         <v>2.14</v>
       </c>
-      <c r="G75" t="n">
-        <v>2.18</v>
-      </c>
       <c r="H75" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I75" t="n">
         <v>4.4</v>
@@ -10582,7 +10582,7 @@
         <v>13</v>
       </c>
       <c r="Z75" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA75" t="n">
         <v>120</v>
@@ -10606,7 +10606,7 @@
         <v>11.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI75" t="n">
         <v>90</v>
@@ -10618,7 +10618,7 @@
         <v>26</v>
       </c>
       <c r="AL75" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM75" t="n">
         <v>170</v>
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.12</v>
+        <v>1.26</v>
       </c>
       <c r="G76" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="H76" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>980</v>
       </c>
       <c r="J76" t="n">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
       <c r="K76" t="n">
-        <v>3.1</v>
+        <v>980</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -10687,10 +10687,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G77" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="H77" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J77" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K77" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10927,19 +10927,19 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="G78" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="H78" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I78" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J78" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K78" t="n">
         <v>4.1</v>
@@ -10951,16 +10951,16 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O78" t="n">
         <v>1.3</v>
       </c>
       <c r="P78" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>6.8</v>
       </c>
       <c r="G79" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H79" t="n">
         <v>1.6</v>
@@ -11095,7 +11095,7 @@
         <v>1.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11230,7 +11230,7 @@
         <v>1.62</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11335,13 +11335,13 @@
         <v>2.72</v>
       </c>
       <c r="G81" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="H81" t="n">
         <v>2.34</v>
       </c>
       <c r="I81" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="J81" t="n">
         <v>3.65</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G82" t="n">
         <v>2.3</v>
@@ -11608,13 +11608,13 @@
         <v>5.3</v>
       </c>
       <c r="H83" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="I83" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="J83" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K83" t="n">
         <v>3.85</v>
@@ -11638,10 +11638,10 @@
         <v>2.06</v>
       </c>
       <c r="R83" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S83" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T83" t="n">
         <v>1.01</v>
@@ -11650,55 +11650,55 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="W83" t="n">
         <v>1.23</v>
       </c>
       <c r="X83" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA83" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB83" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC83" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF83" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG83" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH83" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI83" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ83" t="n">
         <v>1000</v>
       </c>
       <c r="AK83" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL83" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM83" t="n">
         <v>1000</v>
@@ -12046,7 +12046,7 @@
         <v>1.44</v>
       </c>
       <c r="S86" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T86" t="n">
         <v>1.84</v>
@@ -12061,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y86" t="n">
         <v>22</v>
@@ -12076,13 +12076,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD86" t="n">
         <v>23</v>
       </c>
       <c r="AE86" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF86" t="n">
         <v>11</v>
@@ -12091,16 +12091,16 @@
         <v>10</v>
       </c>
       <c r="AH86" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI86" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ86" t="n">
         <v>17</v>
       </c>
       <c r="AK86" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL86" t="n">
         <v>36</v>
@@ -12112,7 +12112,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO86" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
@@ -12148,16 +12148,16 @@
         <v>1.33</v>
       </c>
       <c r="H87" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I87" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J87" t="n">
         <v>5.6</v>
       </c>
       <c r="K87" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12166,28 +12166,28 @@
         <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O87" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P87" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="R87" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S87" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T87" t="n">
         <v>2.6</v>
       </c>
       <c r="U87" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -12217,7 +12217,7 @@
         <v>60</v>
       </c>
       <c r="AE87" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AF87" t="n">
         <v>6.8</v>
@@ -12226,13 +12226,13 @@
         <v>11.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI87" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AJ87" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK87" t="n">
         <v>17</v>
@@ -12244,7 +12244,7 @@
         <v>390</v>
       </c>
       <c r="AN87" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO87" t="n">
         <v>1000</v>
@@ -12277,13 +12277,13 @@
         </is>
       </c>
       <c r="F88" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G88" t="n">
         <v>5.8</v>
       </c>
-      <c r="G88" t="n">
-        <v>6.2</v>
-      </c>
       <c r="H88" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I88" t="n">
         <v>1.61</v>
@@ -12301,7 +12301,7 @@
         <v>1.02</v>
       </c>
       <c r="N88" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O88" t="n">
         <v>1.14</v>
@@ -12310,7 +12310,7 @@
         <v>3.15</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R88" t="n">
         <v>1.88</v>
@@ -12322,7 +12322,7 @@
         <v>1.55</v>
       </c>
       <c r="U88" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -12337,13 +12337,13 @@
         <v>15.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA88" t="n">
         <v>17.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AC88" t="n">
         <v>12.5</v>
@@ -12355,7 +12355,7 @@
         <v>15</v>
       </c>
       <c r="AF88" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AG88" t="n">
         <v>23</v>
@@ -12370,16 +12370,16 @@
         <v>160</v>
       </c>
       <c r="AK88" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL88" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM88" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AN88" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AO88" t="n">
         <v>5.1</v>
@@ -12445,7 +12445,7 @@
         <v>1.99</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12556,10 +12556,10 @@
         <v>1.47</v>
       </c>
       <c r="I90" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J90" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K90" t="n">
         <v>4.8</v>
@@ -12580,7 +12580,7 @@
         <v>1.79</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>3.65</v>
       </c>
       <c r="L91" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M91" t="n">
         <v>1.07</v>
@@ -12721,7 +12721,7 @@
         <v>1.24</v>
       </c>
       <c r="S91" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T91" t="n">
         <v>1.9</v>
@@ -12733,10 +12733,10 @@
         <v>1.6</v>
       </c>
       <c r="W91" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X91" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y91" t="n">
         <v>10.5</v>
@@ -12757,16 +12757,16 @@
         <v>14.5</v>
       </c>
       <c r="AE91" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AF91" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG91" t="n">
         <v>16.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI91" t="n">
         <v>55</v>
@@ -12784,10 +12784,10 @@
         <v>170</v>
       </c>
       <c r="AN91" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO91" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
@@ -12817,19 +12817,19 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G92" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H92" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I92" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="J92" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K92" t="n">
         <v>3.75</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="n">
         <v>1.54</v>
@@ -691,25 +691,25 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
         <v>1.98</v>
@@ -805,34 +805,34 @@
         <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
         <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -844,22 +844,22 @@
         <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>32</v>
@@ -901,13 +901,13 @@
         <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
         <v>970</v>
       </c>
       <c r="AO3" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -976,7 +976,7 @@
         <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
         <v>1.7</v>
@@ -988,7 +988,7 @@
         <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="X4" t="n">
         <v>27</v>
@@ -997,7 +997,7 @@
         <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
         <v>150</v>
@@ -1012,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
         <v>12</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G8" t="n">
         <v>3.45</v>
@@ -1492,7 +1492,7 @@
         <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1528,7 +1528,7 @@
         <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1771,19 +1771,19 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
         <v>1.37</v>
       </c>
       <c r="R10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
         <v>1.88</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
@@ -1933,7 +1933,7 @@
         <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -1969,7 +1969,7 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
@@ -2020,7 +2020,7 @@
         <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
@@ -2029,13 +2029,13 @@
         <v>3.95</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2065,13 +2065,13 @@
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>14.5</v>
@@ -2116,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
         <v>27</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="G14" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="H14" t="n">
         <v>2.88</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J14" t="n">
         <v>2.8</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,16 +2311,16 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="R14" t="n">
         <v>1.18</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2437,7 +2437,7 @@
         <v>2.9</v>
       </c>
       <c r="K15" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L15" t="n">
         <v>1.59</v>
@@ -2452,10 +2452,10 @@
         <v>1.54</v>
       </c>
       <c r="P15" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R15" t="n">
         <v>1.2</v>
@@ -2491,7 +2491,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD15" t="n">
         <v>14</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -2707,7 +2707,7 @@
         <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,7 +2725,7 @@
         <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
         <v>1.36</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G20" t="n">
         <v>2.64</v>
@@ -3112,7 +3112,7 @@
         <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -3127,7 +3127,7 @@
         <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q20" t="n">
         <v>1.72</v>
@@ -3148,7 +3148,7 @@
         <v>1.47</v>
       </c>
       <c r="W20" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="X20" t="n">
         <v>25</v>
@@ -3403,10 +3403,10 @@
         <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S22" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
         <v>2.4</v>
@@ -3511,13 +3511,13 @@
         <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3535,7 +3535,7 @@
         <v>1.89</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R23" t="n">
         <v>1.34</v>
@@ -3544,10 +3544,10 @@
         <v>3.25</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
         <v>1.33</v>
@@ -3556,13 +3556,13 @@
         <v>1.71</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
         <v>75</v>
@@ -3571,40 +3571,40 @@
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
         <v>15.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AK23" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
         <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>55</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
         <v>4.1</v>
@@ -3649,10 +3649,10 @@
         <v>5.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="K24" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3664,7 +3664,7 @@
         <v>2.34</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
         <v>2.34</v>
@@ -3682,19 +3682,19 @@
         <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z24" t="n">
         <v>50</v>
@@ -3703,7 +3703,7 @@
         <v>100</v>
       </c>
       <c r="AB24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
         <v>13.5</v>
@@ -3727,7 +3727,7 @@
         <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK24" t="n">
         <v>25</v>
@@ -3910,7 +3910,7 @@
         <v>2.64</v>
       </c>
       <c r="G26" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H26" t="n">
         <v>3.6</v>
@@ -3919,13 +3919,13 @@
         <v>3.7</v>
       </c>
       <c r="J26" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K26" t="n">
         <v>2.88</v>
       </c>
       <c r="L26" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.18</v>
@@ -3940,13 +3940,13 @@
         <v>1.39</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R26" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="T26" t="n">
         <v>2.54</v>
@@ -3958,7 +3958,7 @@
         <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X26" t="n">
         <v>6.2</v>
@@ -4009,7 +4009,7 @@
         <v>320</v>
       </c>
       <c r="AN26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO26" t="n">
         <v>130</v>
@@ -4045,7 +4045,7 @@
         <v>4.9</v>
       </c>
       <c r="G27" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
         <v>1.74</v>
@@ -4063,10 +4063,10 @@
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>1.84</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.34</v>
@@ -4078,76 +4078,76 @@
         <v>1.97</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V27" t="n">
         <v>2.1</v>
       </c>
       <c r="W27" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X27" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Y27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD27" t="n">
         <v>11</v>
       </c>
-      <c r="Z27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE27" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AG27" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK27" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="28">
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
         <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G29" t="n">
         <v>2.68</v>
@@ -4345,7 +4345,7 @@
         <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.02</v>
+        <v>1.51</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
@@ -4486,7 +4486,7 @@
         <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4606,13 +4606,13 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q31" t="n">
         <v>2.14</v>
@@ -4621,7 +4621,7 @@
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4720,7 +4720,7 @@
         <v>2.56</v>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H32" t="n">
         <v>2.32</v>
@@ -4741,13 +4741,13 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O32" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P32" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q32" t="n">
         <v>1.98</v>
@@ -4876,22 +4876,22 @@
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>2.12</v>
+        <v>4</v>
       </c>
       <c r="O33" t="n">
         <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="R33" t="n">
         <v>1.36</v>
       </c>
       <c r="S33" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T33" t="n">
         <v>1.61</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G34" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="I34" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="J34" t="n">
         <v>4.4</v>
@@ -5011,49 +5011,49 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>2.38</v>
+        <v>1.05</v>
       </c>
       <c r="O34" t="n">
         <v>1.19</v>
       </c>
       <c r="P34" t="n">
-        <v>2.38</v>
+        <v>1.52</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.19</v>
+        <v>1.51</v>
       </c>
       <c r="R34" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="S34" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T34" t="n">
         <v>1.01</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V34" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="W34" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
       </c>
       <c r="Y34" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z34" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z34" t="n">
-        <v>16</v>
-      </c>
       <c r="AA34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB34" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC34" t="n">
         <v>15</v>
@@ -5062,13 +5062,13 @@
         <v>14.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF34" t="n">
         <v>70</v>
       </c>
       <c r="AG34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH34" t="n">
         <v>26</v>
@@ -5086,7 +5086,7 @@
         <v>85</v>
       </c>
       <c r="AM34" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
         <v>1000</v>
@@ -5146,22 +5146,22 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P35" t="n">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="R35" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S35" t="n">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="T35" t="n">
         <v>1.01</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G36" t="n">
         <v>1.78</v>
@@ -5290,13 +5290,13 @@
         <v>2.56</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R36" t="n">
         <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="T36" t="n">
         <v>1.01</v>
@@ -5416,22 +5416,22 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="O37" t="n">
         <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5443,7 +5443,7 @@
         <v>1.23</v>
       </c>
       <c r="W37" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5530,7 +5530,7 @@
         <v>1.32</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H38" t="n">
         <v>10</v>
@@ -5563,7 +5563,7 @@
         <v>1.64</v>
       </c>
       <c r="R38" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S38" t="n">
         <v>2.32</v>
@@ -5578,7 +5578,7 @@
         <v>1.08</v>
       </c>
       <c r="W38" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G39" t="n">
         <v>5</v>
@@ -5698,7 +5698,7 @@
         <v>1.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S39" t="n">
         <v>2.88</v>
@@ -5707,7 +5707,7 @@
         <v>1.74</v>
       </c>
       <c r="U39" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V39" t="n">
         <v>2.26</v>
@@ -5716,7 +5716,7 @@
         <v>1.25</v>
       </c>
       <c r="X39" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="n">
         <v>10.5</v>
@@ -5740,13 +5740,13 @@
         <v>17.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG39" t="n">
         <v>18.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI39" t="n">
         <v>29</v>
@@ -5755,7 +5755,7 @@
         <v>110</v>
       </c>
       <c r="AK39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL39" t="n">
         <v>60</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G40" t="n">
         <v>1.57</v>
@@ -5806,7 +5806,7 @@
         <v>6.4</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J40" t="n">
         <v>4.8</v>
@@ -5821,13 +5821,13 @@
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O40" t="n">
         <v>1.22</v>
       </c>
       <c r="P40" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q40" t="n">
         <v>1.66</v>
@@ -5839,10 +5839,10 @@
         <v>2.66</v>
       </c>
       <c r="T40" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U40" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
         <v>1.17</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G41" t="n">
         <v>2.32</v>
       </c>
-      <c r="G41" t="n">
-        <v>2.36</v>
-      </c>
       <c r="H41" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J41" t="n">
         <v>3.35</v>
@@ -5950,13 +5950,13 @@
         <v>3.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M41" t="n">
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O41" t="n">
         <v>1.35</v>
@@ -5965,7 +5965,7 @@
         <v>1.89</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R41" t="n">
         <v>1.35</v>
@@ -5974,7 +5974,7 @@
         <v>3.7</v>
       </c>
       <c r="T41" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U41" t="n">
         <v>2.14</v>
@@ -5983,13 +5983,13 @@
         <v>1.37</v>
       </c>
       <c r="W41" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X41" t="n">
         <v>12.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z41" t="n">
         <v>24</v>
@@ -6073,16 +6073,16 @@
         <v>6.4</v>
       </c>
       <c r="H42" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I42" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="J42" t="n">
         <v>3.85</v>
       </c>
       <c r="K42" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,7 +6091,7 @@
         <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="O42" t="n">
         <v>1.29</v>
@@ -6106,19 +6106,19 @@
         <v>1.31</v>
       </c>
       <c r="S42" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T42" t="n">
         <v>1.01</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V42" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="W42" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6145,7 +6145,7 @@
         <v>25</v>
       </c>
       <c r="AF42" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG42" t="n">
         <v>30</v>
@@ -6232,7 +6232,7 @@
         <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q43" t="n">
         <v>2.04</v>
@@ -6241,7 +6241,7 @@
         <v>1.21</v>
       </c>
       <c r="S43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
@@ -6346,7 +6346,7 @@
         <v>2.92</v>
       </c>
       <c r="I44" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J44" t="n">
         <v>3.2</v>
@@ -6361,37 +6361,37 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>1.82</v>
+        <v>3.35</v>
       </c>
       <c r="O44" t="n">
         <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R44" t="n">
         <v>1.26</v>
       </c>
       <c r="S44" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T44" t="n">
         <v>1.01</v>
       </c>
       <c r="U44" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W44" t="n">
         <v>1.53</v>
       </c>
       <c r="X44" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y44" t="n">
         <v>15</v>
@@ -6505,13 +6505,13 @@
         <v>1.77</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
         <v>1.26</v>
       </c>
       <c r="S45" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T45" t="n">
         <v>1.01</v>
@@ -6520,7 +6520,7 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6619,13 +6619,13 @@
         <v>6.2</v>
       </c>
       <c r="J46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K46" t="n">
         <v>4.3</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
@@ -6646,7 +6646,7 @@
         <v>1.43</v>
       </c>
       <c r="S46" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T46" t="n">
         <v>1.88</v>
@@ -6655,10 +6655,10 @@
         <v>2.06</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="X46" t="n">
         <v>17</v>
@@ -6694,7 +6694,7 @@
         <v>20</v>
       </c>
       <c r="AI46" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ46" t="n">
         <v>16</v>
@@ -6745,109 +6745,109 @@
         <v>3.85</v>
       </c>
       <c r="G47" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="I47" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="J47" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="K47" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P47" t="n">
         <v>1.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -6895,94 +6895,94 @@
         <v>9</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P48" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q48" t="n">
         <v>1.62</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="G49" t="n">
         <v>980</v>
       </c>
       <c r="H49" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I49" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="J49" t="n">
         <v>4.1</v>
@@ -7030,94 +7030,94 @@
         <v>980</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P49" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7165,7 +7165,7 @@
         <v>5.6</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
@@ -7177,82 +7177,82 @@
         <v>1.32</v>
       </c>
       <c r="P50" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R50" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S50" t="n">
         <v>3.35</v>
       </c>
       <c r="T50" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U50" t="n">
         <v>1.68</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="X50" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AB50" t="n">
         <v>7</v>
       </c>
       <c r="AC50" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD50" t="n">
         <v>42</v>
       </c>
       <c r="AE50" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AF50" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH50" t="n">
         <v>36</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL50" t="n">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="AM50" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AN50" t="n">
         <v>6.8</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51">
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="G51" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="J51" t="n">
         <v>3.2</v>
@@ -7300,94 +7300,94 @@
         <v>3.55</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P51" t="n">
         <v>1.88</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G52" t="n">
         <v>3.25</v>
       </c>
-      <c r="G52" t="n">
-        <v>3.3</v>
-      </c>
       <c r="H52" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I52" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="J52" t="n">
         <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7450,7 +7450,7 @@
         <v>1.56</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>3.15</v>
       </c>
       <c r="G53" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H53" t="n">
         <v>2.16</v>
@@ -7570,16 +7570,16 @@
         <v>4.3</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P53" t="n">
         <v>2.36</v>
@@ -7588,76 +7588,76 @@
         <v>1.62</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
@@ -7687,112 +7687,112 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="G54" t="n">
         <v>2.02</v>
       </c>
       <c r="H54" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="J54" t="n">
         <v>3.6</v>
       </c>
       <c r="K54" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P54" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
@@ -7822,34 +7822,34 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H55" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="I55" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="J55" t="n">
-        <v>2.58</v>
+        <v>3.55</v>
       </c>
       <c r="K55" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P55" t="n">
         <v>2.18</v>
@@ -7858,76 +7858,76 @@
         <v>1.69</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -7957,112 +7957,112 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="G56" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="H56" t="n">
         <v>7.8</v>
       </c>
       <c r="I56" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K56" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P56" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="Q56" t="n">
         <v>1.48</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK56" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL56" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G57" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H57" t="n">
         <v>4</v>
@@ -8104,100 +8104,100 @@
         <v>5.1</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K57" t="n">
         <v>3.55</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P57" t="n">
         <v>1.61</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
@@ -8230,10 +8230,10 @@
         <v>1.52</v>
       </c>
       <c r="G58" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H58" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I58" t="n">
         <v>7.6</v>
@@ -8365,7 +8365,7 @@
         <v>1.74</v>
       </c>
       <c r="G59" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="H59" t="n">
         <v>5.1</v>
@@ -8380,94 +8380,94 @@
         <v>4.1</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P59" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60">
@@ -8497,25 +8497,25 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G60" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H60" t="n">
         <v>5.7</v>
       </c>
       <c r="I60" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J60" t="n">
         <v>4.2</v>
       </c>
       <c r="K60" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M60" t="n">
         <v>1.06</v>
@@ -8530,13 +8530,13 @@
         <v>2.12</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R60" t="n">
         <v>1.43</v>
       </c>
       <c r="S60" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T60" t="n">
         <v>1.89</v>
@@ -8545,64 +8545,64 @@
         <v>2.04</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="X60" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y60" t="n">
         <v>22</v>
       </c>
       <c r="Z60" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AA60" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AB60" t="n">
         <v>9</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD60" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE60" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF60" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG60" t="n">
         <v>9.6</v>
       </c>
       <c r="AH60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI60" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ60" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK60" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL60" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM60" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN60" t="n">
         <v>9</v>
       </c>
       <c r="AO60" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
@@ -8632,25 +8632,25 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G61" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H61" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I61" t="n">
         <v>2.54</v>
       </c>
       <c r="J61" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K61" t="n">
         <v>3.4</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
@@ -8662,7 +8662,7 @@
         <v>1.36</v>
       </c>
       <c r="P61" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q61" t="n">
         <v>2.08</v>
@@ -8671,31 +8671,31 @@
         <v>1.33</v>
       </c>
       <c r="S61" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T61" t="n">
         <v>1.81</v>
       </c>
       <c r="U61" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X61" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y61" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z61" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA61" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB61" t="n">
         <v>12.5</v>
@@ -8704,40 +8704,40 @@
         <v>7.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE61" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AF61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG61" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH61" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI61" t="n">
         <v>42</v>
       </c>
       <c r="AJ61" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK61" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AL61" t="n">
         <v>55</v>
       </c>
       <c r="AM61" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN61" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AO61" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -8767,112 +8767,112 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P62" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63">
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G63" t="n">
         <v>1.75</v>
@@ -8920,7 +8920,7 @@
         <v>4</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M63" t="n">
         <v>1.07</v>
@@ -8929,13 +8929,13 @@
         <v>3.75</v>
       </c>
       <c r="O63" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P63" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R63" t="n">
         <v>1.36</v>
@@ -8950,64 +8950,64 @@
         <v>2.02</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X63" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y63" t="n">
         <v>18.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA63" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AB63" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC63" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE63" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG63" t="n">
         <v>9.6</v>
       </c>
       <c r="AH63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI63" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK63" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>18</v>
       </c>
       <c r="AL63" t="n">
         <v>36</v>
       </c>
       <c r="AM63" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN63" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO63" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
@@ -9040,109 +9040,109 @@
         <v>3.05</v>
       </c>
       <c r="G64" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I64" t="n">
         <v>2.68</v>
       </c>
       <c r="J64" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K64" t="n">
         <v>3.4</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M64" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N64" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="O64" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P64" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q64" t="n">
         <v>2.02</v>
       </c>
       <c r="R64" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S64" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T64" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U64" t="n">
         <v>2.22</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X64" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y64" t="n">
         <v>11</v>
       </c>
       <c r="Z64" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB64" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC64" t="n">
         <v>7.6</v>
       </c>
       <c r="AD64" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE64" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF64" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG64" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH64" t="n">
         <v>17</v>
       </c>
       <c r="AI64" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ64" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK64" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL64" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM64" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN64" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO64" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -9172,112 +9172,112 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P65" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66">
@@ -9307,112 +9307,112 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P66" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67">
@@ -9442,112 +9442,112 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P67" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68">
@@ -9577,112 +9577,112 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P68" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69">
@@ -9715,13 +9715,13 @@
         <v>5.5</v>
       </c>
       <c r="G69" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="H69" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="I69" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="J69" t="n">
         <v>4.7</v>
@@ -9853,10 +9853,10 @@
         <v>4.5</v>
       </c>
       <c r="H70" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I70" t="n">
         <v>2.14</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.16</v>
       </c>
       <c r="J70" t="n">
         <v>3.25</v>
@@ -9904,13 +9904,13 @@
         <v>10.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z70" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB70" t="n">
         <v>13.5</v>
@@ -9922,7 +9922,7 @@
         <v>11</v>
       </c>
       <c r="AE70" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF70" t="n">
         <v>32</v>
@@ -9931,10 +9931,10 @@
         <v>19</v>
       </c>
       <c r="AH70" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI70" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ70" t="n">
         <v>110</v>
@@ -10015,7 +10015,7 @@
         <v>1.95</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>18</v>
       </c>
       <c r="I72" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J72" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K72" t="n">
         <v>11</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q72" t="n">
         <v>1.39</v>
@@ -10252,13 +10252,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="G73" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="I73" t="n">
         <v>1.69</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10393,16 +10393,16 @@
         <v>5.3</v>
       </c>
       <c r="H74" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I74" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J74" t="n">
         <v>3.3</v>
       </c>
       <c r="K74" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G75" t="n">
         <v>2.14</v>
@@ -10531,13 +10531,13 @@
         <v>4.2</v>
       </c>
       <c r="I75" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J75" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K75" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>120</v>
       </c>
       <c r="AB75" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC75" t="n">
         <v>7.4</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.26</v>
+        <v>2.02</v>
       </c>
       <c r="G76" t="n">
         <v>2.48</v>
@@ -10666,13 +10666,13 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>980</v>
+        <v>5.9</v>
       </c>
       <c r="J76" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="K76" t="n">
-        <v>980</v>
+        <v>2.98</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -10690,7 +10690,7 @@
         <v>1.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G77" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H77" t="n">
         <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J77" t="n">
         <v>3.45</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10927,19 +10927,19 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G78" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H78" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I78" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J78" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K78" t="n">
         <v>4.1</v>
@@ -10957,10 +10957,10 @@
         <v>1.3</v>
       </c>
       <c r="P78" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>6.8</v>
       </c>
       <c r="G79" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H79" t="n">
         <v>1.6</v>
@@ -11077,7 +11077,7 @@
         <v>4.2</v>
       </c>
       <c r="K79" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11212,7 +11212,7 @@
         <v>3.2</v>
       </c>
       <c r="K80" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -11335,13 +11335,13 @@
         <v>2.72</v>
       </c>
       <c r="G81" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H81" t="n">
         <v>2.34</v>
       </c>
       <c r="I81" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="J81" t="n">
         <v>3.65</v>
@@ -11476,13 +11476,13 @@
         <v>3.7</v>
       </c>
       <c r="I82" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J82" t="n">
         <v>3.2</v>
       </c>
       <c r="K82" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11611,10 +11611,10 @@
         <v>1.94</v>
       </c>
       <c r="I83" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J83" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K83" t="n">
         <v>3.85</v>
@@ -11626,13 +11626,13 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="O83" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P83" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="Q83" t="n">
         <v>2.06</v>
@@ -11650,7 +11650,7 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W83" t="n">
         <v>1.23</v>
@@ -12007,13 +12007,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G86" t="n">
         <v>1.71</v>
       </c>
       <c r="H86" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I86" t="n">
         <v>5.9</v>
@@ -12037,7 +12037,7 @@
         <v>1.28</v>
       </c>
       <c r="P86" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q86" t="n">
         <v>1.83</v>
@@ -12061,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y86" t="n">
         <v>22</v>
@@ -12076,7 +12076,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC86" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD86" t="n">
         <v>23</v>
@@ -12151,7 +12151,7 @@
         <v>15</v>
       </c>
       <c r="I87" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J87" t="n">
         <v>5.6</v>
@@ -12172,10 +12172,10 @@
         <v>1.31</v>
       </c>
       <c r="P87" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R87" t="n">
         <v>1.39</v>
@@ -12184,7 +12184,7 @@
         <v>3.4</v>
       </c>
       <c r="T87" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="U87" t="n">
         <v>1.59</v>
@@ -12280,10 +12280,10 @@
         <v>5.7</v>
       </c>
       <c r="G88" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H88" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="I88" t="n">
         <v>1.61</v>
@@ -12307,13 +12307,13 @@
         <v>1.14</v>
       </c>
       <c r="P88" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q88" t="n">
         <v>1.44</v>
       </c>
       <c r="R88" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S88" t="n">
         <v>2.08</v>
@@ -12331,19 +12331,19 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y88" t="n">
         <v>15.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA88" t="n">
         <v>17.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC88" t="n">
         <v>12.5</v>
@@ -12370,19 +12370,19 @@
         <v>160</v>
       </c>
       <c r="AK88" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL88" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM88" t="n">
         <v>70</v>
       </c>
       <c r="AN88" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO88" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="89">
@@ -12415,7 +12415,7 @@
         <v>1.9</v>
       </c>
       <c r="G89" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H89" t="n">
         <v>4.3</v>
@@ -12556,13 +12556,13 @@
         <v>1.47</v>
       </c>
       <c r="I90" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J90" t="n">
         <v>4.7</v>
       </c>
       <c r="K90" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12685,7 +12685,7 @@
         <v>2.98</v>
       </c>
       <c r="G91" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H91" t="n">
         <v>2.46</v>
@@ -12694,13 +12694,13 @@
         <v>2.66</v>
       </c>
       <c r="J91" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K91" t="n">
         <v>3.65</v>
       </c>
       <c r="L91" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M91" t="n">
         <v>1.07</v>
@@ -12763,7 +12763,7 @@
         <v>22</v>
       </c>
       <c r="AG91" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH91" t="n">
         <v>22</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="G92" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="H92" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="I92" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J92" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K92" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12841,16 +12841,16 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>3.7</v>
+        <v>1.86</v>
       </c>
       <c r="O92" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P92" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.9</v>
+        <v>1.29</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -691,7 +691,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
@@ -703,16 +703,16 @@
         <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V2" t="n">
         <v>1.14</v>
@@ -814,25 +814,25 @@
         <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
         <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H4" t="n">
         <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J4" t="n">
         <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.28</v>
@@ -961,7 +961,7 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
@@ -970,31 +970,31 @@
         <v>2.52</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.6</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.61</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
         <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="X4" t="n">
         <v>27</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
         <v>55</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
@@ -1042,7 +1042,7 @@
         <v>6.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1897,7 +1897,7 @@
         <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>1.34</v>
@@ -1933,10 +1933,10 @@
         <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
         <v>19</v>
@@ -1957,7 +1957,7 @@
         <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
         <v>19.5</v>
@@ -1969,13 +1969,13 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>32</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
         <v>2.42</v>
@@ -2035,13 +2035,13 @@
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
         <v>1.39</v>
@@ -2050,7 +2050,7 @@
         <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
@@ -2083,13 +2083,13 @@
         <v>85</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
         <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
         <v>60</v>
@@ -2311,22 +2311,22 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P14" t="n">
         <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
         <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2338,7 +2338,7 @@
         <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2440,7 +2440,7 @@
         <v>2.92</v>
       </c>
       <c r="L15" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.14</v>
@@ -2467,7 +2467,7 @@
         <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
         <v>1.47</v>
@@ -2716,16 +2716,16 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="R17" t="n">
         <v>1.36</v>
@@ -3100,7 +3100,7 @@
         <v>2.38</v>
       </c>
       <c r="G20" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
         <v>2.9</v>
@@ -3109,10 +3109,10 @@
         <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -3148,7 +3148,7 @@
         <v>1.47</v>
       </c>
       <c r="W20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X20" t="n">
         <v>25</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G21" t="n">
         <v>3.05</v>
@@ -3256,22 +3256,22 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
         <v>1.62</v>
@@ -3331,7 +3331,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
         <v>26</v>
@@ -3397,7 +3397,7 @@
         <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q22" t="n">
         <v>1.65</v>
@@ -3520,7 +3520,7 @@
         <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3535,7 +3535,7 @@
         <v>1.89</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R23" t="n">
         <v>1.34</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="G24" t="n">
         <v>1000</v>
@@ -3646,13 +3646,13 @@
         <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J24" t="n">
         <v>1.01</v>
       </c>
       <c r="K24" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,13 +3661,13 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="O24" t="n">
         <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
         <v>1.63</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="G25" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="I25" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.43</v>
@@ -3796,7 +3796,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>1.83</v>
       </c>
       <c r="O25" t="n">
         <v>1.35</v>
@@ -3817,13 +3817,13 @@
         <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.48</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.54</v>
       </c>
       <c r="X25" t="n">
         <v>18.5</v>
@@ -3832,7 +3832,7 @@
         <v>15.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
         <v>70</v>
@@ -3844,10 +3844,10 @@
         <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF25" t="n">
         <v>25</v>
@@ -3856,10 +3856,10 @@
         <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
         <v>55</v>
@@ -3916,13 +3916,13 @@
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J26" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="L26" t="n">
         <v>1.75</v>
@@ -3958,7 +3958,7 @@
         <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X26" t="n">
         <v>6.2</v>
@@ -4084,10 +4084,10 @@
         <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="U27" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="V27" t="n">
         <v>2.1</v>
@@ -4180,43 +4180,43 @@
         <v>2.02</v>
       </c>
       <c r="G28" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I28" t="n">
         <v>4.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
         <v>6.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="O28" t="n">
         <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R28" t="n">
         <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,10 +4225,10 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W28" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4315,19 +4315,19 @@
         <v>1.94</v>
       </c>
       <c r="G29" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
         <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4360,10 +4360,10 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W29" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4450,22 +4450,22 @@
         <v>3.85</v>
       </c>
       <c r="G30" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H30" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J30" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="K30" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
@@ -4477,10 +4477,10 @@
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
         <v>1.18</v>
@@ -4495,10 +4495,10 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W30" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4585,37 +4585,37 @@
         <v>4.2</v>
       </c>
       <c r="G31" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I31" t="n">
         <v>2.12</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>6.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R31" t="n">
         <v>1.18</v>
@@ -4720,16 +4720,16 @@
         <v>2.56</v>
       </c>
       <c r="G32" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
         <v>2.32</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="K32" t="n">
         <v>5.6</v>
@@ -4741,22 +4741,22 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="O32" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>1.4</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4765,10 +4765,10 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W32" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4864,7 +4864,7 @@
         <v>1.92</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K33" t="n">
         <v>4.2</v>
@@ -4882,7 +4882,7 @@
         <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q33" t="n">
         <v>1.68</v>
@@ -5020,7 +5020,7 @@
         <v>1.52</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R34" t="n">
         <v>1.52</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="G37" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I37" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,22 +5416,22 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O37" t="n">
         <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5440,10 +5440,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W37" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5551,16 +5551,16 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="O38" t="n">
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="R38" t="n">
         <v>1.43</v>
@@ -5665,13 +5665,13 @@
         <v>4.8</v>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H39" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I39" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J39" t="n">
         <v>4.2</v>
@@ -5680,37 +5680,37 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O39" t="n">
         <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R39" t="n">
         <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="T39" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U39" t="n">
         <v>2.3</v>
       </c>
       <c r="V39" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W39" t="n">
         <v>1.25</v>
@@ -5725,19 +5725,19 @@
         <v>11.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="n">
         <v>20</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="n">
         <v>9.6</v>
       </c>
       <c r="AE39" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF39" t="n">
         <v>38</v>
@@ -5746,7 +5746,7 @@
         <v>18.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI39" t="n">
         <v>29</v>
@@ -5767,7 +5767,7 @@
         <v>50</v>
       </c>
       <c r="AO39" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5800,10 +5800,10 @@
         <v>1.55</v>
       </c>
       <c r="G40" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H40" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I40" t="n">
         <v>6.8</v>
@@ -5836,7 +5836,7 @@
         <v>1.56</v>
       </c>
       <c r="S40" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T40" t="n">
         <v>1.79</v>
@@ -5848,7 +5848,7 @@
         <v>1.17</v>
       </c>
       <c r="W40" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="X40" t="n">
         <v>21</v>
@@ -5869,7 +5869,7 @@
         <v>10.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE40" t="n">
         <v>85</v>
@@ -5896,7 +5896,7 @@
         <v>29</v>
       </c>
       <c r="AM40" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN40" t="n">
         <v>6.6</v>
@@ -5938,10 +5938,10 @@
         <v>2.32</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I41" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J41" t="n">
         <v>3.35</v>
@@ -5950,19 +5950,19 @@
         <v>3.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O41" t="n">
         <v>1.35</v>
       </c>
       <c r="P41" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q41" t="n">
         <v>2.04</v>
@@ -5974,13 +5974,13 @@
         <v>3.7</v>
       </c>
       <c r="T41" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U41" t="n">
         <v>2.14</v>
       </c>
       <c r="V41" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W41" t="n">
         <v>1.75</v>
@@ -6001,13 +6001,13 @@
         <v>9.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD41" t="n">
         <v>14.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF41" t="n">
         <v>14</v>
@@ -6022,7 +6022,7 @@
         <v>55</v>
       </c>
       <c r="AJ41" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK41" t="n">
         <v>25</v>
@@ -6034,7 +6034,7 @@
         <v>110</v>
       </c>
       <c r="AN41" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO41" t="n">
         <v>48</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="H42" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="I42" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="J42" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K42" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6115,10 +6115,10 @@
         <v>1.84</v>
       </c>
       <c r="V42" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="W42" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6136,7 +6136,7 @@
         <v>26</v>
       </c>
       <c r="AC42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD42" t="n">
         <v>13.5</v>
@@ -6145,13 +6145,13 @@
         <v>25</v>
       </c>
       <c r="AF42" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG42" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI42" t="n">
         <v>50</v>
@@ -6346,10 +6346,10 @@
         <v>2.92</v>
       </c>
       <c r="I44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
         <v>3.5</v>
@@ -6385,7 +6385,7 @@
         <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W44" t="n">
         <v>1.53</v>
@@ -6481,7 +6481,7 @@
         <v>2.52</v>
       </c>
       <c r="I45" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J45" t="n">
         <v>3.2</v>
@@ -6613,10 +6613,10 @@
         <v>1.67</v>
       </c>
       <c r="H46" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I46" t="n">
         <v>6</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6.2</v>
       </c>
       <c r="J46" t="n">
         <v>4.2</v>
@@ -6625,7 +6625,7 @@
         <v>4.3</v>
       </c>
       <c r="L46" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
@@ -6637,16 +6637,16 @@
         <v>1.28</v>
       </c>
       <c r="P46" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R46" t="n">
         <v>1.43</v>
       </c>
       <c r="S46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T46" t="n">
         <v>1.88</v>
@@ -6655,7 +6655,7 @@
         <v>2.06</v>
       </c>
       <c r="V46" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W46" t="n">
         <v>2.48</v>
@@ -6706,10 +6706,10 @@
         <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN46" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO46" t="n">
         <v>95</v>
@@ -6745,16 +6745,16 @@
         <v>3.85</v>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="H47" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="I47" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="J47" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
         <v>3.25</v>
@@ -6763,16 +6763,16 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>1.25</v>
+        <v>2.76</v>
       </c>
       <c r="O47" t="n">
         <v>1.46</v>
       </c>
       <c r="P47" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="Q47" t="n">
         <v>2.42</v>
@@ -6790,10 +6790,10 @@
         <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="W47" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="X47" t="n">
         <v>12</v>
@@ -7015,10 +7015,10 @@
         <v>4.6</v>
       </c>
       <c r="G49" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="H49" t="n">
-        <v>1.09</v>
+        <v>1.45</v>
       </c>
       <c r="I49" t="n">
         <v>1.69</v>
@@ -7027,7 +7027,7 @@
         <v>4.1</v>
       </c>
       <c r="K49" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7057,7 +7057,7 @@
         <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="V49" t="n">
         <v>2.44</v>
@@ -7153,7 +7153,7 @@
         <v>1.38</v>
       </c>
       <c r="H50" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I50" t="n">
         <v>11.5</v>
@@ -7165,13 +7165,13 @@
         <v>5.6</v>
       </c>
       <c r="L50" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O50" t="n">
         <v>1.32</v>
@@ -7180,13 +7180,13 @@
         <v>2.02</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R50" t="n">
         <v>1.39</v>
       </c>
       <c r="S50" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T50" t="n">
         <v>2.38</v>
@@ -7198,7 +7198,7 @@
         <v>1.09</v>
       </c>
       <c r="W50" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X50" t="n">
         <v>16.5</v>
@@ -7213,7 +7213,7 @@
         <v>600</v>
       </c>
       <c r="AB50" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC50" t="n">
         <v>12</v>
@@ -7336,7 +7336,7 @@
         <v>1.61</v>
       </c>
       <c r="X51" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y51" t="n">
         <v>13</v>
@@ -7435,94 +7435,94 @@
         <v>3.05</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P52" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53">
@@ -7594,10 +7594,10 @@
         <v>2.52</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V53" t="n">
         <v>1.74</v>
@@ -7606,58 +7606,58 @@
         <v>1.39</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y53" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AA53" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL53" t="n">
         <v>40</v>
       </c>
-      <c r="AB53" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>50</v>
-      </c>
       <c r="AM53" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -7693,16 +7693,16 @@
         <v>2.02</v>
       </c>
       <c r="H54" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
         <v>6.6</v>
       </c>
       <c r="J54" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K54" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G55" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="H55" t="n">
-        <v>1.7</v>
+        <v>2.24</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="J55" t="n">
         <v>3.55</v>
       </c>
       <c r="K55" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7870,10 +7870,10 @@
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W55" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7993,10 +7993,10 @@
         <v>1.48</v>
       </c>
       <c r="R56" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S56" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T56" t="n">
         <v>1.01</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G59" t="n">
         <v>1.78</v>
@@ -8374,7 +8374,7 @@
         <v>6.6</v>
       </c>
       <c r="J59" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K59" t="n">
         <v>4.1</v>
@@ -8401,7 +8401,7 @@
         <v>1.28</v>
       </c>
       <c r="S59" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T59" t="n">
         <v>1.01</v>
@@ -8413,7 +8413,7 @@
         <v>1.18</v>
       </c>
       <c r="W59" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8500,7 +8500,7 @@
         <v>1.66</v>
       </c>
       <c r="G60" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H60" t="n">
         <v>5.7</v>
@@ -8530,7 +8530,7 @@
         <v>2.12</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R60" t="n">
         <v>1.43</v>
@@ -8539,16 +8539,16 @@
         <v>3.1</v>
       </c>
       <c r="T60" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U60" t="n">
         <v>2.04</v>
       </c>
       <c r="V60" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W60" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="X60" t="n">
         <v>18</v>
@@ -8602,7 +8602,7 @@
         <v>9</v>
       </c>
       <c r="AO60" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
@@ -8632,25 +8632,25 @@
         </is>
       </c>
       <c r="F61" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G61" t="n">
         <v>3.25</v>
       </c>
-      <c r="G61" t="n">
-        <v>3.35</v>
-      </c>
       <c r="H61" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I61" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J61" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K61" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L61" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
@@ -8677,40 +8677,40 @@
         <v>1.81</v>
       </c>
       <c r="U61" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V61" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W61" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X61" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z61" t="n">
         <v>16</v>
       </c>
       <c r="AA61" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB61" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD61" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE61" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG61" t="n">
         <v>14</v>
@@ -8728,7 +8728,7 @@
         <v>38</v>
       </c>
       <c r="AL61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM61" t="n">
         <v>100</v>
@@ -8794,7 +8794,7 @@
         <v>1.39</v>
       </c>
       <c r="O62" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P62" t="n">
         <v>1.39</v>
@@ -8806,7 +8806,7 @@
         <v>1.08</v>
       </c>
       <c r="S62" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T62" t="n">
         <v>1.01</v>
@@ -8818,7 +8818,7 @@
         <v>1.3</v>
       </c>
       <c r="W62" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8908,10 +8908,10 @@
         <v>1.75</v>
       </c>
       <c r="H63" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I63" t="n">
         <v>5.7</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.8</v>
       </c>
       <c r="J63" t="n">
         <v>3.95</v>
@@ -8929,13 +8929,13 @@
         <v>3.75</v>
       </c>
       <c r="O63" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P63" t="n">
         <v>1.99</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
         <v>1.36</v>
@@ -8950,7 +8950,7 @@
         <v>2.02</v>
       </c>
       <c r="V63" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W63" t="n">
         <v>2.32</v>
@@ -8980,7 +8980,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG63" t="n">
         <v>9.6</v>
@@ -9067,22 +9067,22 @@
         <v>1.34</v>
       </c>
       <c r="P64" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R64" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S64" t="n">
         <v>3.6</v>
       </c>
       <c r="T64" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U64" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V64" t="n">
         <v>1.59</v>
@@ -9106,7 +9106,7 @@
         <v>12</v>
       </c>
       <c r="AC64" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD64" t="n">
         <v>12</v>
@@ -9178,16 +9178,16 @@
         <v>2.22</v>
       </c>
       <c r="H65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J65" t="n">
         <v>3.1</v>
       </c>
-      <c r="I65" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.4</v>
-      </c>
       <c r="K65" t="n">
-        <v>9.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9205,13 +9205,13 @@
         <v>1.58</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R65" t="n">
         <v>1.08</v>
       </c>
       <c r="S65" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="T65" t="n">
         <v>1.01</v>
@@ -9220,7 +9220,7 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W65" t="n">
         <v>1.81</v>
@@ -9310,19 +9310,19 @@
         <v>1.89</v>
       </c>
       <c r="G66" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="H66" t="n">
         <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J66" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="K66" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
@@ -9331,13 +9331,13 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="O66" t="n">
         <v>1.01</v>
       </c>
       <c r="P66" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="Q66" t="n">
         <v>2.2</v>
@@ -9346,7 +9346,7 @@
         <v>1.08</v>
       </c>
       <c r="S66" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -9355,10 +9355,10 @@
         <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W66" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9448,19 +9448,19 @@
         <v>3.65</v>
       </c>
       <c r="H67" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I67" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="K67" t="n">
         <v>5.6</v>
       </c>
       <c r="L67" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
@@ -9469,19 +9469,19 @@
         <v>1.63</v>
       </c>
       <c r="O67" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P67" t="n">
         <v>1.63</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.38</v>
+        <v>2.38</v>
       </c>
       <c r="R67" t="n">
         <v>1.08</v>
       </c>
       <c r="S67" t="n">
-        <v>1.38</v>
+        <v>2.38</v>
       </c>
       <c r="T67" t="n">
         <v>1.01</v>
@@ -9490,7 +9490,7 @@
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W67" t="n">
         <v>1.37</v>
@@ -9601,22 +9601,22 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="O68" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P68" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R68" t="n">
         <v>1.08</v>
       </c>
       <c r="S68" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9715,13 +9715,13 @@
         <v>5.5</v>
       </c>
       <c r="G69" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="H69" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="I69" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="J69" t="n">
         <v>4.7</v>
@@ -9730,94 +9730,94 @@
         <v>5</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P69" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO69" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70">
@@ -9853,10 +9853,10 @@
         <v>4.5</v>
       </c>
       <c r="H70" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I70" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J70" t="n">
         <v>3.25</v>
@@ -9865,22 +9865,22 @@
         <v>3.3</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M70" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N70" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O70" t="n">
         <v>1.45</v>
       </c>
       <c r="P70" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R70" t="n">
         <v>1.26</v>
@@ -9889,46 +9889,46 @@
         <v>4.5</v>
       </c>
       <c r="T70" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U70" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X70" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y70" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z70" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA70" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AB70" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC70" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD70" t="n">
         <v>11</v>
       </c>
       <c r="AE70" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF70" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG70" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH70" t="n">
         <v>21</v>
@@ -9937,22 +9937,22 @@
         <v>50</v>
       </c>
       <c r="AJ70" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL70" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM70" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN70" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AO70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G71" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H71" t="n">
         <v>2.48</v>
@@ -9994,100 +9994,100 @@
         <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K71" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P71" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK71" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL71" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM71" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN71" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO71" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -10135,16 +10135,16 @@
         <v>11</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P72" t="n">
         <v>3.05</v>
@@ -10153,76 +10153,76 @@
         <v>1.39</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="X72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y72" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB72" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD72" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF72" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG72" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH72" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ72" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK72" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL72" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73">
@@ -10252,13 +10252,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5.3</v>
+        <v>1.09</v>
       </c>
       <c r="G73" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="I73" t="n">
         <v>1.69</v>
@@ -10270,16 +10270,16 @@
         <v>6.8</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P73" t="n">
         <v>2.34</v>
@@ -10288,76 +10288,76 @@
         <v>1.45</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74">
@@ -10387,13 +10387,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="G74" t="n">
         <v>5.3</v>
       </c>
       <c r="H74" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="I74" t="n">
         <v>2.28</v>
@@ -10402,19 +10402,19 @@
         <v>3.3</v>
       </c>
       <c r="K74" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P74" t="n">
         <v>1.86</v>
@@ -10423,76 +10423,76 @@
         <v>1.75</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75">
@@ -10522,16 +10522,16 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G75" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H75" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I75" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J75" t="n">
         <v>3.3</v>
@@ -10540,7 +10540,7 @@
         <v>3.4</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M75" t="n">
         <v>1.1</v>
@@ -10552,7 +10552,7 @@
         <v>1.44</v>
       </c>
       <c r="P75" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q75" t="n">
         <v>2.34</v>
@@ -10570,10 +10570,10 @@
         <v>1.91</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X75" t="n">
         <v>10</v>
@@ -10582,10 +10582,10 @@
         <v>13</v>
       </c>
       <c r="Z75" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA75" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB75" t="n">
         <v>8</v>
@@ -10594,40 +10594,40 @@
         <v>7.4</v>
       </c>
       <c r="AD75" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE75" t="n">
         <v>65</v>
       </c>
       <c r="AF75" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH75" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI75" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ75" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK75" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL75" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM75" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN75" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO75" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
@@ -10657,34 +10657,34 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G76" t="n">
         <v>2.48</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I76" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="J76" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="K76" t="n">
         <v>2.98</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P76" t="n">
         <v>1.25</v>
@@ -10693,76 +10693,76 @@
         <v>2.8</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="77">
@@ -10792,112 +10792,112 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G77" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="H77" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="J77" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K77" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P77" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI77" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK77" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL77" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM77" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN77" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO77" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78">
@@ -10927,13 +10927,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G78" t="n">
         <v>2.04</v>
       </c>
       <c r="H78" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
         <v>4.6</v>
@@ -10945,94 +10945,94 @@
         <v>4.1</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O78" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P78" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y78" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB78" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE78" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF78" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG78" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH78" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI78" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ78" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK78" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL78" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM78" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN78" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
@@ -11062,34 +11062,34 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G79" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="H79" t="n">
         <v>1.6</v>
       </c>
       <c r="I79" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="J79" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K79" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P79" t="n">
         <v>1.25</v>
@@ -11098,76 +11098,76 @@
         <v>2.16</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="80">
@@ -11197,7 +11197,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G80" t="n">
         <v>2.1</v>
@@ -11209,100 +11209,100 @@
         <v>5.2</v>
       </c>
       <c r="J80" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K80" t="n">
         <v>3.65</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P80" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q80" t="n">
         <v>2.28</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X80" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y80" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z80" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD80" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE80" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG80" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ80" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK80" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL80" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="81">
@@ -11335,7 +11335,7 @@
         <v>2.72</v>
       </c>
       <c r="G81" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="H81" t="n">
         <v>2.34</v>
@@ -11350,94 +11350,94 @@
         <v>4.7</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P81" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V81" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82">
@@ -11485,16 +11485,16 @@
         <v>3.7</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P82" t="n">
         <v>1.75</v>
@@ -11503,76 +11503,76 @@
         <v>2.1</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y82" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z82" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB82" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF82" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG82" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI82" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO82" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83">
@@ -11605,19 +11605,19 @@
         <v>4.1</v>
       </c>
       <c r="G83" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="H83" t="n">
         <v>1.94</v>
       </c>
       <c r="I83" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="J83" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="K83" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,13 +11626,13 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O83" t="n">
         <v>1.36</v>
       </c>
       <c r="P83" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q83" t="n">
         <v>2.06</v>
@@ -11650,10 +11650,10 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W83" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X83" t="n">
         <v>16.5</v>
@@ -12013,7 +12013,7 @@
         <v>1.71</v>
       </c>
       <c r="H86" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I86" t="n">
         <v>5.9</v>
@@ -12031,7 +12031,7 @@
         <v>1.06</v>
       </c>
       <c r="N86" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O86" t="n">
         <v>1.28</v>
@@ -12094,7 +12094,7 @@
         <v>24</v>
       </c>
       <c r="AI86" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ86" t="n">
         <v>17</v>
@@ -12112,7 +12112,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO86" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87">
@@ -12208,10 +12208,10 @@
         <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC87" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD87" t="n">
         <v>60</v>
@@ -12232,10 +12232,10 @@
         <v>310</v>
       </c>
       <c r="AJ87" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK87" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL87" t="n">
         <v>60</v>
@@ -12277,13 +12277,13 @@
         </is>
       </c>
       <c r="F88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G88" t="n">
         <v>5.7</v>
       </c>
-      <c r="G88" t="n">
-        <v>6</v>
-      </c>
       <c r="H88" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I88" t="n">
         <v>1.61</v>
@@ -12307,13 +12307,13 @@
         <v>1.14</v>
       </c>
       <c r="P88" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q88" t="n">
         <v>1.44</v>
       </c>
       <c r="R88" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S88" t="n">
         <v>2.08</v>
@@ -12355,7 +12355,7 @@
         <v>15</v>
       </c>
       <c r="AF88" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG88" t="n">
         <v>23</v>
@@ -12379,7 +12379,7 @@
         <v>70</v>
       </c>
       <c r="AN88" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO88" t="n">
         <v>5.3</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G89" t="n">
         <v>2.02</v>
@@ -12427,7 +12427,7 @@
         <v>3.65</v>
       </c>
       <c r="K89" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12556,7 +12556,7 @@
         <v>1.47</v>
       </c>
       <c r="I90" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J90" t="n">
         <v>4.7</v>
@@ -12565,94 +12565,94 @@
         <v>4.9</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P90" t="n">
         <v>1.8</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X90" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y90" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="Z90" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC90" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AG90" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH90" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI90" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ90" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AK90" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AL90" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AM90" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AN90" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AO90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -12694,7 +12694,7 @@
         <v>2.66</v>
       </c>
       <c r="J91" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K91" t="n">
         <v>3.65</v>
@@ -12739,19 +12739,19 @@
         <v>13.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z91" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA91" t="n">
         <v>48</v>
       </c>
       <c r="AB91" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD91" t="n">
         <v>14.5</v>
@@ -12787,7 +12787,7 @@
         <v>60</v>
       </c>
       <c r="AO91" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
     </row>
     <row r="92">
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="G92" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="I92" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="J92" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K92" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12841,16 +12841,16 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>1.86</v>
+        <v>3.75</v>
       </c>
       <c r="O92" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P92" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.29</v>
+        <v>1.79</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,46 +691,46 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
         <v>2.76</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB2" t="n">
         <v>11</v>
@@ -739,10 +739,10 @@
         <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
@@ -766,13 +766,13 @@
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
         <v>7.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H3" t="n">
         <v>3.55</v>
@@ -817,7 +817,7 @@
         <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.42</v>
@@ -832,10 +832,10 @@
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
@@ -844,16 +844,16 @@
         <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -883,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -901,7 +901,7 @@
         <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
         <v>970</v>
@@ -940,19 +940,19 @@
         <v>1.6</v>
       </c>
       <c r="G4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
         <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>1.28</v>
@@ -973,7 +973,7 @@
         <v>1.61</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S4" t="n">
         <v>2.52</v>
@@ -988,7 +988,7 @@
         <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X4" t="n">
         <v>27</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
         <v>6.6</v>
@@ -1933,7 +1933,7 @@
         <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -2020,7 +2020,7 @@
         <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
@@ -2050,7 +2050,7 @@
         <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
@@ -2068,7 +2068,7 @@
         <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -2083,13 +2083,13 @@
         <v>85</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
         <v>60</v>
@@ -2122,7 +2122,7 @@
         <v>27</v>
       </c>
       <c r="AO12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2425,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
@@ -2437,7 +2437,7 @@
         <v>2.9</v>
       </c>
       <c r="K15" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="L15" t="n">
         <v>1.6</v>
@@ -2449,7 +2449,7 @@
         <v>2.78</v>
       </c>
       <c r="O15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P15" t="n">
         <v>1.57</v>
@@ -2473,10 +2473,10 @@
         <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X15" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="n">
         <v>8.800000000000001</v>
@@ -2725,7 +2725,7 @@
         <v>1.91</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
         <v>1.36</v>
@@ -3265,7 +3265,7 @@
         <v>1.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
         <v>1.4</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="H23" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O23" t="n">
         <v>1.3</v>
@@ -3541,7 +3541,7 @@
         <v>1.34</v>
       </c>
       <c r="S23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T23" t="n">
         <v>1.73</v>
@@ -3550,19 +3550,19 @@
         <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="X23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
         <v>75</v>
@@ -3571,16 +3571,16 @@
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE23" t="n">
         <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
         <v>14</v>
@@ -3607,7 +3607,7 @@
         <v>21</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
         <v>4.1</v>
@@ -3649,7 +3649,7 @@
         <v>5.8</v>
       </c>
       <c r="J24" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
         <v>5.5</v>
@@ -3688,7 +3688,7 @@
         <v>1.21</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G26" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H26" t="n">
         <v>3.6</v>
@@ -3919,10 +3919,10 @@
         <v>3.65</v>
       </c>
       <c r="J26" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.88</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.92</v>
       </c>
       <c r="L26" t="n">
         <v>1.75</v>
@@ -3952,22 +3952,22 @@
         <v>2.54</v>
       </c>
       <c r="U26" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
         <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X26" t="n">
         <v>6.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
         <v>85</v>
@@ -3982,7 +3982,7 @@
         <v>18.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF26" t="n">
         <v>14</v>
@@ -3997,10 +3997,10 @@
         <v>130</v>
       </c>
       <c r="AJ26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL26" t="n">
         <v>100</v>
@@ -4009,10 +4009,10 @@
         <v>320</v>
       </c>
       <c r="AN26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO26" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -4084,10 +4084,10 @@
         <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U27" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
         <v>2.1</v>
@@ -4201,7 +4201,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="O28" t="n">
         <v>1.37</v>
@@ -4471,7 +4471,7 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
@@ -4588,7 +4588,7 @@
         <v>7.6</v>
       </c>
       <c r="H31" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I31" t="n">
         <v>2.12</v>
@@ -4609,10 +4609,10 @@
         <v>1.55</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q31" t="n">
         <v>2.16</v>
@@ -4861,7 +4861,7 @@
         <v>1.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="J33" t="n">
         <v>3.8</v>
@@ -4885,7 +4885,7 @@
         <v>2.12</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="R33" t="n">
         <v>1.36</v>
@@ -4900,7 +4900,7 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W33" t="n">
         <v>1.25</v>
@@ -5011,19 +5011,19 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>1.05</v>
+        <v>5.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q34" t="n">
         <v>1.52</v>
       </c>
       <c r="R34" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S34" t="n">
         <v>2.24</v>
@@ -5032,7 +5032,7 @@
         <v>1.01</v>
       </c>
       <c r="U34" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V34" t="n">
         <v>2.56</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G37" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="H37" t="n">
         <v>3.15</v>
       </c>
       <c r="I37" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,13 +5416,13 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="O37" t="n">
         <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q37" t="n">
         <v>2.14</v>
@@ -5440,10 +5440,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="W37" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5551,16 +5551,16 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O38" t="n">
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R38" t="n">
         <v>1.43</v>
@@ -5686,13 +5686,13 @@
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O39" t="n">
         <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q39" t="n">
         <v>1.76</v>
@@ -5764,7 +5764,7 @@
         <v>80</v>
       </c>
       <c r="AN39" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO39" t="n">
         <v>9.199999999999999</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G40" t="n">
         <v>1.56</v>
       </c>
       <c r="H40" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I40" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
         <v>4.8</v>
@@ -5830,25 +5830,25 @@
         <v>2.42</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R40" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
         <v>2.64</v>
       </c>
       <c r="T40" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U40" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V40" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="X40" t="n">
         <v>21</v>
@@ -6073,16 +6073,16 @@
         <v>5.9</v>
       </c>
       <c r="H42" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I42" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="J42" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,16 +6091,16 @@
         <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="O42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P42" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R42" t="n">
         <v>1.31</v>
@@ -6115,13 +6115,13 @@
         <v>1.84</v>
       </c>
       <c r="V42" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="W42" t="n">
         <v>1.2</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="n">
         <v>12</v>
@@ -6133,10 +6133,10 @@
         <v>25</v>
       </c>
       <c r="AB42" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD42" t="n">
         <v>13.5</v>
@@ -6355,7 +6355,7 @@
         <v>3.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
@@ -6520,7 +6520,7 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6763,13 +6763,13 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
         <v>2.76</v>
       </c>
       <c r="O47" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P47" t="n">
         <v>1.59</v>
@@ -6778,7 +6778,7 @@
         <v>2.42</v>
       </c>
       <c r="R47" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G50" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H50" t="n">
         <v>11</v>
@@ -7159,10 +7159,10 @@
         <v>11.5</v>
       </c>
       <c r="J50" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K50" t="n">
         <v>5.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5.6</v>
       </c>
       <c r="L50" t="n">
         <v>1.41</v>
@@ -7183,7 +7183,7 @@
         <v>1.94</v>
       </c>
       <c r="R50" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S50" t="n">
         <v>3.45</v>
@@ -7198,7 +7198,7 @@
         <v>1.09</v>
       </c>
       <c r="W50" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X50" t="n">
         <v>16.5</v>
@@ -7210,7 +7210,7 @@
         <v>110</v>
       </c>
       <c r="AA50" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="AB50" t="n">
         <v>7.2</v>
@@ -7231,10 +7231,10 @@
         <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI50" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ50" t="n">
         <v>10.5</v>
@@ -7285,7 +7285,7 @@
         <v>2.42</v>
       </c>
       <c r="G51" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>3.25</v>
@@ -7309,7 +7309,7 @@
         <v>3.55</v>
       </c>
       <c r="O51" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
         <v>1.88</v>
@@ -7333,10 +7333,10 @@
         <v>1.39</v>
       </c>
       <c r="W51" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X51" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y51" t="n">
         <v>13</v>
@@ -7420,10 +7420,10 @@
         <v>3.15</v>
       </c>
       <c r="G52" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I52" t="n">
         <v>2.86</v>
@@ -7447,16 +7447,16 @@
         <v>1.52</v>
       </c>
       <c r="P52" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R52" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="S52" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7828,13 +7828,13 @@
         <v>3.35</v>
       </c>
       <c r="H55" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I55" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J55" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
         <v>4.6</v>
@@ -7870,7 +7870,7 @@
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W55" t="n">
         <v>1.42</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G56" t="n">
         <v>1.46</v>
@@ -7969,40 +7969,40 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K56" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L56" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M56" t="n">
         <v>1.02</v>
       </c>
       <c r="N56" t="n">
-        <v>2.86</v>
+        <v>1.06</v>
       </c>
       <c r="O56" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P56" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="R56" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="S56" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="T56" t="n">
         <v>1.01</v>
       </c>
       <c r="U56" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V56" t="n">
         <v>1.12</v>
@@ -8011,7 +8011,7 @@
         <v>3.15</v>
       </c>
       <c r="X56" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y56" t="n">
         <v>50</v>
@@ -8032,7 +8032,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF56" t="n">
         <v>15.5</v>
@@ -8044,7 +8044,7 @@
         <v>28</v>
       </c>
       <c r="AI56" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ56" t="n">
         <v>19</v>
@@ -8053,10 +8053,10 @@
         <v>19</v>
       </c>
       <c r="AL56" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM56" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN56" t="n">
         <v>1000</v>
@@ -8236,7 +8236,7 @@
         <v>5.5</v>
       </c>
       <c r="I58" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J58" t="n">
         <v>4.5</v>
@@ -8389,7 +8389,7 @@
         <v>1.75</v>
       </c>
       <c r="O59" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P59" t="n">
         <v>1.75</v>
@@ -8530,13 +8530,13 @@
         <v>2.12</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R60" t="n">
         <v>1.43</v>
       </c>
       <c r="S60" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T60" t="n">
         <v>1.88</v>
@@ -8638,7 +8638,7 @@
         <v>3.25</v>
       </c>
       <c r="H61" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I61" t="n">
         <v>2.58</v>
@@ -8677,13 +8677,13 @@
         <v>1.81</v>
       </c>
       <c r="U61" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V61" t="n">
         <v>1.63</v>
       </c>
       <c r="W61" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X61" t="n">
         <v>12.5</v>
@@ -8794,7 +8794,7 @@
         <v>1.39</v>
       </c>
       <c r="O62" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="P62" t="n">
         <v>1.39</v>
@@ -8908,31 +8908,31 @@
         <v>1.75</v>
       </c>
       <c r="H63" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="I63" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J63" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K63" t="n">
         <v>3.95</v>
       </c>
-      <c r="K63" t="n">
-        <v>4</v>
-      </c>
       <c r="L63" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M63" t="n">
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O63" t="n">
         <v>1.34</v>
       </c>
       <c r="P63" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q63" t="n">
         <v>2</v>
@@ -8944,13 +8944,13 @@
         <v>3.6</v>
       </c>
       <c r="T63" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U63" t="n">
         <v>2.02</v>
       </c>
       <c r="V63" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W63" t="n">
         <v>2.32</v>
@@ -9037,10 +9037,10 @@
         </is>
       </c>
       <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
         <v>3.05</v>
-      </c>
-      <c r="G64" t="n">
-        <v>3.1</v>
       </c>
       <c r="H64" t="n">
         <v>2.64</v>
@@ -9052,13 +9052,13 @@
         <v>3.35</v>
       </c>
       <c r="K64" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L64" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M64" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N64" t="n">
         <v>3.8</v>
@@ -9067,7 +9067,7 @@
         <v>1.34</v>
       </c>
       <c r="P64" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q64" t="n">
         <v>2.04</v>
@@ -9076,7 +9076,7 @@
         <v>1.36</v>
       </c>
       <c r="S64" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T64" t="n">
         <v>1.78</v>
@@ -9088,7 +9088,7 @@
         <v>1.59</v>
       </c>
       <c r="W64" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X64" t="n">
         <v>13.5</v>
@@ -9136,13 +9136,13 @@
         <v>46</v>
       </c>
       <c r="AM64" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN64" t="n">
         <v>32</v>
       </c>
       <c r="AO64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G65" t="n">
         <v>2.22</v>
@@ -9187,7 +9187,7 @@
         <v>3.1</v>
       </c>
       <c r="K65" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9457,10 +9457,10 @@
         <v>2.92</v>
       </c>
       <c r="K67" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L67" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
@@ -9760,7 +9760,7 @@
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="W69" t="n">
         <v>1.13</v>
@@ -9847,10 +9847,10 @@
         </is>
       </c>
       <c r="F70" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G70" t="n">
         <v>4.4</v>
-      </c>
-      <c r="G70" t="n">
-        <v>4.5</v>
       </c>
       <c r="H70" t="n">
         <v>2.14</v>
@@ -9859,19 +9859,19 @@
         <v>2.16</v>
       </c>
       <c r="J70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K70" t="n">
         <v>3.25</v>
       </c>
-      <c r="K70" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L70" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M70" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N70" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O70" t="n">
         <v>1.45</v>
@@ -9880,16 +9880,16 @@
         <v>1.69</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R70" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S70" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T70" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U70" t="n">
         <v>1.92</v>
@@ -9952,7 +9952,7 @@
         <v>85</v>
       </c>
       <c r="AO70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -10522,10 +10522,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G75" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>4.3</v>
@@ -10534,13 +10534,13 @@
         <v>4.5</v>
       </c>
       <c r="J75" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K75" t="n">
         <v>3.4</v>
       </c>
       <c r="L75" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M75" t="n">
         <v>1.1</v>
@@ -10561,19 +10561,19 @@
         <v>1.27</v>
       </c>
       <c r="S75" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T75" t="n">
         <v>2.06</v>
       </c>
       <c r="U75" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V75" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W75" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X75" t="n">
         <v>10</v>
@@ -10657,25 +10657,25 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="G76" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H76" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="K76" t="n">
         <v>2.98</v>
       </c>
       <c r="L76" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M76" t="n">
         <v>1.13</v>
@@ -10693,7 +10693,7 @@
         <v>2.8</v>
       </c>
       <c r="R76" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="S76" t="n">
         <v>5.7</v>
@@ -10708,7 +10708,7 @@
         <v>1.25</v>
       </c>
       <c r="W76" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10792,37 +10792,37 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G77" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H77" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J77" t="n">
         <v>3.55</v>
       </c>
       <c r="K77" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L77" t="n">
         <v>1.4</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O77" t="n">
         <v>1.32</v>
       </c>
       <c r="P77" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q77" t="n">
         <v>1.92</v>
@@ -10840,10 +10840,10 @@
         <v>2.1</v>
       </c>
       <c r="V77" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W77" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X77" t="n">
         <v>15</v>
@@ -10852,7 +10852,7 @@
         <v>14</v>
       </c>
       <c r="Z77" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA77" t="n">
         <v>70</v>
@@ -10864,7 +10864,7 @@
         <v>8.6</v>
       </c>
       <c r="AD77" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE77" t="n">
         <v>46</v>
@@ -10885,7 +10885,7 @@
         <v>30</v>
       </c>
       <c r="AK77" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL77" t="n">
         <v>40</v>
@@ -10894,10 +10894,10 @@
         <v>120</v>
       </c>
       <c r="AN77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO77" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="G79" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H79" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="I79" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J79" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K79" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L79" t="n">
         <v>1.47</v>
@@ -11110,10 +11110,10 @@
         <v>1.01</v>
       </c>
       <c r="V79" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="W79" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X79" t="n">
         <v>1000</v>
@@ -11197,7 +11197,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G80" t="n">
         <v>2.1</v>
@@ -11221,7 +11221,7 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O80" t="n">
         <v>1.01</v>
@@ -11335,13 +11335,13 @@
         <v>2.72</v>
       </c>
       <c r="G81" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H81" t="n">
         <v>2.34</v>
       </c>
       <c r="I81" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="J81" t="n">
         <v>3.65</v>
@@ -11485,7 +11485,7 @@
         <v>3.7</v>
       </c>
       <c r="L82" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M82" t="n">
         <v>1.01</v>
@@ -11506,7 +11506,7 @@
         <v>1.23</v>
       </c>
       <c r="S82" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T82" t="n">
         <v>1.01</v>
@@ -11545,7 +11545,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG82" t="n">
         <v>15.5</v>
@@ -11626,13 +11626,13 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O83" t="n">
         <v>1.36</v>
       </c>
       <c r="P83" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q83" t="n">
         <v>2.06</v>
@@ -11641,7 +11641,7 @@
         <v>1.25</v>
       </c>
       <c r="S83" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T83" t="n">
         <v>1.01</v>
@@ -11650,7 +11650,7 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W83" t="n">
         <v>1.2</v>
@@ -11737,112 +11737,112 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P84" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="85">
@@ -11872,112 +11872,112 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P85" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G86" t="n">
         <v>1.71</v>
@@ -12019,13 +12019,13 @@
         <v>5.9</v>
       </c>
       <c r="J86" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K86" t="n">
         <v>4.4</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M86" t="n">
         <v>1.06</v>
@@ -12055,10 +12055,10 @@
         <v>2.08</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X86" t="n">
         <v>21</v>
@@ -12076,7 +12076,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD86" t="n">
         <v>23</v>
@@ -12088,10 +12088,10 @@
         <v>11</v>
       </c>
       <c r="AG86" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH86" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI86" t="n">
         <v>1000</v>
@@ -12148,25 +12148,25 @@
         <v>1.33</v>
       </c>
       <c r="H87" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I87" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J87" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K87" t="n">
         <v>5.8</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M87" t="n">
         <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O87" t="n">
         <v>1.31</v>
@@ -12184,70 +12184,70 @@
         <v>3.4</v>
       </c>
       <c r="T87" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="U87" t="n">
         <v>1.59</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="X87" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y87" t="n">
         <v>36</v>
       </c>
       <c r="Z87" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA87" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="AB87" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC87" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE87" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AF87" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AG87" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH87" t="n">
         <v>42</v>
       </c>
       <c r="AI87" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AJ87" t="n">
         <v>9</v>
       </c>
       <c r="AK87" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM87" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AN87" t="n">
         <v>6.2</v>
       </c>
       <c r="AO87" t="n">
-        <v>1000</v>
+        <v>630</v>
       </c>
     </row>
     <row r="88">
@@ -12277,16 +12277,16 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="G88" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H88" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="I88" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="J88" t="n">
         <v>4.9</v>
@@ -12295,7 +12295,7 @@
         <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M88" t="n">
         <v>1.02</v>
@@ -12313,7 +12313,7 @@
         <v>1.44</v>
       </c>
       <c r="R88" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="S88" t="n">
         <v>2.08</v>
@@ -12322,13 +12322,13 @@
         <v>1.55</v>
       </c>
       <c r="U88" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X88" t="n">
         <v>34</v>
@@ -12337,49 +12337,49 @@
         <v>15.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB88" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC88" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD88" t="n">
         <v>10.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AG88" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH88" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ88" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AK88" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AL88" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM88" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN88" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AO88" t="n">
         <v>5.3</v>
@@ -12412,10 +12412,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G89" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H89" t="n">
         <v>4.3</v>
@@ -12427,19 +12427,19 @@
         <v>3.65</v>
       </c>
       <c r="K89" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P89" t="n">
         <v>1.99</v>
@@ -12448,76 +12448,76 @@
         <v>1.96</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y89" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA89" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB89" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC89" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD89" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE89" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG89" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI89" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ89" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK89" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL89" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM89" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN89" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO89" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
@@ -12550,13 +12550,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>1.47</v>
       </c>
       <c r="I90" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="J90" t="n">
         <v>4.7</v>
@@ -12565,7 +12565,7 @@
         <v>4.9</v>
       </c>
       <c r="L90" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M90" t="n">
         <v>1.07</v>
@@ -12589,13 +12589,13 @@
         <v>3.85</v>
       </c>
       <c r="T90" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U90" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V90" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="W90" t="n">
         <v>1.12</v>
@@ -12637,10 +12637,10 @@
         <v>50</v>
       </c>
       <c r="AJ90" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AK90" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AL90" t="n">
         <v>180</v>
@@ -12649,7 +12649,7 @@
         <v>270</v>
       </c>
       <c r="AN90" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AO90" t="n">
         <v>10</v>
@@ -12688,7 +12688,7 @@
         <v>3.25</v>
       </c>
       <c r="H91" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I91" t="n">
         <v>2.66</v>
@@ -12697,7 +12697,7 @@
         <v>3.3</v>
       </c>
       <c r="K91" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L91" t="n">
         <v>1.48</v>
@@ -12736,31 +12736,31 @@
         <v>1.44</v>
       </c>
       <c r="X91" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y91" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="n">
         <v>11</v>
       </c>
-      <c r="Z91" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC91" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD91" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE91" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AF91" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG91" t="n">
         <v>14.5</v>
@@ -12778,16 +12778,16 @@
         <v>55</v>
       </c>
       <c r="AL91" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM91" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN91" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO91" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="G92" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H92" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="I92" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="J92" t="n">
         <v>3.4</v>
       </c>
       <c r="K92" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12847,7 +12847,7 @@
         <v>1.31</v>
       </c>
       <c r="P92" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q92" t="n">
         <v>1.79</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -670,16 +670,16 @@
         <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H2" t="n">
         <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
         <v>5.2</v>
@@ -709,7 +709,7 @@
         <v>2.76</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -718,7 +718,7 @@
         <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H3" t="n">
         <v>3.55</v>
@@ -814,16 +814,16 @@
         <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>3.55</v>
@@ -835,7 +835,7 @@
         <v>1.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
@@ -853,10 +853,10 @@
         <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
         <v>14</v>
@@ -904,7 +904,7 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>60</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
         <v>5.5</v>
@@ -949,13 +949,13 @@
         <v>5.9</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -982,16 +982,16 @@
         <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
         <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="X4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>26</v>
@@ -1006,43 +1006,43 @@
         <v>12</v>
       </c>
       <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12</v>
-      </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>16</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
         <v>6.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1495,28 +1495,28 @@
         <v>950</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>1.63</v>
+        <v>2.66</v>
       </c>
       <c r="O8" t="n">
         <v>1.08</v>
       </c>
       <c r="P8" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1636,22 +1636,22 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>2.32</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.54</v>
+        <v>2.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="T9" t="n">
         <v>2.12</v>
@@ -1660,7 +1660,7 @@
         <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
         <v>4.5</v>
@@ -1687,7 +1687,7 @@
         <v>70</v>
       </c>
       <c r="AE9" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AF9" t="n">
         <v>9.800000000000001</v>
@@ -1696,10 +1696,10 @@
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AJ9" t="n">
         <v>11.5</v>
@@ -1717,7 +1717,7 @@
         <v>4.7</v>
       </c>
       <c r="AO9" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G10" t="n">
         <v>1.76</v>
@@ -1756,7 +1756,7 @@
         <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
@@ -1795,7 +1795,7 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
         <v>2.32</v>
@@ -1894,10 +1894,10 @@
         <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.34</v>
@@ -1957,7 +1957,7 @@
         <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="n">
         <v>19.5</v>
@@ -2017,76 +2017,76 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>18</v>
@@ -2098,16 +2098,16 @@
         <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
@@ -2119,7 +2119,7 @@
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
         <v>60</v>
@@ -2311,22 +2311,22 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="O14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P14" t="n">
         <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
         <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>1.48</v>
+        <v>2.18</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2425,13 +2425,13 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.15</v>
       </c>
       <c r="J15" t="n">
         <v>2.9</v>
@@ -2455,7 +2455,7 @@
         <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="R15" t="n">
         <v>1.2</v>
@@ -2467,7 +2467,7 @@
         <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V15" t="n">
         <v>1.47</v>
@@ -2560,7 +2560,7 @@
         <v>4.1</v>
       </c>
       <c r="G16" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
         <v>1.7</v>
@@ -2590,13 +2590,13 @@
         <v>1.95</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
         <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -2701,7 +2701,7 @@
         <v>2.52</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
@@ -2716,7 +2716,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -2725,13 +2725,13 @@
         <v>1.91</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="R17" t="n">
         <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2740,7 +2740,7 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W17" t="n">
         <v>1.5</v>
@@ -3382,7 +3382,7 @@
         <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
         <v>2.54</v>
@@ -3514,37 +3514,37 @@
         <v>3.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R23" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S23" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
         <v>2.1</v>
@@ -3556,10 +3556,10 @@
         <v>1.65</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
         <v>30</v>
@@ -3571,7 +3571,7 @@
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>15.5</v>
@@ -3580,7 +3580,7 @@
         <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG23" t="n">
         <v>14</v>
@@ -3607,7 +3607,7 @@
         <v>21</v>
       </c>
       <c r="AO23" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="J24" t="n">
         <v>3.8</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3685,19 +3685,19 @@
         <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA24" t="n">
         <v>100</v>
@@ -3910,13 +3910,13 @@
         <v>2.66</v>
       </c>
       <c r="G26" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.65</v>
       </c>
       <c r="J26" t="n">
         <v>2.84</v>
@@ -3955,7 +3955,7 @@
         <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
         <v>1.58</v>
@@ -4006,7 +4006,7 @@
         <v>100</v>
       </c>
       <c r="AM26" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AN26" t="n">
         <v>65</v>
@@ -4063,7 +4063,7 @@
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
         <v>3.4</v>
@@ -4336,22 +4336,22 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="O29" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4726,7 +4726,7 @@
         <v>2.32</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
         <v>2.74</v>
@@ -4741,22 +4741,22 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="O32" t="n">
         <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.4</v>
+        <v>1.99</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>1.4</v>
+        <v>1.99</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4765,7 +4765,7 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W32" t="n">
         <v>1.36</v>
@@ -4861,10 +4861,10 @@
         <v>1.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="J33" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
         <v>4.2</v>
@@ -4894,7 +4894,7 @@
         <v>2.66</v>
       </c>
       <c r="T33" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U33" t="n">
         <v>1.01</v>
@@ -4993,7 +4993,7 @@
         <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I34" t="n">
         <v>1.64</v>
@@ -5002,7 +5002,7 @@
         <v>4.4</v>
       </c>
       <c r="K34" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>1.29</v>
@@ -5011,7 +5011,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O34" t="n">
         <v>1.2</v>
@@ -5029,10 +5029,10 @@
         <v>2.24</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U34" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V34" t="n">
         <v>2.56</v>
@@ -5281,7 +5281,7 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.56</v>
+        <v>1.02</v>
       </c>
       <c r="O36" t="n">
         <v>1.16</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="G37" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="H37" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I37" t="n">
         <v>4.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,22 +5416,22 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="O37" t="n">
         <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.14</v>
+        <v>1.39</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5443,7 +5443,7 @@
         <v>1.29</v>
       </c>
       <c r="W37" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5542,7 +5542,7 @@
         <v>5.3</v>
       </c>
       <c r="K38" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5743,7 +5743,7 @@
         <v>38</v>
       </c>
       <c r="AG39" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH39" t="n">
         <v>17.5</v>
@@ -5803,7 +5803,7 @@
         <v>1.56</v>
       </c>
       <c r="H40" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I40" t="n">
         <v>7</v>
@@ -5815,7 +5815,7 @@
         <v>4.9</v>
       </c>
       <c r="L40" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -5839,7 +5839,7 @@
         <v>2.64</v>
       </c>
       <c r="T40" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U40" t="n">
         <v>2.14</v>
@@ -5899,7 +5899,7 @@
         <v>100</v>
       </c>
       <c r="AN40" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO40" t="n">
         <v>80</v>
@@ -5935,13 +5935,13 @@
         <v>2.28</v>
       </c>
       <c r="G41" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I41" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J41" t="n">
         <v>3.35</v>
@@ -5983,7 +5983,7 @@
         <v>1.36</v>
       </c>
       <c r="W41" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X41" t="n">
         <v>12.5</v>
@@ -6031,7 +6031,7 @@
         <v>40</v>
       </c>
       <c r="AM41" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN41" t="n">
         <v>19</v>
@@ -6088,19 +6088,19 @@
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="O42" t="n">
         <v>1.3</v>
       </c>
       <c r="P42" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="R42" t="n">
         <v>1.31</v>
@@ -6355,7 +6355,7 @@
         <v>3.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
@@ -6496,7 +6496,7 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O45" t="n">
         <v>1.36</v>
@@ -6505,7 +6505,7 @@
         <v>1.77</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
         <v>1.26</v>
@@ -6610,7 +6610,7 @@
         <v>1.66</v>
       </c>
       <c r="G46" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H46" t="n">
         <v>5.9</v>
@@ -6640,40 +6640,40 @@
         <v>2.12</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R46" t="n">
         <v>1.43</v>
       </c>
       <c r="S46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T46" t="n">
         <v>1.88</v>
       </c>
       <c r="U46" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V46" t="n">
         <v>1.2</v>
       </c>
       <c r="W46" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X46" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y46" t="n">
         <v>21</v>
       </c>
       <c r="Z46" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA46" t="n">
         <v>160</v>
       </c>
       <c r="AB46" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC46" t="n">
         <v>9.199999999999999</v>
@@ -6682,19 +6682,19 @@
         <v>22</v>
       </c>
       <c r="AE46" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF46" t="n">
         <v>10</v>
       </c>
       <c r="AG46" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI46" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ46" t="n">
         <v>16</v>
@@ -6712,7 +6712,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO46" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -6796,7 +6796,7 @@
         <v>1.29</v>
       </c>
       <c r="X47" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
         <v>1000</v>
@@ -6892,7 +6892,7 @@
         <v>6</v>
       </c>
       <c r="K48" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -6901,13 +6901,13 @@
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
         <v>1.22</v>
       </c>
       <c r="P48" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
         <v>1.62</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.6</v>
+        <v>2.64</v>
       </c>
       <c r="G49" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="H49" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="I49" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="J49" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K49" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7060,10 +7060,10 @@
         <v>1.93</v>
       </c>
       <c r="V49" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="W49" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G50" t="n">
         <v>1.39</v>
@@ -7162,7 +7162,7 @@
         <v>5.4</v>
       </c>
       <c r="K50" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L50" t="n">
         <v>1.41</v>
@@ -7204,7 +7204,7 @@
         <v>16.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z50" t="n">
         <v>110</v>
@@ -7234,7 +7234,7 @@
         <v>34</v>
       </c>
       <c r="AI50" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ50" t="n">
         <v>10.5</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="I51" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J51" t="n">
         <v>3.2</v>
       </c>
       <c r="K51" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L51" t="n">
         <v>1.42</v>
@@ -7309,31 +7309,31 @@
         <v>3.55</v>
       </c>
       <c r="O51" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P51" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="R51" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T51" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U51" t="n">
         <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="W51" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X51" t="n">
         <v>12</v>
@@ -7348,7 +7348,7 @@
         <v>60</v>
       </c>
       <c r="AB51" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC51" t="n">
         <v>7.8</v>
@@ -7357,13 +7357,13 @@
         <v>14.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF51" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH51" t="n">
         <v>17</v>
@@ -7372,22 +7372,22 @@
         <v>50</v>
       </c>
       <c r="AJ51" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK51" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL51" t="n">
         <v>42</v>
       </c>
       <c r="AM51" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO51" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -7420,19 +7420,19 @@
         <v>3.15</v>
       </c>
       <c r="G52" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H52" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I52" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J52" t="n">
         <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L52" t="n">
         <v>1.56</v>
@@ -7447,13 +7447,13 @@
         <v>1.52</v>
       </c>
       <c r="P52" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R52" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="S52" t="n">
         <v>4.5</v>
@@ -7465,10 +7465,10 @@
         <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W52" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X52" t="n">
         <v>9.199999999999999</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G53" t="n">
         <v>3.55</v>
@@ -7567,7 +7567,7 @@
         <v>3.7</v>
       </c>
       <c r="K53" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7585,7 +7585,7 @@
         <v>2.36</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R53" t="n">
         <v>1.55</v>
@@ -7597,7 +7597,7 @@
         <v>1.57</v>
       </c>
       <c r="U53" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V53" t="n">
         <v>1.74</v>
@@ -7606,7 +7606,7 @@
         <v>1.39</v>
       </c>
       <c r="X53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y53" t="n">
         <v>14.5</v>
@@ -7639,7 +7639,7 @@
         <v>15.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ53" t="n">
         <v>55</v>
@@ -7690,7 +7690,7 @@
         <v>1.76</v>
       </c>
       <c r="G54" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H54" t="n">
         <v>4.2</v>
@@ -7738,7 +7738,7 @@
         <v>1.18</v>
       </c>
       <c r="W54" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7861,7 +7861,7 @@
         <v>1.25</v>
       </c>
       <c r="S55" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="T55" t="n">
         <v>1.01</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G56" t="n">
         <v>1.46</v>
@@ -7969,10 +7969,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K56" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L56" t="n">
         <v>1.21</v>
@@ -7987,16 +7987,16 @@
         <v>1.12</v>
       </c>
       <c r="P56" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.41</v>
+        <v>1.12</v>
       </c>
       <c r="R56" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="S56" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="T56" t="n">
         <v>1.01</v>
@@ -8038,7 +8038,7 @@
         <v>15.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH56" t="n">
         <v>28</v>
@@ -8116,13 +8116,13 @@
         <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O57" t="n">
         <v>1.01</v>
       </c>
       <c r="P57" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q57" t="n">
         <v>2.18</v>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G58" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H58" t="n">
         <v>5.5</v>
@@ -8242,7 +8242,7 @@
         <v>4.5</v>
       </c>
       <c r="K58" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G59" t="n">
         <v>1.78</v>
@@ -8377,7 +8377,7 @@
         <v>3.7</v>
       </c>
       <c r="K59" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
@@ -8386,7 +8386,7 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O59" t="n">
         <v>1.31</v>
@@ -8395,7 +8395,7 @@
         <v>1.75</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R59" t="n">
         <v>1.28</v>
@@ -8500,10 +8500,10 @@
         <v>1.66</v>
       </c>
       <c r="G60" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H60" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
         <v>6.2</v>
@@ -8539,16 +8539,16 @@
         <v>3.15</v>
       </c>
       <c r="T60" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U60" t="n">
         <v>2.04</v>
       </c>
       <c r="V60" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W60" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X60" t="n">
         <v>18</v>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G61" t="n">
         <v>3.25</v>
       </c>
       <c r="H61" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I61" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J61" t="n">
         <v>3.4</v>
@@ -8659,10 +8659,10 @@
         <v>3.55</v>
       </c>
       <c r="O61" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P61" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q61" t="n">
         <v>2.08</v>
@@ -8680,7 +8680,7 @@
         <v>2.12</v>
       </c>
       <c r="V61" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W61" t="n">
         <v>1.45</v>
@@ -8767,10 +8767,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G62" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H62" t="n">
         <v>2.88</v>
@@ -8779,10 +8779,10 @@
         <v>4.4</v>
       </c>
       <c r="J62" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K62" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8794,19 +8794,19 @@
         <v>1.39</v>
       </c>
       <c r="O62" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P62" t="n">
         <v>1.39</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R62" t="n">
         <v>1.08</v>
       </c>
       <c r="S62" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T62" t="n">
         <v>1.01</v>
@@ -8815,7 +8815,7 @@
         <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W62" t="n">
         <v>1.51</v>
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G63" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H63" t="n">
         <v>5.8</v>
@@ -8914,10 +8914,10 @@
         <v>5.9</v>
       </c>
       <c r="J63" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K63" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L63" t="n">
         <v>1.42</v>
@@ -8944,25 +8944,25 @@
         <v>3.6</v>
       </c>
       <c r="T63" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U63" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
         <v>1.2</v>
       </c>
       <c r="W63" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="X63" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y63" t="n">
         <v>18.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA63" t="n">
         <v>160</v>
@@ -8974,7 +8974,7 @@
         <v>8.6</v>
       </c>
       <c r="AD63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE63" t="n">
         <v>80</v>
@@ -8989,7 +8989,7 @@
         <v>21</v>
       </c>
       <c r="AI63" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ63" t="n">
         <v>17</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G65" t="n">
         <v>2.22</v>
       </c>
       <c r="H65" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I65" t="n">
         <v>6.4</v>
       </c>
       <c r="J65" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K65" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,22 +9196,22 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O65" t="n">
         <v>1.01</v>
       </c>
       <c r="P65" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
         <v>1.08</v>
       </c>
       <c r="S65" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="T65" t="n">
         <v>1.01</v>
@@ -9307,22 +9307,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="G66" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H66" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I66" t="n">
         <v>6</v>
       </c>
       <c r="J66" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K66" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
@@ -9331,13 +9331,13 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="O66" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="P66" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="Q66" t="n">
         <v>2.2</v>
@@ -9346,7 +9346,7 @@
         <v>1.08</v>
       </c>
       <c r="S66" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -9358,7 +9358,7 @@
         <v>1.2</v>
       </c>
       <c r="W66" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9451,13 +9451,13 @@
         <v>2.28</v>
       </c>
       <c r="I67" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K67" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L67" t="n">
         <v>1.37</v>
@@ -9466,13 +9466,13 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O67" t="n">
         <v>1.36</v>
       </c>
       <c r="P67" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q67" t="n">
         <v>2.38</v>
@@ -9490,7 +9490,7 @@
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W67" t="n">
         <v>1.37</v>
@@ -9583,16 +9583,16 @@
         <v>7.6</v>
       </c>
       <c r="H68" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I68" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J68" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K68" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -9601,22 +9601,22 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="O68" t="n">
         <v>1.37</v>
       </c>
       <c r="P68" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="R68" t="n">
         <v>1.08</v>
       </c>
       <c r="S68" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9625,7 +9625,7 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W68" t="n">
         <v>1.15</v>
@@ -9718,16 +9718,16 @@
         <v>8.4</v>
       </c>
       <c r="H69" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I69" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J69" t="n">
         <v>4.7</v>
       </c>
       <c r="K69" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L69" t="n">
         <v>1.39</v>
@@ -9745,13 +9745,13 @@
         <v>1.29</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R69" t="n">
         <v>1.29</v>
       </c>
       <c r="S69" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T69" t="n">
         <v>1.01</v>
@@ -9760,7 +9760,7 @@
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="W69" t="n">
         <v>1.13</v>
@@ -9874,7 +9874,7 @@
         <v>3.15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P70" t="n">
         <v>1.69</v>
@@ -9883,7 +9883,7 @@
         <v>2.38</v>
       </c>
       <c r="R70" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S70" t="n">
         <v>4.6</v>
@@ -9892,7 +9892,7 @@
         <v>1.99</v>
       </c>
       <c r="U70" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V70" t="n">
         <v>1.86</v>
@@ -10252,16 +10252,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.09</v>
+        <v>5.7</v>
       </c>
       <c r="G73" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="I73" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="J73" t="n">
         <v>4.3</v>
@@ -10276,7 +10276,7 @@
         <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O73" t="n">
         <v>1.13</v>
@@ -10285,7 +10285,7 @@
         <v>2.34</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R73" t="n">
         <v>1.5</v>
@@ -10300,7 +10300,7 @@
         <v>1.01</v>
       </c>
       <c r="V73" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="W73" t="n">
         <v>1.12</v>
@@ -10387,19 +10387,19 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="G74" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H74" t="n">
         <v>1.69</v>
       </c>
       <c r="I74" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="J74" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K74" t="n">
         <v>5.3</v>
@@ -10423,7 +10423,7 @@
         <v>1.75</v>
       </c>
       <c r="R74" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S74" t="n">
         <v>2.82</v>
@@ -10435,10 +10435,10 @@
         <v>1.01</v>
       </c>
       <c r="V74" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="W74" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10522,22 +10522,22 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H75" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I75" t="n">
         <v>4.3</v>
       </c>
-      <c r="I75" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K75" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K75" t="n">
-        <v>3.4</v>
       </c>
       <c r="L75" t="n">
         <v>1.51</v>
@@ -10552,37 +10552,37 @@
         <v>1.44</v>
       </c>
       <c r="P75" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R75" t="n">
         <v>1.27</v>
       </c>
       <c r="S75" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T75" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U75" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V75" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W75" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="X75" t="n">
         <v>10</v>
       </c>
       <c r="Y75" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA75" t="n">
         <v>100</v>
@@ -10597,25 +10597,25 @@
         <v>17.5</v>
       </c>
       <c r="AE75" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF75" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG75" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>11</v>
       </c>
       <c r="AH75" t="n">
         <v>21</v>
       </c>
       <c r="AI75" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ75" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK75" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL75" t="n">
         <v>50</v>
@@ -10624,7 +10624,7 @@
         <v>160</v>
       </c>
       <c r="AN75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO75" t="n">
         <v>80</v>
@@ -10657,19 +10657,19 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G76" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J76" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="K76" t="n">
         <v>2.98</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G77" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H77" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J77" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K77" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L77" t="n">
         <v>1.4</v>
@@ -10816,16 +10816,16 @@
         <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O77" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P77" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R77" t="n">
         <v>1.33</v>
@@ -10843,13 +10843,13 @@
         <v>1.38</v>
       </c>
       <c r="W77" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X77" t="n">
         <v>15</v>
       </c>
       <c r="Y77" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z77" t="n">
         <v>26</v>
@@ -10861,13 +10861,13 @@
         <v>10</v>
       </c>
       <c r="AC77" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD77" t="n">
         <v>15</v>
       </c>
       <c r="AE77" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF77" t="n">
         <v>15</v>
@@ -10882,7 +10882,7 @@
         <v>55</v>
       </c>
       <c r="AJ77" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AK77" t="n">
         <v>26</v>
@@ -10942,7 +10942,7 @@
         <v>3.65</v>
       </c>
       <c r="K78" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L78" t="n">
         <v>1.01</v>
@@ -11062,13 +11062,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="G79" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H79" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="I79" t="n">
         <v>1.65</v>
@@ -11077,7 +11077,7 @@
         <v>4.2</v>
       </c>
       <c r="K79" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L79" t="n">
         <v>1.47</v>
@@ -11086,7 +11086,7 @@
         <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="O79" t="n">
         <v>1.38</v>
@@ -11095,10 +11095,10 @@
         <v>1.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R79" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="S79" t="n">
         <v>3.45</v>
@@ -11113,7 +11113,7 @@
         <v>2.52</v>
       </c>
       <c r="W79" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X79" t="n">
         <v>1000</v>
@@ -11221,7 +11221,7 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="O80" t="n">
         <v>1.01</v>
@@ -11365,7 +11365,7 @@
         <v>2.28</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R81" t="n">
         <v>1.19</v>
@@ -11380,10 +11380,10 @@
         <v>1.01</v>
       </c>
       <c r="V81" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="W81" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="X81" t="n">
         <v>1000</v>
@@ -11506,7 +11506,7 @@
         <v>1.23</v>
       </c>
       <c r="S82" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T82" t="n">
         <v>1.01</v>
@@ -11605,7 +11605,7 @@
         <v>4.1</v>
       </c>
       <c r="G83" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="H83" t="n">
         <v>1.94</v>
@@ -11614,7 +11614,7 @@
         <v>2.32</v>
       </c>
       <c r="J83" t="n">
-        <v>2.48</v>
+        <v>1.09</v>
       </c>
       <c r="K83" t="n">
         <v>4.2</v>
@@ -11623,7 +11623,7 @@
         <v>1.01</v>
       </c>
       <c r="M83" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N83" t="n">
         <v>1.65</v>
@@ -11653,7 +11653,7 @@
         <v>1.75</v>
       </c>
       <c r="W83" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="X83" t="n">
         <v>16.5</v>
@@ -11737,13 +11737,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="G84" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H84" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I84" t="n">
         <v>3.9</v>
@@ -11752,7 +11752,7 @@
         <v>2.72</v>
       </c>
       <c r="K84" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
@@ -11776,7 +11776,7 @@
         <v>1.08</v>
       </c>
       <c r="S84" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T84" t="n">
         <v>1.01</v>
@@ -11788,7 +11788,7 @@
         <v>1.34</v>
       </c>
       <c r="W84" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X84" t="n">
         <v>1000</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G86" t="n">
         <v>1.71</v>
@@ -12016,7 +12016,7 @@
         <v>5.5</v>
       </c>
       <c r="I86" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
         <v>4.2</v>
@@ -12046,7 +12046,7 @@
         <v>1.44</v>
       </c>
       <c r="S86" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T86" t="n">
         <v>1.84</v>
@@ -12088,19 +12088,19 @@
         <v>11</v>
       </c>
       <c r="AG86" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH86" t="n">
         <v>21</v>
       </c>
       <c r="AI86" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ86" t="n">
         <v>17</v>
       </c>
       <c r="AK86" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL86" t="n">
         <v>36</v>
@@ -12112,7 +12112,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO86" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
@@ -12148,10 +12148,10 @@
         <v>1.33</v>
       </c>
       <c r="H87" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I87" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J87" t="n">
         <v>5.7</v>
@@ -12160,13 +12160,13 @@
         <v>5.8</v>
       </c>
       <c r="L87" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M87" t="n">
         <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O87" t="n">
         <v>1.31</v>
@@ -12175,25 +12175,25 @@
         <v>2.06</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R87" t="n">
         <v>1.39</v>
       </c>
       <c r="S87" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T87" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="U87" t="n">
         <v>1.59</v>
       </c>
       <c r="V87" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W87" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X87" t="n">
         <v>15.5</v>
@@ -12205,10 +12205,10 @@
         <v>150</v>
       </c>
       <c r="AA87" t="n">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="AB87" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC87" t="n">
         <v>13</v>
@@ -12217,7 +12217,7 @@
         <v>55</v>
       </c>
       <c r="AE87" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AF87" t="n">
         <v>6.6</v>
@@ -12241,13 +12241,13 @@
         <v>55</v>
       </c>
       <c r="AM87" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AN87" t="n">
         <v>6.2</v>
       </c>
       <c r="AO87" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
     </row>
     <row r="88">
@@ -12295,28 +12295,28 @@
         <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M88" t="n">
         <v>1.02</v>
       </c>
       <c r="N88" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O88" t="n">
         <v>1.14</v>
       </c>
       <c r="P88" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q88" t="n">
         <v>1.44</v>
       </c>
       <c r="R88" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S88" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T88" t="n">
         <v>1.55</v>
@@ -12340,7 +12340,7 @@
         <v>13.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB88" t="n">
         <v>32</v>
@@ -12376,7 +12376,7 @@
         <v>46</v>
       </c>
       <c r="AM88" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN88" t="n">
         <v>38</v>
@@ -12412,49 +12412,49 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G89" t="n">
         <v>2.04</v>
       </c>
       <c r="H89" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I89" t="n">
         <v>4.7</v>
       </c>
       <c r="J89" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K89" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L89" t="n">
         <v>1.38</v>
       </c>
       <c r="M89" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="O89" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P89" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="Q89" t="n">
         <v>1.96</v>
       </c>
       <c r="R89" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S89" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T89" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="U89" t="n">
         <v>1.97</v>
@@ -12463,7 +12463,7 @@
         <v>1.27</v>
       </c>
       <c r="W89" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="X89" t="n">
         <v>16</v>
@@ -12487,7 +12487,7 @@
         <v>18</v>
       </c>
       <c r="AE89" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF89" t="n">
         <v>12.5</v>
@@ -12496,10 +12496,10 @@
         <v>10.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ89" t="n">
         <v>23</v>
@@ -12514,10 +12514,10 @@
         <v>110</v>
       </c>
       <c r="AN89" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO89" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90">
@@ -12556,7 +12556,7 @@
         <v>1.47</v>
       </c>
       <c r="I90" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="J90" t="n">
         <v>4.7</v>
@@ -12580,10 +12580,10 @@
         <v>1.8</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R90" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S90" t="n">
         <v>3.85</v>
@@ -12739,7 +12739,7 @@
         <v>12</v>
       </c>
       <c r="Y91" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z91" t="n">
         <v>17</v>
@@ -12832,13 +12832,13 @@
         <v>3.4</v>
       </c>
       <c r="K92" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N92" t="n">
         <v>3.75</v>
@@ -12850,79 +12850,79 @@
         <v>1.95</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL92" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
@@ -12955,16 +12955,16 @@
         <v>1.04</v>
       </c>
       <c r="G93" t="n">
-        <v>250</v>
+        <v>970</v>
       </c>
       <c r="H93" t="n">
         <v>1.04</v>
       </c>
       <c r="I93" t="n">
-        <v>250</v>
+        <v>970</v>
       </c>
       <c r="J93" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K93" t="n">
         <v>950</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="n">
         <v>1.54</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -688,7 +688,7 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>4.5</v>
@@ -700,31 +700,31 @@
         <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
         <v>65</v>
@@ -733,10 +733,10 @@
         <v>250</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
         <v>32</v>
@@ -745,22 +745,22 @@
         <v>120</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>42</v>
@@ -769,7 +769,7 @@
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
         <v>140</v>
@@ -805,7 +805,7 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H3" t="n">
         <v>3.55</v>
@@ -826,19 +826,19 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
         <v>3.55</v>
@@ -853,7 +853,7 @@
         <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -868,10 +868,10 @@
         <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>18.5</v>
@@ -880,10 +880,10 @@
         <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -970,7 +970,7 @@
         <v>2.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R4" t="n">
         <v>1.61</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
@@ -1501,19 +1501,19 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.66</v>
+        <v>1.54</v>
       </c>
       <c r="O8" t="n">
         <v>1.08</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S8" t="n">
         <v>3.6</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.4</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.41</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1648,10 +1648,10 @@
         <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
         <v>2.12</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="G10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,22 +1771,22 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R10" t="n">
         <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1798,7 +1798,7 @@
         <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
@@ -1897,7 +1897,7 @@
         <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
         <v>1.34</v>
@@ -1912,19 +1912,19 @@
         <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T11" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
         <v>2.46</v>
@@ -1939,7 +1939,7 @@
         <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z11" t="n">
         <v>30</v>
@@ -1948,7 +1948,7 @@
         <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
         <v>10</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
         <v>3.3</v>
@@ -2044,34 +2044,34 @@
         <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
         <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
@@ -2089,25 +2089,25 @@
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
         <v>60</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
@@ -2119,10 +2119,10 @@
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="G13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H13" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
         <v>980</v>
@@ -2182,10 +2182,10 @@
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R13" t="n">
         <v>1.47</v>
@@ -2203,7 +2203,7 @@
         <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="X13" t="n">
         <v>34</v>
@@ -2293,16 +2293,16 @@
         <v>3.05</v>
       </c>
       <c r="H14" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,16 +2311,16 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="O14" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R14" t="n">
         <v>1.18</v>
@@ -2467,7 +2467,7 @@
         <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
         <v>1.47</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="I16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,19 +2581,19 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="Q16" t="n">
         <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
         <v>2.6</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W16" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I17" t="n">
         <v>3.55</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>980</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,22 +2716,22 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
         <v>1.91</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H20" t="n">
         <v>2.9</v>
@@ -3130,7 +3130,7 @@
         <v>2.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
         <v>1.49</v>
@@ -3139,16 +3139,16 @@
         <v>2.74</v>
       </c>
       <c r="T20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V20" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X20" t="n">
         <v>25</v>
@@ -3202,7 +3202,7 @@
         <v>19.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G21" t="n">
         <v>3.05</v>
@@ -3241,13 +3241,13 @@
         <v>2.48</v>
       </c>
       <c r="I21" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
@@ -3265,13 +3265,13 @@
         <v>1.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T21" t="n">
         <v>1.62</v>
@@ -3280,7 +3280,7 @@
         <v>2.4</v>
       </c>
       <c r="V21" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W21" t="n">
         <v>1.48</v>
@@ -3295,7 +3295,7 @@
         <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB21" t="n">
         <v>17.5</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
         <v>3.55</v>
@@ -3376,13 +3376,13 @@
         <v>2.22</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J22" t="n">
         <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -3403,10 +3403,10 @@
         <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,16 +3415,16 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W22" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z22" t="n">
         <v>22</v>
@@ -3460,7 +3460,7 @@
         <v>80</v>
       </c>
       <c r="AK22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL22" t="n">
         <v>55</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
         <v>2.54</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
         <v>3.7</v>
@@ -3517,13 +3517,13 @@
         <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
         <v>3.4</v>
@@ -3535,7 +3535,7 @@
         <v>1.84</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>1.31</v>
@@ -3544,7 +3544,7 @@
         <v>3.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
         <v>2.1</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,7 +3661,7 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.19</v>
@@ -3673,76 +3673,76 @@
         <v>1.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="S24" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA24" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH24" t="n">
         <v>17</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -3775,13 +3775,13 @@
         <v>2.68</v>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="H25" t="n">
         <v>2.74</v>
       </c>
       <c r="I25" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
@@ -3793,16 +3793,16 @@
         <v>1.43</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q25" t="n">
         <v>2.02</v>
@@ -3814,70 +3814,70 @@
         <v>3.65</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W25" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X25" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF25" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH25" t="n">
         <v>18</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AI25" t="n">
         <v>46</v>
       </c>
-      <c r="AF25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3910,7 @@
         <v>2.66</v>
       </c>
       <c r="G26" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H26" t="n">
         <v>3.5</v>
@@ -4006,7 +4006,7 @@
         <v>100</v>
       </c>
       <c r="AM26" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AN26" t="n">
         <v>65</v>
@@ -4051,10 +4051,10 @@
         <v>1.74</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K27" t="n">
         <v>4.2</v>
@@ -4063,16 +4063,16 @@
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O27" t="n">
         <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q27" t="n">
         <v>1.97</v>
@@ -4090,7 +4090,7 @@
         <v>1.93</v>
       </c>
       <c r="V27" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W27" t="n">
         <v>1.2</v>
@@ -4201,7 +4201,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="O28" t="n">
         <v>1.37</v>
@@ -4216,7 +4216,7 @@
         <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4450,10 +4450,10 @@
         <v>3.85</v>
       </c>
       <c r="G30" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I30" t="n">
         <v>2.26</v>
@@ -4462,7 +4462,7 @@
         <v>2.84</v>
       </c>
       <c r="K30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.47</v>
@@ -4498,7 +4498,7 @@
         <v>1.79</v>
       </c>
       <c r="W30" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4585,19 +4585,19 @@
         <v>4.2</v>
       </c>
       <c r="G31" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H31" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="I31" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L31" t="n">
         <v>1.43</v>
@@ -4609,7 +4609,7 @@
         <v>1.55</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
         <v>1.55</v>
@@ -4630,10 +4630,10 @@
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W31" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
         <v>2.32</v>
@@ -4732,7 +4732,7 @@
         <v>2.74</v>
       </c>
       <c r="K32" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,22 +4741,22 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="O32" t="n">
         <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4765,10 +4765,10 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4864,40 +4864,40 @@
         <v>1.93</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
         <v>4.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S33" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="T33" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V33" t="n">
         <v>2.06</v>
@@ -4906,58 +4906,58 @@
         <v>1.25</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH33" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>25</v>
-      </c>
       <c r="AI33" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK33" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AL33" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="34">
@@ -4993,7 +4993,7 @@
         <v>7</v>
       </c>
       <c r="H34" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I34" t="n">
         <v>1.64</v>
@@ -5017,22 +5017,22 @@
         <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>1.54</v>
+        <v>2.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="R34" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S34" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="T34" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="U34" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="V34" t="n">
         <v>2.56</v>
@@ -5041,58 +5041,58 @@
         <v>1.16</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y34" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH34" t="n">
         <v>21</v>
       </c>
-      <c r="AB34" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF34" t="n">
+      <c r="AI34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL34" t="n">
         <v>70</v>
       </c>
-      <c r="AG34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>85</v>
-      </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -5125,13 +5125,13 @@
         <v>1.04</v>
       </c>
       <c r="G35" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="H35" t="n">
         <v>1.04</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.9</v>
@@ -5158,7 +5158,7 @@
         <v>1.23</v>
       </c>
       <c r="R35" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S35" t="n">
         <v>1.59</v>
@@ -5170,10 +5170,10 @@
         <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W35" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G36" t="n">
         <v>1.78</v>
@@ -5269,10 +5269,10 @@
         <v>5.5</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K36" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,7 +5281,7 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>1.02</v>
+        <v>3.9</v>
       </c>
       <c r="O36" t="n">
         <v>1.16</v>
@@ -5296,7 +5296,7 @@
         <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="T36" t="n">
         <v>1.01</v>
@@ -5314,7 +5314,7 @@
         <v>40</v>
       </c>
       <c r="Y36" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z36" t="n">
         <v>65</v>
@@ -5329,7 +5329,7 @@
         <v>16</v>
       </c>
       <c r="AD36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE36" t="n">
         <v>75</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="G37" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="H37" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J37" t="n">
         <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,22 +5416,22 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="O37" t="n">
         <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.39</v>
+        <v>1.99</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5440,10 +5440,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W37" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5563,10 +5563,10 @@
         <v>1.57</v>
       </c>
       <c r="R38" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S38" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T38" t="n">
         <v>1.01</v>
@@ -5707,7 +5707,7 @@
         <v>1.75</v>
       </c>
       <c r="U39" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V39" t="n">
         <v>2.24</v>
@@ -5725,7 +5725,7 @@
         <v>11.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB39" t="n">
         <v>20</v>
@@ -5821,16 +5821,16 @@
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O40" t="n">
         <v>1.22</v>
       </c>
       <c r="P40" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R40" t="n">
         <v>1.57</v>
@@ -5842,10 +5842,10 @@
         <v>1.81</v>
       </c>
       <c r="U40" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W40" t="n">
         <v>2.78</v>
@@ -5875,7 +5875,7 @@
         <v>85</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG40" t="n">
         <v>10</v>
@@ -5890,13 +5890,13 @@
         <v>14.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL40" t="n">
         <v>29</v>
       </c>
       <c r="AM40" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN40" t="n">
         <v>6.4</v>
@@ -5938,7 +5938,7 @@
         <v>2.3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I41" t="n">
         <v>3.8</v>
@@ -5956,13 +5956,13 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O41" t="n">
         <v>1.35</v>
       </c>
       <c r="P41" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q41" t="n">
         <v>2.04</v>
@@ -6079,7 +6079,7 @@
         <v>1.87</v>
       </c>
       <c r="J42" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K42" t="n">
         <v>4.1</v>
@@ -6088,7 +6088,7 @@
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N42" t="n">
         <v>1.83</v>
@@ -6103,16 +6103,16 @@
         <v>1.79</v>
       </c>
       <c r="R42" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="S42" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T42" t="n">
         <v>1.01</v>
       </c>
       <c r="U42" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V42" t="n">
         <v>2.14</v>
@@ -6130,7 +6130,7 @@
         <v>14.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB42" t="n">
         <v>25</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G43" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H43" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I43" t="n">
         <v>2.4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K43" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M43" t="n">
         <v>1.01</v>
@@ -6232,16 +6232,16 @@
         <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R43" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S43" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
@@ -6253,7 +6253,7 @@
         <v>1.72</v>
       </c>
       <c r="W43" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6340,10 +6340,10 @@
         <v>2.7</v>
       </c>
       <c r="G44" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H44" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -6352,7 +6352,7 @@
         <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L44" t="n">
         <v>1.44</v>
@@ -6376,7 +6376,7 @@
         <v>1.26</v>
       </c>
       <c r="S44" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T44" t="n">
         <v>1.01</v>
@@ -6388,7 +6388,7 @@
         <v>1.5</v>
       </c>
       <c r="W44" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X44" t="n">
         <v>16</v>
@@ -6421,7 +6421,7 @@
         <v>17.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI44" t="n">
         <v>65</v>
@@ -6493,13 +6493,13 @@
         <v>1.45</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>1.77</v>
+        <v>3.25</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P45" t="n">
         <v>1.77</v>
@@ -6508,76 +6508,76 @@
         <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S45" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V45" t="n">
         <v>1.61</v>
       </c>
       <c r="W45" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X45" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z45" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AA45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL45" t="n">
         <v>55</v>
       </c>
-      <c r="AB45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>75</v>
-      </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
@@ -6649,10 +6649,10 @@
         <v>3.2</v>
       </c>
       <c r="T46" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U46" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V46" t="n">
         <v>1.2</v>
@@ -6691,7 +6691,7 @@
         <v>9.4</v>
       </c>
       <c r="AH46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI46" t="n">
         <v>75</v>
@@ -6709,7 +6709,7 @@
         <v>110</v>
       </c>
       <c r="AN46" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO46" t="n">
         <v>80</v>
@@ -6748,19 +6748,19 @@
         <v>4.4</v>
       </c>
       <c r="H47" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="I47" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J47" t="n">
         <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
@@ -6769,16 +6769,16 @@
         <v>2.76</v>
       </c>
       <c r="O47" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P47" t="n">
         <v>1.59</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R47" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -6790,7 +6790,7 @@
         <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="W47" t="n">
         <v>1.29</v>
@@ -7036,13 +7036,13 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O49" t="n">
         <v>1.19</v>
       </c>
       <c r="P49" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q49" t="n">
         <v>1.54</v>
@@ -7288,7 +7288,7 @@
         <v>2.72</v>
       </c>
       <c r="H51" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>3.35</v>
@@ -7303,7 +7303,7 @@
         <v>1.42</v>
       </c>
       <c r="M51" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
         <v>3.55</v>
@@ -7315,19 +7315,19 @@
         <v>1.87</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S51" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T51" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V51" t="n">
         <v>1.43</v>
@@ -7339,10 +7339,10 @@
         <v>12</v>
       </c>
       <c r="Y51" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA51" t="n">
         <v>60</v>
@@ -7354,7 +7354,7 @@
         <v>7.8</v>
       </c>
       <c r="AD51" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE51" t="n">
         <v>38</v>
@@ -7366,10 +7366,10 @@
         <v>12.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AI51" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ51" t="n">
         <v>38</v>
@@ -7426,7 +7426,7 @@
         <v>2.68</v>
       </c>
       <c r="I52" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J52" t="n">
         <v>3</v>
@@ -7441,10 +7441,10 @@
         <v>1.12</v>
       </c>
       <c r="N52" t="n">
-        <v>1.94</v>
+        <v>2.66</v>
       </c>
       <c r="O52" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P52" t="n">
         <v>1.57</v>
@@ -7453,16 +7453,16 @@
         <v>2.56</v>
       </c>
       <c r="R52" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S52" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V52" t="n">
         <v>1.54</v>
@@ -7480,16 +7480,16 @@
         <v>17</v>
       </c>
       <c r="AA52" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB52" t="n">
         <v>9.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD52" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE52" t="n">
         <v>40</v>
@@ -7516,7 +7516,7 @@
         <v>70</v>
       </c>
       <c r="AM52" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN52" t="n">
         <v>60</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G53" t="n">
         <v>3.55</v>
       </c>
       <c r="H53" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I53" t="n">
         <v>2.34</v>
@@ -7576,22 +7576,22 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O53" t="n">
         <v>1.21</v>
       </c>
       <c r="P53" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R53" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S53" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="T53" t="n">
         <v>1.57</v>
@@ -7603,7 +7603,7 @@
         <v>1.74</v>
       </c>
       <c r="W53" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X53" t="n">
         <v>25</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="G54" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K54" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7711,19 +7711,19 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="O54" t="n">
         <v>1.18</v>
       </c>
       <c r="P54" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q54" t="n">
         <v>1.53</v>
       </c>
       <c r="R54" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S54" t="n">
         <v>2.26</v>
@@ -7735,10 +7735,10 @@
         <v>2.24</v>
       </c>
       <c r="V54" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W54" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G55" t="n">
         <v>3.35</v>
       </c>
       <c r="H55" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I55" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="J55" t="n">
         <v>3.6</v>
@@ -7870,7 +7870,7 @@
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="W55" t="n">
         <v>1.42</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G56" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H56" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I56" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K56" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L56" t="n">
         <v>1.21</v>
@@ -7981,88 +7981,88 @@
         <v>1.02</v>
       </c>
       <c r="N56" t="n">
-        <v>1.06</v>
+        <v>7.2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P56" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.12</v>
+        <v>1.39</v>
       </c>
       <c r="R56" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="S56" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T56" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U56" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="V56" t="n">
         <v>1.12</v>
       </c>
       <c r="W56" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="X56" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Y56" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Z56" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC56" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AD56" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AE56" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF56" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH56" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI56" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ56" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK56" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AM56" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
@@ -8092,19 +8092,19 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G57" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I57" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J57" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K57" t="n">
         <v>3.55</v>
@@ -8113,79 +8113,79 @@
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
-        <v>1.6</v>
+        <v>2.52</v>
       </c>
       <c r="O57" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P57" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S57" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V57" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W57" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X57" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z57" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA57" t="n">
         <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC57" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD57" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE57" t="n">
         <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH57" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI57" t="n">
         <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK57" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL57" t="n">
         <v>75</v>
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="G59" t="n">
         <v>1.78</v>
       </c>
       <c r="H59" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I59" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J59" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K59" t="n">
         <v>4</v>
@@ -8386,16 +8386,16 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="O59" t="n">
         <v>1.31</v>
       </c>
       <c r="P59" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R59" t="n">
         <v>1.28</v>
@@ -8410,7 +8410,7 @@
         <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W59" t="n">
         <v>2.16</v>
@@ -8638,7 +8638,7 @@
         <v>3.25</v>
       </c>
       <c r="H61" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I61" t="n">
         <v>2.6</v>
@@ -8773,7 +8773,7 @@
         <v>2.94</v>
       </c>
       <c r="H62" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I62" t="n">
         <v>4.4</v>
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G63" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H63" t="n">
         <v>5.8</v>
@@ -8941,7 +8941,7 @@
         <v>1.36</v>
       </c>
       <c r="S63" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T63" t="n">
         <v>1.93</v>
@@ -8953,7 +8953,7 @@
         <v>1.2</v>
       </c>
       <c r="W63" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X63" t="n">
         <v>14</v>
@@ -8962,7 +8962,7 @@
         <v>18.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA63" t="n">
         <v>160</v>
@@ -8989,7 +8989,7 @@
         <v>21</v>
       </c>
       <c r="AI63" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="n">
         <v>17</v>
@@ -9043,7 +9043,7 @@
         <v>3.05</v>
       </c>
       <c r="H64" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I64" t="n">
         <v>2.68</v>
@@ -9058,7 +9058,7 @@
         <v>1.43</v>
       </c>
       <c r="M64" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N64" t="n">
         <v>3.8</v>
@@ -9331,7 +9331,7 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="O66" t="n">
         <v>1.49</v>
@@ -9346,7 +9346,7 @@
         <v>1.08</v>
       </c>
       <c r="S66" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -9469,7 +9469,7 @@
         <v>1.65</v>
       </c>
       <c r="O67" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P67" t="n">
         <v>1.65</v>
@@ -9601,22 +9601,22 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="O68" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P68" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="R68" t="n">
         <v>1.08</v>
       </c>
       <c r="S68" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9883,7 +9883,7 @@
         <v>2.38</v>
       </c>
       <c r="R70" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S70" t="n">
         <v>4.6</v>
@@ -9943,10 +9943,10 @@
         <v>65</v>
       </c>
       <c r="AL70" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN70" t="n">
         <v>85</v>
@@ -9988,13 +9988,13 @@
         <v>3.35</v>
       </c>
       <c r="H71" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J71" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K71" t="n">
         <v>3.75</v>
@@ -10036,7 +10036,7 @@
         <v>1.44</v>
       </c>
       <c r="X71" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y71" t="n">
         <v>12.5</v>
@@ -10054,7 +10054,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD71" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE71" t="n">
         <v>36</v>
@@ -10063,7 +10063,7 @@
         <v>23</v>
       </c>
       <c r="AG71" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH71" t="n">
         <v>21</v>
@@ -10255,19 +10255,19 @@
         <v>5.7</v>
       </c>
       <c r="G73" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="I73" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="J73" t="n">
         <v>4.3</v>
       </c>
       <c r="K73" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10282,7 +10282,7 @@
         <v>1.13</v>
       </c>
       <c r="P73" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q73" t="n">
         <v>1.47</v>
@@ -10297,13 +10297,13 @@
         <v>1.01</v>
       </c>
       <c r="U73" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V73" t="n">
         <v>2.5</v>
       </c>
       <c r="W73" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -10396,10 +10396,10 @@
         <v>1.69</v>
       </c>
       <c r="I74" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J74" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K74" t="n">
         <v>5.3</v>
@@ -10411,16 +10411,16 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="O74" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P74" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R74" t="n">
         <v>1.3</v>
@@ -10435,7 +10435,7 @@
         <v>1.01</v>
       </c>
       <c r="V74" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W74" t="n">
         <v>1.24</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G75" t="n">
         <v>2.16</v>
@@ -10684,7 +10684,7 @@
         <v>1.04</v>
       </c>
       <c r="O76" t="n">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="P76" t="n">
         <v>1.25</v>
@@ -10699,10 +10699,10 @@
         <v>5.7</v>
       </c>
       <c r="T76" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U76" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="V76" t="n">
         <v>1.25</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G77" t="n">
         <v>2.42</v>
       </c>
       <c r="H77" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I77" t="n">
         <v>3.65</v>
       </c>
       <c r="J77" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K77" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L77" t="n">
         <v>1.4</v>
@@ -10846,13 +10846,13 @@
         <v>1.71</v>
       </c>
       <c r="X77" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y77" t="n">
         <v>13</v>
       </c>
       <c r="Z77" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA77" t="n">
         <v>70</v>
@@ -10861,7 +10861,7 @@
         <v>10</v>
       </c>
       <c r="AC77" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD77" t="n">
         <v>15</v>
@@ -10876,28 +10876,28 @@
         <v>11.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI77" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ77" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK77" t="n">
         <v>26</v>
       </c>
       <c r="AL77" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM77" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN77" t="n">
         <v>21</v>
       </c>
       <c r="AO77" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78">
@@ -10984,7 +10984,7 @@
         <v>18</v>
       </c>
       <c r="Y78" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z78" t="n">
         <v>32</v>
@@ -10993,25 +10993,25 @@
         <v>110</v>
       </c>
       <c r="AB78" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AC78" t="n">
         <v>8.6</v>
       </c>
       <c r="AD78" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AE78" t="n">
         <v>55</v>
       </c>
       <c r="AF78" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AG78" t="n">
         <v>11</v>
       </c>
       <c r="AH78" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI78" t="n">
         <v>60</v>
@@ -11029,7 +11029,7 @@
         <v>120</v>
       </c>
       <c r="AN78" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AO78" t="n">
         <v>60</v>
@@ -11062,13 +11062,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="G79" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H79" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="I79" t="n">
         <v>1.65</v>
@@ -11077,10 +11077,10 @@
         <v>4.2</v>
       </c>
       <c r="K79" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="L79" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M79" t="n">
         <v>1.08</v>
@@ -11113,7 +11113,7 @@
         <v>2.52</v>
       </c>
       <c r="W79" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="X79" t="n">
         <v>1000</v>
@@ -11221,7 +11221,7 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O80" t="n">
         <v>1.01</v>
@@ -11239,7 +11239,7 @@
         <v>3.85</v>
       </c>
       <c r="T80" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U80" t="n">
         <v>1.66</v>
@@ -11470,10 +11470,10 @@
         <v>2.08</v>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H82" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I82" t="n">
         <v>4.3</v>
@@ -11488,10 +11488,10 @@
         <v>1.43</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O82" t="n">
         <v>1.37</v>
@@ -11500,79 +11500,79 @@
         <v>1.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R82" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S82" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T82" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U82" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="V82" t="n">
         <v>1.3</v>
       </c>
       <c r="W82" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X82" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD82" t="n">
         <v>17</v>
       </c>
-      <c r="Y82" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>23</v>
-      </c>
       <c r="AE82" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI82" t="n">
         <v>75</v>
       </c>
-      <c r="AF82" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH82" t="n">
+      <c r="AJ82" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK82" t="n">
         <v>26</v>
       </c>
-      <c r="AI82" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>34</v>
-      </c>
       <c r="AL82" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AM82" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN82" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO82" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83">
@@ -11605,7 +11605,7 @@
         <v>4.1</v>
       </c>
       <c r="G83" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="H83" t="n">
         <v>1.94</v>
@@ -11614,7 +11614,7 @@
         <v>2.32</v>
       </c>
       <c r="J83" t="n">
-        <v>1.09</v>
+        <v>2.48</v>
       </c>
       <c r="K83" t="n">
         <v>4.2</v>
@@ -11638,7 +11638,7 @@
         <v>2.06</v>
       </c>
       <c r="R83" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S83" t="n">
         <v>3.3</v>
@@ -11653,7 +11653,7 @@
         <v>1.75</v>
       </c>
       <c r="W83" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X83" t="n">
         <v>16.5</v>
@@ -11737,13 +11737,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="G84" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I84" t="n">
         <v>3.9</v>
@@ -11752,7 +11752,7 @@
         <v>2.72</v>
       </c>
       <c r="K84" t="n">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
@@ -11761,13 +11761,13 @@
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O84" t="n">
         <v>1.01</v>
       </c>
       <c r="P84" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q84" t="n">
         <v>2.06</v>
@@ -11788,7 +11788,7 @@
         <v>1.34</v>
       </c>
       <c r="W84" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X84" t="n">
         <v>1000</v>
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
         <v>6.2</v>
       </c>
       <c r="H85" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I85" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J85" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="K85" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,13 +11896,13 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="O85" t="n">
         <v>1.01</v>
       </c>
       <c r="P85" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="Q85" t="n">
         <v>2.34</v>
@@ -11911,7 +11911,7 @@
         <v>1.07</v>
       </c>
       <c r="S85" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="T85" t="n">
         <v>1.01</v>
@@ -11920,7 +11920,7 @@
         <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W85" t="n">
         <v>1.19</v>
@@ -12016,7 +12016,7 @@
         <v>5.5</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J86" t="n">
         <v>4.2</v>
@@ -12046,7 +12046,7 @@
         <v>1.44</v>
       </c>
       <c r="S86" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T86" t="n">
         <v>1.84</v>
@@ -12229,7 +12229,7 @@
         <v>42</v>
       </c>
       <c r="AI87" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AJ87" t="n">
         <v>9</v>
@@ -12277,16 +12277,16 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G88" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H88" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I88" t="n">
         <v>1.62</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.63</v>
       </c>
       <c r="J88" t="n">
         <v>4.9</v>
@@ -12301,7 +12301,7 @@
         <v>1.02</v>
       </c>
       <c r="N88" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O88" t="n">
         <v>1.14</v>
@@ -12325,7 +12325,7 @@
         <v>2.68</v>
       </c>
       <c r="V88" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="W88" t="n">
         <v>1.21</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G89" t="n">
         <v>2.04</v>
@@ -12457,7 +12457,7 @@
         <v>1.77</v>
       </c>
       <c r="U89" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="V89" t="n">
         <v>1.27</v>
@@ -12466,10 +12466,10 @@
         <v>1.96</v>
       </c>
       <c r="X89" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y89" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z89" t="n">
         <v>34</v>
@@ -12478,25 +12478,25 @@
         <v>110</v>
       </c>
       <c r="AB89" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC89" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD89" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AE89" t="n">
         <v>60</v>
       </c>
       <c r="AF89" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AG89" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AH89" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AI89" t="n">
         <v>65</v>
@@ -12514,7 +12514,7 @@
         <v>110</v>
       </c>
       <c r="AN89" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AO89" t="n">
         <v>65</v>
@@ -12553,7 +12553,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="I90" t="n">
         <v>1.5</v>
@@ -12610,19 +12610,19 @@
         <v>8</v>
       </c>
       <c r="AA90" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AB90" t="n">
         <v>23</v>
       </c>
       <c r="AC90" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD90" t="n">
         <v>10.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AF90" t="n">
         <v>80</v>
@@ -12820,13 +12820,13 @@
         <v>2.84</v>
       </c>
       <c r="G92" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H92" t="n">
         <v>2.5</v>
       </c>
       <c r="I92" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="J92" t="n">
         <v>3.4</v>
@@ -12838,7 +12838,7 @@
         <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
         <v>3.75</v>
@@ -12853,76 +12853,76 @@
         <v>1.89</v>
       </c>
       <c r="R92" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="S92" t="n">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
       <c r="T92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V92" t="n">
         <v>1.57</v>
       </c>
-      <c r="U92" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V92" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W92" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X92" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF92" t="n">
         <v>21</v>
       </c>
-      <c r="Y92" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE92" t="n">
+      <c r="AG92" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI92" t="n">
         <v>40</v>
       </c>
-      <c r="AF92" t="n">
+      <c r="AJ92" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN92" t="n">
         <v>29</v>
       </c>
-      <c r="AG92" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH92" t="n">
+      <c r="AO92" t="n">
         <v>23</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="93">
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G93" t="n">
-        <v>970</v>
+        <v>2.76</v>
       </c>
       <c r="H93" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I93" t="n">
-        <v>970</v>
+        <v>5.4</v>
       </c>
       <c r="J93" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="K93" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
@@ -12976,22 +12976,22 @@
         <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="O93" t="n">
         <v>1.01</v>
       </c>
       <c r="P93" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.02</v>
+        <v>2.32</v>
       </c>
       <c r="R93" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S93" t="n">
-        <v>1.02</v>
+        <v>4.2</v>
       </c>
       <c r="T93" t="n">
         <v>1.01</v>
@@ -13000,13 +13000,13 @@
         <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W93" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="X93" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y93" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO93"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
         <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
         <v>2.84</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
         <v>29</v>
@@ -730,22 +730,22 @@
         <v>65</v>
       </c>
       <c r="AA2" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -754,25 +754,25 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
         <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
@@ -835,16 +835,16 @@
         <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -853,7 +853,7 @@
         <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -862,16 +862,16 @@
         <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>18.5</v>
@@ -892,10 +892,10 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
         <v>44</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I4" t="n">
         <v>5.9</v>
@@ -967,13 +967,13 @@
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>2.52</v>
@@ -982,13 +982,13 @@
         <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
         <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>2.74</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
         <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.54</v>
+        <v>2.94</v>
       </c>
       <c r="O8" t="n">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="V8" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -1621,10 +1621,10 @@
         <v>13.5</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K9" t="n">
         <v>8</v>
@@ -1636,34 +1636,34 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.32</v>
+        <v>2.64</v>
       </c>
       <c r="O9" t="n">
         <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.32</v>
+        <v>2.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
         <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X9" t="n">
         <v>36</v>
@@ -1672,7 +1672,7 @@
         <v>60</v>
       </c>
       <c r="Z9" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1684,40 +1684,40 @@
         <v>20</v>
       </c>
       <c r="AD9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AJ9" t="n">
         <v>11.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G10" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
         <v>5.1</v>
@@ -1759,10 +1759,10 @@
         <v>6.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,88 +1771,88 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>2.64</v>
+        <v>6.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>2.64</v>
+        <v>2.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
         <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
@@ -1951,7 +1951,7 @@
         <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
         <v>16.5</v>
@@ -1960,7 +1960,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -1969,10 +1969,10 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK11" t="n">
         <v>24</v>
@@ -1987,7 +1987,7 @@
         <v>15.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -2020,10 +2020,10 @@
         <v>2.42</v>
       </c>
       <c r="G12" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
         <v>3.7</v>
@@ -2032,37 +2032,37 @@
         <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
         <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>1.37</v>
@@ -2071,7 +2071,7 @@
         <v>1.66</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
@@ -2122,7 +2122,7 @@
         <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>1.25</v>
       </c>
       <c r="G13" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H13" t="n">
         <v>8</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2230,10 +2230,10 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
         <v>40</v>
@@ -2242,13 +2242,13 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G14" t="n">
         <v>3.05</v>
@@ -2296,13 +2296,13 @@
         <v>2.92</v>
       </c>
       <c r="I14" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2317,7 +2317,7 @@
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q14" t="n">
         <v>2.18</v>
@@ -2335,7 +2335,7 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W14" t="n">
         <v>1.5</v>
@@ -2425,10 +2425,10 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.05</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3.1</v>
@@ -2467,7 +2467,7 @@
         <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V15" t="n">
         <v>1.47</v>
@@ -2593,7 +2593,7 @@
         <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
         <v>2.6</v>
@@ -2695,10 +2695,10 @@
         <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H17" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I17" t="n">
         <v>3.55</v>
@@ -2707,7 +2707,7 @@
         <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2731,7 +2731,7 @@
         <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2743,7 +2743,7 @@
         <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G20" t="n">
         <v>2.58</v>
@@ -3106,7 +3106,7 @@
         <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
         <v>3.7</v>
@@ -3130,31 +3130,31 @@
         <v>2.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.49</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.48</v>
       </c>
       <c r="W20" t="n">
         <v>1.63</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
         <v>27</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
         <v>3.05</v>
@@ -3241,7 +3241,7 @@
         <v>2.48</v>
       </c>
       <c r="I21" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
@@ -3256,28 +3256,28 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.23</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="T21" t="n">
         <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V21" t="n">
         <v>1.63</v>
@@ -3337,7 +3337,7 @@
         <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>3.3</v>
       </c>
       <c r="G22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
         <v>2.22</v>
@@ -3403,7 +3403,7 @@
         <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S22" t="n">
         <v>2.48</v>
@@ -3502,37 +3502,37 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G23" t="n">
         <v>2.54</v>
       </c>
       <c r="H23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.25</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
@@ -3541,28 +3541,28 @@
         <v>1.31</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
         <v>75</v>
@@ -3571,13 +3571,13 @@
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
         <v>15.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AF23" t="n">
         <v>18.5</v>
@@ -3604,10 +3604,10 @@
         <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G24" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
         <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,10 +3661,10 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
         <v>2.38</v>
@@ -3673,25 +3673,25 @@
         <v>1.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S24" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T24" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="U24" t="n">
         <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W24" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
         <v>23</v>
@@ -3724,7 +3724,7 @@
         <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
         <v>22</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G25" t="n">
         <v>2.94</v>
@@ -3781,13 +3781,13 @@
         <v>2.74</v>
       </c>
       <c r="I25" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
         <v>1.43</v>
@@ -3814,7 +3814,7 @@
         <v>3.65</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U25" t="n">
         <v>2.1</v>
@@ -3832,7 +3832,7 @@
         <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AA25" t="n">
         <v>46</v>
@@ -3850,7 +3850,7 @@
         <v>34</v>
       </c>
       <c r="AF25" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3865,7 +3865,7 @@
         <v>44</v>
       </c>
       <c r="AK25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
         <v>46</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G26" t="n">
         <v>2.72</v>
@@ -4048,16 +4048,16 @@
         <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="I27" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J27" t="n">
         <v>3.65</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,13 +4066,13 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q27" t="n">
         <v>1.97</v>
@@ -4141,7 +4141,7 @@
         <v>85</v>
       </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN27" t="n">
         <v>120</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G29" t="n">
         <v>2.7</v>
@@ -4321,13 +4321,13 @@
         <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J29" t="n">
         <v>2.8</v>
       </c>
       <c r="K29" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4360,7 +4360,7 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W29" t="n">
         <v>1.58</v>
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="G30" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="H30" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="I30" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="J30" t="n">
         <v>2.84</v>
       </c>
       <c r="K30" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>1.44</v>
+        <v>2.54</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P30" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="R30" t="n">
         <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V30" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="W30" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -4741,13 +4741,13 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O32" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q32" t="n">
         <v>2</v>
@@ -4756,7 +4756,7 @@
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4861,7 +4861,7 @@
         <v>1.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J33" t="n">
         <v>3.85</v>
@@ -4882,28 +4882,28 @@
         <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R33" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S33" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T33" t="n">
         <v>1.71</v>
       </c>
       <c r="U33" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="V33" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W33" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X33" t="n">
         <v>22</v>
@@ -4918,7 +4918,7 @@
         <v>21</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AC33" t="n">
         <v>9.199999999999999</v>
@@ -4927,16 +4927,16 @@
         <v>10.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AF33" t="n">
         <v>38</v>
       </c>
       <c r="AG33" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH33" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI33" t="n">
         <v>32</v>
@@ -4951,7 +4951,7 @@
         <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN33" t="n">
         <v>60</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H34" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I34" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="J34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L34" t="n">
         <v>1.29</v>
@@ -5017,28 +5017,28 @@
         <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R34" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S34" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T34" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U34" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="V34" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="W34" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X34" t="n">
         <v>28</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="G35" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H35" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="J35" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K35" t="n">
         <v>980</v>
@@ -5146,22 +5146,22 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="O35" t="n">
         <v>1.07</v>
       </c>
       <c r="P35" t="n">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="R35" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S35" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="T35" t="n">
         <v>1.01</v>
@@ -5170,10 +5170,10 @@
         <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="W35" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G36" t="n">
         <v>1.78</v>
@@ -5278,13 +5278,13 @@
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
         <v>2.56</v>
@@ -5293,10 +5293,10 @@
         <v>1.52</v>
       </c>
       <c r="R36" t="n">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="S36" t="n">
-        <v>1.53</v>
+        <v>2.28</v>
       </c>
       <c r="T36" t="n">
         <v>1.01</v>
@@ -5311,58 +5311,58 @@
         <v>2.28</v>
       </c>
       <c r="X36" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y36" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE36" t="n">
         <v>65</v>
       </c>
-      <c r="AA36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC36" t="n">
+      <c r="AF36" t="n">
         <v>16</v>
       </c>
-      <c r="AD36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>19</v>
-      </c>
       <c r="AG36" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AK36" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM36" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.52</v>
+        <v>2.06</v>
       </c>
       <c r="G37" t="n">
         <v>2.68</v>
@@ -5401,13 +5401,13 @@
         <v>2.8</v>
       </c>
       <c r="I37" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J37" t="n">
         <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,13 +5416,13 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="O37" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="Q37" t="n">
         <v>1.99</v>
@@ -5440,10 +5440,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W37" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.32</v>
+        <v>3.25</v>
       </c>
       <c r="G38" t="n">
-        <v>1.39</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>2.52</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="J38" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
-        <v>6.2</v>
+        <v>3.35</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>2.08</v>
+        <v>3.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="P38" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="R38" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="S38" t="n">
-        <v>2.36</v>
+        <v>3.9</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V38" t="n">
-        <v>1.08</v>
+        <v>1.63</v>
       </c>
       <c r="W38" t="n">
-        <v>3.55</v>
+        <v>1.42</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.8</v>
+        <v>1.31</v>
       </c>
       <c r="G39" t="n">
-        <v>4.9</v>
+        <v>1.37</v>
       </c>
       <c r="H39" t="n">
-        <v>1.79</v>
+        <v>10.5</v>
       </c>
       <c r="I39" t="n">
-        <v>1.8</v>
+        <v>13.5</v>
       </c>
       <c r="J39" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="K39" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
         <v>4.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="R39" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S39" t="n">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="T39" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="U39" t="n">
-        <v>2.28</v>
+        <v>1.67</v>
       </c>
       <c r="V39" t="n">
-        <v>2.24</v>
+        <v>1.08</v>
       </c>
       <c r="W39" t="n">
-        <v>1.25</v>
+        <v>3.7</v>
       </c>
       <c r="X39" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Y39" t="n">
-        <v>10.5</v>
+        <v>46</v>
       </c>
       <c r="Z39" t="n">
-        <v>11.5</v>
+        <v>130</v>
       </c>
       <c r="AA39" t="n">
-        <v>18.5</v>
+        <v>530</v>
       </c>
       <c r="AB39" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>9.6</v>
+        <v>50</v>
       </c>
       <c r="AE39" t="n">
-        <v>16.5</v>
+        <v>230</v>
       </c>
       <c r="AF39" t="n">
-        <v>38</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG39" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK39" t="n">
         <v>17.5</v>
       </c>
-      <c r="AI39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>60</v>
-      </c>
       <c r="AL39" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM39" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN39" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="AO39" t="n">
-        <v>9.199999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.54</v>
+        <v>4.8</v>
       </c>
       <c r="G40" t="n">
-        <v>1.56</v>
+        <v>4.9</v>
       </c>
       <c r="H40" t="n">
-        <v>6.6</v>
+        <v>1.79</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="J40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N40" t="n">
         <v>4.8</v>
       </c>
-      <c r="K40" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.2</v>
-      </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="T40" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="U40" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V40" t="n">
-        <v>1.17</v>
+        <v>2.24</v>
       </c>
       <c r="W40" t="n">
-        <v>2.78</v>
+        <v>1.25</v>
       </c>
       <c r="X40" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="Z40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK40" t="n">
         <v>60</v>
       </c>
-      <c r="AA40" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL40" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AM40" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="n">
-        <v>6.4</v>
+        <v>48</v>
       </c>
       <c r="AO40" t="n">
-        <v>80</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,55 +5923,55 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.28</v>
+        <v>1.54</v>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="I41" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="K41" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>1.9</v>
+        <v>2.44</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="R41" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="S41" t="n">
-        <v>3.7</v>
+        <v>2.64</v>
       </c>
       <c r="T41" t="n">
         <v>1.81</v>
@@ -5980,70 +5980,70 @@
         <v>2.14</v>
       </c>
       <c r="V41" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="W41" t="n">
-        <v>1.76</v>
+        <v>2.78</v>
       </c>
       <c r="X41" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="Z41" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AA41" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE41" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>28</v>
-      </c>
       <c r="AK41" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AM41" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN41" t="n">
-        <v>19</v>
+        <v>6.4</v>
       </c>
       <c r="AO41" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="G42" t="n">
-        <v>5.9</v>
+        <v>2.32</v>
       </c>
       <c r="H42" t="n">
-        <v>1.76</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1.87</v>
+        <v>3.75</v>
       </c>
       <c r="J42" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M42" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P42" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="R42" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="S42" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U42" t="n">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="V42" t="n">
-        <v>2.14</v>
+        <v>1.36</v>
       </c>
       <c r="W42" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="X42" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD42" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA42" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB42" t="n">
+      <c r="AE42" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK42" t="n">
         <v>25</v>
       </c>
-      <c r="AC42" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK42" t="n">
+      <c r="AL42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM42" t="n">
         <v>100</v>
       </c>
-      <c r="AL42" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,112 +6193,112 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H43" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="I43" t="n">
-        <v>2.4</v>
+        <v>1.84</v>
       </c>
       <c r="J43" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="K43" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="L43" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>1.84</v>
       </c>
       <c r="O43" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P43" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="R43" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="S43" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V43" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="W43" t="n">
         <v>1.21</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ43" t="n">
         <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,55 +6328,55 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="G44" t="n">
-        <v>2.84</v>
+        <v>5.7</v>
       </c>
       <c r="H44" t="n">
-        <v>2.96</v>
+        <v>1.87</v>
       </c>
       <c r="I44" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N44" t="n">
         <v>3</v>
       </c>
-      <c r="J44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S44" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T44" t="n">
         <v>1.01</v>
@@ -6385,55 +6385,55 @@
         <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="W44" t="n">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="X44" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
         <v>1000</v>
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="G45" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="I45" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L45" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M45" t="n">
         <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O45" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R45" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S45" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T45" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="U45" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V45" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="W45" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="X45" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AA45" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AB45" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC45" t="n">
         <v>7.8</v>
       </c>
       <c r="AD45" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF45" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG45" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
         <v>18.5</v>
       </c>
       <c r="AI45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>46</v>
       </c>
-      <c r="AJ45" t="n">
-        <v>60</v>
-      </c>
       <c r="AK45" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AL45" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM45" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN45" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AO45" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -6610,13 +6610,13 @@
         <v>1.66</v>
       </c>
       <c r="G46" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H46" t="n">
         <v>5.9</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J46" t="n">
         <v>4.2</v>
@@ -6655,16 +6655,16 @@
         <v>2.06</v>
       </c>
       <c r="V46" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W46" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X46" t="n">
         <v>16</v>
       </c>
       <c r="Y46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z46" t="n">
         <v>46</v>
@@ -6748,31 +6748,31 @@
         <v>4.4</v>
       </c>
       <c r="H47" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I47" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J47" t="n">
         <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="O47" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="P47" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q47" t="n">
         <v>2.46</v>
@@ -6790,10 +6790,10 @@
         <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G48" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="H48" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="I48" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="J48" t="n">
         <v>6</v>
@@ -6898,88 +6898,88 @@
         <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="O48" t="n">
         <v>1.22</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R48" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="S48" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T48" t="n">
         <v>2.42</v>
       </c>
-      <c r="T48" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U48" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W48" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE48" t="n">
         <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7036,7 +7036,7 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O49" t="n">
         <v>1.19</v>
@@ -7051,13 +7051,13 @@
         <v>1.41</v>
       </c>
       <c r="S49" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T49" t="n">
         <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="V49" t="n">
         <v>2.56</v>
@@ -7162,7 +7162,7 @@
         <v>5.4</v>
       </c>
       <c r="K50" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L50" t="n">
         <v>1.41</v>
@@ -7183,13 +7183,13 @@
         <v>1.94</v>
       </c>
       <c r="R50" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S50" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T50" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U50" t="n">
         <v>1.68</v>
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G51" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H51" t="n">
         <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J51" t="n">
         <v>3.2</v>
@@ -7312,25 +7312,25 @@
         <v>1.34</v>
       </c>
       <c r="P51" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
         <v>1.34</v>
       </c>
       <c r="S51" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U51" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="V51" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W51" t="n">
         <v>1.58</v>
@@ -7357,7 +7357,7 @@
         <v>14</v>
       </c>
       <c r="AE51" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF51" t="n">
         <v>17.5</v>
@@ -7375,7 +7375,7 @@
         <v>38</v>
       </c>
       <c r="AK51" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL51" t="n">
         <v>42</v>
@@ -7384,7 +7384,7 @@
         <v>100</v>
       </c>
       <c r="AN51" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO51" t="n">
         <v>34</v>
@@ -7420,10 +7420,10 @@
         <v>3.15</v>
       </c>
       <c r="G52" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I52" t="n">
         <v>2.82</v>
@@ -7441,7 +7441,7 @@
         <v>1.12</v>
       </c>
       <c r="N52" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O52" t="n">
         <v>1.53</v>
@@ -7450,28 +7450,28 @@
         <v>1.57</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R52" t="n">
         <v>1.2</v>
       </c>
       <c r="S52" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T52" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U52" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V52" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W52" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X52" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y52" t="n">
         <v>8.4</v>
@@ -7555,7 +7555,7 @@
         <v>3.15</v>
       </c>
       <c r="G53" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>3.7</v>
       </c>
       <c r="K53" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7576,28 +7576,28 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O53" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P53" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R53" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S53" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T53" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="U53" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V53" t="n">
         <v>1.74</v>
@@ -7606,7 +7606,7 @@
         <v>1.4</v>
       </c>
       <c r="X53" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y53" t="n">
         <v>14.5</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7726,19 +7726,19 @@
         <v>1.51</v>
       </c>
       <c r="S54" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T54" t="n">
         <v>1.01</v>
       </c>
       <c r="U54" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="W54" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7825,19 +7825,19 @@
         <v>2.88</v>
       </c>
       <c r="G55" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I55" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="J55" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K55" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7846,25 +7846,25 @@
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="O55" t="n">
         <v>1.24</v>
       </c>
       <c r="P55" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R55" t="n">
         <v>1.25</v>
       </c>
       <c r="S55" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U55" t="n">
         <v>1.01</v>
@@ -7873,7 +7873,7 @@
         <v>1.6</v>
       </c>
       <c r="W55" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7987,13 +7987,13 @@
         <v>1.13</v>
       </c>
       <c r="P56" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q56" t="n">
         <v>1.39</v>
       </c>
       <c r="R56" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S56" t="n">
         <v>1.98</v>
@@ -8020,7 +8020,7 @@
         <v>80</v>
       </c>
       <c r="AA56" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB56" t="n">
         <v>15</v>
@@ -8101,103 +8101,103 @@
         <v>3.85</v>
       </c>
       <c r="I57" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J57" t="n">
         <v>3.15</v>
       </c>
       <c r="K57" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="O57" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P57" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R57" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S57" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U57" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="V57" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W57" t="n">
         <v>1.78</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z57" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB57" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD57" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE57" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG57" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH57" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK57" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL57" t="n">
         <v>75</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
@@ -8230,7 +8230,7 @@
         <v>1.53</v>
       </c>
       <c r="G58" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H58" t="n">
         <v>5.5</v>
@@ -8239,7 +8239,7 @@
         <v>6.8</v>
       </c>
       <c r="J58" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K58" t="n">
         <v>5.3</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="G59" t="n">
         <v>1.78</v>
       </c>
       <c r="H59" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J59" t="n">
         <v>3.75</v>
@@ -8383,91 +8383,91 @@
         <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>1.78</v>
+        <v>3.55</v>
       </c>
       <c r="O59" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P59" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="R59" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S59" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="T59" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U59" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V59" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W59" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="X59" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y59" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z59" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA59" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB59" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC59" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD59" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE59" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF59" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI59" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK59" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL59" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM59" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN59" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO59" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
@@ -8521,7 +8521,7 @@
         <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O60" t="n">
         <v>1.28</v>
@@ -8536,13 +8536,13 @@
         <v>1.43</v>
       </c>
       <c r="S60" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T60" t="n">
         <v>1.89</v>
       </c>
       <c r="U60" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V60" t="n">
         <v>1.19</v>
@@ -8551,10 +8551,10 @@
         <v>2.46</v>
       </c>
       <c r="X60" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z60" t="n">
         <v>50</v>
@@ -8563,7 +8563,7 @@
         <v>160</v>
       </c>
       <c r="AB60" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC60" t="n">
         <v>9.4</v>
@@ -8575,7 +8575,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG60" t="n">
         <v>9.6</v>
@@ -8590,16 +8590,16 @@
         <v>16</v>
       </c>
       <c r="AK60" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL60" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM60" t="n">
         <v>120</v>
       </c>
       <c r="AN60" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO60" t="n">
         <v>90</v>
@@ -8635,13 +8635,13 @@
         <v>3.1</v>
       </c>
       <c r="G61" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H61" t="n">
         <v>2.54</v>
       </c>
       <c r="I61" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J61" t="n">
         <v>3.4</v>
@@ -8650,16 +8650,16 @@
         <v>3.45</v>
       </c>
       <c r="L61" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O61" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P61" t="n">
         <v>1.89</v>
@@ -8671,19 +8671,19 @@
         <v>1.33</v>
       </c>
       <c r="S61" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T61" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U61" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V61" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W61" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X61" t="n">
         <v>12.5</v>
@@ -8701,7 +8701,7 @@
         <v>12</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD61" t="n">
         <v>12</v>
@@ -8716,7 +8716,7 @@
         <v>14</v>
       </c>
       <c r="AH61" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI61" t="n">
         <v>42</v>
@@ -8743,7 +8743,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8758,127 +8758,127 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.22</v>
+        <v>1.73</v>
       </c>
       <c r="G62" t="n">
-        <v>2.94</v>
+        <v>1.74</v>
       </c>
       <c r="H62" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="I62" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="J62" t="n">
-        <v>2.78</v>
+        <v>3.95</v>
       </c>
       <c r="K62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M62" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>1.39</v>
+        <v>3.8</v>
       </c>
       <c r="O62" t="n">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="P62" t="n">
-        <v>1.39</v>
+        <v>1.98</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="S62" t="n">
-        <v>2.44</v>
+        <v>3.65</v>
       </c>
       <c r="T62" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U62" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="W62" t="n">
-        <v>1.51</v>
+        <v>2.34</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z62" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA62" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC62" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE62" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG62" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI62" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK62" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL62" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO62" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8893,49 +8893,49 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>1.74</v>
+        <v>3.05</v>
       </c>
       <c r="H63" t="n">
-        <v>5.8</v>
+        <v>2.62</v>
       </c>
       <c r="I63" t="n">
-        <v>5.9</v>
+        <v>2.64</v>
       </c>
       <c r="J63" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="L63" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M63" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N63" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O63" t="n">
         <v>1.34</v>
       </c>
       <c r="P63" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R63" t="n">
         <v>1.36</v>
@@ -8944,76 +8944,76 @@
         <v>3.65</v>
       </c>
       <c r="T63" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V63" t="n">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="W63" t="n">
-        <v>2.34</v>
+        <v>1.48</v>
       </c>
       <c r="X63" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="Z63" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI63" t="n">
         <v>42</v>
       </c>
-      <c r="AA63" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>80</v>
-      </c>
       <c r="AJ63" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AK63" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AL63" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AM63" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN63" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AO63" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9028,121 +9028,121 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>1.79</v>
       </c>
       <c r="G64" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="H64" t="n">
-        <v>2.62</v>
+        <v>3.85</v>
       </c>
       <c r="I64" t="n">
-        <v>2.68</v>
+        <v>6.4</v>
       </c>
       <c r="J64" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K64" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="L64" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
         <v>1.08</v>
       </c>
-      <c r="N64" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S64" t="n">
-        <v>3.65</v>
+        <v>2.02</v>
       </c>
       <c r="T64" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U64" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="W64" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="X64" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y64" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z64" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA64" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC64" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD64" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE64" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG64" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH64" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI64" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK64" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL64" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM64" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO64" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65">
@@ -9163,31 +9163,31 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="G65" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="H65" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I65" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J65" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="K65" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,22 +9196,22 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="O65" t="n">
         <v>1.01</v>
       </c>
       <c r="P65" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R65" t="n">
         <v>1.08</v>
       </c>
       <c r="S65" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="T65" t="n">
         <v>1.01</v>
@@ -9220,10 +9220,10 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W65" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9298,55 +9298,55 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.92</v>
+        <v>2.66</v>
       </c>
       <c r="G66" t="n">
-        <v>2.36</v>
+        <v>3.65</v>
       </c>
       <c r="H66" t="n">
-        <v>3.7</v>
+        <v>2.28</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K66" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="L66" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="O66" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="P66" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R66" t="n">
         <v>1.08</v>
       </c>
       <c r="S66" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -9355,10 +9355,10 @@
         <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="W66" t="n">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9433,55 +9433,55 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.66</v>
+        <v>4.3</v>
       </c>
       <c r="G67" t="n">
-        <v>3.65</v>
+        <v>7.6</v>
       </c>
       <c r="H67" t="n">
-        <v>2.28</v>
+        <v>1.62</v>
       </c>
       <c r="I67" t="n">
-        <v>3.2</v>
+        <v>1.99</v>
       </c>
       <c r="J67" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="K67" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="L67" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="O67" t="n">
         <v>1.01</v>
       </c>
       <c r="P67" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="R67" t="n">
         <v>1.08</v>
       </c>
       <c r="S67" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="T67" t="n">
         <v>1.01</v>
@@ -9490,10 +9490,10 @@
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="W67" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9568,31 +9568,31 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AC Bra</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4.3</v>
+        <v>2.22</v>
       </c>
       <c r="G68" t="n">
-        <v>7.6</v>
+        <v>2.94</v>
       </c>
       <c r="H68" t="n">
-        <v>1.62</v>
+        <v>2.9</v>
       </c>
       <c r="I68" t="n">
-        <v>1.99</v>
+        <v>4.4</v>
       </c>
       <c r="J68" t="n">
-        <v>3.35</v>
+        <v>2.78</v>
       </c>
       <c r="K68" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -9601,22 +9601,22 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="O68" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="P68" t="n">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.91</v>
+        <v>2.42</v>
       </c>
       <c r="R68" t="n">
         <v>1.08</v>
       </c>
       <c r="S68" t="n">
-        <v>1.91</v>
+        <v>2.44</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9625,10 +9625,10 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="W68" t="n">
-        <v>1.15</v>
+        <v>1.51</v>
       </c>
       <c r="X68" t="n">
         <v>1000</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G69" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="H69" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="I69" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="J69" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K69" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="L69" t="n">
         <v>1.39</v>
@@ -9742,7 +9742,7 @@
         <v>1.29</v>
       </c>
       <c r="P69" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q69" t="n">
         <v>1.3</v>
@@ -9760,10 +9760,10 @@
         <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="W69" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9865,22 +9865,22 @@
         <v>3.25</v>
       </c>
       <c r="L70" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M70" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N70" t="n">
         <v>3.15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P70" t="n">
         <v>1.69</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R70" t="n">
         <v>1.25</v>
@@ -9892,7 +9892,7 @@
         <v>1.99</v>
       </c>
       <c r="U70" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V70" t="n">
         <v>1.86</v>
@@ -9901,7 +9901,7 @@
         <v>1.29</v>
       </c>
       <c r="X70" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y70" t="n">
         <v>7.8</v>
@@ -9958,7 +9958,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9973,127 +9973,127 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.8</v>
+        <v>1.17</v>
       </c>
       <c r="G71" t="n">
-        <v>3.35</v>
+        <v>1.18</v>
       </c>
       <c r="H71" t="n">
-        <v>2.52</v>
+        <v>20</v>
       </c>
       <c r="I71" t="n">
-        <v>2.94</v>
+        <v>28</v>
       </c>
       <c r="J71" t="n">
-        <v>3.05</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>3.75</v>
+        <v>10.5</v>
       </c>
       <c r="L71" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M71" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N71" t="n">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="O71" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="P71" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="R71" t="n">
-        <v>1.23</v>
+        <v>1.9</v>
       </c>
       <c r="S71" t="n">
-        <v>2.92</v>
+        <v>1.91</v>
       </c>
       <c r="T71" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U71" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V71" t="n">
-        <v>1.53</v>
+        <v>1.03</v>
       </c>
       <c r="W71" t="n">
-        <v>1.44</v>
+        <v>6.4</v>
       </c>
       <c r="X71" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="Y71" t="n">
-        <v>12.5</v>
+        <v>80</v>
       </c>
       <c r="Z71" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AA71" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC71" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>490</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>310</v>
+      </c>
+      <c r="AJ71" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD71" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI71" t="n">
+      <c r="AK71" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL71" t="n">
         <v>50</v>
       </c>
-      <c r="AJ71" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>55</v>
-      </c>
       <c r="AM71" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="AN71" t="n">
-        <v>38</v>
+        <v>2.9</v>
       </c>
       <c r="AO71" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10108,121 +10108,121 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.16</v>
+        <v>2.74</v>
       </c>
       <c r="G72" t="n">
-        <v>1.17</v>
+        <v>3.15</v>
       </c>
       <c r="H72" t="n">
-        <v>18</v>
+        <v>2.56</v>
       </c>
       <c r="I72" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>9.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="K72" t="n">
-        <v>11</v>
+        <v>3.7</v>
       </c>
       <c r="L72" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M72" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>1.03</v>
+        <v>3.15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
       <c r="P72" t="n">
-        <v>3.05</v>
+        <v>1.76</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.39</v>
+        <v>1.95</v>
       </c>
       <c r="R72" t="n">
-        <v>1.81</v>
+        <v>1.29</v>
       </c>
       <c r="S72" t="n">
-        <v>1.79</v>
+        <v>3.4</v>
       </c>
       <c r="T72" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U72" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V72" t="n">
-        <v>1.03</v>
+        <v>1.51</v>
       </c>
       <c r="W72" t="n">
-        <v>6.4</v>
+        <v>1.46</v>
       </c>
       <c r="X72" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y72" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA72" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB72" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC72" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO72" t="n">
         <v>30</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="73">
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="G73" t="n">
         <v>8.199999999999999</v>
@@ -10261,13 +10261,13 @@
         <v>1.45</v>
       </c>
       <c r="I73" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="J73" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K73" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10276,88 +10276,88 @@
         <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="P73" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="R73" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="S73" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="T73" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U73" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V73" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="W73" t="n">
         <v>1.14</v>
       </c>
       <c r="X73" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y73" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z73" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC73" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD73" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE73" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF73" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG73" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH73" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI73" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK73" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL73" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM73" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN73" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO73" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="74">
@@ -10396,7 +10396,7 @@
         <v>1.69</v>
       </c>
       <c r="I74" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J74" t="n">
         <v>3.3</v>
@@ -10411,22 +10411,22 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="O74" t="n">
         <v>1.29</v>
       </c>
       <c r="P74" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R74" t="n">
         <v>1.3</v>
       </c>
       <c r="S74" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="T74" t="n">
         <v>1.01</v>
@@ -10435,7 +10435,7 @@
         <v>1.01</v>
       </c>
       <c r="V74" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W74" t="n">
         <v>1.24</v>
@@ -10522,16 +10522,16 @@
         </is>
       </c>
       <c r="F75" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G75" t="n">
         <v>2.14</v>
-      </c>
-      <c r="G75" t="n">
-        <v>2.16</v>
       </c>
       <c r="H75" t="n">
         <v>4.2</v>
       </c>
       <c r="I75" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J75" t="n">
         <v>3.3</v>
@@ -10558,7 +10558,7 @@
         <v>2.36</v>
       </c>
       <c r="R75" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S75" t="n">
         <v>4.6</v>
@@ -10570,10 +10570,10 @@
         <v>1.92</v>
       </c>
       <c r="V75" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W75" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X75" t="n">
         <v>10</v>
@@ -10582,10 +10582,10 @@
         <v>12.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA75" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB75" t="n">
         <v>8</v>
@@ -10612,7 +10612,7 @@
         <v>75</v>
       </c>
       <c r="AJ75" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK75" t="n">
         <v>26</v>
@@ -10663,7 +10663,7 @@
         <v>2.44</v>
       </c>
       <c r="H76" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
         <v>4.9</v>
@@ -10681,16 +10681,16 @@
         <v>1.13</v>
       </c>
       <c r="N76" t="n">
-        <v>1.04</v>
+        <v>1.36</v>
       </c>
       <c r="O76" t="n">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="P76" t="n">
         <v>1.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R76" t="n">
         <v>1.11</v>
@@ -10699,10 +10699,10 @@
         <v>5.7</v>
       </c>
       <c r="T76" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U76" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="V76" t="n">
         <v>1.25</v>
@@ -10711,7 +10711,7 @@
         <v>1.69</v>
       </c>
       <c r="X76" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y76" t="n">
         <v>1000</v>
@@ -10795,7 +10795,7 @@
         <v>2.26</v>
       </c>
       <c r="G77" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H77" t="n">
         <v>3.3</v>
@@ -10804,7 +10804,7 @@
         <v>3.65</v>
       </c>
       <c r="J77" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K77" t="n">
         <v>3.6</v>
@@ -10816,13 +10816,13 @@
         <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O77" t="n">
         <v>1.33</v>
       </c>
       <c r="P77" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q77" t="n">
         <v>2</v>
@@ -10837,13 +10837,13 @@
         <v>1.77</v>
       </c>
       <c r="U77" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V77" t="n">
         <v>1.38</v>
       </c>
       <c r="W77" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X77" t="n">
         <v>13.5</v>
@@ -10876,7 +10876,7 @@
         <v>11.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI77" t="n">
         <v>60</v>
@@ -10885,10 +10885,10 @@
         <v>32</v>
       </c>
       <c r="AK77" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL77" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM77" t="n">
         <v>110</v>
@@ -10897,7 +10897,7 @@
         <v>21</v>
       </c>
       <c r="AO77" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
@@ -10930,7 +10930,7 @@
         <v>1.91</v>
       </c>
       <c r="G78" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H78" t="n">
         <v>4</v>
@@ -10939,7 +10939,7 @@
         <v>4.6</v>
       </c>
       <c r="J78" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K78" t="n">
         <v>4</v>
@@ -10951,37 +10951,37 @@
         <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O78" t="n">
         <v>1.31</v>
       </c>
       <c r="P78" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R78" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S78" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T78" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="U78" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V78" t="n">
         <v>1.28</v>
       </c>
       <c r="W78" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X78" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Y78" t="n">
         <v>970</v>
@@ -11017,13 +11017,13 @@
         <v>60</v>
       </c>
       <c r="AJ78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL78" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM78" t="n">
         <v>120</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="G79" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>1.52</v>
       </c>
       <c r="I79" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J79" t="n">
         <v>4.2</v>
       </c>
       <c r="K79" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="L79" t="n">
         <v>1.45</v>
@@ -11086,94 +11086,94 @@
         <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="O79" t="n">
         <v>1.38</v>
       </c>
       <c r="P79" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R79" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="S79" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="T79" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U79" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V79" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="W79" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="X79" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y79" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z79" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AA79" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB79" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC79" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF79" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG79" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH79" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI79" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AK79" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL79" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM79" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN79" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AO79" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11188,127 +11188,127 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.93</v>
+        <v>2.72</v>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="H80" t="n">
-        <v>4.5</v>
+        <v>2.32</v>
       </c>
       <c r="I80" t="n">
-        <v>5.2</v>
+        <v>2.64</v>
       </c>
       <c r="J80" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K80" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="L80" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M80" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>1.64</v>
+        <v>4.7</v>
       </c>
       <c r="O80" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P80" t="n">
-        <v>1.63</v>
+        <v>2.26</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.28</v>
+        <v>1.62</v>
       </c>
       <c r="R80" t="n">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="S80" t="n">
-        <v>3.85</v>
+        <v>2.54</v>
       </c>
       <c r="T80" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="U80" t="n">
-        <v>1.66</v>
+        <v>2.44</v>
       </c>
       <c r="V80" t="n">
-        <v>1.23</v>
+        <v>1.6</v>
       </c>
       <c r="W80" t="n">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="X80" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y80" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AA80" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB80" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AC80" t="n">
         <v>11</v>
       </c>
       <c r="AD80" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AE80" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="AF80" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AG80" t="n">
         <v>15.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AI80" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ80" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK80" t="n">
         <v>34</v>
       </c>
-      <c r="AK80" t="n">
-        <v>38</v>
-      </c>
       <c r="AL80" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AM80" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN80" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO80" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -11323,112 +11323,112 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.72</v>
+        <v>1.98</v>
       </c>
       <c r="G81" t="n">
-        <v>3.15</v>
+        <v>2.18</v>
       </c>
       <c r="H81" t="n">
-        <v>2.34</v>
+        <v>4.2</v>
       </c>
       <c r="I81" t="n">
-        <v>2.64</v>
+        <v>5</v>
       </c>
       <c r="J81" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K81" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="L81" t="n">
         <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N81" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="O81" t="n">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="P81" t="n">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.63</v>
+        <v>2.3</v>
       </c>
       <c r="R81" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S81" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="T81" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U81" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V81" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="W81" t="n">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
       <c r="X81" t="n">
         <v>1000</v>
       </c>
       <c r="Y81" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z81" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA81" t="n">
         <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC81" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD81" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE81" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF81" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG81" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI81" t="n">
         <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK81" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL81" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM81" t="n">
         <v>1000</v>
@@ -11473,7 +11473,7 @@
         <v>2.26</v>
       </c>
       <c r="H82" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I82" t="n">
         <v>4.3</v>
@@ -11482,7 +11482,7 @@
         <v>3.2</v>
       </c>
       <c r="K82" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L82" t="n">
         <v>1.43</v>
@@ -11491,16 +11491,16 @@
         <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O82" t="n">
         <v>1.37</v>
       </c>
       <c r="P82" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R82" t="n">
         <v>1.28</v>
@@ -11608,16 +11608,16 @@
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>1.94</v>
+        <v>1.36</v>
       </c>
       <c r="I83" t="n">
         <v>2.32</v>
       </c>
       <c r="J83" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="K83" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,16 +11626,16 @@
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O83" t="n">
         <v>1.36</v>
       </c>
       <c r="P83" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="R83" t="n">
         <v>1.26</v>
@@ -11653,10 +11653,10 @@
         <v>1.75</v>
       </c>
       <c r="W83" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X83" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y83" t="n">
         <v>10.5</v>
@@ -11752,7 +11752,7 @@
         <v>2.72</v>
       </c>
       <c r="K84" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
@@ -11872,13 +11872,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G85" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H85" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="I85" t="n">
         <v>2.34</v>
@@ -11887,7 +11887,7 @@
         <v>2.74</v>
       </c>
       <c r="K85" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -12016,7 +12016,7 @@
         <v>5.5</v>
       </c>
       <c r="I86" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
         <v>4.2</v>
@@ -12031,7 +12031,7 @@
         <v>1.06</v>
       </c>
       <c r="N86" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O86" t="n">
         <v>1.28</v>
@@ -12046,7 +12046,7 @@
         <v>1.44</v>
       </c>
       <c r="S86" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T86" t="n">
         <v>1.84</v>
@@ -12061,7 +12061,7 @@
         <v>2.4</v>
       </c>
       <c r="X86" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y86" t="n">
         <v>22</v>
@@ -12175,13 +12175,13 @@
         <v>2.06</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R87" t="n">
         <v>1.39</v>
       </c>
       <c r="S87" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T87" t="n">
         <v>2.58</v>
@@ -12190,7 +12190,7 @@
         <v>1.59</v>
       </c>
       <c r="V87" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W87" t="n">
         <v>4</v>
@@ -12229,7 +12229,7 @@
         <v>42</v>
       </c>
       <c r="AI87" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AJ87" t="n">
         <v>9</v>
@@ -12307,10 +12307,10 @@
         <v>1.14</v>
       </c>
       <c r="P88" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R88" t="n">
         <v>1.87</v>
@@ -12415,7 +12415,7 @@
         <v>1.93</v>
       </c>
       <c r="G89" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>4.2</v>
@@ -12424,7 +12424,7 @@
         <v>4.7</v>
       </c>
       <c r="J89" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K89" t="n">
         <v>3.9</v>
@@ -12436,34 +12436,34 @@
         <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="O89" t="n">
         <v>1.32</v>
       </c>
       <c r="P89" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="Q89" t="n">
         <v>1.96</v>
       </c>
       <c r="R89" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S89" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T89" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U89" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V89" t="n">
         <v>1.27</v>
       </c>
       <c r="W89" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="X89" t="n">
         <v>970</v>
@@ -12502,19 +12502,19 @@
         <v>65</v>
       </c>
       <c r="AJ89" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK89" t="n">
         <v>23</v>
       </c>
-      <c r="AK89" t="n">
-        <v>21</v>
-      </c>
       <c r="AL89" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM89" t="n">
         <v>110</v>
       </c>
       <c r="AN89" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AO89" t="n">
         <v>65</v>
@@ -12550,10 +12550,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H90" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I90" t="n">
         <v>1.5</v>
@@ -12571,40 +12571,40 @@
         <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O90" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P90" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R90" t="n">
         <v>1.3</v>
       </c>
       <c r="S90" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T90" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U90" t="n">
         <v>1.6</v>
       </c>
       <c r="V90" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="W90" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X90" t="n">
         <v>16</v>
       </c>
       <c r="Y90" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z90" t="n">
         <v>8</v>
@@ -12646,13 +12646,13 @@
         <v>180</v>
       </c>
       <c r="AM90" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN90" t="n">
         <v>350</v>
       </c>
       <c r="AO90" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -12685,37 +12685,37 @@
         <v>2.98</v>
       </c>
       <c r="G91" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H91" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I91" t="n">
         <v>2.66</v>
       </c>
       <c r="J91" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K91" t="n">
         <v>3.6</v>
       </c>
       <c r="L91" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M91" t="n">
         <v>1.07</v>
       </c>
       <c r="N91" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="O91" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P91" t="n">
         <v>1.68</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R91" t="n">
         <v>1.24</v>
@@ -12733,13 +12733,13 @@
         <v>1.6</v>
       </c>
       <c r="W91" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X91" t="n">
         <v>12</v>
       </c>
       <c r="Y91" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z91" t="n">
         <v>17</v>
@@ -12760,19 +12760,19 @@
         <v>34</v>
       </c>
       <c r="AF91" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH91" t="n">
         <v>21</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>22</v>
       </c>
       <c r="AI91" t="n">
         <v>55</v>
       </c>
       <c r="AJ91" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK91" t="n">
         <v>55</v>
@@ -12784,10 +12784,10 @@
         <v>160</v>
       </c>
       <c r="AN91" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO91" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92">
@@ -12817,13 +12817,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G92" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H92" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I92" t="n">
         <v>2.74</v>
@@ -12841,13 +12841,13 @@
         <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O92" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P92" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q92" t="n">
         <v>1.89</v>
@@ -12865,13 +12865,13 @@
         <v>2.04</v>
       </c>
       <c r="V92" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W92" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X92" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Y92" t="n">
         <v>970</v>
@@ -12955,16 +12955,16 @@
         <v>2.2</v>
       </c>
       <c r="G93" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H93" t="n">
         <v>3.55</v>
       </c>
       <c r="I93" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K93" t="n">
         <v>3.8</v>
@@ -13000,10 +13000,10 @@
         <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="W93" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X93" t="n">
         <v>11.5</v>
@@ -13057,6 +13057,276 @@
         <v>1000</v>
       </c>
       <c r="AO93" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>22:06:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>CF America</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Aguilas Doradas</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K95" t="n">
+        <v>980</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO95" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
         <v>28</v>
       </c>
       <c r="AE2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM2" t="n">
         <v>130</v>
       </c>
-      <c r="AF2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AN2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO2" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.7</v>
@@ -814,10 +814,10 @@
         <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
         <v>1.43</v>
@@ -826,34 +826,34 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
         <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -874,40 +874,40 @@
         <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL3" t="n">
         <v>980</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -937,67 +937,67 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="G4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.63</v>
       </c>
-      <c r="H4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.61</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S4" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
         <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
         <v>150</v>
@@ -1027,7 +1027,7 @@
         <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK4" t="n">
         <v>15.5</v>
@@ -1039,7 +1039,7 @@
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>60</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.02</v>
+        <v>7.6</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>1.54</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.02</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.02</v>
+        <v>2.36</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,7 +1255,7 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="W6" t="n">
         <v>1.01</v>
@@ -1489,7 +1489,7 @@
         <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>3.45</v>
@@ -1504,16 +1504,16 @@
         <v>2.94</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
         <v>4.2</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G9" t="n">
         <v>1.26</v>
@@ -1621,7 +1621,7 @@
         <v>13.5</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="J9" t="n">
         <v>6.4</v>
@@ -1633,34 +1633,34 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>2.64</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
         <v>4.4</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
         <v>20</v>
@@ -1687,19 +1687,19 @@
         <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ9" t="n">
         <v>11.5</v>
@@ -1711,13 +1711,13 @@
         <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
         <v>5.1</v>
@@ -1762,7 +1762,7 @@
         <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1777,10 +1777,10 @@
         <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R10" t="n">
         <v>1.8</v>
@@ -1798,7 +1798,7 @@
         <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1813,7 +1813,7 @@
         <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
         <v>15.5</v>
@@ -1837,10 +1837,10 @@
         <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>980</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
@@ -1897,7 +1897,7 @@
         <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>1.34</v>
@@ -1915,40 +1915,40 @@
         <v>2.26</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
         <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
         <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>10.5</v>
@@ -1957,37 +1957,37 @@
         <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
         <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2023,7 +2023,7 @@
         <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
         <v>3.7</v>
@@ -2044,25 +2044,25 @@
         <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
         <v>1.37</v>
@@ -2122,7 +2122,7 @@
         <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2173,7 +2173,7 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>2.16</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
         <v>3.05</v>
       </c>
       <c r="H14" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
         <v>2.66</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,13 +2311,13 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
         <v>2.18</v>
@@ -2335,7 +2335,7 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
         <v>1.5</v>
@@ -2449,13 +2449,13 @@
         <v>2.78</v>
       </c>
       <c r="O15" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P15" t="n">
         <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R15" t="n">
         <v>1.2</v>
@@ -2467,7 +2467,7 @@
         <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
         <v>1.47</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="G16" t="n">
         <v>6.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="J16" t="n">
         <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,13 +2581,13 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="Q16" t="n">
         <v>1.67</v>
@@ -2596,7 +2596,7 @@
         <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,7 +2605,7 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="W16" t="n">
         <v>1.18</v>
@@ -2698,7 +2698,7 @@
         <v>2.98</v>
       </c>
       <c r="H17" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I17" t="n">
         <v>3.55</v>
@@ -2716,13 +2716,13 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O17" t="n">
         <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Q17" t="n">
         <v>1.75</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G20" t="n">
         <v>2.58</v>
@@ -3112,7 +3112,7 @@
         <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -3130,10 +3130,10 @@
         <v>2.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S20" t="n">
         <v>2.84</v>
@@ -3145,7 +3145,7 @@
         <v>2.4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
         <v>1.63</v>
@@ -3199,10 +3199,10 @@
         <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3247,7 +3247,7 @@
         <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
@@ -3277,7 +3277,7 @@
         <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V21" t="n">
         <v>1.63</v>
@@ -3292,13 +3292,13 @@
         <v>16</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
         <v>42</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC21" t="n">
         <v>10.5</v>
@@ -3325,19 +3325,19 @@
         <v>55</v>
       </c>
       <c r="AK21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>3.3</v>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H22" t="n">
         <v>2.22</v>
@@ -3382,7 +3382,7 @@
         <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -3502,40 +3502,40 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L23" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
         <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
         <v>1.31</v>
@@ -3550,46 +3550,46 @@
         <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
         <v>14</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
         <v>44</v>
       </c>
       <c r="AF23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
         <v>36</v>
@@ -3604,10 +3604,10 @@
         <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G24" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J24" t="n">
         <v>3.85</v>
@@ -3661,7 +3661,7 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.2</v>
@@ -3688,7 +3688,7 @@
         <v>1.26</v>
       </c>
       <c r="W24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X24" t="n">
         <v>26</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G25" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I25" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.43</v>
@@ -3820,55 +3820,55 @@
         <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X25" t="n">
         <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AF25" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
         <v>120</v>
@@ -4048,7 +4048,7 @@
         <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I27" t="n">
         <v>1.88</v>
@@ -4066,7 +4066,7 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O27" t="n">
         <v>1.34</v>
@@ -4075,7 +4075,7 @@
         <v>1.86</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
         <v>1.32</v>
@@ -4180,43 +4180,43 @@
         <v>2.02</v>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I28" t="n">
         <v>4.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
         <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4228,7 +4228,7 @@
         <v>1.29</v>
       </c>
       <c r="W28" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
         <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4360,10 +4360,10 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W29" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4450,7 +4450,7 @@
         <v>4.4</v>
       </c>
       <c r="G30" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="H30" t="n">
         <v>1.95</v>
@@ -4459,10 +4459,10 @@
         <v>2.18</v>
       </c>
       <c r="J30" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L30" t="n">
         <v>1.5</v>
@@ -4471,37 +4471,37 @@
         <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="O30" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P30" t="n">
         <v>1.52</v>
       </c>
-      <c r="P30" t="n">
-        <v>1.51</v>
-      </c>
       <c r="Q30" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T30" t="n">
         <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V30" t="n">
         <v>1.84</v>
       </c>
       <c r="W30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y30" t="n">
         <v>7.6</v>
@@ -4531,7 +4531,7 @@
         <v>24</v>
       </c>
       <c r="AH30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>70</v>
@@ -4546,13 +4546,13 @@
         <v>130</v>
       </c>
       <c r="AM30" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="n">
         <v>170</v>
       </c>
       <c r="AO30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -4588,40 +4588,40 @@
         <v>7.4</v>
       </c>
       <c r="H31" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I31" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K31" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R31" t="n">
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4630,10 +4630,10 @@
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="W31" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4720,19 +4720,19 @@
         <v>2.58</v>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I32" t="n">
         <v>3.3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.74</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,22 +4741,22 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4768,7 +4768,7 @@
         <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4864,7 +4864,7 @@
         <v>1.91</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K33" t="n">
         <v>4.2</v>
@@ -4885,7 +4885,7 @@
         <v>2.18</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
         <v>1.47</v>
@@ -4897,13 +4897,13 @@
         <v>1.71</v>
       </c>
       <c r="U33" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V33" t="n">
         <v>2.08</v>
       </c>
       <c r="W33" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X33" t="n">
         <v>22</v>
@@ -4912,43 +4912,43 @@
         <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AA33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB33" t="n">
         <v>21</v>
       </c>
-      <c r="AB33" t="n">
-        <v>970</v>
-      </c>
       <c r="AC33" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AF33" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AH33" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
         <v>32</v>
       </c>
       <c r="AJ33" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK33" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM33" t="n">
         <v>95</v>
@@ -4957,7 +4957,7 @@
         <v>60</v>
       </c>
       <c r="AO33" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="G34" t="n">
         <v>6.6</v>
@@ -5020,13 +5020,13 @@
         <v>2.44</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
         <v>1.58</v>
       </c>
       <c r="S34" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T34" t="n">
         <v>1.73</v>
@@ -5131,10 +5131,10 @@
         <v>1.09</v>
       </c>
       <c r="I35" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J35" t="n">
-        <v>3.7</v>
+        <v>1.09</v>
       </c>
       <c r="K35" t="n">
         <v>980</v>
@@ -5146,13 +5146,13 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="n">
         <v>1.07</v>
       </c>
       <c r="P35" t="n">
-        <v>1.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q35" t="n">
         <v>1.25</v>
@@ -5260,7 +5260,7 @@
         <v>1.67</v>
       </c>
       <c r="G36" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H36" t="n">
         <v>4.6</v>
@@ -5296,10 +5296,10 @@
         <v>1.63</v>
       </c>
       <c r="S36" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U36" t="n">
         <v>1.01</v>
@@ -5395,10 +5395,10 @@
         <v>2.06</v>
       </c>
       <c r="G37" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H37" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I37" t="n">
         <v>3.8</v>
@@ -5443,7 +5443,7 @@
         <v>1.35</v>
       </c>
       <c r="W37" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5551,7 +5551,7 @@
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O38" t="n">
         <v>1.38</v>
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="G39" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="H39" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="I39" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J39" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="K39" t="n">
         <v>6.2</v>
@@ -5683,73 +5683,73 @@
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="R39" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="S39" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T39" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="V39" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W39" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="X39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y39" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD39" t="n">
         <v>46</v>
       </c>
-      <c r="Z39" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>50</v>
-      </c>
       <c r="AE39" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AF39" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI39" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AJ39" t="n">
         <v>12.5</v>
@@ -5761,13 +5761,13 @@
         <v>46</v>
       </c>
       <c r="AM39" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN39" t="n">
         <v>6</v>
       </c>
       <c r="AO39" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G40" t="n">
         <v>4.9</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I40" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K40" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4.3</v>
       </c>
       <c r="L40" t="n">
         <v>1.35</v>
@@ -5827,10 +5827,10 @@
         <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
         <v>1.5</v>
@@ -5842,25 +5842,25 @@
         <v>1.74</v>
       </c>
       <c r="U40" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V40" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="W40" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X40" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="n">
         <v>10.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="n">
         <v>20</v>
@@ -5881,7 +5881,7 @@
         <v>18</v>
       </c>
       <c r="AH40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI40" t="n">
         <v>29</v>
@@ -5893,13 +5893,13 @@
         <v>60</v>
       </c>
       <c r="AL40" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
         <v>80</v>
       </c>
       <c r="AN40" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO40" t="n">
         <v>9.199999999999999</v>
@@ -5962,7 +5962,7 @@
         <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q41" t="n">
         <v>1.66</v>
@@ -5989,7 +5989,7 @@
         <v>21</v>
       </c>
       <c r="Y41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z41" t="n">
         <v>60</v>
@@ -6031,7 +6031,7 @@
         <v>29</v>
       </c>
       <c r="AM41" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN41" t="n">
         <v>6.4</v>
@@ -6073,7 +6073,7 @@
         <v>2.32</v>
       </c>
       <c r="H42" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I42" t="n">
         <v>3.75</v>
@@ -6136,7 +6136,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD42" t="n">
         <v>14.5</v>
@@ -6157,7 +6157,7 @@
         <v>55</v>
       </c>
       <c r="AJ42" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK42" t="n">
         <v>25</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G43" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H43" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I43" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="J43" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
         <v>4.1</v>
@@ -6226,16 +6226,16 @@
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
       </c>
       <c r="P43" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R43" t="n">
         <v>1.33</v>
@@ -6244,34 +6244,34 @@
         <v>3.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U43" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V43" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W43" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="X43" t="n">
         <v>20</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z43" t="n">
         <v>13</v>
       </c>
       <c r="AA43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB43" t="n">
         <v>25</v>
       </c>
       <c r="AC43" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
         <v>12.5</v>
@@ -6298,7 +6298,7 @@
         <v>100</v>
       </c>
       <c r="AL43" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
@@ -6475,7 +6475,7 @@
         <v>2.7</v>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H45" t="n">
         <v>2.92</v>
@@ -6523,7 +6523,7 @@
         <v>1.5</v>
       </c>
       <c r="W45" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X45" t="n">
         <v>13.5</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G46" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H46" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
         <v>6.2</v>
       </c>
       <c r="J46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K46" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4.3</v>
       </c>
       <c r="L46" t="n">
         <v>1.38</v>
@@ -6658,7 +6658,7 @@
         <v>1.19</v>
       </c>
       <c r="W46" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="X46" t="n">
         <v>16</v>
@@ -6682,7 +6682,7 @@
         <v>22</v>
       </c>
       <c r="AE46" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="n">
         <v>10</v>
@@ -6694,7 +6694,7 @@
         <v>20</v>
       </c>
       <c r="AI46" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="n">
         <v>16</v>
@@ -6712,7 +6712,7 @@
         <v>9</v>
       </c>
       <c r="AO46" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G47" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H47" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="I47" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K47" t="n">
         <v>3.4</v>
@@ -6766,13 +6766,13 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2.68</v>
+        <v>1.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P47" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="Q47" t="n">
         <v>2.46</v>
@@ -6781,7 +6781,7 @@
         <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T47" t="n">
         <v>1.01</v>
@@ -6790,10 +6790,10 @@
         <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W47" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G48" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="I48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48" t="n">
         <v>6</v>
@@ -6901,25 +6901,25 @@
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O48" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P48" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q48" t="n">
         <v>1.61</v>
       </c>
       <c r="R48" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S48" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="T48" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="U48" t="n">
         <v>1.5</v>
@@ -6928,28 +6928,28 @@
         <v>1.05</v>
       </c>
       <c r="W48" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="X48" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z48" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC48" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="n">
         <v>1000</v>
@@ -6964,22 +6964,22 @@
         <v>55</v>
       </c>
       <c r="AI48" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AJ48" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK48" t="n">
         <v>19</v>
       </c>
       <c r="AL48" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM48" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AN48" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G50" t="n">
         <v>1.39</v>
       </c>
       <c r="H50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I50" t="n">
         <v>11</v>
       </c>
-      <c r="I50" t="n">
-        <v>11.5</v>
-      </c>
       <c r="J50" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K50" t="n">
         <v>5.5</v>
@@ -7171,7 +7171,7 @@
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O50" t="n">
         <v>1.32</v>
@@ -7189,16 +7189,16 @@
         <v>3.5</v>
       </c>
       <c r="T50" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U50" t="n">
         <v>1.68</v>
       </c>
       <c r="V50" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W50" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="X50" t="n">
         <v>16.5</v>
@@ -7234,7 +7234,7 @@
         <v>34</v>
       </c>
       <c r="AI50" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ50" t="n">
         <v>10.5</v>
@@ -7285,19 +7285,19 @@
         <v>2.54</v>
       </c>
       <c r="G51" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I51" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J51" t="n">
         <v>3.2</v>
       </c>
       <c r="K51" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L51" t="n">
         <v>1.42</v>
@@ -7306,16 +7306,16 @@
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O51" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P51" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R51" t="n">
         <v>1.34</v>
@@ -7324,25 +7324,25 @@
         <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U51" t="n">
         <v>2.12</v>
       </c>
       <c r="V51" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W51" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X51" t="n">
         <v>12</v>
       </c>
       <c r="Y51" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA51" t="n">
         <v>60</v>
@@ -7351,43 +7351,43 @@
         <v>11</v>
       </c>
       <c r="AC51" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE51" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF51" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AG51" t="n">
         <v>12.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ51" t="n">
         <v>38</v>
       </c>
       <c r="AK51" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL51" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM51" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO51" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
@@ -7420,13 +7420,13 @@
         <v>3.15</v>
       </c>
       <c r="G52" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H52" t="n">
         <v>2.7</v>
       </c>
       <c r="I52" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J52" t="n">
         <v>3</v>
@@ -7441,7 +7441,7 @@
         <v>1.12</v>
       </c>
       <c r="N52" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O52" t="n">
         <v>1.53</v>
@@ -7462,7 +7462,7 @@
         <v>2.1</v>
       </c>
       <c r="U52" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V52" t="n">
         <v>1.55</v>
@@ -7576,19 +7576,19 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O53" t="n">
         <v>1.22</v>
       </c>
       <c r="P53" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="R53" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S53" t="n">
         <v>2.66</v>
@@ -7597,7 +7597,7 @@
         <v>1.61</v>
       </c>
       <c r="U53" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="V53" t="n">
         <v>1.74</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G54" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H54" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I54" t="n">
         <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K54" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7717,16 +7717,16 @@
         <v>1.18</v>
       </c>
       <c r="P54" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="R54" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S54" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="T54" t="n">
         <v>1.01</v>
@@ -7738,7 +7738,7 @@
         <v>1.25</v>
       </c>
       <c r="W54" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G55" t="n">
         <v>3.3</v>
@@ -7831,13 +7831,13 @@
         <v>2.3</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="J55" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7846,34 +7846,34 @@
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="O55" t="n">
         <v>1.24</v>
       </c>
       <c r="P55" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R55" t="n">
         <v>1.25</v>
       </c>
       <c r="S55" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="T55" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="U55" t="n">
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W55" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="G56" t="n">
         <v>1.45</v>
@@ -7966,13 +7966,13 @@
         <v>8</v>
       </c>
       <c r="I56" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J56" t="n">
         <v>5.5</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L56" t="n">
         <v>1.21</v>
@@ -7987,7 +7987,7 @@
         <v>1.13</v>
       </c>
       <c r="P56" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q56" t="n">
         <v>1.39</v>
@@ -7999,13 +7999,13 @@
         <v>1.98</v>
       </c>
       <c r="T56" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U56" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V56" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W56" t="n">
         <v>3.25</v>
@@ -8059,7 +8059,7 @@
         <v>75</v>
       </c>
       <c r="AN56" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO56" t="n">
         <v>75</v>
@@ -8098,7 +8098,7 @@
         <v>2.28</v>
       </c>
       <c r="H57" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I57" t="n">
         <v>4.6</v>
@@ -8113,52 +8113,52 @@
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P57" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R57" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T57" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
         <v>1.71</v>
       </c>
       <c r="V57" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W57" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X57" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y57" t="n">
         <v>970</v>
       </c>
       <c r="Z57" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA57" t="n">
         <v>130</v>
       </c>
       <c r="AB57" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC57" t="n">
         <v>9</v>
@@ -8167,7 +8167,7 @@
         <v>22</v>
       </c>
       <c r="AE57" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF57" t="n">
         <v>970</v>
@@ -8191,13 +8191,13 @@
         <v>75</v>
       </c>
       <c r="AM57" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN57" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO57" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
@@ -8236,7 +8236,7 @@
         <v>5.5</v>
       </c>
       <c r="I58" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="J58" t="n">
         <v>4.4</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G59" t="n">
         <v>1.78</v>
       </c>
       <c r="H59" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I59" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J59" t="n">
         <v>3.75</v>
@@ -8386,34 +8386,34 @@
         <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O59" t="n">
         <v>1.33</v>
       </c>
       <c r="P59" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R59" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S59" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T59" t="n">
         <v>1.91</v>
       </c>
       <c r="U59" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="V59" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W59" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X59" t="n">
         <v>970</v>
@@ -8425,7 +8425,7 @@
         <v>46</v>
       </c>
       <c r="AA59" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB59" t="n">
         <v>8.199999999999999</v>
@@ -8443,7 +8443,7 @@
         <v>10.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH59" t="n">
         <v>22</v>
@@ -8530,16 +8530,16 @@
         <v>2.12</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R60" t="n">
         <v>1.43</v>
       </c>
       <c r="S60" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T60" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U60" t="n">
         <v>2.06</v>
@@ -8563,7 +8563,7 @@
         <v>160</v>
       </c>
       <c r="AB60" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC60" t="n">
         <v>9.4</v>
@@ -8575,7 +8575,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG60" t="n">
         <v>9.6</v>
@@ -8791,13 +8791,13 @@
         <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O62" t="n">
         <v>1.34</v>
       </c>
       <c r="P62" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q62" t="n">
         <v>2</v>
@@ -8824,7 +8824,7 @@
         <v>14</v>
       </c>
       <c r="Y62" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z62" t="n">
         <v>42</v>
@@ -8854,22 +8854,22 @@
         <v>21</v>
       </c>
       <c r="AI62" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ62" t="n">
         <v>17</v>
       </c>
       <c r="AK62" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL62" t="n">
         <v>36</v>
       </c>
       <c r="AM62" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN62" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO62" t="n">
         <v>95</v>
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="G64" t="n">
         <v>2.22</v>
       </c>
       <c r="H64" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I64" t="n">
-        <v>6.4</v>
+        <v>970</v>
       </c>
       <c r="J64" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>5.6</v>
+        <v>110</v>
       </c>
       <c r="L64" t="n">
         <v>1.01</v>
@@ -9061,22 +9061,22 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O64" t="n">
         <v>1.01</v>
       </c>
       <c r="P64" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R64" t="n">
         <v>1.08</v>
       </c>
       <c r="S64" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="T64" t="n">
         <v>1.01</v>
@@ -9085,7 +9085,7 @@
         <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="W64" t="n">
         <v>1.81</v>
@@ -9175,22 +9175,22 @@
         <v>1.92</v>
       </c>
       <c r="G65" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="H65" t="n">
         <v>3.7</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J65" t="n">
-        <v>2.92</v>
+        <v>2.3</v>
       </c>
       <c r="K65" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L65" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M65" t="n">
         <v>1.01</v>
@@ -9205,7 +9205,7 @@
         <v>1.45</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R65" t="n">
         <v>1.08</v>
@@ -9223,7 +9223,7 @@
         <v>1.2</v>
       </c>
       <c r="W65" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9466,13 +9466,13 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="O67" t="n">
         <v>1.01</v>
       </c>
       <c r="P67" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="Q67" t="n">
         <v>1.91</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G68" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I68" t="n">
         <v>4.4</v>
       </c>
       <c r="J68" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="K68" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -9604,19 +9604,19 @@
         <v>1.39</v>
       </c>
       <c r="O68" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="P68" t="n">
         <v>1.39</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R68" t="n">
         <v>1.08</v>
       </c>
       <c r="S68" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9628,7 +9628,7 @@
         <v>1.29</v>
       </c>
       <c r="W68" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X68" t="n">
         <v>1000</v>
@@ -9718,16 +9718,16 @@
         <v>7.2</v>
       </c>
       <c r="H69" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="I69" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="J69" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="K69" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L69" t="n">
         <v>1.39</v>
@@ -9736,88 +9736,88 @@
         <v>1.06</v>
       </c>
       <c r="N69" t="n">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="O69" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P69" t="n">
-        <v>1.3</v>
+        <v>1.91</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="R69" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="S69" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="T69" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U69" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V69" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="W69" t="n">
         <v>1.17</v>
       </c>
       <c r="X69" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z69" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA69" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC69" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE69" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF69" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG69" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH69" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI69" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK69" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL69" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM69" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN69" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO69" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="70">
@@ -9859,37 +9859,37 @@
         <v>2.16</v>
       </c>
       <c r="J70" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L70" t="n">
         <v>1.52</v>
       </c>
       <c r="M70" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N70" t="n">
         <v>3.15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P70" t="n">
         <v>1.69</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R70" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S70" t="n">
         <v>4.6</v>
       </c>
       <c r="T70" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U70" t="n">
         <v>1.92</v>
@@ -9934,10 +9934,10 @@
         <v>21</v>
       </c>
       <c r="AI70" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ70" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK70" t="n">
         <v>65</v>
@@ -9949,7 +9949,7 @@
         <v>150</v>
       </c>
       <c r="AN70" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO70" t="n">
         <v>23</v>
@@ -9988,7 +9988,7 @@
         <v>1.18</v>
       </c>
       <c r="H71" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I71" t="n">
         <v>28</v>
@@ -9997,7 +9997,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L71" t="n">
         <v>1.2</v>
@@ -10006,85 +10006,85 @@
         <v>1.02</v>
       </c>
       <c r="N71" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="O71" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P71" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R71" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="S71" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T71" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="U71" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="V71" t="n">
         <v>1.03</v>
       </c>
       <c r="W71" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X71" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y71" t="n">
         <v>80</v>
       </c>
       <c r="Z71" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AA71" t="n">
         <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC71" t="n">
         <v>23</v>
       </c>
       <c r="AD71" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AE71" t="n">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="AF71" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG71" t="n">
         <v>14.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI71" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="AJ71" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK71" t="n">
         <v>15.5</v>
       </c>
       <c r="AL71" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM71" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="AN71" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AO71" t="n">
         <v>1000</v>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="G72" t="n">
         <v>3.15</v>
@@ -10126,10 +10126,10 @@
         <v>2.56</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="J72" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K72" t="n">
         <v>3.7</v>
@@ -10141,31 +10141,31 @@
         <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O72" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P72" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R72" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S72" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T72" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="U72" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V72" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="W72" t="n">
         <v>1.46</v>
@@ -10261,7 +10261,7 @@
         <v>1.45</v>
       </c>
       <c r="I73" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J73" t="n">
         <v>4.7</v>
@@ -10276,28 +10276,28 @@
         <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O73" t="n">
         <v>1.16</v>
       </c>
       <c r="P73" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R73" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S73" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="T73" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U73" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V73" t="n">
         <v>2.78</v>
@@ -10306,19 +10306,19 @@
         <v>1.14</v>
       </c>
       <c r="X73" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z73" t="n">
         <v>12.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AC73" t="n">
         <v>14</v>
@@ -10330,7 +10330,7 @@
         <v>17</v>
       </c>
       <c r="AF73" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG73" t="n">
         <v>32</v>
@@ -10348,16 +10348,16 @@
         <v>100</v>
       </c>
       <c r="AL73" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM73" t="n">
         <v>110</v>
       </c>
       <c r="AN73" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AO73" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="74">
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="G74" t="n">
         <v>5.2</v>
       </c>
       <c r="H74" t="n">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="I74" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="J74" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K74" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10411,31 +10411,31 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="O74" t="n">
         <v>1.29</v>
       </c>
       <c r="P74" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R74" t="n">
         <v>1.3</v>
       </c>
       <c r="S74" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T74" t="n">
         <v>1.01</v>
       </c>
       <c r="U74" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V74" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W74" t="n">
         <v>1.24</v>
@@ -10657,19 +10657,19 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G76" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I76" t="n">
         <v>4.9</v>
       </c>
       <c r="J76" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K76" t="n">
         <v>2.98</v>
@@ -10678,40 +10678,40 @@
         <v>1.66</v>
       </c>
       <c r="M76" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P76" t="n">
         <v>1.36</v>
       </c>
-      <c r="O76" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P76" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Q76" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R76" t="n">
         <v>1.11</v>
       </c>
       <c r="S76" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="T76" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="U76" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V76" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W76" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="X76" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="Y76" t="n">
         <v>1000</v>
@@ -10723,10 +10723,10 @@
         <v>1000</v>
       </c>
       <c r="AB76" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC76" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD76" t="n">
         <v>1000</v>
@@ -10795,19 +10795,19 @@
         <v>2.26</v>
       </c>
       <c r="G77" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="H77" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I77" t="n">
         <v>3.65</v>
       </c>
       <c r="J77" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K77" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L77" t="n">
         <v>1.4</v>
@@ -10816,13 +10816,13 @@
         <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O77" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P77" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q77" t="n">
         <v>2</v>
@@ -10831,55 +10831,55 @@
         <v>1.33</v>
       </c>
       <c r="S77" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T77" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U77" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V77" t="n">
         <v>1.38</v>
       </c>
       <c r="W77" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="X77" t="n">
         <v>13.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z77" t="n">
         <v>24</v>
       </c>
       <c r="AA77" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB77" t="n">
         <v>10</v>
       </c>
       <c r="AC77" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD77" t="n">
         <v>15</v>
       </c>
       <c r="AE77" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AF77" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG77" t="n">
         <v>11.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI77" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ77" t="n">
         <v>32</v>
@@ -10888,7 +10888,7 @@
         <v>27</v>
       </c>
       <c r="AL77" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM77" t="n">
         <v>110</v>
@@ -10930,7 +10930,7 @@
         <v>1.91</v>
       </c>
       <c r="G78" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H78" t="n">
         <v>4</v>
@@ -10939,100 +10939,100 @@
         <v>4.6</v>
       </c>
       <c r="J78" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K78" t="n">
         <v>4</v>
       </c>
       <c r="L78" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M78" t="n">
         <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O78" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P78" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="R78" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S78" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T78" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U78" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V78" t="n">
         <v>1.28</v>
       </c>
       <c r="W78" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="X78" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Y78" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Z78" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA78" t="n">
         <v>110</v>
       </c>
       <c r="AB78" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD78" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AE78" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF78" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG78" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI78" t="n">
         <v>60</v>
       </c>
       <c r="AJ78" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK78" t="n">
         <v>24</v>
       </c>
-      <c r="AK78" t="n">
-        <v>22</v>
-      </c>
       <c r="AL78" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM78" t="n">
         <v>120</v>
       </c>
       <c r="AN78" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AO78" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79">
@@ -11065,19 +11065,19 @@
         <v>7</v>
       </c>
       <c r="G79" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H79" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="I79" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J79" t="n">
         <v>4.2</v>
       </c>
       <c r="K79" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L79" t="n">
         <v>1.45</v>
@@ -11086,88 +11086,88 @@
         <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O79" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P79" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R79" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S79" t="n">
         <v>4</v>
       </c>
       <c r="T79" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U79" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="V79" t="n">
         <v>2.62</v>
       </c>
       <c r="W79" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y79" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z79" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA79" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC79" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD79" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF79" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG79" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH79" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI79" t="n">
         <v>55</v>
       </c>
       <c r="AJ79" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AK79" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AL79" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AM79" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN79" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AO79" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="80">
@@ -11197,13 +11197,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G80" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H80" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I80" t="n">
         <v>2.64</v>
@@ -11227,7 +11227,7 @@
         <v>1.21</v>
       </c>
       <c r="P80" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q80" t="n">
         <v>1.62</v>
@@ -11236,7 +11236,7 @@
         <v>1.52</v>
       </c>
       <c r="S80" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T80" t="n">
         <v>1.5</v>
@@ -11245,10 +11245,10 @@
         <v>2.44</v>
       </c>
       <c r="V80" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W80" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X80" t="n">
         <v>25</v>
@@ -11263,7 +11263,7 @@
         <v>40</v>
       </c>
       <c r="AB80" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC80" t="n">
         <v>11</v>
@@ -11332,19 +11332,19 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G81" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K81" t="n">
         <v>3.6</v>
@@ -11356,7 +11356,7 @@
         <v>1.1</v>
       </c>
       <c r="N81" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="O81" t="n">
         <v>1.1</v>
@@ -11365,25 +11365,25 @@
         <v>1.63</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R81" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="S81" t="n">
         <v>3.85</v>
       </c>
       <c r="T81" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U81" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V81" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W81" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="X81" t="n">
         <v>1000</v>
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G82" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H82" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I82" t="n">
         <v>4.3</v>
       </c>
       <c r="J82" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K82" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L82" t="n">
         <v>1.43</v>
@@ -11491,49 +11491,49 @@
         <v>1.08</v>
       </c>
       <c r="N82" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="O82" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P82" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R82" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S82" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="T82" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U82" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="V82" t="n">
         <v>1.3</v>
       </c>
       <c r="W82" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X82" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z82" t="n">
         <v>30</v>
       </c>
       <c r="AA82" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB82" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC82" t="n">
         <v>8</v>
@@ -11551,10 +11551,10 @@
         <v>11.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI82" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ82" t="n">
         <v>28</v>
@@ -11566,13 +11566,13 @@
         <v>44</v>
       </c>
       <c r="AM82" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN82" t="n">
         <v>21</v>
       </c>
       <c r="AO82" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83">
@@ -11605,16 +11605,16 @@
         <v>4.1</v>
       </c>
       <c r="G83" t="n">
-        <v>6</v>
+        <v>980</v>
       </c>
       <c r="H83" t="n">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="I83" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="J83" t="n">
-        <v>2.5</v>
+        <v>1.09</v>
       </c>
       <c r="K83" t="n">
         <v>980</v>
@@ -11626,16 +11626,16 @@
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O83" t="n">
         <v>1.36</v>
       </c>
       <c r="P83" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R83" t="n">
         <v>1.26</v>
@@ -11650,10 +11650,10 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="W83" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="X83" t="n">
         <v>16</v>
@@ -11698,7 +11698,7 @@
         <v>85</v>
       </c>
       <c r="AL83" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM83" t="n">
         <v>1000</v>
@@ -11875,7 +11875,7 @@
         <v>3.05</v>
       </c>
       <c r="G85" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H85" t="n">
         <v>1.9</v>
@@ -12082,7 +12082,7 @@
         <v>23</v>
       </c>
       <c r="AE86" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF86" t="n">
         <v>11</v>
@@ -12184,13 +12184,13 @@
         <v>3.4</v>
       </c>
       <c r="T87" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="U87" t="n">
         <v>1.59</v>
       </c>
       <c r="V87" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W87" t="n">
         <v>4</v>
@@ -12241,7 +12241,7 @@
         <v>55</v>
       </c>
       <c r="AM87" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="AN87" t="n">
         <v>6.2</v>
@@ -12295,7 +12295,7 @@
         <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M88" t="n">
         <v>1.02</v>
@@ -12310,7 +12310,7 @@
         <v>3.2</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R88" t="n">
         <v>1.87</v>
@@ -12415,7 +12415,7 @@
         <v>1.93</v>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H89" t="n">
         <v>4.2</v>
@@ -12424,7 +12424,7 @@
         <v>4.7</v>
       </c>
       <c r="J89" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K89" t="n">
         <v>3.9</v>
@@ -12436,34 +12436,34 @@
         <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O89" t="n">
         <v>1.32</v>
       </c>
       <c r="P89" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R89" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S89" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T89" t="n">
         <v>1.76</v>
       </c>
       <c r="U89" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V89" t="n">
         <v>1.27</v>
       </c>
       <c r="W89" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X89" t="n">
         <v>970</v>
@@ -12481,7 +12481,7 @@
         <v>970</v>
       </c>
       <c r="AC89" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AD89" t="n">
         <v>970</v>
@@ -12505,7 +12505,7 @@
         <v>24</v>
       </c>
       <c r="AK89" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL89" t="n">
         <v>38</v>
@@ -12514,7 +12514,7 @@
         <v>110</v>
       </c>
       <c r="AN89" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO89" t="n">
         <v>65</v>
@@ -12565,31 +12565,31 @@
         <v>4.9</v>
       </c>
       <c r="L90" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M90" t="n">
         <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O90" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P90" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R90" t="n">
         <v>1.3</v>
       </c>
       <c r="S90" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T90" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U90" t="n">
         <v>1.6</v>
@@ -12604,40 +12604,40 @@
         <v>16</v>
       </c>
       <c r="Y90" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA90" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC90" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AD90" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE90" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AF90" t="n">
         <v>80</v>
       </c>
       <c r="AG90" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AH90" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AI90" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ90" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AK90" t="n">
         <v>200</v>
@@ -12646,13 +12646,13 @@
         <v>180</v>
       </c>
       <c r="AM90" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN90" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AO90" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -12682,43 +12682,43 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H91" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I91" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J91" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K91" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L91" t="n">
         <v>1.49</v>
       </c>
       <c r="M91" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N91" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="O91" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P91" t="n">
         <v>1.68</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R91" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S91" t="n">
         <v>4.2</v>
@@ -12733,7 +12733,7 @@
         <v>1.6</v>
       </c>
       <c r="W91" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X91" t="n">
         <v>12</v>
@@ -12760,7 +12760,7 @@
         <v>34</v>
       </c>
       <c r="AF91" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG91" t="n">
         <v>14</v>
@@ -12820,10 +12820,10 @@
         <v>2.86</v>
       </c>
       <c r="G92" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H92" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="I92" t="n">
         <v>2.74</v>
@@ -12841,10 +12841,10 @@
         <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O92" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P92" t="n">
         <v>1.96</v>
@@ -12853,10 +12853,10 @@
         <v>1.89</v>
       </c>
       <c r="R92" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="S92" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="T92" t="n">
         <v>1.72</v>
@@ -12871,7 +12871,7 @@
         <v>1.45</v>
       </c>
       <c r="X92" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y92" t="n">
         <v>970</v>
@@ -13090,19 +13090,19 @@
         <v>3.3</v>
       </c>
       <c r="G94" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H94" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I94" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J94" t="n">
         <v>3.25</v>
       </c>
       <c r="K94" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
@@ -13111,13 +13111,13 @@
         <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O94" t="n">
         <v>1.33</v>
       </c>
       <c r="P94" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q94" t="n">
         <v>1.98</v>
@@ -13135,7 +13135,7 @@
         <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W94" t="n">
         <v>1.32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>1.31</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G3" t="n">
         <v>1.61</v>
@@ -814,10 +814,10 @@
         <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.35</v>
@@ -832,82 +832,82 @@
         <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
         <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
         <v>24</v>
       </c>
-      <c r="Y3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AI3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO3" t="n">
         <v>100</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.7</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X4" t="n">
         <v>18</v>
@@ -1003,10 +1003,10 @@
         <v>75</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>16.5</v>
@@ -1015,34 +1015,34 @@
         <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
@@ -1096,7 +1096,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
@@ -1108,22 +1108,22 @@
         <v>1.61</v>
       </c>
       <c r="R5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T5" t="n">
         <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X5" t="n">
         <v>24</v>
@@ -1159,7 +1159,7 @@
         <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
         <v>16.5</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="I6" t="n">
         <v>4.1</v>
@@ -1222,31 +1222,31 @@
         <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="I7" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>1.98</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
@@ -1420,16 +1420,16 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.02</v>
+        <v>1.74</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.02</v>
+        <v>1.86</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.02</v>
+        <v>1.86</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G9" t="n">
         <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I9" t="n">
         <v>3.15</v>
@@ -1630,19 +1630,19 @@
         <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O9" t="n">
         <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
         <v>2.24</v>
@@ -1660,7 +1660,7 @@
         <v>1.93</v>
       </c>
       <c r="V9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
         <v>1.48</v>
@@ -1717,7 +1717,7 @@
         <v>46</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G10" t="n">
         <v>1.28</v>
@@ -1759,7 +1759,7 @@
         <v>19.5</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
@@ -1792,7 +1792,7 @@
         <v>2.08</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
         <v>1.05</v>
@@ -1822,7 +1822,7 @@
         <v>65</v>
       </c>
       <c r="AE10" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -1852,7 +1852,7 @@
         <v>4.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>1.57</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>5.1</v>
@@ -1894,10 +1894,10 @@
         <v>6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1912,28 +1912,28 @@
         <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
         <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.95</v>
       </c>
       <c r="L12" t="n">
         <v>1.34</v>
@@ -2041,34 +2041,34 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
         <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T12" t="n">
         <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2095,7 +2095,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
@@ -2122,7 +2122,7 @@
         <v>15.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2155,91 +2155,91 @@
         <v>2.42</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="n">
         <v>60</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>65</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -2254,10 +2254,10 @@
         <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G14" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H14" t="n">
         <v>8</v>
@@ -2302,7 +2302,7 @@
         <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2320,7 +2320,7 @@
         <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
         <v>1.47</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G15" t="n">
         <v>3.05</v>
       </c>
       <c r="H15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K15" t="n">
         <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.94</v>
       </c>
       <c r="L15" t="n">
         <v>1.6</v>
@@ -2452,10 +2452,10 @@
         <v>1.54</v>
       </c>
       <c r="P15" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="R15" t="n">
         <v>1.2</v>
@@ -2464,13 +2464,13 @@
         <v>5.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U15" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
         <v>1.48</v>
@@ -2482,7 +2482,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA15" t="n">
         <v>50</v>
@@ -2521,10 +2521,10 @@
         <v>70</v>
       </c>
       <c r="AM15" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
         <v>55</v>
@@ -2572,7 +2572,7 @@
         <v>2.66</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,22 +2581,22 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.18</v>
+        <v>1.48</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,7 +2605,7 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
         <v>1.5</v>
@@ -2704,7 +2704,7 @@
         <v>2.08</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>5.4</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G18" t="n">
         <v>2.98</v>
@@ -2836,13 +2836,13 @@
         <v>2.62</v>
       </c>
       <c r="I18" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J18" t="n">
         <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -3265,7 +3265,7 @@
         <v>2.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
         <v>1.49</v>
@@ -3337,7 +3337,7 @@
         <v>20</v>
       </c>
       <c r="AO21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -3376,7 +3376,7 @@
         <v>2.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J22" t="n">
         <v>3.6</v>
@@ -3391,22 +3391,22 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S22" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="T22" t="n">
         <v>1.62</v>
@@ -3415,7 +3415,7 @@
         <v>2.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W22" t="n">
         <v>1.48</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G23" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H23" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I23" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
         <v>3.85</v>
@@ -3535,7 +3535,7 @@
         <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R23" t="n">
         <v>1.46</v>
@@ -3550,16 +3550,16 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="n">
         <v>22</v>
@@ -3577,7 +3577,7 @@
         <v>15.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF23" t="n">
         <v>36</v>
@@ -3589,19 +3589,19 @@
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="n">
         <v>48</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
@@ -3637,46 +3637,46 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="I24" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P24" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R24" t="n">
         <v>1.31</v>
       </c>
       <c r="S24" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T24" t="n">
         <v>1.78</v>
@@ -3685,64 +3685,64 @@
         <v>2.06</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AA24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
         <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH24" t="n">
         <v>18</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
         <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -3931,7 +3931,7 @@
         <v>1.18</v>
       </c>
       <c r="N26" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="O26" t="n">
         <v>1.77</v>
@@ -3940,7 +3940,7 @@
         <v>1.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="R26" t="n">
         <v>1.13</v>
@@ -3949,7 +3949,7 @@
         <v>8</v>
       </c>
       <c r="T26" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="U26" t="n">
         <v>1.62</v>
@@ -4180,7 +4180,7 @@
         <v>2.58</v>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
         <v>2.3</v>
@@ -4189,7 +4189,7 @@
         <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3.55</v>
+        <v>2.74</v>
       </c>
       <c r="K28" t="n">
         <v>5.6</v>
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P28" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,10 +4225,10 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W28" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G29" t="n">
         <v>1.77</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="G30" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="H30" t="n">
         <v>1.09</v>
       </c>
       <c r="I30" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="J30" t="n">
-        <v>1.09</v>
+        <v>3.65</v>
       </c>
       <c r="K30" t="n">
         <v>1000</v>
@@ -4486,7 +4486,7 @@
         <v>2.12</v>
       </c>
       <c r="S30" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4495,10 +4495,10 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="W30" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
         <v>6.6</v>
@@ -4606,13 +4606,13 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O31" t="n">
         <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q31" t="n">
         <v>1.62</v>
@@ -4624,7 +4624,7 @@
         <v>2.52</v>
       </c>
       <c r="T31" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U31" t="n">
         <v>2.28</v>
@@ -4726,7 +4726,7 @@
         <v>1.86</v>
       </c>
       <c r="I32" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J32" t="n">
         <v>3.9</v>
@@ -4735,7 +4735,7 @@
         <v>4.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -4765,7 +4765,7 @@
         <v>2.22</v>
       </c>
       <c r="V32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W32" t="n">
         <v>1.27</v>
@@ -4852,112 +4852,112 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="G33" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="H33" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
-        <v>7.2</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>1.57</v>
+        <v>2.92</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P33" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S33" t="n">
-        <v>1.99</v>
+        <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V33" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -5125,7 +5125,7 @@
         <v>4.4</v>
       </c>
       <c r="G35" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H35" t="n">
         <v>1.95</v>
@@ -5137,7 +5137,7 @@
         <v>2.9</v>
       </c>
       <c r="K35" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.5</v>
@@ -5173,7 +5173,7 @@
         <v>1.82</v>
       </c>
       <c r="W35" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X35" t="n">
         <v>10.5</v>
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="G36" t="n">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.51</v>
       </c>
       <c r="P36" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.51</v>
+        <v>2.5</v>
       </c>
       <c r="R36" t="n">
         <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V36" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="G37" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H37" t="n">
         <v>2.62</v>
       </c>
       <c r="I37" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J37" t="n">
         <v>3.1</v>
       </c>
       <c r="K37" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,22 +5416,22 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R37" t="n">
         <v>1.08</v>
       </c>
       <c r="S37" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5440,7 +5440,7 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W37" t="n">
         <v>1.5</v>
@@ -5665,10 +5665,10 @@
         <v>2.7</v>
       </c>
       <c r="G39" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -5692,7 +5692,7 @@
         <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q39" t="n">
         <v>2.06</v>
@@ -5713,7 +5713,7 @@
         <v>1.5</v>
       </c>
       <c r="W39" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X39" t="n">
         <v>13.5</v>
@@ -5935,7 +5935,7 @@
         <v>4.9</v>
       </c>
       <c r="G41" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
         <v>1.76</v>
@@ -5953,91 +5953,91 @@
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>1.96</v>
+        <v>3.75</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P41" t="n">
         <v>1.96</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R41" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S41" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T41" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="U41" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V41" t="n">
         <v>2.2</v>
       </c>
       <c r="W41" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X41" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA41" t="n">
         <v>20</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AB41" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO41" t="n">
         <v>12</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6076,7 +6076,7 @@
         <v>2.52</v>
       </c>
       <c r="I42" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J42" t="n">
         <v>3.2</v>
@@ -6091,7 +6091,7 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O42" t="n">
         <v>1.38</v>
@@ -6214,10 +6214,10 @@
         <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K43" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
         <v>1.29</v>
@@ -6232,7 +6232,7 @@
         <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q43" t="n">
         <v>1.66</v>
@@ -6253,7 +6253,7 @@
         <v>1.17</v>
       </c>
       <c r="W43" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X43" t="n">
         <v>21</v>
@@ -6340,13 +6340,13 @@
         <v>4.7</v>
       </c>
       <c r="G44" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H44" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I44" t="n">
         <v>1.82</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.83</v>
       </c>
       <c r="J44" t="n">
         <v>4.1</v>
@@ -6361,7 +6361,7 @@
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O44" t="n">
         <v>1.25</v>
@@ -6412,7 +6412,7 @@
         <v>9.6</v>
       </c>
       <c r="AE44" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF44" t="n">
         <v>38</v>
@@ -6475,7 +6475,7 @@
         <v>1.34</v>
       </c>
       <c r="G45" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H45" t="n">
         <v>9.6</v>
@@ -6496,7 +6496,7 @@
         <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O45" t="n">
         <v>1.22</v>
@@ -6523,7 +6523,7 @@
         <v>1.09</v>
       </c>
       <c r="W45" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="X45" t="n">
         <v>27</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G46" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H46" t="n">
         <v>3.65</v>
       </c>
       <c r="I46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J46" t="n">
         <v>3.35</v>
@@ -6655,10 +6655,10 @@
         <v>2.14</v>
       </c>
       <c r="V46" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W46" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X46" t="n">
         <v>12.5</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="G47" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="H47" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I47" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="J47" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K47" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.3</v>
       </c>
       <c r="L47" t="n">
         <v>1.37</v>
@@ -6766,16 +6766,16 @@
         <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P47" t="n">
         <v>2.16</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R47" t="n">
         <v>1.44</v>
@@ -6784,70 +6784,70 @@
         <v>3.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="U47" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="V47" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W47" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="X47" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z47" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA47" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AB47" t="n">
         <v>9</v>
       </c>
       <c r="AC47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG47" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AD47" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AH47" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI47" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK47" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AL47" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM47" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN47" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AO47" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
@@ -6895,7 +6895,7 @@
         <v>3.4</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
@@ -7063,7 +7063,7 @@
         <v>1.05</v>
       </c>
       <c r="W49" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="X49" t="n">
         <v>22</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="G50" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="H50" t="n">
-        <v>1.04</v>
+        <v>1.34</v>
       </c>
       <c r="I50" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J50" t="n">
         <v>4.5</v>
@@ -7195,10 +7195,10 @@
         <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W50" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7285,7 +7285,7 @@
         <v>1.37</v>
       </c>
       <c r="G51" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H51" t="n">
         <v>10.5</v>
@@ -7327,13 +7327,13 @@
         <v>2.38</v>
       </c>
       <c r="U51" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V51" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W51" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X51" t="n">
         <v>16.5</v>
@@ -7348,7 +7348,7 @@
         <v>570</v>
       </c>
       <c r="AB51" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC51" t="n">
         <v>11.5</v>
@@ -7369,7 +7369,7 @@
         <v>34</v>
       </c>
       <c r="AI51" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ51" t="n">
         <v>10.5</v>
@@ -7420,7 +7420,7 @@
         <v>2.54</v>
       </c>
       <c r="G52" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>3.1</v>
@@ -7576,7 +7576,7 @@
         <v>1.12</v>
       </c>
       <c r="N53" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O53" t="n">
         <v>1.54</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G54" t="n">
         <v>3.5</v>
@@ -7711,28 +7711,28 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O54" t="n">
         <v>1.22</v>
       </c>
       <c r="P54" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R54" t="n">
         <v>1.52</v>
       </c>
       <c r="S54" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="T54" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U54" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V54" t="n">
         <v>1.74</v>
@@ -7867,7 +7867,7 @@
         <v>1.51</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V55" t="n">
         <v>1.25</v>
@@ -7972,16 +7972,16 @@
         <v>3.55</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O56" t="n">
         <v>1.24</v>
@@ -7990,13 +7990,13 @@
         <v>2.18</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R56" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S56" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="T56" t="n">
         <v>1.6</v>
@@ -8011,58 +8011,58 @@
         <v>1.44</v>
       </c>
       <c r="X56" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE56" t="n">
         <v>28</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="AF56" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO56" t="n">
         <v>18</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G57" t="n">
         <v>1.43</v>
       </c>
       <c r="H57" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I57" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J57" t="n">
         <v>5.5</v>
       </c>
       <c r="K57" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L57" t="n">
         <v>1.2</v>
@@ -8134,16 +8134,16 @@
         <v>2.02</v>
       </c>
       <c r="T57" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U57" t="n">
         <v>2.34</v>
       </c>
       <c r="V57" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W57" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X57" t="n">
         <v>40</v>
@@ -8191,13 +8191,13 @@
         <v>27</v>
       </c>
       <c r="AM57" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="n">
         <v>4.2</v>
       </c>
       <c r="AO57" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -8233,7 +8233,7 @@
         <v>2.26</v>
       </c>
       <c r="H58" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
         <v>4.6</v>
@@ -8248,7 +8248,7 @@
         <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N58" t="n">
         <v>2.8</v>
@@ -8278,7 +8278,7 @@
         <v>1.27</v>
       </c>
       <c r="W58" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X58" t="n">
         <v>12</v>
@@ -8323,7 +8323,7 @@
         <v>34</v>
       </c>
       <c r="AL58" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM58" t="n">
         <v>200</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="G59" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="H59" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="I59" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="J59" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="K59" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G60" t="n">
         <v>1.78</v>
@@ -8518,25 +8518,25 @@
         <v>1.01</v>
       </c>
       <c r="M60" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O60" t="n">
         <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R60" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S60" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T60" t="n">
         <v>1.91</v>
@@ -8578,7 +8578,7 @@
         <v>10.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH60" t="n">
         <v>22</v>
@@ -8767,13 +8767,13 @@
         </is>
       </c>
       <c r="F62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G62" t="n">
         <v>3.15</v>
       </c>
-      <c r="G62" t="n">
-        <v>3.25</v>
-      </c>
       <c r="H62" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I62" t="n">
         <v>2.58</v>
@@ -8818,7 +8818,7 @@
         <v>1.63</v>
       </c>
       <c r="W62" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X62" t="n">
         <v>12.5</v>
@@ -8914,10 +8914,10 @@
         <v>6</v>
       </c>
       <c r="J63" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L63" t="n">
         <v>1.43</v>
@@ -8932,7 +8932,7 @@
         <v>1.33</v>
       </c>
       <c r="P63" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q63" t="n">
         <v>2</v>
@@ -8953,7 +8953,7 @@
         <v>1.2</v>
       </c>
       <c r="W63" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X63" t="n">
         <v>14</v>
@@ -8965,7 +8965,7 @@
         <v>44</v>
       </c>
       <c r="AA63" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB63" t="n">
         <v>8</v>
@@ -8980,10 +8980,10 @@
         <v>80</v>
       </c>
       <c r="AF63" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG63" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH63" t="n">
         <v>21</v>
@@ -8995,7 +8995,7 @@
         <v>17</v>
       </c>
       <c r="AK63" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL63" t="n">
         <v>36</v>
@@ -9313,7 +9313,7 @@
         <v>2.56</v>
       </c>
       <c r="H66" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I66" t="n">
         <v>5.8</v>
@@ -9322,7 +9322,7 @@
         <v>2.68</v>
       </c>
       <c r="K66" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
@@ -9340,13 +9340,13 @@
         <v>1.25</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R66" t="n">
         <v>1.18</v>
       </c>
       <c r="S66" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -9355,7 +9355,7 @@
         <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W66" t="n">
         <v>1.64</v>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="G67" t="n">
         <v>3.65</v>
@@ -9454,25 +9454,25 @@
         <v>3.2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="L67" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O67" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P67" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q67" t="n">
         <v>2.38</v>
@@ -9493,7 +9493,7 @@
         <v>1.45</v>
       </c>
       <c r="W67" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9580,19 +9580,19 @@
         <v>4.3</v>
       </c>
       <c r="G68" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H68" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="I68" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="J68" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K68" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -9625,7 +9625,7 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W68" t="n">
         <v>1.15</v>
@@ -9712,112 +9712,112 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="H69" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="J69" t="n">
-        <v>2.62</v>
+        <v>2.86</v>
       </c>
       <c r="K69" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="L69" t="n">
         <v>1.01</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N69" t="n">
-        <v>1.39</v>
+        <v>2.5</v>
       </c>
       <c r="O69" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="P69" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="R69" t="n">
         <v>1.18</v>
       </c>
       <c r="S69" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="T69" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U69" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V69" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="W69" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="X69" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y69" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA69" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB69" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC69" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD69" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE69" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF69" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG69" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI69" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK69" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL69" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM69" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN69" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO69" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
         <v>6.8</v>
       </c>
       <c r="H70" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="I70" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="J70" t="n">
         <v>4.2</v>
       </c>
       <c r="K70" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L70" t="n">
         <v>1.39</v>
@@ -9871,16 +9871,16 @@
         <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O70" t="n">
         <v>1.31</v>
       </c>
       <c r="P70" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="R70" t="n">
         <v>1.35</v>
@@ -9889,16 +9889,16 @@
         <v>3.35</v>
       </c>
       <c r="T70" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U70" t="n">
         <v>1.8</v>
       </c>
       <c r="V70" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="W70" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X70" t="n">
         <v>18</v>
@@ -9994,7 +9994,7 @@
         <v>2.18</v>
       </c>
       <c r="J71" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K71" t="n">
         <v>3.3</v>
@@ -10003,7 +10003,7 @@
         <v>1.52</v>
       </c>
       <c r="M71" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N71" t="n">
         <v>3.15</v>
@@ -10036,7 +10036,7 @@
         <v>1.29</v>
       </c>
       <c r="X71" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y71" t="n">
         <v>7.8</v>
@@ -10126,13 +10126,13 @@
         <v>21</v>
       </c>
       <c r="I72" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J72" t="n">
         <v>9</v>
       </c>
       <c r="K72" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L72" t="n">
         <v>1.2</v>
@@ -10150,13 +10150,13 @@
         <v>3.15</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R72" t="n">
         <v>1.87</v>
       </c>
       <c r="S72" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T72" t="n">
         <v>2.24</v>
@@ -10165,7 +10165,7 @@
         <v>1.67</v>
       </c>
       <c r="V72" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W72" t="n">
         <v>6.4</v>
@@ -10219,10 +10219,10 @@
         <v>270</v>
       </c>
       <c r="AN72" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AO72" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73">
@@ -10258,16 +10258,16 @@
         <v>3.25</v>
       </c>
       <c r="H73" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I73" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="J73" t="n">
         <v>3.1</v>
       </c>
       <c r="K73" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10276,22 +10276,22 @@
         <v>1.08</v>
       </c>
       <c r="N73" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O73" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P73" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R73" t="n">
         <v>1.27</v>
       </c>
       <c r="S73" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T73" t="n">
         <v>1.83</v>
@@ -10300,13 +10300,13 @@
         <v>1.98</v>
       </c>
       <c r="V73" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="W73" t="n">
         <v>1.45</v>
       </c>
       <c r="X73" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y73" t="n">
         <v>11.5</v>
@@ -10318,10 +10318,10 @@
         <v>46</v>
       </c>
       <c r="AB73" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC73" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD73" t="n">
         <v>970</v>
@@ -10339,7 +10339,7 @@
         <v>20</v>
       </c>
       <c r="AI73" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ73" t="n">
         <v>55</v>
@@ -10393,7 +10393,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I74" t="n">
         <v>1.55</v>
@@ -10411,19 +10411,19 @@
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O74" t="n">
         <v>1.16</v>
       </c>
       <c r="P74" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q74" t="n">
         <v>1.54</v>
       </c>
       <c r="R74" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S74" t="n">
         <v>2.34</v>
@@ -10432,7 +10432,7 @@
         <v>1.71</v>
       </c>
       <c r="U74" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V74" t="n">
         <v>2.78</v>
@@ -10522,22 +10522,22 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G75" t="n">
         <v>5.2</v>
       </c>
       <c r="H75" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="I75" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J75" t="n">
         <v>3.5</v>
       </c>
       <c r="K75" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
@@ -10549,7 +10549,7 @@
         <v>1.96</v>
       </c>
       <c r="O75" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P75" t="n">
         <v>1.95</v>
@@ -10564,13 +10564,13 @@
         <v>2.9</v>
       </c>
       <c r="T75" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U75" t="n">
         <v>1.9</v>
       </c>
       <c r="V75" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W75" t="n">
         <v>1.24</v>
@@ -10657,40 +10657,40 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G76" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H76" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I76" t="n">
         <v>4.4</v>
       </c>
       <c r="J76" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K76" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L76" t="n">
         <v>1.51</v>
       </c>
       <c r="M76" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N76" t="n">
         <v>3.15</v>
       </c>
       <c r="O76" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P76" t="n">
         <v>1.71</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R76" t="n">
         <v>1.26</v>
@@ -10708,10 +10708,10 @@
         <v>1.29</v>
       </c>
       <c r="W76" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X76" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y76" t="n">
         <v>12.5</v>
@@ -10720,13 +10720,13 @@
         <v>28</v>
       </c>
       <c r="AA76" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB76" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC76" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD76" t="n">
         <v>17.5</v>
@@ -10741,13 +10741,13 @@
         <v>11.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI76" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ76" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK76" t="n">
         <v>26</v>
@@ -10756,10 +10756,10 @@
         <v>50</v>
       </c>
       <c r="AM76" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN76" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO76" t="n">
         <v>80</v>
@@ -10792,13 +10792,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G77" t="n">
         <v>2.54</v>
       </c>
       <c r="H77" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I77" t="n">
         <v>4.8</v>
@@ -10819,13 +10819,13 @@
         <v>2.34</v>
       </c>
       <c r="O77" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="P77" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q77" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="R77" t="n">
         <v>1.16</v>
@@ -10942,7 +10942,7 @@
         <v>3.45</v>
       </c>
       <c r="K78" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L78" t="n">
         <v>1.4</v>
@@ -10966,7 +10966,7 @@
         <v>1.33</v>
       </c>
       <c r="S78" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T78" t="n">
         <v>1.79</v>
@@ -11026,13 +11026,13 @@
         <v>42</v>
       </c>
       <c r="AM78" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN78" t="n">
         <v>21</v>
       </c>
       <c r="AO78" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79">
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G79" t="n">
         <v>2.02</v>
@@ -11071,7 +11071,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J79" t="n">
         <v>3.7</v>
@@ -11086,28 +11086,28 @@
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O79" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P79" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R79" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S79" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T79" t="n">
         <v>1.73</v>
       </c>
       <c r="U79" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V79" t="n">
         <v>1.28</v>
@@ -11116,7 +11116,7 @@
         <v>1.98</v>
       </c>
       <c r="X79" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y79" t="n">
         <v>18</v>
@@ -11152,22 +11152,22 @@
         <v>60</v>
       </c>
       <c r="AJ79" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK79" t="n">
         <v>24</v>
       </c>
       <c r="AL79" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM79" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN79" t="n">
         <v>15.5</v>
       </c>
       <c r="AO79" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80">
@@ -11200,7 +11200,7 @@
         <v>7</v>
       </c>
       <c r="G80" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H80" t="n">
         <v>1.57</v>
@@ -11221,13 +11221,13 @@
         <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O80" t="n">
         <v>1.39</v>
       </c>
       <c r="P80" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q80" t="n">
         <v>2.16</v>
@@ -11242,7 +11242,7 @@
         <v>2.18</v>
       </c>
       <c r="U80" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V80" t="n">
         <v>2.62</v>
@@ -11254,43 +11254,43 @@
         <v>13</v>
       </c>
       <c r="Y80" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z80" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AA80" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AB80" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AC80" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD80" t="n">
         <v>10.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF80" t="n">
         <v>65</v>
       </c>
       <c r="AG80" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH80" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI80" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ80" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AK80" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL80" t="n">
         <v>160</v>
@@ -11299,10 +11299,10 @@
         <v>230</v>
       </c>
       <c r="AN80" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AO80" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -11365,7 +11365,7 @@
         <v>2.3</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R81" t="n">
         <v>1.52</v>
@@ -11374,7 +11374,7 @@
         <v>2.56</v>
       </c>
       <c r="T81" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="U81" t="n">
         <v>2.44</v>
@@ -11482,7 +11482,7 @@
         <v>3.2</v>
       </c>
       <c r="K82" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L82" t="n">
         <v>1.01</v>
@@ -11602,19 +11602,19 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G83" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H83" t="n">
         <v>3.75</v>
       </c>
       <c r="I83" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J83" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K83" t="n">
         <v>3.65</v>
@@ -11629,7 +11629,7 @@
         <v>3.45</v>
       </c>
       <c r="O83" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P83" t="n">
         <v>1.85</v>
@@ -11650,10 +11650,10 @@
         <v>2.04</v>
       </c>
       <c r="V83" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W83" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X83" t="n">
         <v>14.5</v>
@@ -11740,16 +11740,16 @@
         <v>4.1</v>
       </c>
       <c r="G84" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="H84" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="I84" t="n">
         <v>2.14</v>
       </c>
       <c r="J84" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="K84" t="n">
         <v>4.2</v>
@@ -11788,7 +11788,7 @@
         <v>1.87</v>
       </c>
       <c r="W84" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X84" t="n">
         <v>16</v>
@@ -11815,13 +11815,13 @@
         <v>30</v>
       </c>
       <c r="AF84" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG84" t="n">
         <v>24</v>
       </c>
       <c r="AH84" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI84" t="n">
         <v>55</v>
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G85" t="n">
         <v>3.05</v>
       </c>
       <c r="H85" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="I85" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J85" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="K85" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11905,13 +11905,13 @@
         <v>1.6</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R85" t="n">
         <v>1.18</v>
       </c>
       <c r="S85" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T85" t="n">
         <v>1.01</v>
@@ -11920,7 +11920,7 @@
         <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W85" t="n">
         <v>1.48</v>
@@ -12025,19 +12025,19 @@
         <v>5.1</v>
       </c>
       <c r="L86" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M86" t="n">
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="O86" t="n">
         <v>1.01</v>
       </c>
       <c r="P86" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="Q86" t="n">
         <v>1.02</v>
@@ -12142,16 +12142,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G87" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="H87" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J87" t="n">
         <v>4.2</v>
@@ -12166,7 +12166,7 @@
         <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O87" t="n">
         <v>1.28</v>
@@ -12178,7 +12178,7 @@
         <v>1.83</v>
       </c>
       <c r="R87" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S87" t="n">
         <v>3.1</v>
@@ -12193,7 +12193,7 @@
         <v>1.2</v>
       </c>
       <c r="W87" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="X87" t="n">
         <v>18</v>
@@ -12217,7 +12217,7 @@
         <v>23</v>
       </c>
       <c r="AE87" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF87" t="n">
         <v>11</v>
@@ -12232,7 +12232,7 @@
         <v>75</v>
       </c>
       <c r="AJ87" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK87" t="n">
         <v>18</v>
@@ -12244,10 +12244,10 @@
         <v>120</v>
       </c>
       <c r="AN87" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO87" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="88">
@@ -12310,7 +12310,7 @@
         <v>2.06</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R88" t="n">
         <v>1.39</v>
@@ -12412,55 +12412,55 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="G89" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H89" t="n">
         <v>1.61</v>
       </c>
       <c r="I89" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J89" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K89" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L89" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M89" t="n">
         <v>1.02</v>
       </c>
       <c r="N89" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="O89" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P89" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q89" t="n">
         <v>1.46</v>
       </c>
       <c r="R89" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="S89" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T89" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U89" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="V89" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="W89" t="n">
         <v>1.21</v>
@@ -12475,10 +12475,10 @@
         <v>13.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB89" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC89" t="n">
         <v>12</v>
@@ -12490,10 +12490,10 @@
         <v>14.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG89" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH89" t="n">
         <v>16.5</v>
@@ -12508,16 +12508,16 @@
         <v>60</v>
       </c>
       <c r="AL89" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM89" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN89" t="n">
         <v>38</v>
       </c>
       <c r="AO89" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="90">
@@ -12562,7 +12562,7 @@
         <v>3.55</v>
       </c>
       <c r="K90" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L90" t="n">
         <v>1.38</v>
@@ -12577,7 +12577,7 @@
         <v>1.32</v>
       </c>
       <c r="P90" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q90" t="n">
         <v>1.98</v>
@@ -12592,10 +12592,10 @@
         <v>1.8</v>
       </c>
       <c r="U90" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V90" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W90" t="n">
         <v>1.96</v>
@@ -12682,13 +12682,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G91" t="n">
         <v>9</v>
       </c>
       <c r="H91" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I91" t="n">
         <v>1.5</v>
@@ -12697,7 +12697,7 @@
         <v>4.7</v>
       </c>
       <c r="K91" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L91" t="n">
         <v>1.44</v>
@@ -12712,64 +12712,64 @@
         <v>1.37</v>
       </c>
       <c r="P91" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R91" t="n">
         <v>1.3</v>
       </c>
       <c r="S91" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T91" t="n">
         <v>2.24</v>
       </c>
       <c r="U91" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="V91" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="W91" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X91" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y91" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA91" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC91" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD91" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE91" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AF91" t="n">
         <v>80</v>
       </c>
       <c r="AG91" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AH91" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI91" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ91" t="n">
         <v>420</v>
@@ -12787,7 +12787,7 @@
         <v>360</v>
       </c>
       <c r="AO91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -12820,19 +12820,19 @@
         <v>3.05</v>
       </c>
       <c r="G92" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H92" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I92" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J92" t="n">
         <v>3.25</v>
       </c>
       <c r="K92" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L92" t="n">
         <v>1.49</v>
@@ -12847,10 +12847,10 @@
         <v>1.43</v>
       </c>
       <c r="P92" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R92" t="n">
         <v>1.25</v>
@@ -12859,16 +12859,16 @@
         <v>4.3</v>
       </c>
       <c r="T92" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U92" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V92" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W92" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X92" t="n">
         <v>12</v>
@@ -12895,7 +12895,7 @@
         <v>38</v>
       </c>
       <c r="AF92" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AG92" t="n">
         <v>14</v>
@@ -12916,10 +12916,10 @@
         <v>65</v>
       </c>
       <c r="AM92" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN92" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO92" t="n">
         <v>34</v>
@@ -12952,10 +12952,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G93" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H93" t="n">
         <v>2.5</v>
@@ -12991,13 +12991,13 @@
         <v>1.33</v>
       </c>
       <c r="S93" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T93" t="n">
         <v>1.72</v>
       </c>
       <c r="U93" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="V93" t="n">
         <v>1.57</v>
@@ -13090,16 +13090,16 @@
         <v>2.2</v>
       </c>
       <c r="G94" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="H94" t="n">
         <v>3.4</v>
       </c>
       <c r="I94" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J94" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="K94" t="n">
         <v>3.95</v>
@@ -13126,7 +13126,7 @@
         <v>1.14</v>
       </c>
       <c r="S94" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T94" t="n">
         <v>1.01</v>
@@ -13135,10 +13135,10 @@
         <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="W94" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X94" t="n">
         <v>11.5</v>
@@ -13357,10 +13357,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="G96" t="n">
-        <v>3.5</v>
+        <v>2.12</v>
       </c>
       <c r="H96" t="n">
         <v>3.95</v>
@@ -13369,7 +13369,7 @@
         <v>6.2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.81</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
         <v>1000</v>
@@ -13390,13 +13390,13 @@
         <v>1.64</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.36</v>
+        <v>2.04</v>
       </c>
       <c r="R96" t="n">
         <v>1.23</v>
       </c>
       <c r="S96" t="n">
-        <v>1.36</v>
+        <v>3.25</v>
       </c>
       <c r="T96" t="n">
         <v>1.01</v>
@@ -13405,10 +13405,10 @@
         <v>1.01</v>
       </c>
       <c r="V96" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W96" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="X96" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -670,7 +670,7 @@
         <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H2" t="n">
         <v>2.16</v>
@@ -679,10 +679,10 @@
         <v>2.2</v>
       </c>
       <c r="J2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -694,7 +694,7 @@
         <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
         <v>1.9</v>
@@ -709,10 +709,10 @@
         <v>3.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
         <v>1.83</v>
@@ -721,58 +721,58 @@
         <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>14</v>
       </c>
-      <c r="AA2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -829,7 +829,7 @@
         <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
         <v>2.2</v>
@@ -844,10 +844,10 @@
         <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
         <v>1.18</v>
@@ -856,58 +856,58 @@
         <v>2.6</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="n">
         <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
@@ -955,94 +955,94 @@
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
         <v>1.64</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
         <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
@@ -1117,7 +1117,7 @@
         <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
@@ -1129,16 +1129,16 @@
         <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="n">
         <v>150</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1159,7 +1159,7 @@
         <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
         <v>16.5</v>
@@ -1174,7 +1174,7 @@
         <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO5" t="n">
         <v>60</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
         <v>3.05</v>
@@ -1216,37 +1216,37 @@
         <v>2.78</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.54</v>
+        <v>1.89</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>1.31</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,7 +1255,7 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W6" t="n">
         <v>1.49</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="I7" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>2.14</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>2.02</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.72</v>
+        <v>1.55</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>2.8</v>
+        <v>2.08</v>
       </c>
       <c r="W7" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
@@ -1420,16 +1420,16 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1504,7 +1504,7 @@
         <v>1.63</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
         <v>1.63</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,88 +1636,88 @@
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.96</v>
+        <v>1.54</v>
       </c>
       <c r="O9" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G10" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,88 +1771,88 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="O10" t="n">
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="R10" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T10" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>5.1</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="R11" t="n">
-        <v>1.81</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
@@ -2029,13 +2029,13 @@
         <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
         <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2044,19 +2044,19 @@
         <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
         <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
         <v>1.62</v>
@@ -2068,49 +2068,49 @@
         <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
         <v>32</v>
@@ -2119,10 +2119,10 @@
         <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="G13" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
         <v>1.49</v>
@@ -2176,13 +2176,13 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
         <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q13" t="n">
         <v>2.2</v>
@@ -2191,73 +2191,73 @@
         <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
         <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AF13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
         <v>20</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
         <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G14" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H14" t="n">
         <v>8</v>
@@ -2302,7 +2302,7 @@
         <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,19 +2311,19 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
         <v>1.53</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
         <v>2.2</v>
@@ -2341,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2371,7 +2371,7 @@
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2383,13 +2383,13 @@
         <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G15" t="n">
         <v>3.05</v>
       </c>
       <c r="H15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
@@ -2449,10 +2449,10 @@
         <v>2.78</v>
       </c>
       <c r="O15" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q15" t="n">
         <v>2.74</v>
@@ -2467,16 +2467,16 @@
         <v>2.12</v>
       </c>
       <c r="U15" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y15" t="n">
         <v>8.800000000000001</v>
@@ -2485,7 +2485,7 @@
         <v>16.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB15" t="n">
         <v>8.800000000000001</v>
@@ -2506,7 +2506,7 @@
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
         <v>70</v>
@@ -2521,10 +2521,10 @@
         <v>70</v>
       </c>
       <c r="AM15" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO15" t="n">
         <v>55</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="G16" t="n">
         <v>3.05</v>
@@ -2566,13 +2566,13 @@
         <v>2.72</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,22 +2581,22 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
         <v>6.4</v>
@@ -2701,37 +2701,37 @@
         <v>1.8</v>
       </c>
       <c r="I17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>5.4</v>
+        <v>950</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O17" t="n">
         <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="W17" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2830,7 +2830,7 @@
         <v>2.32</v>
       </c>
       <c r="G18" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="H18" t="n">
         <v>2.62</v>
@@ -2839,34 +2839,34 @@
         <v>3.45</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O18" t="n">
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W18" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G21" t="n">
         <v>2.58</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I21" t="n">
         <v>3.05</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
         <v>3.8</v>
@@ -3256,88 +3256,88 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="T21" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="U21" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W21" t="n">
         <v>1.63</v>
       </c>
       <c r="X21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3397,22 +3397,22 @@
         <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T22" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="U22" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
         <v>1.63</v>
@@ -3421,58 +3421,58 @@
         <v>1.48</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3505,13 +3505,13 @@
         <v>3.2</v>
       </c>
       <c r="G23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
         <v>2.24</v>
       </c>
       <c r="I23" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J23" t="n">
         <v>3.8</v>
@@ -3532,16 +3532,16 @@
         <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3559,49 +3559,49 @@
         <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
         <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G24" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="H24" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>950</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>1.69</v>
       </c>
       <c r="O24" t="n">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="P24" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
         <v>11.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AC24" t="n">
         <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL24" t="n">
         <v>60</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>980</v>
-      </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3772,112 +3772,112 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>2.68</v>
       </c>
       <c r="K25" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.1</v>
+        <v>2.14</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="S25" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="T25" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="U25" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="V25" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="W25" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3928,19 +3928,19 @@
         <v>1.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N26" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="O26" t="n">
         <v>1.77</v>
       </c>
       <c r="P26" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R26" t="n">
         <v>1.13</v>
@@ -3949,22 +3949,22 @@
         <v>8</v>
       </c>
       <c r="T26" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V26" t="n">
         <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X26" t="n">
         <v>6.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
@@ -3979,34 +3979,34 @@
         <v>6.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="n">
         <v>14</v>
       </c>
       <c r="AG26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>32</v>
       </c>
       <c r="AI26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ26" t="n">
         <v>46</v>
       </c>
       <c r="AK26" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM26" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AN26" t="n">
         <v>65</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="H27" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="I27" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
         <v>3.25</v>
@@ -4066,88 +4066,88 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="R27" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>3.65</v>
+        <v>1.96</v>
       </c>
       <c r="T27" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="U27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4195,28 +4195,28 @@
         <v>5.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="O28" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R28" t="n">
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,7 +4225,7 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W28" t="n">
         <v>1.36</v>
@@ -4312,46 +4312,46 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G29" t="n">
         <v>1.77</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>1.09</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>980</v>
       </c>
       <c r="J29" t="n">
-        <v>4.3</v>
+        <v>1.23</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M29" t="n">
         <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P29" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q29" t="n">
         <v>1.52</v>
       </c>
       <c r="R29" t="n">
-        <v>1.63</v>
+        <v>1.26</v>
       </c>
       <c r="S29" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4366,58 +4366,58 @@
         <v>2.28</v>
       </c>
       <c r="X29" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="G30" t="n">
-        <v>2.62</v>
+        <v>1000</v>
       </c>
       <c r="H30" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>3.65</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
         <v>1000</v>
@@ -4471,7 +4471,7 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="O30" t="n">
         <v>1.07</v>
@@ -4483,7 +4483,7 @@
         <v>1.25</v>
       </c>
       <c r="R30" t="n">
-        <v>2.12</v>
+        <v>1.53</v>
       </c>
       <c r="S30" t="n">
         <v>1.25</v>
@@ -4495,10 +4495,10 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4585,19 +4585,19 @@
         <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="H31" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J31" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="K31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>1.28</v>
@@ -4606,25 +4606,25 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>2.46</v>
+        <v>1.53</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="R31" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="S31" t="n">
-        <v>2.52</v>
+        <v>1.53</v>
       </c>
       <c r="T31" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
         <v>2.28</v>
@@ -4633,61 +4633,61 @@
         <v>2.6</v>
       </c>
       <c r="W31" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="X31" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4726,13 +4726,13 @@
         <v>1.86</v>
       </c>
       <c r="I32" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J32" t="n">
         <v>3.9</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L32" t="n">
         <v>1.33</v>
@@ -4741,28 +4741,28 @@
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="R32" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="S32" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="T32" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U32" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="V32" t="n">
         <v>2.1</v>
@@ -4771,58 +4771,58 @@
         <v>1.27</v>
       </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4852,97 +4852,97 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="G33" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J33" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="O33" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="R33" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S33" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T33" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="U33" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V33" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X33" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA33" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AE33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF33" t="n">
         <v>15</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ33" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK33" t="n">
         <v>30</v>
@@ -4951,13 +4951,13 @@
         <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -4987,46 +4987,46 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="G34" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H34" t="n">
         <v>1.7</v>
       </c>
       <c r="I34" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J34" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K34" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M34" t="n">
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="T34" t="n">
         <v>1.01</v>
@@ -5035,7 +5035,7 @@
         <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W34" t="n">
         <v>1.15</v>
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
         <v>1.95</v>
       </c>
       <c r="I35" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J35" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
         <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.56</v>
+        <v>1.24</v>
       </c>
       <c r="O35" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="P35" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="R35" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>4.8</v>
+        <v>2.28</v>
       </c>
       <c r="T35" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="U35" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="V35" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="W35" t="n">
         <v>1.2</v>
       </c>
       <c r="X35" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G36" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="J36" t="n">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.5</v>
+        <v>1.51</v>
       </c>
       <c r="O36" t="n">
         <v>1.51</v>
       </c>
       <c r="P36" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.5</v>
+        <v>1.51</v>
       </c>
       <c r="R36" t="n">
         <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>5.1</v>
+        <v>1.51</v>
       </c>
       <c r="T36" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="W36" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="X36" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="G37" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="I37" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K37" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,22 +5416,22 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="O37" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R37" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S37" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5440,10 +5440,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W37" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5530,19 +5530,19 @@
         <v>4.9</v>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="H38" t="n">
         <v>1.74</v>
       </c>
       <c r="I38" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J38" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,88 +5551,88 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.45</v>
+        <v>1.75</v>
       </c>
       <c r="O38" t="n">
         <v>1.34</v>
       </c>
       <c r="P38" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="R38" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="S38" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="T38" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="U38" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W38" t="n">
         <v>1.2</v>
       </c>
       <c r="X38" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG38" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI38" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AL38" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5665,19 +5665,19 @@
         <v>2.7</v>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H39" t="n">
         <v>2.94</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K39" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L39" t="n">
         <v>1.44</v>
@@ -5686,88 +5686,88 @@
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R39" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S39" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="T39" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="U39" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W39" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X39" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF39" t="n">
         <v>21</v>
       </c>
-      <c r="AA39" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>19</v>
-      </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH39" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ39" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK39" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL39" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
         <v>120</v>
       </c>
       <c r="AN39" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO39" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -5797,46 +5797,46 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G40" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H40" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="J40" t="n">
         <v>2.88</v>
       </c>
       <c r="K40" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>1.58</v>
       </c>
       <c r="O40" t="n">
         <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S40" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
@@ -5845,7 +5845,7 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="W40" t="n">
         <v>1.21</v>
@@ -5941,10 +5941,10 @@
         <v>1.76</v>
       </c>
       <c r="I41" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K41" t="n">
         <v>4.1</v>
@@ -5953,31 +5953,31 @@
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P41" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U41" t="n">
         <v>1.96</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.02</v>
       </c>
       <c r="V41" t="n">
         <v>2.2</v>
@@ -5986,58 +5986,58 @@
         <v>1.2</v>
       </c>
       <c r="X41" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6070,10 +6070,10 @@
         <v>3.25</v>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H42" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="I42" t="n">
         <v>2.58</v>
@@ -6085,34 +6085,34 @@
         <v>3.35</v>
       </c>
       <c r="L42" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M42" t="n">
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O42" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P42" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="R42" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S42" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="T42" t="n">
         <v>1.83</v>
       </c>
       <c r="U42" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V42" t="n">
         <v>1.63</v>
@@ -6121,58 +6121,58 @@
         <v>1.42</v>
       </c>
       <c r="X42" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AA42" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AB42" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AD42" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AF42" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AG42" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AH42" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI42" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AJ42" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM42" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G43" t="n">
         <v>1.56</v>
@@ -6211,13 +6211,13 @@
         <v>6.6</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J43" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L43" t="n">
         <v>1.29</v>
@@ -6232,7 +6232,7 @@
         <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q43" t="n">
         <v>1.66</v>
@@ -6241,34 +6241,34 @@
         <v>1.57</v>
       </c>
       <c r="S43" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="T43" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U43" t="n">
         <v>2.18</v>
       </c>
       <c r="V43" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W43" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X43" t="n">
         <v>21</v>
       </c>
       <c r="Y43" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z43" t="n">
         <v>60</v>
       </c>
       <c r="AA43" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AB43" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC43" t="n">
         <v>10.5</v>
@@ -6289,7 +6289,7 @@
         <v>21</v>
       </c>
       <c r="AI43" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="n">
         <v>14.5</v>
@@ -6304,7 +6304,7 @@
         <v>100</v>
       </c>
       <c r="AN43" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO43" t="n">
         <v>80</v>
@@ -6340,13 +6340,13 @@
         <v>4.7</v>
       </c>
       <c r="G44" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H44" t="n">
         <v>1.81</v>
       </c>
       <c r="I44" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J44" t="n">
         <v>4.1</v>
@@ -6376,7 +6376,7 @@
         <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T44" t="n">
         <v>1.74</v>
@@ -6391,7 +6391,7 @@
         <v>1.26</v>
       </c>
       <c r="X44" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y44" t="n">
         <v>10.5</v>
@@ -6403,7 +6403,7 @@
         <v>19</v>
       </c>
       <c r="AB44" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC44" t="n">
         <v>9</v>
@@ -6442,7 +6442,7 @@
         <v>48</v>
       </c>
       <c r="AO44" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -6475,16 +6475,16 @@
         <v>1.34</v>
       </c>
       <c r="G45" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H45" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="J45" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K45" t="n">
         <v>6.2</v>
@@ -6493,91 +6493,91 @@
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>4</v>
+        <v>1.09</v>
       </c>
       <c r="O45" t="n">
         <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>2.22</v>
+        <v>1.09</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="R45" t="n">
-        <v>1.48</v>
+        <v>1.09</v>
       </c>
       <c r="S45" t="n">
-        <v>2.66</v>
+        <v>1.58</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U45" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="V45" t="n">
         <v>1.09</v>
       </c>
       <c r="W45" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X45" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6613,10 +6613,10 @@
         <v>2.34</v>
       </c>
       <c r="H46" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I46" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.7</v>
       </c>
       <c r="J46" t="n">
         <v>3.35</v>
@@ -6631,10 +6631,10 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P46" t="n">
         <v>1.9</v>
@@ -6664,13 +6664,13 @@
         <v>12.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z46" t="n">
         <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB46" t="n">
         <v>9.800000000000001</v>
@@ -6709,7 +6709,7 @@
         <v>100</v>
       </c>
       <c r="AN46" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO46" t="n">
         <v>44</v>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G47" t="n">
         <v>1.73</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.74</v>
       </c>
       <c r="H47" t="n">
         <v>5.5</v>
@@ -6769,16 +6769,16 @@
         <v>4.3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P47" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q47" t="n">
         <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S47" t="n">
         <v>3.1</v>
@@ -6787,13 +6787,13 @@
         <v>1.82</v>
       </c>
       <c r="U47" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V47" t="n">
         <v>1.21</v>
       </c>
       <c r="W47" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X47" t="n">
         <v>16.5</v>
@@ -6805,7 +6805,7 @@
         <v>42</v>
       </c>
       <c r="AA47" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB47" t="n">
         <v>9</v>
@@ -6844,7 +6844,7 @@
         <v>100</v>
       </c>
       <c r="AN47" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO47" t="n">
         <v>75</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="G48" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H48" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="I48" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J48" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="K48" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="L48" t="n">
         <v>1.52</v>
@@ -6901,37 +6901,37 @@
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O48" t="n">
         <v>1.47</v>
       </c>
       <c r="P48" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R48" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>4.1</v>
+        <v>2.42</v>
       </c>
       <c r="T48" t="n">
         <v>1.01</v>
       </c>
       <c r="U48" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V48" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="W48" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y48" t="n">
         <v>1000</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="G49" t="n">
         <v>1.31</v>
       </c>
       <c r="H49" t="n">
-        <v>13</v>
+        <v>1.17</v>
       </c>
       <c r="I49" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="J49" t="n">
-        <v>5.7</v>
+        <v>1.05</v>
       </c>
       <c r="K49" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,85 +7036,85 @@
         <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>3.9</v>
+        <v>1.25</v>
       </c>
       <c r="O49" t="n">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="P49" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="R49" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S49" t="n">
-        <v>3.15</v>
+        <v>1.72</v>
       </c>
       <c r="T49" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W49" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="X49" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
         <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G50" t="n">
         <v>14</v>
@@ -7156,7 +7156,7 @@
         <v>1.34</v>
       </c>
       <c r="I50" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="J50" t="n">
         <v>4.5</v>
@@ -7171,31 +7171,31 @@
         <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="O50" t="n">
         <v>1.19</v>
       </c>
       <c r="P50" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R50" t="n">
         <v>1.41</v>
       </c>
       <c r="S50" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="T50" t="n">
         <v>1.01</v>
       </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V50" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="W50" t="n">
         <v>1.07</v>
@@ -7288,16 +7288,16 @@
         <v>1.38</v>
       </c>
       <c r="H51" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I51" t="n">
         <v>11.5</v>
       </c>
       <c r="J51" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K51" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L51" t="n">
         <v>1.41</v>
@@ -7315,7 +7315,7 @@
         <v>2.02</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R51" t="n">
         <v>1.38</v>
@@ -7333,13 +7333,13 @@
         <v>1.09</v>
       </c>
       <c r="W51" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X51" t="n">
         <v>16.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z51" t="n">
         <v>110</v>
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H52" t="n">
         <v>3.1</v>
       </c>
       <c r="I52" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K52" t="n">
         <v>3.3</v>
@@ -7441,88 +7441,88 @@
         <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>3.6</v>
+        <v>1.86</v>
       </c>
       <c r="O52" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P52" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="R52" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S52" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="T52" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="U52" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V52" t="n">
         <v>1.43</v>
       </c>
       <c r="W52" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X52" t="n">
         <v>12</v>
       </c>
       <c r="Y52" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
         <v>25</v>
       </c>
       <c r="AA52" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD52" t="n">
         <v>16</v>
       </c>
       <c r="AE52" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
         <v>19.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
         <v>110</v>
       </c>
       <c r="AN52" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
@@ -7558,10 +7558,10 @@
         <v>3.25</v>
       </c>
       <c r="H53" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I53" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J53" t="n">
         <v>3</v>
@@ -7570,7 +7570,7 @@
         <v>3.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M53" t="n">
         <v>1.12</v>
@@ -7582,16 +7582,16 @@
         <v>1.54</v>
       </c>
       <c r="P53" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q53" t="n">
         <v>2.64</v>
       </c>
       <c r="R53" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S53" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="T53" t="n">
         <v>2.14</v>
@@ -7603,10 +7603,10 @@
         <v>1.55</v>
       </c>
       <c r="W53" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X53" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y53" t="n">
         <v>8.4</v>
@@ -7624,16 +7624,16 @@
         <v>7.2</v>
       </c>
       <c r="AD53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE53" t="n">
         <v>40</v>
       </c>
       <c r="AF53" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AG53" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AH53" t="n">
         <v>23</v>
@@ -7642,22 +7642,22 @@
         <v>65</v>
       </c>
       <c r="AJ53" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK53" t="n">
         <v>48</v>
       </c>
       <c r="AL53" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM53" t="n">
         <v>190</v>
       </c>
       <c r="AN53" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AO53" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -7687,19 +7687,19 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="H54" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I54" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="J54" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K54" t="n">
         <v>4.1</v>
@@ -7714,85 +7714,85 @@
         <v>4.9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P54" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R54" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="S54" t="n">
-        <v>2.58</v>
+        <v>1.92</v>
       </c>
       <c r="T54" t="n">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="U54" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="V54" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="W54" t="n">
         <v>1.4</v>
       </c>
       <c r="X54" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Z54" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AA54" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AB54" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AD54" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF54" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AG54" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AI54" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AK54" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AL54" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM54" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AN54" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G55" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="H55" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J55" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7846,34 +7846,34 @@
         <v>1.04</v>
       </c>
       <c r="N55" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="O55" t="n">
         <v>1.18</v>
       </c>
       <c r="P55" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S55" t="n">
         <v>2.22</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2.24</v>
       </c>
       <c r="T55" t="n">
         <v>1.51</v>
       </c>
       <c r="U55" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V55" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W55" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7957,112 +7957,112 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.9</v>
+        <v>1.04</v>
       </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="H56" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="I56" t="n">
-        <v>2.58</v>
+        <v>1000</v>
       </c>
       <c r="J56" t="n">
-        <v>3.55</v>
+        <v>1.02</v>
       </c>
       <c r="K56" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L56" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>4.1</v>
+        <v>1.47</v>
       </c>
       <c r="O56" t="n">
         <v>1.24</v>
       </c>
       <c r="P56" t="n">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="R56" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S56" t="n">
-        <v>2.74</v>
+        <v>1.24</v>
       </c>
       <c r="T56" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U56" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="W56" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="X56" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z56" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA56" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G57" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H57" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="I57" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="J57" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L57" t="n">
         <v>1.2</v>
@@ -8116,88 +8116,88 @@
         <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>7.2</v>
+        <v>3.05</v>
       </c>
       <c r="O57" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P57" t="n">
-        <v>3.1</v>
+        <v>1.38</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R57" t="n">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="S57" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="T57" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="U57" t="n">
         <v>2.34</v>
       </c>
       <c r="V57" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W57" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="X57" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA57" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC57" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD57" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI57" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
@@ -8227,112 +8227,112 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="G58" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="J58" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K58" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N58" t="n">
-        <v>2.8</v>
+        <v>1.51</v>
       </c>
       <c r="O58" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q58" t="n">
         <v>1.45</v>
       </c>
-      <c r="P58" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.34</v>
-      </c>
       <c r="R58" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="S58" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U58" t="n">
         <v>1.71</v>
       </c>
       <c r="V58" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="W58" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="X58" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y58" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z58" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA58" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC58" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD58" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE58" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG58" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH58" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI58" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK58" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL58" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM58" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO58" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59">
@@ -8365,19 +8365,19 @@
         <v>1.51</v>
       </c>
       <c r="G59" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I59" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J59" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K59" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G60" t="n">
         <v>1.78</v>
@@ -8506,10 +8506,10 @@
         <v>5.3</v>
       </c>
       <c r="I60" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J60" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K60" t="n">
         <v>4</v>
@@ -8521,28 +8521,28 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>3.55</v>
+        <v>1.87</v>
       </c>
       <c r="O60" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P60" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R60" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S60" t="n">
-        <v>3.5</v>
+        <v>1.92</v>
       </c>
       <c r="T60" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U60" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="V60" t="n">
         <v>1.2</v>
@@ -8551,58 +8551,58 @@
         <v>2.28</v>
       </c>
       <c r="X60" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y60" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z60" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA60" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB60" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC60" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD60" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE60" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF60" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG60" t="n">
         <v>9.6</v>
       </c>
       <c r="AH60" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI60" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ60" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK60" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL60" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM60" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO60" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61">
@@ -8665,10 +8665,10 @@
         <v>2.12</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R61" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S61" t="n">
         <v>3.1</v>
@@ -8689,16 +8689,16 @@
         <v>16</v>
       </c>
       <c r="Y61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z61" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA61" t="n">
         <v>160</v>
       </c>
       <c r="AB61" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC61" t="n">
         <v>9.199999999999999</v>
@@ -8731,10 +8731,10 @@
         <v>34</v>
       </c>
       <c r="AM61" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN61" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO61" t="n">
         <v>90</v>
@@ -8785,7 +8785,7 @@
         <v>3.45</v>
       </c>
       <c r="L62" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M62" t="n">
         <v>1.08</v>
@@ -8809,7 +8809,7 @@
         <v>3.75</v>
       </c>
       <c r="T62" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U62" t="n">
         <v>2.14</v>
@@ -8851,7 +8851,7 @@
         <v>14</v>
       </c>
       <c r="AH62" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI62" t="n">
         <v>42</v>
@@ -8869,7 +8869,7 @@
         <v>100</v>
       </c>
       <c r="AN62" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO62" t="n">
         <v>24</v>
@@ -8908,10 +8908,10 @@
         <v>1.73</v>
       </c>
       <c r="H63" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I63" t="n">
         <v>5.9</v>
-      </c>
-      <c r="I63" t="n">
-        <v>6</v>
       </c>
       <c r="J63" t="n">
         <v>4</v>
@@ -8926,10 +8926,10 @@
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O63" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P63" t="n">
         <v>1.98</v>
@@ -8953,7 +8953,7 @@
         <v>1.2</v>
       </c>
       <c r="W63" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X63" t="n">
         <v>14</v>
@@ -8980,10 +8980,10 @@
         <v>80</v>
       </c>
       <c r="AF63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG63" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>9.4</v>
       </c>
       <c r="AH63" t="n">
         <v>21</v>
@@ -8995,7 +8995,7 @@
         <v>17</v>
       </c>
       <c r="AK63" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL63" t="n">
         <v>36</v>
@@ -9004,7 +9004,7 @@
         <v>130</v>
       </c>
       <c r="AN63" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO63" t="n">
         <v>95</v>
@@ -9043,7 +9043,7 @@
         <v>3.05</v>
       </c>
       <c r="H64" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I64" t="n">
         <v>2.64</v>
@@ -9121,7 +9121,7 @@
         <v>13</v>
       </c>
       <c r="AH64" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI64" t="n">
         <v>42</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G65" t="n">
         <v>2.22</v>
@@ -9187,7 +9187,7 @@
         <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9211,7 +9211,7 @@
         <v>1.18</v>
       </c>
       <c r="S65" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T65" t="n">
         <v>1.01</v>
@@ -9310,19 +9310,19 @@
         <v>1.92</v>
       </c>
       <c r="G66" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H66" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J66" t="n">
         <v>2.68</v>
       </c>
       <c r="K66" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
@@ -9331,22 +9331,22 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="O66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q66" t="n">
         <v>1.49</v>
-      </c>
-      <c r="P66" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>2.28</v>
       </c>
       <c r="R66" t="n">
         <v>1.18</v>
       </c>
       <c r="S66" t="n">
-        <v>2.28</v>
+        <v>1.49</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>
@@ -9355,10 +9355,10 @@
         <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W66" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9448,19 +9448,19 @@
         <v>3.65</v>
       </c>
       <c r="H67" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I67" t="n">
         <v>3.2</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K67" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L67" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
@@ -9469,7 +9469,7 @@
         <v>1.58</v>
       </c>
       <c r="O67" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P67" t="n">
         <v>1.58</v>
@@ -9577,46 +9577,46 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G68" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="H68" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="I68" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K68" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="L68" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M68" t="n">
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="O68" t="n">
         <v>1.01</v>
       </c>
       <c r="P68" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="R68" t="n">
         <v>1.18</v>
       </c>
       <c r="S68" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="T68" t="n">
         <v>1.01</v>
@@ -9625,10 +9625,10 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W68" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X68" t="n">
         <v>1000</v>
@@ -9712,112 +9712,112 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="G69" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="I69" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="J69" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="K69" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="L69" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M69" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="O69" t="n">
         <v>1.54</v>
       </c>
       <c r="P69" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="R69" t="n">
         <v>1.18</v>
       </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="T69" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U69" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="V69" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="W69" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="X69" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y69" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z69" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA69" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB69" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC69" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD69" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE69" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF69" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG69" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH69" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI69" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ69" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK69" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL69" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM69" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN69" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO69" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70">
@@ -9853,16 +9853,16 @@
         <v>6.8</v>
       </c>
       <c r="H70" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="I70" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J70" t="n">
         <v>4.2</v>
       </c>
       <c r="K70" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L70" t="n">
         <v>1.39</v>
@@ -9871,22 +9871,22 @@
         <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O70" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P70" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R70" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="S70" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T70" t="n">
         <v>1.87</v>
@@ -9895,64 +9895,64 @@
         <v>1.8</v>
       </c>
       <c r="V70" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="W70" t="n">
         <v>1.17</v>
       </c>
       <c r="X70" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y70" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="Z70" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AA70" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB70" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC70" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD70" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE70" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF70" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG70" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH70" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI70" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ70" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AK70" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL70" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM70" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN70" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO70" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71">
@@ -9988,10 +9988,10 @@
         <v>4.4</v>
       </c>
       <c r="H71" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I71" t="n">
         <v>2.16</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2.18</v>
       </c>
       <c r="J71" t="n">
         <v>3.25</v>
@@ -10030,7 +10030,7 @@
         <v>1.93</v>
       </c>
       <c r="V71" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W71" t="n">
         <v>1.29</v>
@@ -10066,7 +10066,7 @@
         <v>17.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI71" t="n">
         <v>48</v>
@@ -10123,16 +10123,16 @@
         <v>1.18</v>
       </c>
       <c r="H72" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I72" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J72" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L72" t="n">
         <v>1.2</v>
@@ -10141,28 +10141,28 @@
         <v>1.02</v>
       </c>
       <c r="N72" t="n">
-        <v>7.2</v>
+        <v>1.03</v>
       </c>
       <c r="O72" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P72" t="n">
-        <v>3.15</v>
+        <v>1.73</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="R72" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="S72" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="T72" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="U72" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V72" t="n">
         <v>1.04</v>
@@ -10171,58 +10171,58 @@
         <v>6.4</v>
       </c>
       <c r="X72" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Y72" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="Z72" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AA72" t="n">
         <v>1000</v>
       </c>
       <c r="AB72" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC72" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AD72" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE72" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AF72" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG72" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH72" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI72" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ72" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AK72" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL72" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM72" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN72" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73">
@@ -10252,58 +10252,58 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.82</v>
+        <v>1.04</v>
       </c>
       <c r="G73" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="H73" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="I73" t="n">
-        <v>2.96</v>
+        <v>1000</v>
       </c>
       <c r="J73" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="K73" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
       </c>
       <c r="M73" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N73" t="n">
-        <v>3</v>
+        <v>1.11</v>
       </c>
       <c r="O73" t="n">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="P73" t="n">
         <v>1.69</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R73" t="n">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="S73" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="T73" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U73" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V73" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W73" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="X73" t="n">
         <v>13</v>
@@ -10345,7 +10345,7 @@
         <v>55</v>
       </c>
       <c r="AK73" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL73" t="n">
         <v>55</v>
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G74" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="H74" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="I74" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="J74" t="n">
         <v>4.7</v>
       </c>
       <c r="K74" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10411,88 +10411,88 @@
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="O74" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P74" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="R74" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S74" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="T74" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="U74" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="V74" t="n">
         <v>2.78</v>
       </c>
       <c r="W74" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="X74" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y74" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z74" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA74" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AB74" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AC74" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD74" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE74" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF74" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG74" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH74" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI74" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ74" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK74" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL74" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM74" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN74" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO74" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75">
@@ -10522,22 +10522,22 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="G75" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="I75" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="J75" t="n">
         <v>3.5</v>
       </c>
       <c r="K75" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
@@ -10546,34 +10546,34 @@
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="O75" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P75" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="R75" t="n">
         <v>1.3</v>
       </c>
       <c r="S75" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T75" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="U75" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V75" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="W75" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X75" t="n">
         <v>1000</v>
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G76" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H76" t="n">
         <v>4.3</v>
       </c>
       <c r="I76" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J76" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K76" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L76" t="n">
         <v>1.51</v>
@@ -10684,19 +10684,19 @@
         <v>3.15</v>
       </c>
       <c r="O76" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P76" t="n">
         <v>1.71</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R76" t="n">
         <v>1.26</v>
       </c>
       <c r="S76" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T76" t="n">
         <v>2.04</v>
@@ -10708,22 +10708,22 @@
         <v>1.29</v>
       </c>
       <c r="W76" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="X76" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y76" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z76" t="n">
         <v>28</v>
       </c>
       <c r="AA76" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB76" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC76" t="n">
         <v>7.2</v>
@@ -10732,25 +10732,25 @@
         <v>17.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF76" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG76" t="n">
         <v>11.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI76" t="n">
         <v>80</v>
       </c>
       <c r="AJ76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL76" t="n">
         <v>50</v>
@@ -10759,10 +10759,10 @@
         <v>140</v>
       </c>
       <c r="AN76" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO76" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
@@ -10792,64 +10792,64 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G77" t="n">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="H77" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I77" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J77" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="K77" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
       </c>
       <c r="M77" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N77" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="O77" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="P77" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="R77" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S77" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T77" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U77" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="V77" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W77" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="X77" t="n">
         <v>970</v>
       </c>
       <c r="Y77" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z77" t="n">
         <v>1000</v>
@@ -10927,16 +10927,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G78" t="n">
         <v>2.4</v>
       </c>
       <c r="H78" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I78" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J78" t="n">
         <v>3.45</v>
@@ -10948,34 +10948,34 @@
         <v>1.4</v>
       </c>
       <c r="M78" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>3.5</v>
+        <v>1.87</v>
       </c>
       <c r="O78" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P78" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="R78" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S78" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="T78" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="U78" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V78" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W78" t="n">
         <v>1.71</v>
@@ -10984,7 +10984,7 @@
         <v>13.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z78" t="n">
         <v>24</v>
@@ -10993,13 +10993,13 @@
         <v>65</v>
       </c>
       <c r="AB78" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AC78" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AD78" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE78" t="n">
         <v>44</v>
@@ -11032,7 +11032,7 @@
         <v>21</v>
       </c>
       <c r="AO78" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79">
@@ -11062,112 +11062,112 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G79" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="H79" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I79" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J79" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K79" t="n">
         <v>4</v>
       </c>
       <c r="L79" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M79" t="n">
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>3.7</v>
+        <v>1.92</v>
       </c>
       <c r="O79" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P79" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="R79" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="S79" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T79" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U79" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="V79" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W79" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="X79" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y79" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z79" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA79" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB79" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC79" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD79" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE79" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF79" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG79" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH79" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI79" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ79" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK79" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL79" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM79" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN79" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO79" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="80">
@@ -11200,10 +11200,10 @@
         <v>7</v>
       </c>
       <c r="G80" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="H80" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="I80" t="n">
         <v>1.61</v>
@@ -11212,7 +11212,7 @@
         <v>4.2</v>
       </c>
       <c r="K80" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L80" t="n">
         <v>1.45</v>
@@ -11221,40 +11221,40 @@
         <v>1.08</v>
       </c>
       <c r="N80" t="n">
-        <v>3.2</v>
+        <v>1.76</v>
       </c>
       <c r="O80" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P80" t="n">
-        <v>1.77</v>
+        <v>1.27</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="R80" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S80" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="T80" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="U80" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V80" t="n">
         <v>2.62</v>
       </c>
       <c r="W80" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X80" t="n">
         <v>13</v>
       </c>
       <c r="Y80" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z80" t="n">
         <v>8.4</v>
@@ -11263,7 +11263,7 @@
         <v>15</v>
       </c>
       <c r="AB80" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AC80" t="n">
         <v>9.6</v>
@@ -11272,25 +11272,25 @@
         <v>10.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF80" t="n">
         <v>65</v>
       </c>
       <c r="AG80" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI80" t="n">
         <v>50</v>
       </c>
       <c r="AJ80" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="AK80" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AL80" t="n">
         <v>160</v>
@@ -11302,7 +11302,7 @@
         <v>230</v>
       </c>
       <c r="AO80" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -11332,112 +11332,112 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="G81" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="H81" t="n">
         <v>2.34</v>
       </c>
       <c r="I81" t="n">
-        <v>2.64</v>
+        <v>2.96</v>
       </c>
       <c r="J81" t="n">
-        <v>3.65</v>
+        <v>2.48</v>
       </c>
       <c r="K81" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="L81" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>4.7</v>
+        <v>1.52</v>
       </c>
       <c r="O81" t="n">
         <v>1.21</v>
       </c>
       <c r="P81" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="R81" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V81" t="n">
         <v>1.52</v>
       </c>
-      <c r="S81" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T81" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U81" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V81" t="n">
-        <v>1.61</v>
-      </c>
       <c r="W81" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="X81" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y81" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z81" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA81" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC81" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD81" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE81" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF81" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG81" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH81" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI81" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK81" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL81" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM81" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN81" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO81" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82">
@@ -11470,19 +11470,19 @@
         <v>1.97</v>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H82" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I82" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J82" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K82" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L82" t="n">
         <v>1.01</v>
@@ -11491,79 +11491,79 @@
         <v>1.1</v>
       </c>
       <c r="N82" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="O82" t="n">
         <v>1.1</v>
       </c>
       <c r="P82" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="R82" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="S82" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T82" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="U82" t="n">
         <v>1.67</v>
       </c>
       <c r="V82" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W82" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X82" t="n">
         <v>1000</v>
       </c>
       <c r="Y82" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z82" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA82" t="n">
         <v>1000</v>
       </c>
       <c r="AB82" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC82" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD82" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE82" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF82" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG82" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH82" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI82" t="n">
         <v>1000</v>
       </c>
       <c r="AJ82" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK82" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL82" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM82" t="n">
         <v>1000</v>
@@ -11608,16 +11608,16 @@
         <v>2.24</v>
       </c>
       <c r="H83" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="J83" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K83" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L83" t="n">
         <v>1.43</v>
@@ -11626,88 +11626,88 @@
         <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>3.45</v>
+        <v>1.86</v>
       </c>
       <c r="O83" t="n">
         <v>1.37</v>
       </c>
       <c r="P83" t="n">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="R83" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S83" t="n">
-        <v>3.55</v>
+        <v>1.99</v>
       </c>
       <c r="T83" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="U83" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W83" t="n">
         <v>1.8</v>
       </c>
       <c r="X83" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y83" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z83" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA83" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB83" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC83" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD83" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE83" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF83" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG83" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH83" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI83" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ83" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK83" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL83" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM83" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN83" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO83" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84">
@@ -11737,22 +11737,22 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4.1</v>
+        <v>1.04</v>
       </c>
       <c r="G84" t="n">
         <v>1000</v>
       </c>
       <c r="H84" t="n">
-        <v>1.95</v>
+        <v>1.09</v>
       </c>
       <c r="I84" t="n">
-        <v>2.14</v>
+        <v>1000</v>
       </c>
       <c r="J84" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="K84" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
@@ -11761,7 +11761,7 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="O84" t="n">
         <v>1.36</v>
@@ -11785,55 +11785,55 @@
         <v>1.01</v>
       </c>
       <c r="V84" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="W84" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X84" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y84" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z84" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA84" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB84" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC84" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD84" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE84" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF84" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG84" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH84" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI84" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ84" t="n">
         <v>1000</v>
       </c>
       <c r="AK84" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL84" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM84" t="n">
         <v>1000</v>
@@ -11872,46 +11872,46 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="G85" t="n">
         <v>3.05</v>
       </c>
       <c r="H85" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="I85" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="K85" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="L85" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M85" t="n">
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O85" t="n">
         <v>1.01</v>
       </c>
       <c r="P85" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R85" t="n">
         <v>1.18</v>
       </c>
       <c r="S85" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T85" t="n">
         <v>1.01</v>
@@ -11920,7 +11920,7 @@
         <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W85" t="n">
         <v>1.48</v>
@@ -12013,40 +12013,40 @@
         <v>6.2</v>
       </c>
       <c r="H86" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="I86" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="J86" t="n">
         <v>2.74</v>
       </c>
       <c r="K86" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L86" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M86" t="n">
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="O86" t="n">
         <v>1.01</v>
       </c>
       <c r="P86" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.02</v>
+        <v>2.32</v>
       </c>
       <c r="R86" t="n">
         <v>1.18</v>
       </c>
       <c r="S86" t="n">
-        <v>1.02</v>
+        <v>2.32</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12055,7 +12055,7 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="W86" t="n">
         <v>1.19</v>
@@ -12151,7 +12151,7 @@
         <v>5.7</v>
       </c>
       <c r="I87" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J87" t="n">
         <v>4.2</v>
@@ -12166,10 +12166,10 @@
         <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="O87" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P87" t="n">
         <v>2.16</v>
@@ -12178,73 +12178,73 @@
         <v>1.83</v>
       </c>
       <c r="R87" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="S87" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="T87" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U87" t="n">
         <v>2.08</v>
       </c>
       <c r="V87" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W87" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="X87" t="n">
         <v>18</v>
       </c>
       <c r="Y87" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Z87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD87" t="n">
         <v>48</v>
       </c>
-      <c r="AA87" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>23</v>
-      </c>
       <c r="AE87" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF87" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG87" t="n">
         <v>9.4</v>
       </c>
       <c r="AH87" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI87" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ87" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AK87" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL87" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM87" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN87" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO87" t="n">
         <v>1000</v>
@@ -12307,10 +12307,10 @@
         <v>1.31</v>
       </c>
       <c r="P88" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R88" t="n">
         <v>1.39</v>
@@ -12412,16 +12412,16 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G89" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I89" t="n">
         <v>1.61</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.63</v>
       </c>
       <c r="J89" t="n">
         <v>5</v>
@@ -12451,16 +12451,16 @@
         <v>1.84</v>
       </c>
       <c r="S89" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T89" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U89" t="n">
         <v>2.68</v>
       </c>
       <c r="V89" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="W89" t="n">
         <v>1.21</v>
@@ -12478,7 +12478,7 @@
         <v>17</v>
       </c>
       <c r="AB89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC89" t="n">
         <v>12</v>
@@ -12490,7 +12490,7 @@
         <v>14.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG89" t="n">
         <v>21</v>
@@ -12502,7 +12502,7 @@
         <v>22</v>
       </c>
       <c r="AJ89" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK89" t="n">
         <v>60</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G90" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H90" t="n">
         <v>4.2</v>
       </c>
       <c r="I90" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J90" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K90" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L90" t="n">
         <v>1.38</v>
@@ -12571,88 +12571,88 @@
         <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>3.7</v>
+        <v>1.98</v>
       </c>
       <c r="O90" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P90" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="Q90" t="n">
         <v>1.98</v>
       </c>
       <c r="R90" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="S90" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T90" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="U90" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V90" t="n">
         <v>1.28</v>
       </c>
       <c r="W90" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X90" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y90" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z90" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA90" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC90" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD90" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE90" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF90" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG90" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH90" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI90" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ90" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK90" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL90" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM90" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN90" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO90" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91">
@@ -12685,7 +12685,7 @@
         <v>8.4</v>
       </c>
       <c r="G91" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>1.48</v>
@@ -12700,7 +12700,7 @@
         <v>4.8</v>
       </c>
       <c r="L91" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M91" t="n">
         <v>1.07</v>
@@ -12727,7 +12727,7 @@
         <v>2.24</v>
       </c>
       <c r="U91" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V91" t="n">
         <v>3</v>
@@ -12736,7 +12736,7 @@
         <v>1.12</v>
       </c>
       <c r="X91" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y91" t="n">
         <v>6.8</v>
@@ -12745,37 +12745,37 @@
         <v>8</v>
       </c>
       <c r="AA91" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC91" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD91" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE91" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AF91" t="n">
         <v>80</v>
       </c>
       <c r="AG91" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AH91" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI91" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ91" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AK91" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AL91" t="n">
         <v>180</v>
@@ -12817,10 +12817,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
         <v>2.48</v>
@@ -12835,55 +12835,55 @@
         <v>3.55</v>
       </c>
       <c r="L92" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
         <v>1.09</v>
       </c>
       <c r="N92" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="O92" t="n">
         <v>1.43</v>
       </c>
       <c r="P92" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="Q92" t="n">
         <v>2.26</v>
       </c>
       <c r="R92" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="S92" t="n">
-        <v>4.3</v>
+        <v>2.26</v>
       </c>
       <c r="T92" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="U92" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W92" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X92" t="n">
         <v>12</v>
       </c>
       <c r="Y92" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z92" t="n">
         <v>16</v>
       </c>
       <c r="AA92" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB92" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC92" t="n">
         <v>7.8</v>
@@ -12895,10 +12895,10 @@
         <v>38</v>
       </c>
       <c r="AF92" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AG92" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH92" t="n">
         <v>21</v>
@@ -12952,19 +12952,19 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G93" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H93" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="I93" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="J93" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K93" t="n">
         <v>3.75</v>
@@ -12976,88 +12976,88 @@
         <v>1.06</v>
       </c>
       <c r="N93" t="n">
-        <v>3.75</v>
+        <v>1.96</v>
       </c>
       <c r="O93" t="n">
         <v>1.31</v>
       </c>
       <c r="P93" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.89</v>
+        <v>1.32</v>
       </c>
       <c r="R93" t="n">
         <v>1.33</v>
       </c>
       <c r="S93" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T93" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="U93" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W93" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X93" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y93" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z93" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA93" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC93" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD93" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE93" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF93" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG93" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH93" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI93" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ93" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK93" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM93" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="G94" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H94" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I94" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="J94" t="n">
         <v>2.68</v>
       </c>
       <c r="K94" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
@@ -13111,22 +13111,22 @@
         <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="O94" t="n">
         <v>1.01</v>
       </c>
       <c r="P94" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R94" t="n">
         <v>1.14</v>
       </c>
       <c r="S94" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T94" t="n">
         <v>1.01</v>
@@ -13135,13 +13135,13 @@
         <v>1.01</v>
       </c>
       <c r="V94" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W94" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X94" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y94" t="n">
         <v>1000</v>
@@ -13222,58 +13222,58 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="G95" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I95" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="J95" t="n">
         <v>3.3</v>
       </c>
       <c r="K95" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="L95" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M95" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="O95" t="n">
         <v>1.33</v>
       </c>
       <c r="P95" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="R95" t="n">
         <v>1.27</v>
       </c>
       <c r="S95" t="n">
-        <v>3.15</v>
+        <v>1.86</v>
       </c>
       <c r="T95" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U95" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V95" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="W95" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X95" t="n">
         <v>1000</v>
@@ -13288,7 +13288,7 @@
         <v>1000</v>
       </c>
       <c r="AB95" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC95" t="n">
         <v>1000</v>
@@ -13306,13 +13306,13 @@
         <v>1000</v>
       </c>
       <c r="AH95" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI95" t="n">
         <v>1000</v>
       </c>
       <c r="AJ95" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK95" t="n">
         <v>1000</v>
@@ -13357,46 +13357,46 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="G96" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I96" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K96" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L96" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M96" t="n">
         <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="O96" t="n">
         <v>1.36</v>
       </c>
       <c r="P96" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.04</v>
+        <v>1.36</v>
       </c>
       <c r="R96" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="S96" t="n">
-        <v>3.25</v>
+        <v>2.02</v>
       </c>
       <c r="T96" t="n">
         <v>1.01</v>
@@ -13405,10 +13405,10 @@
         <v>1.01</v>
       </c>
       <c r="V96" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W96" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="X96" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -673,13 +673,13 @@
         <v>3.65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I2" t="n">
         <v>2.28</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>3.6</v>
@@ -691,37 +691,37 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
         <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
         <v>1.78</v>
       </c>
       <c r="W2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
         <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
         <v>5.9</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
         <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>4.4</v>
@@ -844,19 +844,19 @@
         <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
         <v>22</v>
@@ -865,10 +865,10 @@
         <v>50</v>
       </c>
       <c r="AA3" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>9.800000000000001</v>
@@ -880,7 +880,7 @@
         <v>85</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG3" t="n">
         <v>9.6</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.38</v>
@@ -970,28 +970,28 @@
         <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>16.5</v>
@@ -1000,22 +1000,22 @@
         <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
         <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
@@ -1024,7 +1024,7 @@
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
@@ -1036,7 +1036,7 @@
         <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
         <v>14.5</v>
@@ -1078,7 +1078,7 @@
         <v>1.64</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
         <v>5.9</v>
@@ -1093,28 +1093,28 @@
         <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>2.58</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
         <v>2.3</v>
@@ -1150,10 +1150,10 @@
         <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH5" t="n">
         <v>18.5</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="H6" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
         <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF6" t="n">
         <v>17</v>
       </c>
-      <c r="Y6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
         <v>60</v>
       </c>
-      <c r="AB6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AJ6" t="n">
         <v>42</v>
       </c>
-      <c r="AF6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
         <v>55</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN6" t="n">
         <v>32</v>
       </c>
-      <c r="AL6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>24</v>
-      </c>
       <c r="AO6" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="G7" t="n">
         <v>8.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.68</v>
@@ -1360,31 +1360,31 @@
         <v>5.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="T7" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
         <v>1.94</v>
@@ -1393,7 +1393,7 @@
         <v>2.46</v>
       </c>
       <c r="W7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1486,88 +1486,88 @@
         <v>1.93</v>
       </c>
       <c r="I8" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="J8" t="n">
         <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="O8" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
         <v>1.01</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="W8" t="n">
         <v>1.22</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB8" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>15</v>
-      </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AK8" t="n">
         <v>95</v>
@@ -1582,7 +1582,7 @@
         <v>140</v>
       </c>
       <c r="AO8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1678,10 +1678,10 @@
         <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>16</v>
@@ -1693,7 +1693,7 @@
         <v>22</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
         <v>24</v>
@@ -1708,7 +1708,7 @@
         <v>46</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
         <v>160</v>
@@ -1894,7 +1894,7 @@
         <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
         <v>5.3</v>
@@ -1909,7 +1909,7 @@
         <v>6.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1921,10 +1921,10 @@
         <v>1.81</v>
       </c>
       <c r="S11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T11" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="n">
         <v>2.54</v>
@@ -1951,7 +1951,7 @@
         <v>18.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -1960,7 +1960,7 @@
         <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>13.5</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
         <v>2.26</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
         <v>3.65</v>
@@ -2032,7 +2032,7 @@
         <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
         <v>1.34</v>
@@ -2056,16 +2056,16 @@
         <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
         <v>2.48</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
         <v>1.79</v>
@@ -2086,7 +2086,7 @@
         <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
         <v>14.5</v>
@@ -2107,7 +2107,7 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2152,82 +2152,82 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G13" t="n">
         <v>2.28</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U13" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
         <v>13.5</v>
@@ -2245,7 +2245,7 @@
         <v>30</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>46</v>
@@ -2254,10 +2254,10 @@
         <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2311,7 +2311,7 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
@@ -2320,13 +2320,13 @@
         <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="R14" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S14" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T14" t="n">
         <v>1.87</v>
@@ -2425,16 +2425,16 @@
         <v>4.4</v>
       </c>
       <c r="G15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I15" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>4.4</v>
@@ -2455,16 +2455,16 @@
         <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
         <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
         <v>1.99</v>
@@ -2473,7 +2473,7 @@
         <v>2.02</v>
       </c>
       <c r="W15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X15" t="n">
         <v>20</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.98</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>3.05</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
         <v>2.94</v>
@@ -2575,7 +2575,7 @@
         <v>2.96</v>
       </c>
       <c r="L16" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="M16" t="n">
         <v>1.14</v>
@@ -2584,7 +2584,7 @@
         <v>2.78</v>
       </c>
       <c r="O16" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P16" t="n">
         <v>1.57</v>
@@ -2602,7 +2602,7 @@
         <v>2.1</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
         <v>1.47</v>
@@ -2614,7 +2614,7 @@
         <v>8</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
         <v>17.5</v>
@@ -2635,7 +2635,7 @@
         <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G17" t="n">
         <v>2.9</v>
@@ -2704,16 +2704,16 @@
         <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
         <v>2.76</v>
@@ -2725,7 +2725,7 @@
         <v>1.59</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
@@ -2743,10 +2743,10 @@
         <v>1.39</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
@@ -2779,7 +2779,7 @@
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
         <v>50</v>
@@ -2839,7 +2839,7 @@
         <v>3.05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
@@ -2986,22 +2986,22 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I20" t="n">
         <v>3.05</v>
@@ -3115,7 +3115,7 @@
         <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3130,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R20" t="n">
         <v>1.39</v>
@@ -3139,16 +3139,16 @@
         <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V20" t="n">
         <v>1.48</v>
       </c>
       <c r="W20" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X20" t="n">
         <v>17</v>
@@ -3160,16 +3160,16 @@
         <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC20" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
         <v>32</v>
@@ -3181,7 +3181,7 @@
         <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>42</v>
@@ -3199,7 +3199,7 @@
         <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -3256,7 +3256,7 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="O21" t="n">
         <v>1.04</v>
@@ -3391,22 +3391,22 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
@@ -3535,13 +3535,13 @@
         <v>1.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="R23" t="n">
         <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G24" t="n">
         <v>3.55</v>
@@ -3646,7 +3646,7 @@
         <v>2.18</v>
       </c>
       <c r="I24" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J24" t="n">
         <v>3.8</v>
@@ -3667,7 +3667,7 @@
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q24" t="n">
         <v>1.7</v>
@@ -3676,7 +3676,7 @@
         <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T24" t="n">
         <v>1.63</v>
@@ -3685,7 +3685,7 @@
         <v>2.42</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W24" t="n">
         <v>1.39</v>
@@ -3724,7 +3724,7 @@
         <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ24" t="n">
         <v>60</v>
@@ -3736,7 +3736,7 @@
         <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
         <v>27</v>
@@ -3778,7 +3778,7 @@
         <v>2.98</v>
       </c>
       <c r="H25" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I25" t="n">
         <v>2.58</v>
@@ -3802,10 +3802,10 @@
         <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R25" t="n">
         <v>1.5</v>
@@ -3814,7 +3814,7 @@
         <v>2.84</v>
       </c>
       <c r="T25" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U25" t="n">
         <v>2.42</v>
@@ -3868,7 +3868,7 @@
         <v>30</v>
       </c>
       <c r="AL25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
         <v>70</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G26" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
         <v>1.34</v>
@@ -3937,7 +3937,7 @@
         <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q26" t="n">
         <v>1.78</v>
@@ -3946,19 +3946,19 @@
         <v>1.47</v>
       </c>
       <c r="S26" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T26" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U26" t="n">
         <v>2.38</v>
       </c>
       <c r="V26" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W26" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="X26" t="n">
         <v>19</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G27" t="n">
         <v>2.78</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
         <v>3.6</v>
@@ -4066,10 +4066,10 @@
         <v>1.2</v>
       </c>
       <c r="N27" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P27" t="n">
         <v>1.37</v>
@@ -4087,7 +4087,7 @@
         <v>2.58</v>
       </c>
       <c r="U27" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V27" t="n">
         <v>1.38</v>
@@ -4108,13 +4108,13 @@
         <v>80</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC27" t="n">
         <v>6.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE27" t="n">
         <v>75</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G28" t="n">
         <v>2.84</v>
       </c>
       <c r="H28" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I28" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J28" t="n">
         <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L28" t="n">
         <v>1.44</v>
@@ -4207,7 +4207,7 @@
         <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="Q28" t="n">
         <v>1.99</v>
@@ -4225,7 +4225,7 @@
         <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W28" t="n">
         <v>1.54</v>
@@ -4255,7 +4255,7 @@
         <v>42</v>
       </c>
       <c r="AF28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG28" t="n">
         <v>14.5</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="G29" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H29" t="n">
         <v>4.5</v>
@@ -4327,7 +4327,7 @@
         <v>3.95</v>
       </c>
       <c r="K29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.28</v>
@@ -4348,49 +4348,49 @@
         <v>1.64</v>
       </c>
       <c r="R29" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="T29" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U29" t="n">
         <v>2.3</v>
       </c>
       <c r="V29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W29" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X29" t="n">
         <v>25</v>
       </c>
       <c r="Y29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z29" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -4402,10 +4402,10 @@
         <v>60</v>
       </c>
       <c r="AJ29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
         <v>32</v>
@@ -4414,7 +4414,7 @@
         <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO29" t="n">
         <v>46</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G30" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
         <v>3.35</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K30" t="n">
         <v>3.65</v>
@@ -4477,7 +4477,7 @@
         <v>1.35</v>
       </c>
       <c r="P30" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q30" t="n">
         <v>2.04</v>
@@ -4495,13 +4495,13 @@
         <v>2.06</v>
       </c>
       <c r="V30" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W30" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
         <v>12</v>
@@ -4516,13 +4516,13 @@
         <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
         <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
@@ -4552,7 +4552,7 @@
         <v>34</v>
       </c>
       <c r="AO30" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
@@ -4594,7 +4594,7 @@
         <v>1.86</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
         <v>4.1</v>
@@ -4624,10 +4624,10 @@
         <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
         <v>2.14</v>
@@ -4639,7 +4639,7 @@
         <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z31" t="n">
         <v>12.5</v>
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="G32" t="n">
-        <v>2.78</v>
+        <v>2.34</v>
       </c>
       <c r="H32" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P32" t="n">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="Q32" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="n">
         <v>2.04</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.67</v>
-      </c>
       <c r="U32" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="V32" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="W32" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="X32" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL32" t="n">
         <v>65</v>
       </c>
-      <c r="AB32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>55</v>
-      </c>
       <c r="AM32" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO32" t="n">
         <v>130</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="G33" t="n">
-        <v>2.36</v>
+        <v>2.78</v>
       </c>
       <c r="H33" t="n">
-        <v>3.85</v>
+        <v>2.92</v>
       </c>
       <c r="I33" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="J33" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="T33" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="U33" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="W33" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="X33" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK33" t="n">
         <v>38</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AL33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM33" t="n">
         <v>130</v>
       </c>
-      <c r="AB33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK33" t="n">
+      <c r="AN33" t="n">
         <v>34</v>
       </c>
-      <c r="AL33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>36</v>
-      </c>
       <c r="AO33" t="n">
-        <v>140</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -5005,16 +5005,16 @@
         <v>3.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="O34" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P34" t="n">
         <v>1.52</v>
@@ -5029,7 +5029,7 @@
         <v>4.8</v>
       </c>
       <c r="T34" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U34" t="n">
         <v>1.64</v>
@@ -5041,10 +5041,10 @@
         <v>1.23</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z34" t="n">
         <v>13.5</v>
@@ -5059,7 +5059,7 @@
         <v>8.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE34" t="n">
         <v>34</v>
@@ -5074,7 +5074,7 @@
         <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ34" t="n">
         <v>150</v>
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>2.38</v>
       </c>
       <c r="G35" t="n">
-        <v>6.2</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
-        <v>1.8</v>
+        <v>2.92</v>
       </c>
       <c r="I35" t="n">
-        <v>1.99</v>
+        <v>3.25</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="R35" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S35" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T35" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="U35" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="W35" t="n">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="X35" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AA35" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AB35" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AF35" t="n">
-        <v>48</v>
+        <v>16.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="n">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AL35" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AN35" t="n">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="AO35" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
@@ -5260,16 +5260,16 @@
         <v>2.82</v>
       </c>
       <c r="G36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
         <v>2.52</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="J36" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
         <v>3.9</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G37" t="n">
         <v>4.8</v>
@@ -5404,10 +5404,10 @@
         <v>1.89</v>
       </c>
       <c r="J37" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>1.35</v>
@@ -5419,10 +5419,10 @@
         <v>4.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q37" t="n">
         <v>1.76</v>
@@ -5434,13 +5434,13 @@
         <v>2.9</v>
       </c>
       <c r="T37" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U37" t="n">
         <v>2.22</v>
       </c>
       <c r="V37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W37" t="n">
         <v>1.26</v>
@@ -5461,7 +5461,7 @@
         <v>19</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD37" t="n">
         <v>10.5</v>
@@ -5494,7 +5494,7 @@
         <v>85</v>
       </c>
       <c r="AN37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO37" t="n">
         <v>10.5</v>
@@ -5539,7 +5539,7 @@
         <v>1.64</v>
       </c>
       <c r="J38" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K38" t="n">
         <v>4.6</v>
@@ -5557,7 +5557,7 @@
         <v>1.19</v>
       </c>
       <c r="P38" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q38" t="n">
         <v>1.62</v>
@@ -5572,7 +5572,7 @@
         <v>1.72</v>
       </c>
       <c r="U38" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V38" t="n">
         <v>2.56</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G39" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H39" t="n">
         <v>2.76</v>
       </c>
       <c r="I39" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="K39" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="L39" t="n">
         <v>1.15</v>
@@ -5686,7 +5686,7 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O39" t="n">
         <v>1.09</v>
@@ -5704,16 +5704,16 @@
         <v>1.69</v>
       </c>
       <c r="T39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U39" t="n">
         <v>3.4</v>
       </c>
       <c r="V39" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="W39" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X39" t="n">
         <v>70</v>
@@ -5731,7 +5731,7 @@
         <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD39" t="n">
         <v>19.5</v>
@@ -5764,7 +5764,7 @@
         <v>40</v>
       </c>
       <c r="AN39" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO39" t="n">
         <v>12</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G40" t="n">
         <v>1.77</v>
@@ -5812,7 +5812,7 @@
         <v>4.3</v>
       </c>
       <c r="K40" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.24</v>
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.36</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>2.62</v>
+        <v>6.2</v>
       </c>
       <c r="H41" t="n">
-        <v>2.94</v>
+        <v>1.8</v>
       </c>
       <c r="I41" t="n">
-        <v>3.35</v>
+        <v>1.99</v>
       </c>
       <c r="J41" t="n">
         <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="O41" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="P41" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="R41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S41" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T41" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="U41" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="V41" t="n">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="W41" t="n">
-        <v>1.61</v>
+        <v>1.19</v>
       </c>
       <c r="X41" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y41" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z41" t="n">
         <v>11</v>
       </c>
-      <c r="Z41" t="n">
-        <v>22</v>
-      </c>
       <c r="AA41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI41" t="n">
         <v>65</v>
       </c>
-      <c r="AB41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH41" t="n">
+      <c r="AJ41" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>190</v>
+      </c>
+      <c r="AO41" t="n">
         <v>21</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="42">
@@ -6073,7 +6073,7 @@
         <v>2.78</v>
       </c>
       <c r="H42" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I42" t="n">
         <v>3.05</v>
@@ -6100,7 +6100,7 @@
         <v>1.83</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R42" t="n">
         <v>1.31</v>
@@ -6208,7 +6208,7 @@
         <v>1.38</v>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I43" t="n">
         <v>14</v>
@@ -6217,7 +6217,7 @@
         <v>5.2</v>
       </c>
       <c r="K43" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L43" t="n">
         <v>1.26</v>
@@ -6247,7 +6247,7 @@
         <v>2.02</v>
       </c>
       <c r="U43" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V43" t="n">
         <v>1.08</v>
@@ -6259,13 +6259,13 @@
         <v>27</v>
       </c>
       <c r="Y43" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="n">
         <v>120</v>
       </c>
       <c r="AA43" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AB43" t="n">
         <v>10</v>
@@ -6283,7 +6283,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG43" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
         <v>36</v>
@@ -6301,13 +6301,13 @@
         <v>46</v>
       </c>
       <c r="AM43" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN43" t="n">
         <v>6.8</v>
       </c>
       <c r="AO43" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44">
@@ -6367,10 +6367,10 @@
         <v>1.26</v>
       </c>
       <c r="P44" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R44" t="n">
         <v>1.49</v>
@@ -6379,10 +6379,10 @@
         <v>2.96</v>
       </c>
       <c r="T44" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U44" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V44" t="n">
         <v>2.18</v>
@@ -6391,13 +6391,13 @@
         <v>1.26</v>
       </c>
       <c r="X44" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y44" t="n">
         <v>10.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA44" t="n">
         <v>19.5</v>
@@ -6418,7 +6418,7 @@
         <v>36</v>
       </c>
       <c r="AG44" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH44" t="n">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO44" t="n">
         <v>9.6</v>
@@ -6475,13 +6475,13 @@
         <v>1.48</v>
       </c>
       <c r="G45" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I45" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J45" t="n">
         <v>5.1</v>
@@ -6502,16 +6502,16 @@
         <v>1.21</v>
       </c>
       <c r="P45" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R45" t="n">
         <v>1.58</v>
       </c>
       <c r="S45" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T45" t="n">
         <v>1.83</v>
@@ -6520,10 +6520,10 @@
         <v>2.16</v>
       </c>
       <c r="V45" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W45" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
         <v>24</v>
@@ -6544,7 +6544,7 @@
         <v>11.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE45" t="n">
         <v>95</v>
@@ -6574,7 +6574,7 @@
         <v>100</v>
       </c>
       <c r="AN45" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AO45" t="n">
         <v>100</v>
@@ -6613,10 +6613,10 @@
         <v>2.36</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J46" t="n">
         <v>3.4</v>
@@ -6634,7 +6634,7 @@
         <v>3.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
         <v>1.89</v>
@@ -6643,19 +6643,19 @@
         <v>2.08</v>
       </c>
       <c r="R46" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S46" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T46" t="n">
         <v>1.83</v>
       </c>
       <c r="U46" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V46" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W46" t="n">
         <v>1.73</v>
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
         <v>5.5</v>
       </c>
       <c r="H47" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="I47" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J47" t="n">
         <v>3.8</v>
@@ -6772,7 +6772,7 @@
         <v>1.3</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q47" t="n">
         <v>1.89</v>
@@ -6790,7 +6790,7 @@
         <v>2.04</v>
       </c>
       <c r="V47" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W47" t="n">
         <v>1.22</v>
@@ -6886,16 +6886,16 @@
         <v>2.02</v>
       </c>
       <c r="I48" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="K48" t="n">
         <v>4.1</v>
       </c>
       <c r="L48" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M48" t="n">
         <v>1.09</v>
@@ -6916,7 +6916,7 @@
         <v>1.26</v>
       </c>
       <c r="S48" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T48" t="n">
         <v>1.77</v>
@@ -6925,7 +6925,7 @@
         <v>1.83</v>
       </c>
       <c r="V48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W48" t="n">
         <v>1.26</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="G49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J49" t="n">
         <v>3.35</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.3</v>
       </c>
       <c r="K49" t="n">
         <v>3.4</v>
@@ -7036,7 +7036,7 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O49" t="n">
         <v>1.39</v>
@@ -7045,34 +7045,34 @@
         <v>1.79</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R49" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S49" t="n">
         <v>3.9</v>
       </c>
       <c r="T49" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U49" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V49" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="W49" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="X49" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA49" t="n">
         <v>38</v>
@@ -7081,7 +7081,7 @@
         <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD49" t="n">
         <v>12</v>
@@ -7090,31 +7090,31 @@
         <v>30</v>
       </c>
       <c r="AF49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH49" t="n">
         <v>22</v>
       </c>
-      <c r="AG49" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>970</v>
-      </c>
       <c r="AI49" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK49" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL49" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM49" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN49" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AO49" t="n">
         <v>27</v>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G50" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H50" t="n">
         <v>5.7</v>
@@ -7180,7 +7180,7 @@
         <v>2.18</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R50" t="n">
         <v>1.45</v>
@@ -7192,13 +7192,13 @@
         <v>1.83</v>
       </c>
       <c r="U50" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V50" t="n">
         <v>1.2</v>
       </c>
       <c r="W50" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X50" t="n">
         <v>17</v>
@@ -7213,7 +7213,7 @@
         <v>140</v>
       </c>
       <c r="AB50" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC50" t="n">
         <v>9</v>
@@ -7300,7 +7300,7 @@
         <v>6.8</v>
       </c>
       <c r="L51" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -7309,13 +7309,13 @@
         <v>3.9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R51" t="n">
         <v>1.38</v>
@@ -7324,16 +7324,16 @@
         <v>3.1</v>
       </c>
       <c r="T51" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="U51" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V51" t="n">
         <v>1.04</v>
       </c>
       <c r="W51" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X51" t="n">
         <v>22</v>
@@ -7351,7 +7351,7 @@
         <v>8.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD51" t="n">
         <v>80</v>
@@ -7360,7 +7360,7 @@
         <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG51" t="n">
         <v>14</v>
@@ -7369,7 +7369,7 @@
         <v>60</v>
       </c>
       <c r="AI51" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AJ51" t="n">
         <v>11</v>
@@ -7381,10 +7381,10 @@
         <v>75</v>
       </c>
       <c r="AM51" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AN51" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO51" t="n">
         <v>1000</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G52" t="n">
         <v>4.6</v>
@@ -7432,7 +7432,7 @@
         <v>3.05</v>
       </c>
       <c r="K52" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L52" t="n">
         <v>1.52</v>
@@ -7465,7 +7465,7 @@
         <v>1.82</v>
       </c>
       <c r="V52" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W52" t="n">
         <v>1.27</v>
@@ -7588,7 +7588,7 @@
         <v>1.56</v>
       </c>
       <c r="R53" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S53" t="n">
         <v>2.38</v>
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G54" t="n">
         <v>1.38</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.39</v>
       </c>
       <c r="H54" t="n">
         <v>11</v>
@@ -7732,7 +7732,7 @@
         <v>2.36</v>
       </c>
       <c r="U54" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V54" t="n">
         <v>1.09</v>
@@ -7744,7 +7744,7 @@
         <v>17</v>
       </c>
       <c r="Y54" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z54" t="n">
         <v>110</v>
@@ -7774,7 +7774,7 @@
         <v>36</v>
       </c>
       <c r="AI54" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ54" t="n">
         <v>10.5</v>
@@ -7822,43 +7822,43 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G55" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J55" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K55" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L55" t="n">
         <v>1.42</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O55" t="n">
         <v>1.34</v>
       </c>
       <c r="P55" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S55" t="n">
         <v>3.55</v>
@@ -7867,13 +7867,13 @@
         <v>1.77</v>
       </c>
       <c r="U55" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V55" t="n">
         <v>1.43</v>
       </c>
       <c r="W55" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X55" t="n">
         <v>12</v>
@@ -7903,19 +7903,19 @@
         <v>970</v>
       </c>
       <c r="AG55" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH55" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI55" t="n">
         <v>48</v>
       </c>
       <c r="AJ55" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK55" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL55" t="n">
         <v>42</v>
@@ -7924,7 +7924,7 @@
         <v>110</v>
       </c>
       <c r="AN55" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO55" t="n">
         <v>36</v>
@@ -7957,64 +7957,64 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="G56" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H56" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="I56" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="J56" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L56" t="n">
         <v>1.57</v>
       </c>
       <c r="M56" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N56" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O56" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P56" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="R56" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S56" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T56" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U56" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V56" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="W56" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="X56" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y56" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Z56" t="n">
         <v>18.5</v>
@@ -8023,46 +8023,46 @@
         <v>50</v>
       </c>
       <c r="AB56" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD56" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE56" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF56" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG56" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI56" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ56" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK56" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AL56" t="n">
         <v>70</v>
       </c>
       <c r="AM56" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN56" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AO56" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
@@ -8092,112 +8092,112 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H57" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="I57" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K57" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L57" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M57" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O57" t="n">
         <v>1.22</v>
       </c>
       <c r="P57" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q57" t="n">
         <v>1.66</v>
       </c>
       <c r="R57" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S57" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="T57" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U57" t="n">
         <v>2.42</v>
       </c>
       <c r="V57" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="W57" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X57" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y57" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z57" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AA57" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB57" t="n">
         <v>18.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD57" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE57" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AF57" t="n">
         <v>28</v>
       </c>
       <c r="AG57" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI57" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ57" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK57" t="n">
         <v>36</v>
       </c>
       <c r="AL57" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM57" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN57" t="n">
         <v>28</v>
       </c>
       <c r="AO57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -8230,13 +8230,13 @@
         <v>1.78</v>
       </c>
       <c r="G58" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H58" t="n">
         <v>4.3</v>
       </c>
       <c r="I58" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J58" t="n">
         <v>4.1</v>
@@ -8269,7 +8269,7 @@
         <v>2.48</v>
       </c>
       <c r="T58" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U58" t="n">
         <v>2.32</v>
@@ -8329,7 +8329,7 @@
         <v>80</v>
       </c>
       <c r="AN58" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO58" t="n">
         <v>46</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
         <v>2.24</v>
       </c>
       <c r="I59" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J59" t="n">
         <v>3.65</v>
@@ -8380,7 +8380,7 @@
         <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M59" t="n">
         <v>1.05</v>
@@ -8395,7 +8395,7 @@
         <v>2.2</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R59" t="n">
         <v>1.47</v>
@@ -8407,13 +8407,13 @@
         <v>1.61</v>
       </c>
       <c r="U59" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V59" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W59" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X59" t="n">
         <v>21</v>
@@ -8431,7 +8431,7 @@
         <v>16.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD59" t="n">
         <v>12</v>
@@ -8503,10 +8503,10 @@
         <v>1.41</v>
       </c>
       <c r="H60" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I60" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J60" t="n">
         <v>6</v>
@@ -8530,7 +8530,7 @@
         <v>3.2</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="R60" t="n">
         <v>1.86</v>
@@ -8545,7 +8545,7 @@
         <v>2.34</v>
       </c>
       <c r="V60" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W60" t="n">
         <v>3.45</v>
@@ -8560,7 +8560,7 @@
         <v>80</v>
       </c>
       <c r="AA60" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB60" t="n">
         <v>15</v>
@@ -8653,7 +8653,7 @@
         <v>1.51</v>
       </c>
       <c r="M61" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N61" t="n">
         <v>2.82</v>
@@ -8665,13 +8665,13 @@
         <v>1.61</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R61" t="n">
         <v>1.22</v>
       </c>
       <c r="S61" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T61" t="n">
         <v>2.02</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="G62" t="n">
         <v>1.67</v>
@@ -8902,19 +8902,19 @@
         </is>
       </c>
       <c r="F63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G63" t="n">
         <v>1.68</v>
       </c>
-      <c r="G63" t="n">
-        <v>1.69</v>
-      </c>
       <c r="H63" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I63" t="n">
         <v>5.9</v>
       </c>
       <c r="J63" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K63" t="n">
         <v>4.4</v>
@@ -8932,7 +8932,7 @@
         <v>1.28</v>
       </c>
       <c r="P63" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q63" t="n">
         <v>1.84</v>
@@ -8941,10 +8941,10 @@
         <v>1.43</v>
       </c>
       <c r="S63" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T63" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U63" t="n">
         <v>2.08</v>
@@ -8953,7 +8953,7 @@
         <v>1.2</v>
       </c>
       <c r="W63" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X63" t="n">
         <v>16.5</v>
@@ -8968,7 +8968,7 @@
         <v>160</v>
       </c>
       <c r="AB63" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC63" t="n">
         <v>9.199999999999999</v>
@@ -8977,7 +8977,7 @@
         <v>22</v>
       </c>
       <c r="AE63" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="n">
         <v>10.5</v>
@@ -9007,7 +9007,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO63" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
@@ -9040,19 +9040,19 @@
         <v>3.1</v>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H64" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I64" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J64" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K64" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3.45</v>
       </c>
       <c r="L64" t="n">
         <v>1.44</v>
@@ -9067,7 +9067,7 @@
         <v>1.36</v>
       </c>
       <c r="P64" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q64" t="n">
         <v>2.08</v>
@@ -9082,10 +9082,10 @@
         <v>1.81</v>
       </c>
       <c r="U64" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V64" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W64" t="n">
         <v>1.46</v>
@@ -9097,10 +9097,10 @@
         <v>10.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA64" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB64" t="n">
         <v>12</v>
@@ -9118,7 +9118,7 @@
         <v>21</v>
       </c>
       <c r="AG64" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH64" t="n">
         <v>17.5</v>
@@ -9142,7 +9142,7 @@
         <v>36</v>
       </c>
       <c r="AO64" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
@@ -9172,25 +9172,25 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G65" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I65" t="n">
         <v>5.8</v>
       </c>
       <c r="J65" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K65" t="n">
         <v>4</v>
       </c>
       <c r="L65" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M65" t="n">
         <v>1.07</v>
@@ -9217,7 +9217,7 @@
         <v>1.92</v>
       </c>
       <c r="U65" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V65" t="n">
         <v>1.2</v>
@@ -9262,7 +9262,7 @@
         <v>80</v>
       </c>
       <c r="AJ65" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AK65" t="n">
         <v>970</v>
@@ -9307,16 +9307,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G66" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H66" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J66" t="n">
         <v>4</v>
@@ -9340,40 +9340,40 @@
         <v>1.96</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R66" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S66" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T66" t="n">
         <v>1.94</v>
       </c>
       <c r="U66" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W66" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X66" t="n">
         <v>14</v>
       </c>
       <c r="Y66" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA66" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB66" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC66" t="n">
         <v>8.800000000000001</v>
@@ -9385,7 +9385,7 @@
         <v>85</v>
       </c>
       <c r="AF66" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG66" t="n">
         <v>9.4</v>
@@ -9400,7 +9400,7 @@
         <v>17</v>
       </c>
       <c r="AK66" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL66" t="n">
         <v>36</v>
@@ -9409,7 +9409,7 @@
         <v>120</v>
       </c>
       <c r="AN66" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO66" t="n">
         <v>1000</v>
@@ -9445,7 +9445,7 @@
         <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
         <v>2.6</v>
@@ -9472,25 +9472,25 @@
         <v>1.34</v>
       </c>
       <c r="P67" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R67" t="n">
         <v>1.36</v>
       </c>
       <c r="S67" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T67" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U67" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V67" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W67" t="n">
         <v>1.48</v>
@@ -9580,109 +9580,109 @@
         <v>1.87</v>
       </c>
       <c r="G68" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H68" t="n">
         <v>4.4</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J68" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K68" t="n">
         <v>4.3</v>
       </c>
       <c r="L68" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M68" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N68" t="n">
-        <v>1.61</v>
+        <v>3.05</v>
       </c>
       <c r="O68" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P68" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="R68" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T68" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U68" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V68" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W68" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X68" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y68" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA68" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB68" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC68" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD68" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE68" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF68" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH68" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI68" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK68" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL68" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM68" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN68" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO68" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G69" t="n">
         <v>2.38</v>
@@ -9721,13 +9721,13 @@
         <v>3.9</v>
       </c>
       <c r="I69" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K69" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L69" t="n">
         <v>1.52</v>
@@ -9745,7 +9745,7 @@
         <v>1.57</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R69" t="n">
         <v>1.21</v>
@@ -9772,7 +9772,7 @@
         <v>14.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA69" t="n">
         <v>130</v>
@@ -9802,7 +9802,7 @@
         <v>110</v>
       </c>
       <c r="AJ69" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK69" t="n">
         <v>36</v>
@@ -9859,7 +9859,7 @@
         <v>2.94</v>
       </c>
       <c r="J70" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K70" t="n">
         <v>3.6</v>
@@ -9892,13 +9892,13 @@
         <v>1.77</v>
       </c>
       <c r="U70" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V70" t="n">
         <v>1.51</v>
       </c>
       <c r="W70" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X70" t="n">
         <v>13</v>
@@ -9913,10 +9913,10 @@
         <v>50</v>
       </c>
       <c r="AB70" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC70" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD70" t="n">
         <v>14.5</v>
@@ -9931,7 +9931,7 @@
         <v>15.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI70" t="n">
         <v>60</v>
@@ -9994,13 +9994,13 @@
         <v>1.84</v>
       </c>
       <c r="J71" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K71" t="n">
         <v>4.8</v>
       </c>
       <c r="L71" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M71" t="n">
         <v>1.07</v>
@@ -10024,16 +10024,16 @@
         <v>3.55</v>
       </c>
       <c r="T71" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="U71" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="V71" t="n">
         <v>2.18</v>
       </c>
       <c r="W71" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="X71" t="n">
         <v>16.5</v>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G72" t="n">
         <v>2.72</v>
@@ -10132,7 +10132,7 @@
         <v>2.84</v>
       </c>
       <c r="K72" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L72" t="n">
         <v>1.52</v>
@@ -10162,7 +10162,7 @@
         <v>2.04</v>
       </c>
       <c r="U72" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V72" t="n">
         <v>1.35</v>
@@ -10180,7 +10180,7 @@
         <v>24</v>
       </c>
       <c r="AA72" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB72" t="n">
         <v>9</v>
@@ -10204,7 +10204,7 @@
         <v>27</v>
       </c>
       <c r="AI72" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ72" t="n">
         <v>46</v>
@@ -10213,7 +10213,7 @@
         <v>44</v>
       </c>
       <c r="AL72" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM72" t="n">
         <v>220</v>
@@ -10222,7 +10222,7 @@
         <v>48</v>
       </c>
       <c r="AO72" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73">
@@ -10252,58 +10252,58 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="G73" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H73" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I73" t="n">
         <v>1.59</v>
       </c>
-      <c r="I73" t="n">
-        <v>1.63</v>
-      </c>
       <c r="J73" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K73" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L73" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M73" t="n">
         <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O73" t="n">
         <v>1.31</v>
       </c>
       <c r="P73" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R73" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S73" t="n">
         <v>3.35</v>
       </c>
       <c r="T73" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U73" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V73" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="W73" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X73" t="n">
         <v>16</v>
@@ -10312,52 +10312,52 @@
         <v>8</v>
       </c>
       <c r="Z73" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA73" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC73" t="n">
         <v>10</v>
       </c>
       <c r="AD73" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE73" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF73" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG73" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH73" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI73" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ73" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AK73" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL73" t="n">
         <v>110</v>
       </c>
-      <c r="AL73" t="n">
-        <v>120</v>
-      </c>
       <c r="AM73" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN73" t="n">
         <v>150</v>
       </c>
-      <c r="AN73" t="n">
-        <v>130</v>
-      </c>
       <c r="AO73" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="74">
@@ -10393,10 +10393,10 @@
         <v>4.4</v>
       </c>
       <c r="H74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I74" t="n">
         <v>2.12</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.14</v>
       </c>
       <c r="J74" t="n">
         <v>3.35</v>
@@ -10417,7 +10417,7 @@
         <v>1.45</v>
       </c>
       <c r="P74" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q74" t="n">
         <v>2.36</v>
@@ -10435,7 +10435,7 @@
         <v>1.91</v>
       </c>
       <c r="V74" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W74" t="n">
         <v>1.29</v>
@@ -10525,7 +10525,7 @@
         <v>2.84</v>
       </c>
       <c r="G75" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H75" t="n">
         <v>2.64</v>
@@ -10534,34 +10534,34 @@
         <v>3.05</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K75" t="n">
         <v>3.45</v>
       </c>
       <c r="L75" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M75" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N75" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O75" t="n">
         <v>1.42</v>
       </c>
       <c r="P75" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q75" t="n">
         <v>2.26</v>
       </c>
       <c r="R75" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S75" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T75" t="n">
         <v>1.79</v>
@@ -10573,10 +10573,10 @@
         <v>1.5</v>
       </c>
       <c r="W75" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X75" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y75" t="n">
         <v>11</v>
@@ -10585,13 +10585,13 @@
         <v>20</v>
       </c>
       <c r="AA75" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB75" t="n">
         <v>11.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD75" t="n">
         <v>15</v>
@@ -10603,7 +10603,7 @@
         <v>22</v>
       </c>
       <c r="AG75" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH75" t="n">
         <v>23</v>
@@ -10612,7 +10612,7 @@
         <v>65</v>
       </c>
       <c r="AJ75" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK75" t="n">
         <v>46</v>
@@ -10624,7 +10624,7 @@
         <v>150</v>
       </c>
       <c r="AN75" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AO75" t="n">
         <v>42</v>
@@ -10660,16 +10660,16 @@
         <v>1.16</v>
       </c>
       <c r="G76" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H76" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I76" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J76" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K76" t="n">
         <v>10.5</v>
@@ -10687,10 +10687,10 @@
         <v>1.13</v>
       </c>
       <c r="P76" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R76" t="n">
         <v>1.89</v>
@@ -10699,16 +10699,16 @@
         <v>1.96</v>
       </c>
       <c r="T76" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="U76" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="V76" t="n">
         <v>1.04</v>
       </c>
       <c r="W76" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="X76" t="n">
         <v>48</v>
@@ -10717,7 +10717,7 @@
         <v>85</v>
       </c>
       <c r="Z76" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AA76" t="n">
         <v>1000</v>
@@ -10732,7 +10732,7 @@
         <v>90</v>
       </c>
       <c r="AE76" t="n">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="AF76" t="n">
         <v>10.5</v>
@@ -10744,7 +10744,7 @@
         <v>50</v>
       </c>
       <c r="AI76" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AJ76" t="n">
         <v>9.6</v>
@@ -10753,16 +10753,16 @@
         <v>17</v>
       </c>
       <c r="AL76" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM76" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AN76" t="n">
         <v>2.96</v>
       </c>
       <c r="AO76" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77">
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G77" t="n">
         <v>7.8</v>
@@ -10936,7 +10936,7 @@
         <v>1.95</v>
       </c>
       <c r="I78" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J78" t="n">
         <v>3.5</v>
@@ -10957,10 +10957,10 @@
         <v>1.3</v>
       </c>
       <c r="P78" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R78" t="n">
         <v>1.36</v>
@@ -10969,16 +10969,16 @@
         <v>3.2</v>
       </c>
       <c r="T78" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U78" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="V78" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W78" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X78" t="n">
         <v>18.5</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" t="n">
         <v>2.02</v>
       </c>
-      <c r="G79" t="n">
-        <v>2.04</v>
-      </c>
       <c r="H79" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I79" t="n">
         <v>4.7</v>
       </c>
       <c r="J79" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K79" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.52</v>
@@ -11092,7 +11092,7 @@
         <v>1.46</v>
       </c>
       <c r="P79" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q79" t="n">
         <v>2.4</v>
@@ -11107,13 +11107,13 @@
         <v>2.08</v>
       </c>
       <c r="U79" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V79" t="n">
         <v>1.27</v>
       </c>
       <c r="W79" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X79" t="n">
         <v>10.5</v>
@@ -11122,16 +11122,16 @@
         <v>13.5</v>
       </c>
       <c r="Z79" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA79" t="n">
         <v>110</v>
       </c>
       <c r="AB79" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC79" t="n">
         <v>7.6</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>7.4</v>
       </c>
       <c r="AD79" t="n">
         <v>18.5</v>
@@ -11197,37 +11197,37 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G80" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H80" t="n">
         <v>4.2</v>
       </c>
       <c r="I80" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J80" t="n">
         <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L80" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M80" t="n">
         <v>1.15</v>
       </c>
       <c r="N80" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O80" t="n">
         <v>1.66</v>
       </c>
       <c r="P80" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q80" t="n">
         <v>3</v>
@@ -11239,70 +11239,70 @@
         <v>6.4</v>
       </c>
       <c r="T80" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="U80" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="V80" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W80" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X80" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="Y80" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG80" t="n">
         <v>13</v>
       </c>
-      <c r="Z80" t="n">
+      <c r="AH80" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN80" t="n">
         <v>40</v>
       </c>
-      <c r="AA80" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO80" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81">
@@ -11332,16 +11332,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G81" t="n">
         <v>2.3</v>
       </c>
       <c r="H81" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I81" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J81" t="n">
         <v>3.45</v>
@@ -11350,7 +11350,7 @@
         <v>3.55</v>
       </c>
       <c r="L81" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M81" t="n">
         <v>1.07</v>
@@ -11392,13 +11392,13 @@
         <v>13.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA81" t="n">
         <v>70</v>
       </c>
       <c r="AB81" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC81" t="n">
         <v>8</v>
@@ -11407,7 +11407,7 @@
         <v>15</v>
       </c>
       <c r="AE81" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF81" t="n">
         <v>15</v>
@@ -11419,16 +11419,16 @@
         <v>18</v>
       </c>
       <c r="AI81" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ81" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK81" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL81" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM81" t="n">
         <v>100</v>
@@ -11437,7 +11437,7 @@
         <v>21</v>
       </c>
       <c r="AO81" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
@@ -11473,7 +11473,7 @@
         <v>2.04</v>
       </c>
       <c r="H82" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
         <v>4.3</v>
@@ -11500,7 +11500,7 @@
         <v>1.96</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R82" t="n">
         <v>1.37</v>
@@ -11608,7 +11608,7 @@
         <v>7.6</v>
       </c>
       <c r="H83" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I83" t="n">
         <v>1.62</v>
@@ -11629,13 +11629,13 @@
         <v>3.25</v>
       </c>
       <c r="O83" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P83" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R83" t="n">
         <v>1.28</v>
@@ -11650,7 +11650,7 @@
         <v>1.74</v>
       </c>
       <c r="V83" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="W83" t="n">
         <v>1.15</v>
@@ -11686,7 +11686,7 @@
         <v>28</v>
       </c>
       <c r="AH83" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AI83" t="n">
         <v>48</v>
@@ -11704,7 +11704,7 @@
         <v>210</v>
       </c>
       <c r="AN83" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AO83" t="n">
         <v>12</v>
@@ -11764,7 +11764,7 @@
         <v>4.7</v>
       </c>
       <c r="O84" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P84" t="n">
         <v>2.28</v>
@@ -11779,16 +11779,16 @@
         <v>2.56</v>
       </c>
       <c r="T84" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="U84" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="V84" t="n">
         <v>1.6</v>
       </c>
       <c r="W84" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X84" t="n">
         <v>25</v>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G85" t="n">
         <v>2.12</v>
@@ -11887,10 +11887,10 @@
         <v>3.3</v>
       </c>
       <c r="K85" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L85" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M85" t="n">
         <v>1.1</v>
@@ -11932,7 +11932,7 @@
         <v>14</v>
       </c>
       <c r="Z85" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA85" t="n">
         <v>150</v>
@@ -12010,16 +12010,16 @@
         <v>2.06</v>
       </c>
       <c r="G86" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="H86" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I86" t="n">
         <v>4.2</v>
       </c>
       <c r="J86" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K86" t="n">
         <v>3.65</v>
@@ -12031,7 +12031,7 @@
         <v>1.08</v>
       </c>
       <c r="N86" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O86" t="n">
         <v>1.37</v>
@@ -12049,22 +12049,22 @@
         <v>3.55</v>
       </c>
       <c r="T86" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U86" t="n">
         <v>2.06</v>
       </c>
       <c r="V86" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W86" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="X86" t="n">
         <v>15.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Z86" t="n">
         <v>34</v>
@@ -12091,7 +12091,7 @@
         <v>12.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI86" t="n">
         <v>70</v>
@@ -12100,16 +12100,16 @@
         <v>32</v>
       </c>
       <c r="AK86" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL86" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM86" t="n">
         <v>130</v>
       </c>
       <c r="AN86" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO86" t="n">
         <v>60</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G87" t="n">
         <v>5</v>
@@ -12151,7 +12151,7 @@
         <v>1.95</v>
       </c>
       <c r="I87" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J87" t="n">
         <v>3.35</v>
@@ -12160,7 +12160,7 @@
         <v>3.85</v>
       </c>
       <c r="L87" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M87" t="n">
         <v>1.07</v>
@@ -12172,28 +12172,28 @@
         <v>1.37</v>
       </c>
       <c r="P87" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R87" t="n">
         <v>1.27</v>
       </c>
       <c r="S87" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="T87" t="n">
         <v>1.89</v>
       </c>
       <c r="U87" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V87" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W87" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X87" t="n">
         <v>1000</v>
@@ -12211,7 +12211,7 @@
         <v>19</v>
       </c>
       <c r="AC87" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD87" t="n">
         <v>14.5</v>
@@ -12424,7 +12424,7 @@
         <v>2.2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="K89" t="n">
         <v>3.75</v>
@@ -12457,7 +12457,7 @@
         <v>2.02</v>
       </c>
       <c r="U89" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="V89" t="n">
         <v>1.83</v>
@@ -12550,16 +12550,16 @@
         <v>1.65</v>
       </c>
       <c r="G90" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H90" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I90" t="n">
         <v>6.2</v>
       </c>
       <c r="J90" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K90" t="n">
         <v>4.4</v>
@@ -12571,7 +12571,7 @@
         <v>1.06</v>
       </c>
       <c r="N90" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O90" t="n">
         <v>1.28</v>
@@ -12583,7 +12583,7 @@
         <v>1.83</v>
       </c>
       <c r="R90" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S90" t="n">
         <v>3.1</v>
@@ -12592,67 +12592,67 @@
         <v>1.86</v>
       </c>
       <c r="U90" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V90" t="n">
         <v>1.19</v>
       </c>
       <c r="W90" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X90" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
       </c>
       <c r="Z90" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA90" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB90" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC90" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD90" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE90" t="n">
         <v>90</v>
       </c>
       <c r="AF90" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG90" t="n">
         <v>9.4</v>
       </c>
       <c r="AH90" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI90" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ90" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK90" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL90" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM90" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN90" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO90" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91">
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G91" t="n">
         <v>1.32</v>
       </c>
-      <c r="G91" t="n">
-        <v>1.33</v>
-      </c>
       <c r="H91" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I91" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J91" t="n">
         <v>5.7</v>
@@ -12712,16 +12712,16 @@
         <v>1.31</v>
       </c>
       <c r="P91" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R91" t="n">
         <v>1.39</v>
       </c>
       <c r="S91" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T91" t="n">
         <v>2.58</v>
@@ -12730,10 +12730,10 @@
         <v>1.59</v>
       </c>
       <c r="V91" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W91" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X91" t="n">
         <v>15.5</v>
@@ -12748,13 +12748,13 @@
         <v>870</v>
       </c>
       <c r="AB91" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC91" t="n">
         <v>13</v>
       </c>
       <c r="AD91" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE91" t="n">
         <v>360</v>
@@ -12769,7 +12769,7 @@
         <v>42</v>
       </c>
       <c r="AI91" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AJ91" t="n">
         <v>9.199999999999999</v>
@@ -12781,7 +12781,7 @@
         <v>55</v>
       </c>
       <c r="AM91" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AN91" t="n">
         <v>6.2</v>
@@ -12817,10 +12817,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G92" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H92" t="n">
         <v>1.61</v>
@@ -12829,19 +12829,19 @@
         <v>1.63</v>
       </c>
       <c r="J92" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K92" t="n">
         <v>4.8</v>
-      </c>
-      <c r="K92" t="n">
-        <v>5</v>
       </c>
       <c r="L92" t="n">
         <v>1.25</v>
       </c>
       <c r="M92" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O92" t="n">
         <v>1.14</v>
@@ -12850,10 +12850,10 @@
         <v>3.15</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R92" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S92" t="n">
         <v>2.08</v>
@@ -12862,7 +12862,7 @@
         <v>1.54</v>
       </c>
       <c r="U92" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="V92" t="n">
         <v>2.58</v>
@@ -12871,7 +12871,7 @@
         <v>1.21</v>
       </c>
       <c r="X92" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y92" t="n">
         <v>15</v>
@@ -12892,19 +12892,19 @@
         <v>10.5</v>
       </c>
       <c r="AE92" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF92" t="n">
         <v>55</v>
       </c>
       <c r="AG92" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH92" t="n">
         <v>16.5</v>
       </c>
       <c r="AI92" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ92" t="n">
         <v>130</v>
@@ -12913,16 +12913,16 @@
         <v>60</v>
       </c>
       <c r="AL92" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM92" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN92" t="n">
         <v>38</v>
       </c>
       <c r="AO92" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="93">
@@ -12952,13 +12952,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G93" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H93" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I93" t="n">
         <v>4.6</v>
@@ -12967,7 +12967,7 @@
         <v>3.55</v>
       </c>
       <c r="K93" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L93" t="n">
         <v>1.41</v>
@@ -12985,25 +12985,25 @@
         <v>1.92</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R93" t="n">
         <v>1.35</v>
       </c>
       <c r="S93" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T93" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U93" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V93" t="n">
         <v>1.28</v>
       </c>
       <c r="W93" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X93" t="n">
         <v>15.5</v>
@@ -13111,7 +13111,7 @@
         <v>1.07</v>
       </c>
       <c r="N94" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O94" t="n">
         <v>1.37</v>
@@ -13177,22 +13177,22 @@
         <v>50</v>
       </c>
       <c r="AJ94" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AK94" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AL94" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AM94" t="n">
         <v>230</v>
       </c>
       <c r="AN94" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AO94" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -13222,70 +13222,70 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G95" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H95" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="I95" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J95" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K95" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L95" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M95" t="n">
         <v>1.08</v>
       </c>
       <c r="N95" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="O95" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P95" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R95" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S95" t="n">
         <v>4.3</v>
       </c>
       <c r="T95" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U95" t="n">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="V95" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W95" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X95" t="n">
         <v>11</v>
       </c>
       <c r="Y95" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z95" t="n">
         <v>15.5</v>
       </c>
       <c r="AA95" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB95" t="n">
         <v>10.5</v>
@@ -13294,16 +13294,16 @@
         <v>7.6</v>
       </c>
       <c r="AD95" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE95" t="n">
         <v>34</v>
       </c>
       <c r="AF95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG95" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH95" t="n">
         <v>21</v>
@@ -13315,7 +13315,7 @@
         <v>60</v>
       </c>
       <c r="AK95" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL95" t="n">
         <v>75</v>
@@ -13324,10 +13324,10 @@
         <v>170</v>
       </c>
       <c r="AN95" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO95" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
@@ -13360,7 +13360,7 @@
         <v>2.9</v>
       </c>
       <c r="G96" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H96" t="n">
         <v>2.46</v>
@@ -13393,10 +13393,10 @@
         <v>1.92</v>
       </c>
       <c r="R96" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S96" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T96" t="n">
         <v>1.73</v>
@@ -13408,7 +13408,7 @@
         <v>1.6</v>
       </c>
       <c r="W96" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X96" t="n">
         <v>17</v>
@@ -13552,7 +13552,7 @@
         <v>13.5</v>
       </c>
       <c r="Z97" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA97" t="n">
         <v>1000</v>
@@ -13570,7 +13570,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG97" t="n">
         <v>16</v>
@@ -13630,13 +13630,13 @@
         <v>3.35</v>
       </c>
       <c r="G98" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H98" t="n">
         <v>2.26</v>
       </c>
       <c r="I98" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J98" t="n">
         <v>3.35</v>
@@ -13645,7 +13645,7 @@
         <v>3.7</v>
       </c>
       <c r="L98" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M98" t="n">
         <v>1.07</v>
@@ -13663,10 +13663,10 @@
         <v>2.02</v>
       </c>
       <c r="R98" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S98" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T98" t="n">
         <v>1.79</v>
@@ -13678,13 +13678,13 @@
         <v>1.7</v>
       </c>
       <c r="W98" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X98" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y98" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z98" t="n">
         <v>18</v>
@@ -13699,7 +13699,7 @@
         <v>9.6</v>
       </c>
       <c r="AD98" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE98" t="n">
         <v>32</v>
@@ -13780,7 +13780,7 @@
         <v>3.7</v>
       </c>
       <c r="L99" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M99" t="n">
         <v>1.07</v>
@@ -13795,13 +13795,13 @@
         <v>1.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R99" t="n">
         <v>1.28</v>
       </c>
       <c r="S99" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T99" t="n">
         <v>1.81</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -670,64 +670,64 @@
         <v>3.55</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I2" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="W2" t="n">
         <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -739,7 +739,7 @@
         <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H3" t="n">
         <v>5.9</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
         <v>4.4</v>
@@ -832,28 +832,28 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
         <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
         <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
@@ -871,7 +871,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>23</v>
@@ -889,10 +889,10 @@
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -904,10 +904,10 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G4" t="n">
         <v>2.16</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
         <v>3.85</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
         <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X4" t="n">
         <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
         <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
         <v>4.7</v>
@@ -1093,52 +1093,52 @@
         <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W5" t="n">
         <v>2.52</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.56</v>
-      </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1150,34 +1150,34 @@
         <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
         <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3.55</v>
@@ -1225,46 +1225,46 @@
         <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>23</v>
@@ -1273,7 +1273,7 @@
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>7.8</v>
@@ -1282,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AF6" t="n">
         <v>17</v>
@@ -1294,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
@@ -1309,10 +1309,10 @@
         <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AO6" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7">
@@ -1345,61 +1345,61 @@
         <v>5.4</v>
       </c>
       <c r="G7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I7" t="n">
         <v>1.68</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
         <v>5.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1411,10 +1411,10 @@
         <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="G8" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22</v>
+        <v>1.96</v>
       </c>
       <c r="J8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.05</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.56</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="n">
         <v>23</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="AO8" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.05</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
@@ -1642,25 +1642,25 @@
         <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R9" t="n">
         <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
         <v>1.48</v>
@@ -1669,34 +1669,34 @@
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>23</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>70</v>
@@ -1705,19 +1705,19 @@
         <v>60</v>
       </c>
       <c r="AK9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="n">
         <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO9" t="n">
         <v>46</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G10" t="n">
         <v>1.28</v>
@@ -1756,16 +1756,16 @@
         <v>13.5</v>
       </c>
       <c r="I10" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="J10" t="n">
         <v>6.6</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1777,7 +1777,7 @@
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
         <v>1.51</v>
@@ -1786,61 +1786,61 @@
         <v>1.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
         <v>4.5</v>
       </c>
       <c r="X10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
         <v>60</v>
       </c>
       <c r="Z10" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
         <v>48</v>
@@ -1849,10 +1849,10 @@
         <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
@@ -1891,7 +1891,7 @@
         <v>5.3</v>
       </c>
       <c r="I11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
         <v>4.6</v>
@@ -1915,22 +1915,22 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R11" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="S11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U11" t="n">
         <v>2.54</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W11" t="n">
         <v>2.46</v>
@@ -1942,13 +1942,13 @@
         <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AA11" t="n">
         <v>140</v>
       </c>
       <c r="AB11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
         <v>15</v>
@@ -1957,31 +1957,31 @@
         <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="n">
         <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="n">
         <v>22</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
         <v>6.4</v>
@@ -2020,13 +2020,13 @@
         <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -2047,7 +2047,7 @@
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
         <v>1.73</v>
@@ -2056,19 +2056,19 @@
         <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
         <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V12" t="n">
         <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X12" t="n">
         <v>18.5</v>
@@ -2107,7 +2107,7 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2158,10 +2158,10 @@
         <v>2.28</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2176,13 +2176,13 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
         <v>2.1</v>
@@ -2191,13 +2191,13 @@
         <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
         <v>1.34</v>
@@ -2206,7 +2206,7 @@
         <v>1.78</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
         <v>16</v>
@@ -2236,7 +2236,7 @@
         <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
         <v>65</v>
@@ -2299,10 +2299,10 @@
         <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2326,7 +2326,7 @@
         <v>1.56</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T14" t="n">
         <v>1.87</v>
@@ -2344,7 +2344,7 @@
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
         <v>120</v>
@@ -2353,22 +2353,22 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD14" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
         <v>980</v>
@@ -2377,7 +2377,7 @@
         <v>150</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,13 +2425,13 @@
         <v>4.4</v>
       </c>
       <c r="G15" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H15" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="J15" t="n">
         <v>3.5</v>
@@ -2461,73 +2461,73 @@
         <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W15" t="n">
         <v>1.23</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB15" t="n">
         <v>970</v>
       </c>
-      <c r="AA15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AJ15" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AK15" t="n">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="AL15" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AO15" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
         <v>3.05</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K16" t="n">
         <v>2.96</v>
@@ -2590,28 +2590,28 @@
         <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R16" t="n">
         <v>1.2</v>
       </c>
       <c r="S16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -2638,10 +2638,10 @@
         <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>70</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="n">
         <v>2.84</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
         <v>1.59</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V17" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>75</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AK17" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AN17" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18">
@@ -2830,10 +2830,10 @@
         <v>2.8</v>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I18" t="n">
         <v>3.05</v>
@@ -2860,13 +2860,13 @@
         <v>1.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2881,58 +2881,58 @@
         <v>1.39</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB18" t="n">
         <v>21</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
         <v>9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AN18" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.02</v>
+        <v>1.79</v>
       </c>
       <c r="G19" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="H19" t="n">
-        <v>1.02</v>
+        <v>1.79</v>
       </c>
       <c r="I19" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>2.36</v>
       </c>
       <c r="K19" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2986,13 +2986,13 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.26</v>
+        <v>2.66</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q19" t="n">
         <v>1.02</v>
@@ -3001,7 +3001,7 @@
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3010,13 +3010,13 @@
         <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
@@ -3115,7 +3115,7 @@
         <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3124,7 +3124,7 @@
         <v>3.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -3136,7 +3136,7 @@
         <v>1.39</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
         <v>1.76</v>
@@ -3157,22 +3157,22 @@
         <v>13.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AB20" t="n">
         <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
         <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
@@ -3184,19 +3184,19 @@
         <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AJ20" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
         <v>23</v>
@@ -3298,7 +3298,7 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC21" t="n">
         <v>1000</v>
@@ -3310,10 +3310,10 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3322,19 +3322,19 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3370,7 +3370,7 @@
         <v>1.02</v>
       </c>
       <c r="G22" t="n">
-        <v>500</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>1.01</v>
@@ -3391,13 +3391,13 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q22" t="n">
         <v>1.5</v>
@@ -3418,7 +3418,7 @@
         <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.02</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
         <v>1000</v>
       </c>
       <c r="H23" t="n">
-        <v>1.02</v>
+        <v>1.85</v>
       </c>
       <c r="I23" t="n">
         <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>1.02</v>
+        <v>2.42</v>
       </c>
       <c r="K23" t="n">
         <v>1000</v>
@@ -3529,85 +3529,85 @@
         <v>1.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="P23" t="n">
         <v>1.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="R23" t="n">
         <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U23" t="n">
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G24" t="n">
         <v>3.55</v>
@@ -3649,10 +3649,10 @@
         <v>2.22</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3676,7 +3676,7 @@
         <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T24" t="n">
         <v>1.63</v>
@@ -3685,7 +3685,7 @@
         <v>2.42</v>
       </c>
       <c r="V24" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="W24" t="n">
         <v>1.39</v>
@@ -3694,13 +3694,13 @@
         <v>25</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB24" t="n">
         <v>17</v>
@@ -3709,10 +3709,10 @@
         <v>9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF24" t="n">
         <v>27</v>
@@ -3724,10 +3724,10 @@
         <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ24" t="n">
-        <v>60</v>
+        <v>440</v>
       </c>
       <c r="AK24" t="n">
         <v>36</v>
@@ -3739,10 +3739,10 @@
         <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -3778,7 +3778,7 @@
         <v>2.98</v>
       </c>
       <c r="H25" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I25" t="n">
         <v>2.58</v>
@@ -3913,10 +3913,10 @@
         <v>2.7</v>
       </c>
       <c r="H26" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I26" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
         <v>3.65</v>
@@ -3937,7 +3937,7 @@
         <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q26" t="n">
         <v>1.78</v>
@@ -3946,7 +3946,7 @@
         <v>1.47</v>
       </c>
       <c r="S26" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T26" t="n">
         <v>1.66</v>
@@ -3958,61 +3958,61 @@
         <v>1.53</v>
       </c>
       <c r="W26" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB26" t="n">
         <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
         <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
         <v>36</v>
       </c>
       <c r="AM26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN26" t="n">
         <v>18.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G27" t="n">
         <v>2.78</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
         <v>3.6</v>
@@ -4057,16 +4057,16 @@
         <v>2.8</v>
       </c>
       <c r="K27" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="L27" t="n">
         <v>1.78</v>
       </c>
       <c r="M27" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="N27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O27" t="n">
         <v>1.82</v>
@@ -4078,16 +4078,16 @@
         <v>3.55</v>
       </c>
       <c r="R27" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S27" t="n">
         <v>8.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="U27" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V27" t="n">
         <v>1.38</v>
@@ -4096,7 +4096,7 @@
         <v>1.56</v>
       </c>
       <c r="X27" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -4123,7 +4123,7 @@
         <v>14.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH27" t="n">
         <v>32</v>
@@ -4183,7 +4183,7 @@
         <v>2.84</v>
       </c>
       <c r="H28" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I28" t="n">
         <v>2.94</v>
@@ -4204,13 +4204,13 @@
         <v>3.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P28" t="n">
         <v>1.89</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R28" t="n">
         <v>1.32</v>
@@ -4246,19 +4246,19 @@
         <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="n">
         <v>22</v>
       </c>
       <c r="AG28" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>21</v>
@@ -4282,7 +4282,7 @@
         <v>32</v>
       </c>
       <c r="AO28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G29" t="n">
         <v>1.87</v>
@@ -4324,13 +4324,13 @@
         <v>4.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K29" t="n">
         <v>4.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
@@ -4345,7 +4345,7 @@
         <v>2.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R29" t="n">
         <v>1.55</v>
@@ -4357,7 +4357,7 @@
         <v>1.63</v>
       </c>
       <c r="U29" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V29" t="n">
         <v>1.26</v>
@@ -4366,58 +4366,58 @@
         <v>2.14</v>
       </c>
       <c r="X29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA29" t="n">
         <v>100</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE29" t="n">
         <v>55</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>18</v>
       </c>
       <c r="AL29" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM29" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AO29" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G30" t="n">
         <v>2.54</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
         <v>3.45</v>
@@ -4465,7 +4465,7 @@
         <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
@@ -4480,7 +4480,7 @@
         <v>1.83</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R30" t="n">
         <v>1.31</v>
@@ -4495,13 +4495,13 @@
         <v>2.06</v>
       </c>
       <c r="V30" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W30" t="n">
         <v>1.64</v>
       </c>
       <c r="X30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="n">
         <v>12</v>
@@ -4510,7 +4510,7 @@
         <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB30" t="n">
         <v>10.5</v>
@@ -4522,37 +4522,37 @@
         <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI30" t="n">
         <v>75</v>
       </c>
       <c r="AJ30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AM30" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN30" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -4612,22 +4612,22 @@
         <v>1.34</v>
       </c>
       <c r="P31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R31" t="n">
         <v>1.32</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T31" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
         <v>2.14</v>
@@ -4639,55 +4639,55 @@
         <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z31" t="n">
         <v>12.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="n">
         <v>17.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF31" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AG31" t="n">
         <v>25</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AJ31" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AK31" t="n">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="AL31" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="AM31" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="AO31" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="32">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G32" t="n">
         <v>2.34</v>
@@ -4729,7 +4729,7 @@
         <v>4.7</v>
       </c>
       <c r="J32" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K32" t="n">
         <v>3.5</v>
@@ -4780,31 +4780,31 @@
         <v>32</v>
       </c>
       <c r="AA32" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
         <v>19.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AJ32" t="n">
         <v>34</v>
@@ -4822,7 +4822,7 @@
         <v>36</v>
       </c>
       <c r="AO32" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33">
@@ -4855,7 +4855,7 @@
         <v>2.44</v>
       </c>
       <c r="G33" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H33" t="n">
         <v>2.92</v>
@@ -4906,19 +4906,19 @@
         <v>1.56</v>
       </c>
       <c r="X33" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Y33" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Z33" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AA33" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
         <v>9.199999999999999</v>
@@ -4927,37 +4927,37 @@
         <v>970</v>
       </c>
       <c r="AE33" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AF33" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AG33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK33" t="n">
         <v>970</v>
       </c>
-      <c r="AH33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>38</v>
-      </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM33" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AO33" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
     </row>
     <row r="34">
@@ -4996,16 +4996,16 @@
         <v>1.99</v>
       </c>
       <c r="I34" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J34" t="n">
         <v>2.92</v>
       </c>
       <c r="K34" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
@@ -5020,7 +5020,7 @@
         <v>1.52</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R34" t="n">
         <v>1.19</v>
@@ -5029,70 +5029,70 @@
         <v>4.8</v>
       </c>
       <c r="T34" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U34" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="V34" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W34" t="n">
         <v>1.23</v>
       </c>
       <c r="X34" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="Z34" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AA34" t="n">
         <v>32</v>
       </c>
       <c r="AB34" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AE34" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AG34" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AI34" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ34" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AK34" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AL34" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AM34" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AO34" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H35" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.44</v>
@@ -5146,37 +5146,37 @@
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="R35" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="T35" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U35" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V35" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W35" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>11</v>
@@ -5185,25 +5185,25 @@
         <v>22</v>
       </c>
       <c r="AA35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE35" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AF35" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH35" t="n">
         <v>21</v>
@@ -5212,7 +5212,7 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="n">
         <v>32</v>
@@ -5221,7 +5221,7 @@
         <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="n">
         <v>29</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G36" t="n">
         <v>3.3</v>
@@ -5266,19 +5266,19 @@
         <v>2.52</v>
       </c>
       <c r="I36" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J36" t="n">
         <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.45</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
         <v>3.1</v>
@@ -5302,67 +5302,67 @@
         <v>1.74</v>
       </c>
       <c r="U36" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V36" t="n">
         <v>1.51</v>
       </c>
       <c r="W36" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X36" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z36" t="n">
         <v>970</v>
       </c>
-      <c r="Y36" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>20</v>
-      </c>
       <c r="AA36" t="n">
-        <v>48</v>
+        <v>900</v>
       </c>
       <c r="AB36" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD36" t="n">
         <v>970</v>
       </c>
       <c r="AE36" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AF36" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG36" t="n">
         <v>970</v>
       </c>
       <c r="AH36" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ36" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AK36" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AL36" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM36" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN36" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AO36" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
     </row>
     <row r="37">
@@ -5398,16 +5398,16 @@
         <v>4.8</v>
       </c>
       <c r="H37" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="I37" t="n">
         <v>1.89</v>
       </c>
       <c r="J37" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L37" t="n">
         <v>1.35</v>
@@ -5440,13 +5440,13 @@
         <v>2.22</v>
       </c>
       <c r="V37" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W37" t="n">
         <v>1.26</v>
       </c>
       <c r="X37" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y37" t="n">
         <v>10.5</v>
@@ -5461,13 +5461,13 @@
         <v>19</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE37" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF37" t="n">
         <v>36</v>
@@ -5479,7 +5479,7 @@
         <v>17.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ37" t="n">
         <v>110</v>
@@ -5488,7 +5488,7 @@
         <v>55</v>
       </c>
       <c r="AL37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
         <v>85</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I38" t="n">
         <v>1.6</v>
       </c>
-      <c r="I38" t="n">
-        <v>1.64</v>
-      </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K38" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L38" t="n">
         <v>1.29</v>
@@ -5551,34 +5551,34 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q38" t="n">
         <v>1.62</v>
       </c>
       <c r="R38" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S38" t="n">
         <v>2.52</v>
       </c>
       <c r="T38" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U38" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V38" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="W38" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X38" t="n">
         <v>25</v>
@@ -5587,10 +5587,10 @@
         <v>12</v>
       </c>
       <c r="Z38" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB38" t="n">
         <v>27</v>
@@ -5599,10 +5599,10 @@
         <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF38" t="n">
         <v>55</v>
@@ -5614,7 +5614,7 @@
         <v>19.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ38" t="n">
         <v>170</v>
@@ -5623,16 +5623,16 @@
         <v>75</v>
       </c>
       <c r="AL38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM38" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AN38" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AO38" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="39">
@@ -5665,16 +5665,16 @@
         <v>2.16</v>
       </c>
       <c r="G39" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="H39" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="I39" t="n">
         <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K39" t="n">
         <v>5.1</v>
@@ -5686,7 +5686,7 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O39" t="n">
         <v>1.09</v>
@@ -5695,55 +5695,55 @@
         <v>3.9</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R39" t="n">
         <v>2.2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="T39" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="U39" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="V39" t="n">
         <v>1.47</v>
       </c>
       <c r="W39" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="X39" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Y39" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z39" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC39" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AD39" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE39" t="n">
         <v>32</v>
       </c>
       <c r="AF39" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG39" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AH39" t="n">
         <v>17</v>
@@ -5752,16 +5752,16 @@
         <v>30</v>
       </c>
       <c r="AJ39" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK39" t="n">
         <v>25</v>
       </c>
       <c r="AL39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM39" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AN39" t="n">
         <v>8.199999999999999</v>
@@ -5806,7 +5806,7 @@
         <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J40" t="n">
         <v>4.3</v>
@@ -5821,13 +5821,13 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O40" t="n">
         <v>1.17</v>
       </c>
       <c r="P40" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q40" t="n">
         <v>1.52</v>
@@ -5842,7 +5842,7 @@
         <v>1.6</v>
       </c>
       <c r="U40" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V40" t="n">
         <v>1.23</v>
@@ -5854,13 +5854,13 @@
         <v>34</v>
       </c>
       <c r="Y40" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z40" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA40" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB40" t="n">
         <v>16</v>
@@ -5869,34 +5869,34 @@
         <v>13.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE40" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF40" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG40" t="n">
         <v>13</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI40" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ40" t="n">
         <v>22</v>
       </c>
       <c r="AK40" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AL40" t="n">
         <v>32</v>
       </c>
       <c r="AM40" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AN40" t="n">
         <v>8.199999999999999</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="G41" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I41" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="J41" t="n">
         <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L41" t="n">
         <v>1.51</v>
@@ -5956,7 +5956,7 @@
         <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O41" t="n">
         <v>1.46</v>
@@ -5980,64 +5980,64 @@
         <v>1.74</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="W41" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X41" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AB41" t="n">
         <v>970</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF41" t="n">
         <v>970</v>
       </c>
-      <c r="AE41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>44</v>
-      </c>
       <c r="AG41" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AI41" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AJ41" t="n">
-        <v>190</v>
+        <v>900</v>
       </c>
       <c r="AK41" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AL41" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AM41" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AO41" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G42" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="I42" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.44</v>
@@ -6097,31 +6097,31 @@
         <v>1.36</v>
       </c>
       <c r="P42" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R42" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S42" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T42" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U42" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V42" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="W42" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X42" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y42" t="n">
         <v>12</v>
@@ -6130,7 +6130,7 @@
         <v>21</v>
       </c>
       <c r="AA42" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AB42" t="n">
         <v>12.5</v>
@@ -6142,7 +6142,7 @@
         <v>14</v>
       </c>
       <c r="AE42" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AF42" t="n">
         <v>20</v>
@@ -6154,7 +6154,7 @@
         <v>20</v>
       </c>
       <c r="AI42" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ42" t="n">
         <v>44</v>
@@ -6172,7 +6172,7 @@
         <v>30</v>
       </c>
       <c r="AO42" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G43" t="n">
         <v>1.34</v>
       </c>
-      <c r="G43" t="n">
-        <v>1.38</v>
-      </c>
       <c r="H43" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="I43" t="n">
         <v>14</v>
       </c>
       <c r="J43" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K43" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L43" t="n">
         <v>1.26</v>
@@ -6226,13 +6226,13 @@
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q43" t="n">
         <v>1.66</v>
@@ -6247,19 +6247,19 @@
         <v>2.02</v>
       </c>
       <c r="U43" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V43" t="n">
         <v>1.08</v>
       </c>
       <c r="W43" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="X43" t="n">
         <v>27</v>
       </c>
       <c r="Y43" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z43" t="n">
         <v>120</v>
@@ -6268,10 +6268,10 @@
         <v>470</v>
       </c>
       <c r="AB43" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD43" t="n">
         <v>48</v>
@@ -6289,10 +6289,10 @@
         <v>36</v>
       </c>
       <c r="AI43" t="n">
-        <v>170</v>
+        <v>520</v>
       </c>
       <c r="AJ43" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK43" t="n">
         <v>18</v>
@@ -6301,7 +6301,7 @@
         <v>46</v>
       </c>
       <c r="AM43" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="AN43" t="n">
         <v>6.8</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G44" t="n">
         <v>4.7</v>
-      </c>
-      <c r="G44" t="n">
-        <v>4.8</v>
       </c>
       <c r="H44" t="n">
         <v>1.83</v>
@@ -6361,7 +6361,7 @@
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O44" t="n">
         <v>1.26</v>
@@ -6373,22 +6373,22 @@
         <v>1.76</v>
       </c>
       <c r="R44" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T44" t="n">
         <v>1.72</v>
       </c>
       <c r="U44" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V44" t="n">
         <v>2.18</v>
       </c>
       <c r="W44" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X44" t="n">
         <v>19</v>
@@ -6418,19 +6418,19 @@
         <v>36</v>
       </c>
       <c r="AG44" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH44" t="n">
         <v>17</v>
       </c>
       <c r="AI44" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ44" t="n">
         <v>100</v>
       </c>
       <c r="AK44" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL44" t="n">
         <v>55</v>
@@ -6439,7 +6439,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO44" t="n">
         <v>9.6</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G45" t="n">
         <v>1.5</v>
       </c>
       <c r="H45" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I45" t="n">
         <v>7.8</v>
       </c>
       <c r="J45" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" t="n">
         <v>5.1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.31</v>
@@ -6496,7 +6496,7 @@
         <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O45" t="n">
         <v>1.21</v>
@@ -6505,19 +6505,19 @@
         <v>2.48</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R45" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S45" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T45" t="n">
         <v>1.83</v>
       </c>
       <c r="U45" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V45" t="n">
         <v>1.14</v>
@@ -6526,7 +6526,7 @@
         <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y45" t="n">
         <v>29</v>
@@ -6574,7 +6574,7 @@
         <v>100</v>
       </c>
       <c r="AN45" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO45" t="n">
         <v>100</v>
@@ -6634,7 +6634,7 @@
         <v>3.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P46" t="n">
         <v>1.89</v>
@@ -6646,13 +6646,13 @@
         <v>1.34</v>
       </c>
       <c r="S46" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T46" t="n">
         <v>1.83</v>
       </c>
       <c r="U46" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V46" t="n">
         <v>1.38</v>
@@ -6676,7 +6676,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD46" t="n">
         <v>14.5</v>
@@ -6712,7 +6712,7 @@
         <v>20</v>
       </c>
       <c r="AO46" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
@@ -6745,19 +6745,19 @@
         <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H47" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I47" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J47" t="n">
         <v>3.8</v>
       </c>
       <c r="K47" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6790,7 +6790,7 @@
         <v>2.04</v>
       </c>
       <c r="V47" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W47" t="n">
         <v>1.22</v>
@@ -6814,7 +6814,7 @@
         <v>10.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE47" t="n">
         <v>19.5</v>
@@ -6823,7 +6823,7 @@
         <v>42</v>
       </c>
       <c r="AG47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH47" t="n">
         <v>21</v>
@@ -6844,7 +6844,7 @@
         <v>130</v>
       </c>
       <c r="AN47" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AO47" t="n">
         <v>12</v>
@@ -6880,7 +6880,7 @@
         <v>3.9</v>
       </c>
       <c r="G48" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H48" t="n">
         <v>2.02</v>
@@ -6907,7 +6907,7 @@
         <v>1.4</v>
       </c>
       <c r="P48" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q48" t="n">
         <v>2.14</v>
@@ -6940,49 +6940,49 @@
         <v>15</v>
       </c>
       <c r="AA48" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AB48" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AC48" t="n">
         <v>9.4</v>
       </c>
       <c r="AD48" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE48" t="n">
         <v>32</v>
       </c>
       <c r="AF48" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AG48" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AH48" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI48" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AJ48" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AK48" t="n">
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="AL48" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AM48" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AN48" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AO48" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
     </row>
     <row r="49">
@@ -7015,13 +7015,13 @@
         <v>3.05</v>
       </c>
       <c r="G49" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I49" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J49" t="n">
         <v>3.35</v>
@@ -7036,58 +7036,58 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O49" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P49" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R49" t="n">
         <v>1.31</v>
       </c>
       <c r="S49" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T49" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U49" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V49" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W49" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X49" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y49" t="n">
         <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB49" t="n">
         <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD49" t="n">
         <v>12</v>
       </c>
       <c r="AE49" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF49" t="n">
         <v>21</v>
@@ -7096,7 +7096,7 @@
         <v>13.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI49" t="n">
         <v>50</v>
@@ -7108,16 +7108,16 @@
         <v>38</v>
       </c>
       <c r="AL49" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM49" t="n">
         <v>120</v>
       </c>
       <c r="AN49" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO49" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G50" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H50" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I50" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.2</v>
       </c>
       <c r="L50" t="n">
         <v>1.37</v>
@@ -7177,10 +7177,10 @@
         <v>1.28</v>
       </c>
       <c r="P50" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R50" t="n">
         <v>1.45</v>
@@ -7192,13 +7192,13 @@
         <v>1.83</v>
       </c>
       <c r="U50" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V50" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W50" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="X50" t="n">
         <v>17</v>
@@ -7207,7 +7207,7 @@
         <v>21</v>
       </c>
       <c r="Z50" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA50" t="n">
         <v>140</v>
@@ -7216,7 +7216,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC50" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD50" t="n">
         <v>21</v>
@@ -7231,7 +7231,7 @@
         <v>9.4</v>
       </c>
       <c r="AH50" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI50" t="n">
         <v>70</v>
@@ -7240,16 +7240,16 @@
         <v>17</v>
       </c>
       <c r="AK50" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL50" t="n">
         <v>32</v>
       </c>
       <c r="AM50" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN50" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO50" t="n">
         <v>75</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G51" t="n">
         <v>1.25</v>
       </c>
-      <c r="G51" t="n">
-        <v>1.3</v>
-      </c>
       <c r="H51" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I51" t="n">
         <v>23</v>
       </c>
       <c r="J51" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="K51" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="L51" t="n">
         <v>1.29</v>
@@ -7306,7 +7306,7 @@
         <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O51" t="n">
         <v>1.27</v>
@@ -7324,22 +7324,22 @@
         <v>3.1</v>
       </c>
       <c r="T51" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="U51" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V51" t="n">
         <v>1.04</v>
       </c>
       <c r="W51" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="X51" t="n">
         <v>22</v>
       </c>
       <c r="Y51" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="Z51" t="n">
         <v>220</v>
@@ -7354,7 +7354,7 @@
         <v>17.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AE51" t="n">
         <v>1000</v>
@@ -7366,7 +7366,7 @@
         <v>14</v>
       </c>
       <c r="AH51" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AI51" t="n">
         <v>390</v>
@@ -7378,7 +7378,7 @@
         <v>21</v>
       </c>
       <c r="AL51" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AM51" t="n">
         <v>430</v>
@@ -7417,25 +7417,25 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G52" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H52" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I52" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J52" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K52" t="n">
         <v>3.3</v>
       </c>
       <c r="L52" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M52" t="n">
         <v>1.11</v>
@@ -7462,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V52" t="n">
         <v>1.8</v>
@@ -7471,7 +7471,7 @@
         <v>1.27</v>
       </c>
       <c r="X52" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y52" t="n">
         <v>7.8</v>
@@ -7480,22 +7480,22 @@
         <v>13</v>
       </c>
       <c r="AA52" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AB52" t="n">
         <v>13</v>
       </c>
       <c r="AC52" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD52" t="n">
         <v>12</v>
       </c>
       <c r="AE52" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AF52" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AG52" t="n">
         <v>19</v>
@@ -7504,19 +7504,19 @@
         <v>23</v>
       </c>
       <c r="AI52" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ52" t="n">
         <v>130</v>
       </c>
       <c r="AK52" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AL52" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AM52" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN52" t="n">
         <v>120</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="G53" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="I53" t="n">
         <v>1.65</v>
@@ -7567,7 +7567,7 @@
         <v>4.5</v>
       </c>
       <c r="K53" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L53" t="n">
         <v>1.28</v>
@@ -7579,7 +7579,7 @@
         <v>4.8</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P53" t="n">
         <v>2.2</v>
@@ -7606,40 +7606,40 @@
         <v>1.11</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ53" t="n">
         <v>1000</v>
@@ -7648,7 +7648,7 @@
         <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM53" t="n">
         <v>1000</v>
@@ -7657,7 +7657,7 @@
         <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -7699,10 +7699,10 @@
         <v>11.5</v>
       </c>
       <c r="J54" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K54" t="n">
         <v>5.4</v>
-      </c>
-      <c r="K54" t="n">
-        <v>5.5</v>
       </c>
       <c r="L54" t="n">
         <v>1.41</v>
@@ -7717,22 +7717,22 @@
         <v>1.32</v>
       </c>
       <c r="P54" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R54" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S54" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T54" t="n">
         <v>2.36</v>
       </c>
       <c r="U54" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V54" t="n">
         <v>1.09</v>
@@ -7747,13 +7747,13 @@
         <v>29</v>
       </c>
       <c r="Z54" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA54" t="n">
         <v>540</v>
       </c>
       <c r="AB54" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC54" t="n">
         <v>11.5</v>
@@ -7762,7 +7762,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF54" t="n">
         <v>7.2</v>
@@ -7771,22 +7771,22 @@
         <v>10.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI54" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AJ54" t="n">
         <v>10.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM54" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN54" t="n">
         <v>7</v>
@@ -7828,7 +7828,7 @@
         <v>2.62</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I55" t="n">
         <v>3.35</v>
@@ -7846,7 +7846,7 @@
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O55" t="n">
         <v>1.34</v>
@@ -7855,7 +7855,7 @@
         <v>1.89</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R55" t="n">
         <v>1.35</v>
@@ -7864,7 +7864,7 @@
         <v>3.55</v>
       </c>
       <c r="T55" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U55" t="n">
         <v>2.16</v>
@@ -7876,13 +7876,13 @@
         <v>1.61</v>
       </c>
       <c r="X55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y55" t="n">
         <v>12.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AA55" t="n">
         <v>55</v>
@@ -7891,13 +7891,13 @@
         <v>11</v>
       </c>
       <c r="AC55" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD55" t="n">
         <v>970</v>
       </c>
       <c r="AE55" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AF55" t="n">
         <v>970</v>
@@ -7909,25 +7909,25 @@
         <v>19</v>
       </c>
       <c r="AI55" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AJ55" t="n">
         <v>38</v>
       </c>
       <c r="AK55" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AL55" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM55" t="n">
         <v>110</v>
       </c>
       <c r="AN55" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AO55" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
     </row>
     <row r="56">
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H56" t="n">
         <v>2.86</v>
       </c>
       <c r="I56" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K56" t="n">
         <v>3.1</v>
@@ -7978,10 +7978,10 @@
         <v>1.57</v>
       </c>
       <c r="M56" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N56" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O56" t="n">
         <v>1.53</v>
@@ -7990,7 +7990,7 @@
         <v>1.58</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R56" t="n">
         <v>1.21</v>
@@ -8002,19 +8002,19 @@
         <v>2.08</v>
       </c>
       <c r="U56" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V56" t="n">
         <v>1.51</v>
       </c>
       <c r="W56" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="X56" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y56" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>9</v>
       </c>
       <c r="Z56" t="n">
         <v>18.5</v>
@@ -8023,13 +8023,13 @@
         <v>50</v>
       </c>
       <c r="AB56" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC56" t="n">
         <v>7</v>
       </c>
       <c r="AD56" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE56" t="n">
         <v>42</v>
@@ -8062,7 +8062,7 @@
         <v>55</v>
       </c>
       <c r="AO56" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
@@ -8095,19 +8095,19 @@
         <v>3.4</v>
       </c>
       <c r="G57" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H57" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I57" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J57" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K57" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
         <v>1.28</v>
@@ -8122,31 +8122,31 @@
         <v>1.22</v>
       </c>
       <c r="P57" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R57" t="n">
         <v>1.55</v>
       </c>
       <c r="S57" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T57" t="n">
         <v>1.62</v>
       </c>
       <c r="U57" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="V57" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="W57" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X57" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y57" t="n">
         <v>13</v>
@@ -8161,7 +8161,7 @@
         <v>18.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD57" t="n">
         <v>11</v>
@@ -8173,28 +8173,28 @@
         <v>28</v>
       </c>
       <c r="AG57" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI57" t="n">
         <v>29</v>
       </c>
       <c r="AJ57" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK57" t="n">
         <v>36</v>
       </c>
       <c r="AL57" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM57" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN57" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO57" t="n">
         <v>12</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G58" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H58" t="n">
         <v>4.3</v>
       </c>
       <c r="I58" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J58" t="n">
         <v>4.1</v>
@@ -8257,19 +8257,19 @@
         <v>1.19</v>
       </c>
       <c r="P58" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R58" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S58" t="n">
         <v>2.48</v>
       </c>
       <c r="T58" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="U58" t="n">
         <v>2.32</v>
@@ -8278,7 +8278,7 @@
         <v>1.27</v>
       </c>
       <c r="W58" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X58" t="n">
         <v>25</v>
@@ -8296,7 +8296,7 @@
         <v>13</v>
       </c>
       <c r="AC58" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD58" t="n">
         <v>22</v>
@@ -8320,7 +8320,7 @@
         <v>23</v>
       </c>
       <c r="AK58" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL58" t="n">
         <v>32</v>
@@ -8329,7 +8329,7 @@
         <v>80</v>
       </c>
       <c r="AN58" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO58" t="n">
         <v>46</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H59" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I59" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J59" t="n">
         <v>3.65</v>
@@ -8392,7 +8392,7 @@
         <v>1.24</v>
       </c>
       <c r="P59" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q59" t="n">
         <v>1.7</v>
@@ -8407,13 +8407,13 @@
         <v>1.61</v>
       </c>
       <c r="U59" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V59" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W59" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X59" t="n">
         <v>21</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="G60" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="I60" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J60" t="n">
         <v>6</v>
@@ -8521,7 +8521,7 @@
         <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O60" t="n">
         <v>1.13</v>
@@ -8530,7 +8530,7 @@
         <v>3.2</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R60" t="n">
         <v>1.86</v>
@@ -8539,16 +8539,16 @@
         <v>1.98</v>
       </c>
       <c r="T60" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U60" t="n">
         <v>2.34</v>
       </c>
       <c r="V60" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W60" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="X60" t="n">
         <v>38</v>
@@ -8557,7 +8557,7 @@
         <v>44</v>
       </c>
       <c r="Z60" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA60" t="n">
         <v>230</v>
@@ -8569,10 +8569,10 @@
         <v>14.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE60" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF60" t="n">
         <v>12</v>
@@ -8581,13 +8581,13 @@
         <v>11.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI60" t="n">
         <v>75</v>
       </c>
       <c r="AJ60" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK60" t="n">
         <v>14</v>
@@ -8602,7 +8602,7 @@
         <v>4.2</v>
       </c>
       <c r="AO60" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G61" t="n">
         <v>2.24</v>
@@ -8692,10 +8692,10 @@
         <v>15</v>
       </c>
       <c r="Z61" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AA61" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB61" t="n">
         <v>9</v>
@@ -8719,25 +8719,25 @@
         <v>27</v>
       </c>
       <c r="AI61" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AJ61" t="n">
-        <v>34</v>
+        <v>900</v>
       </c>
       <c r="AK61" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL61" t="n">
         <v>65</v>
       </c>
       <c r="AM61" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AN61" t="n">
         <v>30</v>
       </c>
       <c r="AO61" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G63" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H63" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I63" t="n">
         <v>5.8</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.9</v>
       </c>
       <c r="J63" t="n">
         <v>4.2</v>
       </c>
       <c r="K63" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L63" t="n">
         <v>1.36</v>
@@ -8953,22 +8953,22 @@
         <v>1.2</v>
       </c>
       <c r="W63" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="X63" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
       </c>
       <c r="Z63" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA63" t="n">
         <v>160</v>
       </c>
       <c r="AB63" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC63" t="n">
         <v>9.199999999999999</v>
@@ -9037,16 +9037,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G64" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H64" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I64" t="n">
         <v>2.6</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.64</v>
       </c>
       <c r="J64" t="n">
         <v>3.35</v>
@@ -9061,13 +9061,13 @@
         <v>1.08</v>
       </c>
       <c r="N64" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O64" t="n">
         <v>1.36</v>
       </c>
       <c r="P64" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q64" t="n">
         <v>2.08</v>
@@ -9085,10 +9085,10 @@
         <v>2.16</v>
       </c>
       <c r="V64" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W64" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X64" t="n">
         <v>12.5</v>
@@ -9142,7 +9142,7 @@
         <v>36</v>
       </c>
       <c r="AO64" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
@@ -9172,19 +9172,19 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H65" t="n">
         <v>5.4</v>
       </c>
       <c r="I65" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J65" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K65" t="n">
         <v>4</v>
@@ -9232,7 +9232,7 @@
         <v>18</v>
       </c>
       <c r="Z65" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AA65" t="n">
         <v>170</v>
@@ -9244,10 +9244,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD65" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AE65" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AF65" t="n">
         <v>10.5</v>
@@ -9256,19 +9256,19 @@
         <v>9.6</v>
       </c>
       <c r="AH65" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI65" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AJ65" t="n">
         <v>18.5</v>
       </c>
       <c r="AK65" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL65" t="n">
         <v>970</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>38</v>
       </c>
       <c r="AM65" t="n">
         <v>140</v>
@@ -9310,7 +9310,7 @@
         <v>1.69</v>
       </c>
       <c r="G66" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>6</v>
@@ -9337,10 +9337,10 @@
         <v>1.34</v>
       </c>
       <c r="P66" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R66" t="n">
         <v>1.37</v>
@@ -9352,19 +9352,19 @@
         <v>1.94</v>
       </c>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V66" t="n">
         <v>1.19</v>
       </c>
       <c r="W66" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X66" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y66" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Z66" t="n">
         <v>50</v>
@@ -9379,13 +9379,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD66" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE66" t="n">
         <v>85</v>
       </c>
       <c r="AF66" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG66" t="n">
         <v>9.4</v>
@@ -9397,22 +9397,22 @@
         <v>85</v>
       </c>
       <c r="AJ66" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK66" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL66" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM66" t="n">
         <v>120</v>
       </c>
       <c r="AN66" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO66" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
@@ -9469,28 +9469,28 @@
         <v>3.75</v>
       </c>
       <c r="O67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R67" t="n">
         <v>1.34</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1.36</v>
       </c>
       <c r="S67" t="n">
         <v>3.7</v>
       </c>
       <c r="T67" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U67" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V67" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W67" t="n">
         <v>1.48</v>
@@ -9511,10 +9511,10 @@
         <v>12</v>
       </c>
       <c r="AC67" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD67" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE67" t="n">
         <v>29</v>
@@ -9589,10 +9589,10 @@
         <v>5.5</v>
       </c>
       <c r="J68" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K68" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L68" t="n">
         <v>1.45</v>
@@ -9640,7 +9640,7 @@
         <v>44</v>
       </c>
       <c r="AA68" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AB68" t="n">
         <v>9.199999999999999</v>
@@ -9655,7 +9655,7 @@
         <v>90</v>
       </c>
       <c r="AF68" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG68" t="n">
         <v>13</v>
@@ -9715,7 +9715,7 @@
         <v>2.08</v>
       </c>
       <c r="G69" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H69" t="n">
         <v>3.9</v>
@@ -9730,7 +9730,7 @@
         <v>3.85</v>
       </c>
       <c r="L69" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M69" t="n">
         <v>1.11</v>
@@ -9751,7 +9751,7 @@
         <v>1.21</v>
       </c>
       <c r="S69" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T69" t="n">
         <v>1.87</v>
@@ -9760,7 +9760,7 @@
         <v>1.68</v>
       </c>
       <c r="V69" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="W69" t="n">
         <v>1.73</v>
@@ -9772,10 +9772,10 @@
         <v>14.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA69" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB69" t="n">
         <v>8.800000000000001</v>
@@ -9799,25 +9799,25 @@
         <v>27</v>
       </c>
       <c r="AI69" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AJ69" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AK69" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL69" t="n">
         <v>70</v>
       </c>
       <c r="AM69" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="AN69" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AO69" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70">
@@ -9856,7 +9856,7 @@
         <v>2.54</v>
       </c>
       <c r="I70" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J70" t="n">
         <v>3.05</v>
@@ -9865,7 +9865,7 @@
         <v>3.6</v>
       </c>
       <c r="L70" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M70" t="n">
         <v>1.08</v>
@@ -9895,10 +9895,10 @@
         <v>1.96</v>
       </c>
       <c r="V70" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W70" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X70" t="n">
         <v>13</v>
@@ -9907,10 +9907,10 @@
         <v>11.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA70" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AB70" t="n">
         <v>970</v>
@@ -9922,37 +9922,37 @@
         <v>14.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AF70" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG70" t="n">
         <v>15.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AI70" t="n">
         <v>60</v>
       </c>
       <c r="AJ70" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AK70" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AL70" t="n">
         <v>65</v>
       </c>
       <c r="AM70" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AN70" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AO70" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
     </row>
     <row r="71">
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G71" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H71" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="I71" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="J71" t="n">
         <v>3.55</v>
       </c>
       <c r="K71" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L71" t="n">
         <v>1.41</v>
@@ -10012,10 +10012,10 @@
         <v>1.33</v>
       </c>
       <c r="P71" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
         <v>1.31</v>
@@ -10024,16 +10024,16 @@
         <v>3.55</v>
       </c>
       <c r="T71" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U71" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V71" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="W71" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X71" t="n">
         <v>16.5</v>
@@ -10045,10 +10045,10 @@
         <v>12.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB71" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC71" t="n">
         <v>10.5</v>
@@ -10066,7 +10066,7 @@
         <v>27</v>
       </c>
       <c r="AH71" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI71" t="n">
         <v>50</v>
@@ -10075,19 +10075,19 @@
         <v>190</v>
       </c>
       <c r="AK71" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL71" t="n">
         <v>110</v>
       </c>
       <c r="AM71" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN71" t="n">
         <v>140</v>
       </c>
       <c r="AO71" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="72">
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G72" t="n">
         <v>2.72</v>
@@ -10180,13 +10180,13 @@
         <v>24</v>
       </c>
       <c r="AA72" t="n">
-        <v>80</v>
+        <v>900</v>
       </c>
       <c r="AB72" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC72" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD72" t="n">
         <v>16.5</v>
@@ -10207,7 +10207,7 @@
         <v>85</v>
       </c>
       <c r="AJ72" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK72" t="n">
         <v>44</v>
@@ -10252,13 +10252,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G73" t="n">
         <v>7.2</v>
       </c>
       <c r="H73" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I73" t="n">
         <v>1.59</v>
@@ -10267,7 +10267,7 @@
         <v>4.4</v>
       </c>
       <c r="K73" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L73" t="n">
         <v>1.39</v>
@@ -10279,16 +10279,16 @@
         <v>3.8</v>
       </c>
       <c r="O73" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P73" t="n">
         <v>1.99</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R73" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S73" t="n">
         <v>3.35</v>
@@ -10300,13 +10300,13 @@
         <v>1.9</v>
       </c>
       <c r="V73" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="W73" t="n">
         <v>1.16</v>
       </c>
       <c r="X73" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -10336,16 +10336,16 @@
         <v>27</v>
       </c>
       <c r="AH73" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI73" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AJ73" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AK73" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL73" t="n">
         <v>110</v>
@@ -10393,16 +10393,16 @@
         <v>4.4</v>
       </c>
       <c r="H74" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I74" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K74" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3.4</v>
       </c>
       <c r="L74" t="n">
         <v>1.52</v>
@@ -10417,13 +10417,13 @@
         <v>1.45</v>
       </c>
       <c r="P74" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R74" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S74" t="n">
         <v>4.6</v>
@@ -10432,10 +10432,10 @@
         <v>2.02</v>
       </c>
       <c r="U74" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V74" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W74" t="n">
         <v>1.29</v>
@@ -10582,25 +10582,25 @@
         <v>11</v>
       </c>
       <c r="Z75" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA75" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AB75" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC75" t="n">
         <v>7.6</v>
       </c>
       <c r="AD75" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE75" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AF75" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AG75" t="n">
         <v>15.5</v>
@@ -10609,25 +10609,25 @@
         <v>23</v>
       </c>
       <c r="AI75" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ75" t="n">
         <v>55</v>
       </c>
       <c r="AK75" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AL75" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AM75" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN75" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AO75" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
     </row>
     <row r="76">
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="G76" t="n">
         <v>1.17</v>
@@ -10666,13 +10666,13 @@
         <v>20</v>
       </c>
       <c r="I76" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J76" t="n">
         <v>9.6</v>
       </c>
       <c r="K76" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L76" t="n">
         <v>1.21</v>
@@ -10681,7 +10681,7 @@
         <v>1.02</v>
       </c>
       <c r="N76" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O76" t="n">
         <v>1.13</v>
@@ -10693,13 +10693,13 @@
         <v>1.38</v>
       </c>
       <c r="R76" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S76" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T76" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U76" t="n">
         <v>1.72</v>
@@ -10729,7 +10729,7 @@
         <v>26</v>
       </c>
       <c r="AD76" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AE76" t="n">
         <v>410</v>
@@ -10759,7 +10759,7 @@
         <v>250</v>
       </c>
       <c r="AN76" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="AO76" t="n">
         <v>520</v>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G77" t="n">
         <v>7.8</v>
@@ -10801,10 +10801,10 @@
         <v>1.45</v>
       </c>
       <c r="I77" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="J77" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="K77" t="n">
         <v>5.8</v>
@@ -10822,7 +10822,7 @@
         <v>1.18</v>
       </c>
       <c r="P77" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q77" t="n">
         <v>1.54</v>
@@ -10840,7 +10840,7 @@
         <v>2.14</v>
       </c>
       <c r="V77" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="W77" t="n">
         <v>1.14</v>
@@ -10858,7 +10858,7 @@
         <v>14.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AC77" t="n">
         <v>12.5</v>
@@ -10873,13 +10873,13 @@
         <v>65</v>
       </c>
       <c r="AG77" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AH77" t="n">
         <v>22</v>
       </c>
       <c r="AI77" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AJ77" t="n">
         <v>220</v>
@@ -10897,7 +10897,7 @@
         <v>90</v>
       </c>
       <c r="AO77" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="78">
@@ -10933,7 +10933,7 @@
         <v>4.7</v>
       </c>
       <c r="H78" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="I78" t="n">
         <v>2.16</v>
@@ -10942,7 +10942,7 @@
         <v>3.5</v>
       </c>
       <c r="K78" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L78" t="n">
         <v>1.32</v>
@@ -10978,13 +10978,13 @@
         <v>1.86</v>
       </c>
       <c r="W78" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X78" t="n">
         <v>18.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z78" t="n">
         <v>16</v>
@@ -10999,7 +10999,7 @@
         <v>10.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE78" t="n">
         <v>27</v>
@@ -11017,7 +11017,7 @@
         <v>44</v>
       </c>
       <c r="AJ78" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AK78" t="n">
         <v>60</v>
@@ -11062,16 +11062,16 @@
         </is>
       </c>
       <c r="F79" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G79" t="n">
         <v>2</v>
       </c>
-      <c r="G79" t="n">
-        <v>2.02</v>
-      </c>
       <c r="H79" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I79" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J79" t="n">
         <v>3.45</v>
@@ -11098,7 +11098,7 @@
         <v>2.4</v>
       </c>
       <c r="R79" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S79" t="n">
         <v>4.7</v>
@@ -11107,13 +11107,13 @@
         <v>2.08</v>
       </c>
       <c r="U79" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V79" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W79" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X79" t="n">
         <v>10.5</v>
@@ -11125,16 +11125,16 @@
         <v>34</v>
       </c>
       <c r="AA79" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB79" t="n">
         <v>7.4</v>
       </c>
       <c r="AC79" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD79" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE79" t="n">
         <v>70</v>
@@ -11224,7 +11224,7 @@
         <v>2.44</v>
       </c>
       <c r="O80" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P80" t="n">
         <v>1.47</v>
@@ -11266,7 +11266,7 @@
         <v>6.8</v>
       </c>
       <c r="AC80" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD80" t="n">
         <v>21</v>
@@ -11278,7 +11278,7 @@
         <v>12.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH80" t="n">
         <v>28</v>
@@ -11356,25 +11356,25 @@
         <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O81" t="n">
         <v>1.35</v>
       </c>
       <c r="P81" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R81" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S81" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T81" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U81" t="n">
         <v>2.1</v>
@@ -11386,7 +11386,7 @@
         <v>1.76</v>
       </c>
       <c r="X81" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y81" t="n">
         <v>13.5</v>
@@ -11398,10 +11398,10 @@
         <v>70</v>
       </c>
       <c r="AB81" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC81" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD81" t="n">
         <v>15</v>
@@ -11410,10 +11410,10 @@
         <v>44</v>
       </c>
       <c r="AF81" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG81" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH81" t="n">
         <v>18</v>
@@ -11422,7 +11422,7 @@
         <v>70</v>
       </c>
       <c r="AJ81" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AK81" t="n">
         <v>25</v>
@@ -11434,7 +11434,7 @@
         <v>100</v>
       </c>
       <c r="AN81" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO81" t="n">
         <v>44</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G82" t="n">
         <v>2.04</v>
@@ -11482,7 +11482,7 @@
         <v>3.75</v>
       </c>
       <c r="K82" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
         <v>1.34</v>
@@ -11497,10 +11497,10 @@
         <v>1.31</v>
       </c>
       <c r="P82" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R82" t="n">
         <v>1.37</v>
@@ -11527,13 +11527,13 @@
         <v>970</v>
       </c>
       <c r="Z82" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AA82" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AB82" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC82" t="n">
         <v>8.6</v>
@@ -11560,10 +11560,10 @@
         <v>28</v>
       </c>
       <c r="AK82" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AL82" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AM82" t="n">
         <v>120</v>
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G83" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="H83" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="I83" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J83" t="n">
         <v>4.2</v>
@@ -11620,13 +11620,13 @@
         <v>4.4</v>
       </c>
       <c r="L83" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M83" t="n">
         <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O83" t="n">
         <v>1.39</v>
@@ -11644,22 +11644,22 @@
         <v>4</v>
       </c>
       <c r="T83" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U83" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V83" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="W83" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X83" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Z83" t="n">
         <v>8.4</v>
@@ -11671,13 +11671,13 @@
         <v>19</v>
       </c>
       <c r="AC83" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD83" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE83" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF83" t="n">
         <v>60</v>
@@ -11686,13 +11686,13 @@
         <v>28</v>
       </c>
       <c r="AH83" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI83" t="n">
         <v>48</v>
       </c>
       <c r="AJ83" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AK83" t="n">
         <v>140</v>
@@ -11704,10 +11704,10 @@
         <v>210</v>
       </c>
       <c r="AN83" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AO83" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="84">
@@ -11752,10 +11752,10 @@
         <v>3.65</v>
       </c>
       <c r="K84" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L84" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M84" t="n">
         <v>1.04</v>
@@ -11770,7 +11770,7 @@
         <v>2.28</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R84" t="n">
         <v>1.51</v>
@@ -11788,7 +11788,7 @@
         <v>1.6</v>
       </c>
       <c r="W84" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X84" t="n">
         <v>25</v>
@@ -11824,10 +11824,10 @@
         <v>17.5</v>
       </c>
       <c r="AI84" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ84" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK84" t="n">
         <v>34</v>
@@ -11896,13 +11896,13 @@
         <v>1.1</v>
       </c>
       <c r="N85" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O85" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P85" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q85" t="n">
         <v>2.3</v>
@@ -11923,7 +11923,7 @@
         <v>1.25</v>
       </c>
       <c r="W85" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X85" t="n">
         <v>12.5</v>
@@ -11935,7 +11935,7 @@
         <v>34</v>
       </c>
       <c r="AA85" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AB85" t="n">
         <v>7.6</v>
@@ -12013,16 +12013,16 @@
         <v>2.12</v>
       </c>
       <c r="H86" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I86" t="n">
         <v>4.2</v>
       </c>
       <c r="J86" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K86" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L86" t="n">
         <v>1.44</v>
@@ -12076,7 +12076,7 @@
         <v>10.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD86" t="n">
         <v>18</v>
@@ -12085,10 +12085,10 @@
         <v>55</v>
       </c>
       <c r="AF86" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH86" t="n">
         <v>20</v>
@@ -12157,13 +12157,13 @@
         <v>3.35</v>
       </c>
       <c r="K87" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L87" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M87" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N87" t="n">
         <v>3.2</v>
@@ -12181,7 +12181,7 @@
         <v>1.27</v>
       </c>
       <c r="S87" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T87" t="n">
         <v>1.89</v>
@@ -12196,7 +12196,7 @@
         <v>1.25</v>
       </c>
       <c r="X87" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y87" t="n">
         <v>10.5</v>
@@ -12220,7 +12220,7 @@
         <v>30</v>
       </c>
       <c r="AF87" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AG87" t="n">
         <v>24</v>
@@ -12232,7 +12232,7 @@
         <v>55</v>
       </c>
       <c r="AJ87" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK87" t="n">
         <v>85</v>
@@ -12241,13 +12241,13 @@
         <v>95</v>
       </c>
       <c r="AM87" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN87" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO87" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
@@ -12292,7 +12292,7 @@
         <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -12316,7 +12316,7 @@
         <v>1.24</v>
       </c>
       <c r="S88" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T88" t="n">
         <v>1.79</v>
@@ -12340,7 +12340,7 @@
         <v>25</v>
       </c>
       <c r="AA88" t="n">
-        <v>75</v>
+        <v>900</v>
       </c>
       <c r="AB88" t="n">
         <v>10.5</v>
@@ -12364,10 +12364,10 @@
         <v>23</v>
       </c>
       <c r="AI88" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ88" t="n">
-        <v>46</v>
+        <v>900</v>
       </c>
       <c r="AK88" t="n">
         <v>38</v>
@@ -12376,7 +12376,7 @@
         <v>60</v>
       </c>
       <c r="AM88" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN88" t="n">
         <v>36</v>
@@ -12415,16 +12415,16 @@
         <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="H89" t="n">
         <v>1.99</v>
       </c>
       <c r="I89" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J89" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K89" t="n">
         <v>3.75</v>
@@ -12445,7 +12445,7 @@
         <v>1.51</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="R89" t="n">
         <v>1.18</v>
@@ -12460,37 +12460,37 @@
         <v>1.7</v>
       </c>
       <c r="V89" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W89" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X89" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y89" t="n">
         <v>970</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>7.6</v>
       </c>
       <c r="Z89" t="n">
         <v>970</v>
       </c>
       <c r="AA89" t="n">
-        <v>32</v>
+        <v>900</v>
       </c>
       <c r="AB89" t="n">
         <v>970</v>
       </c>
       <c r="AC89" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AD89" t="n">
         <v>970</v>
       </c>
       <c r="AE89" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AF89" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AG89" t="n">
         <v>24</v>
@@ -12499,25 +12499,25 @@
         <v>30</v>
       </c>
       <c r="AI89" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ89" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK89" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AL89" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AM89" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN89" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO89" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90">
@@ -12547,13 +12547,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G90" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H90" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I90" t="n">
         <v>6.2</v>
@@ -12574,7 +12574,7 @@
         <v>4.4</v>
       </c>
       <c r="O90" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P90" t="n">
         <v>2.16</v>
@@ -12598,7 +12598,7 @@
         <v>1.19</v>
       </c>
       <c r="W90" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="X90" t="n">
         <v>18</v>
@@ -12622,7 +12622,7 @@
         <v>22</v>
       </c>
       <c r="AE90" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF90" t="n">
         <v>10</v>
@@ -12634,13 +12634,13 @@
         <v>21</v>
       </c>
       <c r="AI90" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ90" t="n">
         <v>16</v>
       </c>
       <c r="AK90" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL90" t="n">
         <v>32</v>
@@ -12649,7 +12649,7 @@
         <v>110</v>
       </c>
       <c r="AN90" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO90" t="n">
         <v>85</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G91" t="n">
         <v>1.32</v>
@@ -12694,10 +12694,10 @@
         <v>15.5</v>
       </c>
       <c r="J91" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K91" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L91" t="n">
         <v>1.39</v>
@@ -12724,13 +12724,13 @@
         <v>3.45</v>
       </c>
       <c r="T91" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="U91" t="n">
         <v>1.59</v>
       </c>
       <c r="V91" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W91" t="n">
         <v>4.1</v>
@@ -12748,10 +12748,10 @@
         <v>870</v>
       </c>
       <c r="AB91" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC91" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD91" t="n">
         <v>60</v>
@@ -12772,22 +12772,22 @@
         <v>300</v>
       </c>
       <c r="AJ91" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK91" t="n">
         <v>16</v>
       </c>
       <c r="AL91" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM91" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AN91" t="n">
         <v>6.2</v>
       </c>
       <c r="AO91" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="92">
@@ -12817,13 +12817,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="G92" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H92" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I92" t="n">
         <v>1.63</v>
@@ -12832,10 +12832,10 @@
         <v>4.7</v>
       </c>
       <c r="K92" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L92" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M92" t="n">
         <v>1.03</v>
@@ -12853,16 +12853,16 @@
         <v>1.45</v>
       </c>
       <c r="R92" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S92" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T92" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U92" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="V92" t="n">
         <v>2.58</v>
@@ -12877,13 +12877,13 @@
         <v>15</v>
       </c>
       <c r="Z92" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA92" t="n">
         <v>17.5</v>
       </c>
       <c r="AB92" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC92" t="n">
         <v>12</v>
@@ -12892,7 +12892,7 @@
         <v>10.5</v>
       </c>
       <c r="AE92" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF92" t="n">
         <v>55</v>
@@ -12901,7 +12901,7 @@
         <v>22</v>
       </c>
       <c r="AH92" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI92" t="n">
         <v>22</v>
@@ -12910,19 +12910,19 @@
         <v>130</v>
       </c>
       <c r="AK92" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL92" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM92" t="n">
         <v>55</v>
       </c>
       <c r="AN92" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO92" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="93">
@@ -12964,7 +12964,7 @@
         <v>4.6</v>
       </c>
       <c r="J93" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K93" t="n">
         <v>3.75</v>
@@ -13021,10 +13021,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC93" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD93" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AE93" t="n">
         <v>60</v>
@@ -13033,7 +13033,7 @@
         <v>12.5</v>
       </c>
       <c r="AG93" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH93" t="n">
         <v>970</v>
@@ -13045,7 +13045,7 @@
         <v>23</v>
       </c>
       <c r="AK93" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AL93" t="n">
         <v>38</v>
@@ -13057,7 +13057,7 @@
         <v>16.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94">
@@ -13090,13 +13090,13 @@
         <v>8</v>
       </c>
       <c r="G94" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="I94" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="J94" t="n">
         <v>4.6</v>
@@ -13108,7 +13108,7 @@
         <v>1.44</v>
       </c>
       <c r="M94" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N94" t="n">
         <v>3.35</v>
@@ -13117,7 +13117,7 @@
         <v>1.37</v>
       </c>
       <c r="P94" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q94" t="n">
         <v>2.08</v>
@@ -13132,13 +13132,13 @@
         <v>2.24</v>
       </c>
       <c r="U94" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="V94" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="W94" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X94" t="n">
         <v>13</v>
@@ -13165,13 +13165,13 @@
         <v>18</v>
       </c>
       <c r="AF94" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG94" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH94" t="n">
         <v>34</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>32</v>
       </c>
       <c r="AI94" t="n">
         <v>50</v>
@@ -13183,13 +13183,13 @@
         <v>170</v>
       </c>
       <c r="AL94" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AM94" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN94" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AO94" t="n">
         <v>9.800000000000001</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G95" t="n">
         <v>3.35</v>
@@ -13231,19 +13231,19 @@
         <v>2.44</v>
       </c>
       <c r="I95" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J95" t="n">
         <v>3.25</v>
       </c>
       <c r="K95" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L95" t="n">
         <v>1.5</v>
       </c>
       <c r="M95" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N95" t="n">
         <v>2.94</v>
@@ -13264,16 +13264,16 @@
         <v>4.3</v>
       </c>
       <c r="T95" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U95" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="V95" t="n">
         <v>1.64</v>
       </c>
       <c r="W95" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X95" t="n">
         <v>11</v>
@@ -13294,10 +13294,10 @@
         <v>7.6</v>
       </c>
       <c r="AD95" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE95" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF95" t="n">
         <v>22</v>
@@ -13315,7 +13315,7 @@
         <v>60</v>
       </c>
       <c r="AK95" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL95" t="n">
         <v>75</v>
@@ -13327,7 +13327,7 @@
         <v>55</v>
       </c>
       <c r="AO95" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
     </row>
     <row r="96">
@@ -13360,10 +13360,10 @@
         <v>2.9</v>
       </c>
       <c r="G96" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H96" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I96" t="n">
         <v>2.66</v>
@@ -13372,13 +13372,13 @@
         <v>3.35</v>
       </c>
       <c r="K96" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L96" t="n">
         <v>1.4</v>
       </c>
       <c r="M96" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N96" t="n">
         <v>3.75</v>
@@ -13402,7 +13402,7 @@
         <v>1.73</v>
       </c>
       <c r="U96" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V96" t="n">
         <v>1.6</v>
@@ -13420,7 +13420,7 @@
         <v>20</v>
       </c>
       <c r="AA96" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB96" t="n">
         <v>14.5</v>
@@ -13453,7 +13453,7 @@
         <v>40</v>
       </c>
       <c r="AL96" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM96" t="n">
         <v>100</v>
@@ -13492,112 +13492,112 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G97" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="H97" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J97" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K97" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L97" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M97" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N97" t="n">
-        <v>2.68</v>
+        <v>3.35</v>
       </c>
       <c r="O97" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="P97" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.46</v>
+        <v>1.95</v>
       </c>
       <c r="R97" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="S97" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="T97" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="U97" t="n">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="V97" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W97" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X97" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y97" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG97" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z97" t="n">
+      <c r="AH97" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK97" t="n">
         <v>34</v>
       </c>
-      <c r="AA97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH97" t="n">
+      <c r="AL97" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN97" t="n">
         <v>30</v>
       </c>
-      <c r="AI97" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO97" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98">
@@ -13654,7 +13654,7 @@
         <v>3.5</v>
       </c>
       <c r="O98" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P98" t="n">
         <v>1.87</v>
@@ -13795,22 +13795,22 @@
         <v>1.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R99" t="n">
         <v>1.28</v>
       </c>
       <c r="S99" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="T99" t="n">
         <v>1.81</v>
       </c>
       <c r="U99" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V99" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W99" t="n">
         <v>1.9</v>
@@ -13822,7 +13822,7 @@
         <v>16</v>
       </c>
       <c r="Z99" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA99" t="n">
         <v>130</v>
@@ -13858,7 +13858,7 @@
         <v>28</v>
       </c>
       <c r="AL99" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM99" t="n">
         <v>150</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
         <v>3.7</v>
       </c>
       <c r="H2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.18</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.22</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>3.75</v>
@@ -691,16 +691,16 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.98</v>
       </c>
       <c r="R2" t="n">
         <v>1.38</v>
@@ -715,64 +715,64 @@
         <v>2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
         <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>990</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO2" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.63</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.64</v>
-      </c>
       <c r="H3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.88</v>
@@ -850,28 +850,28 @@
         <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>23</v>
@@ -886,7 +886,7 @@
         <v>9.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>90</v>
@@ -895,7 +895,7 @@
         <v>15.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
@@ -904,10 +904,10 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -937,85 +937,85 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.75</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>3.85</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="X4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>17</v>
       </c>
-      <c r="Y4" t="n">
-        <v>16</v>
-      </c>
       <c r="Z4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="n">
         <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1024,13 +1024,13 @@
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL4" t="n">
         <v>34</v>
@@ -1039,10 +1039,10 @@
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
         <v>5.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
         <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
         <v>25</v>
@@ -1138,10 +1138,10 @@
         <v>140</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>22</v>
@@ -1153,13 +1153,13 @@
         <v>11.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
         <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
         <v>17</v>
@@ -1174,10 +1174,10 @@
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.49</v>
@@ -1231,16 +1231,16 @@
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
         <v>1.24</v>
@@ -1249,19 +1249,19 @@
         <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1279,13 +1279,13 @@
         <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1294,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>65</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>970</v>
-      </c>
       <c r="AK6" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
@@ -1309,10 +1309,10 @@
         <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AO6" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I7" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1366,22 +1366,22 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T7" t="n">
         <v>1.92</v>
@@ -1390,37 +1390,37 @@
         <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="W7" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="n">
         <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="AG7" t="n">
         <v>980</v>
@@ -1429,7 +1429,7 @@
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1486,7 +1486,7 @@
         <v>1.74</v>
       </c>
       <c r="I8" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
         <v>3.3</v>
@@ -1495,31 +1495,31 @@
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1534,7 +1534,7 @@
         <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z8" t="n">
         <v>11</v>
@@ -1555,7 +1555,7 @@
         <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG8" t="n">
         <v>23</v>
@@ -1615,10 +1615,10 @@
         <v>2.76</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I9" t="n">
         <v>3.05</v>
@@ -1627,7 +1627,7 @@
         <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.49</v>
@@ -1639,19 +1639,19 @@
         <v>2.96</v>
       </c>
       <c r="O9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R9" t="n">
         <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T9" t="n">
         <v>1.91</v>
@@ -1660,7 +1660,7 @@
         <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
         <v>1.48</v>
@@ -1669,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
         <v>55</v>
@@ -1681,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
         <v>15.5</v>
@@ -1690,13 +1690,13 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG9" t="n">
         <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>70</v>
@@ -1717,7 +1717,7 @@
         <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -1801,7 +1801,7 @@
         <v>4.5</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
         <v>60</v>
@@ -1843,7 +1843,7 @@
         <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
         <v>220</v>
@@ -1882,31 +1882,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
@@ -1915,25 +1915,25 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="R11" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="S11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="V11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H12" t="n">
         <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -2050,25 +2050,25 @@
         <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
         <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
         <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V12" t="n">
         <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
         <v>18.5</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H13" t="n">
         <v>3.75</v>
@@ -2170,70 +2170,70 @@
         <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
         <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
         <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
         <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="n">
         <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>19.5</v>
@@ -2245,7 +2245,7 @@
         <v>30</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
         <v>46</v>
@@ -2254,10 +2254,10 @@
         <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G14" t="n">
         <v>1.37</v>
       </c>
       <c r="H14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K14" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2317,7 +2317,7 @@
         <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q14" t="n">
         <v>1.58</v>
@@ -2329,16 +2329,16 @@
         <v>2.36</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
         <v>1.08</v>
       </c>
       <c r="W14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
@@ -2365,7 +2365,7 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H15" t="n">
         <v>1.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="J15" t="n">
         <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2452,28 +2452,28 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
         <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
         <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="V15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X15" t="n">
         <v>90</v>
@@ -2491,7 +2491,7 @@
         <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
         <v>18</v>
@@ -2524,7 +2524,7 @@
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO15" t="n">
         <v>55</v>
@@ -2563,34 +2563,34 @@
         <v>3.05</v>
       </c>
       <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.05</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K16" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L16" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="M16" t="n">
         <v>1.14</v>
       </c>
       <c r="N16" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O16" t="n">
         <v>1.55</v>
       </c>
       <c r="P16" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R16" t="n">
         <v>1.2</v>
@@ -2608,19 +2608,19 @@
         <v>1.48</v>
       </c>
       <c r="W16" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z16" t="n">
         <v>17.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
         <v>8.800000000000001</v>
@@ -2656,7 +2656,7 @@
         <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN16" t="n">
         <v>50</v>
@@ -2692,37 +2692,37 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
         <v>2.84</v>
       </c>
       <c r="K17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
         <v>2.74</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P17" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
         <v>2.38</v>
@@ -2731,28 +2731,28 @@
         <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V17" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X17" t="n">
         <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AA17" t="n">
         <v>900</v>
@@ -2761,7 +2761,7 @@
         <v>9</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>30</v>
@@ -2770,13 +2770,13 @@
         <v>970</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AG17" t="n">
         <v>27</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI17" t="n">
         <v>500</v>
@@ -2785,13 +2785,13 @@
         <v>970</v>
       </c>
       <c r="AK17" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AL17" t="n">
         <v>380</v>
       </c>
       <c r="AM17" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>970</v>
@@ -2827,28 +2827,28 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G18" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="H18" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I18" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
         <v>3.5</v>
@@ -2857,49 +2857,49 @@
         <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>1.84</v>
+        <v>3.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="X18" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="Y18" t="n">
         <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AA18" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>970</v>
@@ -2908,7 +2908,7 @@
         <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AH18" t="n">
         <v>40</v>
@@ -2926,7 +2926,7 @@
         <v>970</v>
       </c>
       <c r="AM18" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>970</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="G19" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="I19" t="n">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="J19" t="n">
         <v>2.36</v>
       </c>
       <c r="K19" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2992,7 +2992,7 @@
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q19" t="n">
         <v>1.02</v>
@@ -3001,73 +3001,73 @@
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="X19" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
@@ -3103,7 +3103,7 @@
         <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I20" t="n">
         <v>3.05</v>
@@ -3115,7 +3115,7 @@
         <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3130,10 +3130,10 @@
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R20" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
         <v>3.1</v>
@@ -3148,7 +3148,7 @@
         <v>1.48</v>
       </c>
       <c r="W20" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X20" t="n">
         <v>17</v>
@@ -3166,13 +3166,13 @@
         <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
         <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="G21" t="n">
         <v>2.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="I21" t="n">
         <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>1.81</v>
+        <v>2.18</v>
       </c>
       <c r="K21" t="n">
         <v>6.8</v>
@@ -3256,13 +3256,13 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="O21" t="n">
         <v>1.04</v>
       </c>
       <c r="P21" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q21" t="n">
         <v>1.5</v>
@@ -3274,10 +3274,10 @@
         <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V21" t="n">
         <v>1.1</v>
@@ -3298,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3310,13 +3310,13 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3331,10 +3331,10 @@
         <v>500</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>1.24</v>
       </c>
       <c r="H22" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I22" t="n">
-        <v>500</v>
+        <v>990</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,34 +3391,34 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q22" t="n">
         <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V22" t="n">
         <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>1.77</v>
+        <v>3.5</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3517,7 +3517,7 @@
         <v>2.42</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3541,16 +3541,16 @@
         <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="T23" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="W23" t="n">
         <v>1.32</v>
@@ -3601,10 +3601,10 @@
         <v>500</v>
       </c>
       <c r="AM23" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO23" t="n">
         <v>970</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
         <v>2.18</v>
       </c>
       <c r="I24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3661,88 +3661,88 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="S24" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="T24" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="V24" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W24" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z24" t="n">
         <v>16.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>27</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>440</v>
+        <v>65</v>
       </c>
       <c r="AK24" t="n">
         <v>36</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G25" t="n">
         <v>2.98</v>
@@ -3781,10 +3781,10 @@
         <v>2.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J25" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
         <v>3.75</v>
@@ -3805,46 +3805,46 @@
         <v>2.22</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R25" t="n">
         <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T25" t="n">
         <v>1.64</v>
       </c>
       <c r="U25" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V25" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W25" t="n">
         <v>1.5</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA25" t="n">
         <v>36</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
@@ -3853,7 +3853,7 @@
         <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>15.5</v>
@@ -3865,7 +3865,7 @@
         <v>46</v>
       </c>
       <c r="AK25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL25" t="n">
         <v>36</v>
@@ -3910,22 +3910,22 @@
         <v>2.6</v>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H26" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
         <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -3943,16 +3943,16 @@
         <v>1.78</v>
       </c>
       <c r="R26" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S26" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V26" t="n">
         <v>1.53</v>
@@ -3961,7 +3961,7 @@
         <v>1.59</v>
       </c>
       <c r="X26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
         <v>14.5</v>
@@ -3985,7 +3985,7 @@
         <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
@@ -4000,7 +4000,7 @@
         <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL26" t="n">
         <v>36</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G27" t="n">
         <v>2.78</v>
@@ -4063,16 +4063,16 @@
         <v>1.78</v>
       </c>
       <c r="M27" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="N27" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="P27" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q27" t="n">
         <v>3.55</v>
@@ -4084,7 +4084,7 @@
         <v>8.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="U27" t="n">
         <v>1.6</v>
@@ -4141,10 +4141,10 @@
         <v>110</v>
       </c>
       <c r="AM27" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AN27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO27" t="n">
         <v>120</v>
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G28" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="H28" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I28" t="n">
         <v>2.88</v>
       </c>
-      <c r="I28" t="n">
-        <v>2.94</v>
-      </c>
       <c r="J28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
@@ -4204,19 +4204,19 @@
         <v>3.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
         <v>1.89</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R28" t="n">
         <v>1.32</v>
       </c>
       <c r="S28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T28" t="n">
         <v>1.8</v>
@@ -4225,19 +4225,19 @@
         <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X28" t="n">
         <v>13.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="n">
         <v>55</v>
@@ -4255,34 +4255,34 @@
         <v>38</v>
       </c>
       <c r="AF28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AJ28" t="n">
         <v>55</v>
       </c>
       <c r="AK28" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -4315,16 +4315,16 @@
         <v>1.82</v>
       </c>
       <c r="G29" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
         <v>4.9</v>
       </c>
       <c r="J29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
         <v>4.3</v>
@@ -4351,19 +4351,19 @@
         <v>1.55</v>
       </c>
       <c r="S29" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T29" t="n">
         <v>1.63</v>
       </c>
       <c r="U29" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V29" t="n">
         <v>1.26</v>
       </c>
       <c r="W29" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X29" t="n">
         <v>23</v>
@@ -4396,7 +4396,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
         <v>55</v>
@@ -4411,7 +4411,7 @@
         <v>29</v>
       </c>
       <c r="AM29" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="AN29" t="n">
         <v>9.199999999999999</v>
@@ -4450,7 +4450,7 @@
         <v>2.44</v>
       </c>
       <c r="G30" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
@@ -4459,13 +4459,13 @@
         <v>3.25</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
         <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
@@ -4477,7 +4477,7 @@
         <v>1.35</v>
       </c>
       <c r="P30" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q30" t="n">
         <v>2.02</v>
@@ -4522,7 +4522,7 @@
         <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AF30" t="n">
         <v>17</v>
@@ -4534,13 +4534,13 @@
         <v>18.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AJ30" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL30" t="n">
         <v>160</v>
@@ -4549,10 +4549,10 @@
         <v>330</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31">
@@ -4582,25 +4582,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
         <v>5.8</v>
       </c>
       <c r="H31" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I31" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
         <v>4.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4609,13 +4609,13 @@
         <v>3.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
         <v>1.32</v>
@@ -4624,13 +4624,13 @@
         <v>3.55</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W31" t="n">
         <v>1.21</v>
@@ -4648,7 +4648,7 @@
         <v>20</v>
       </c>
       <c r="AB31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
         <v>10</v>
@@ -4669,7 +4669,7 @@
         <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AJ31" t="n">
         <v>900</v>
@@ -4684,7 +4684,7 @@
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="AO31" t="n">
         <v>13.5</v>
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="G32" t="n">
-        <v>2.34</v>
+        <v>2.76</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>2.92</v>
       </c>
       <c r="I32" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.46</v>
+        <v>1.9</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="T32" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="U32" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="V32" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="W32" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="X32" t="n">
-        <v>9.6</v>
+        <v>24</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Z32" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AA32" t="n">
         <v>900</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AE32" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="AF32" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AG32" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AH32" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>900</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL32" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AM32" t="n">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AO32" t="n">
-        <v>210</v>
+        <v>970</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="G33" t="n">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="H33" t="n">
-        <v>2.92</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="L33" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="O33" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="S33" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="U33" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="V33" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="X33" t="n">
-        <v>24</v>
+        <v>9.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
         <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="n">
-        <v>970</v>
+        <v>190</v>
       </c>
       <c r="AF33" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AG33" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AJ33" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK33" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AM33" t="n">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="AN33" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AO33" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34">
@@ -4999,13 +4999,13 @@
         <v>2.22</v>
       </c>
       <c r="J34" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="K34" t="n">
         <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
@@ -5020,13 +5020,13 @@
         <v>1.52</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="R34" t="n">
         <v>1.19</v>
       </c>
       <c r="S34" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="T34" t="n">
         <v>2.12</v>
@@ -5050,7 +5050,7 @@
         <v>23</v>
       </c>
       <c r="AA34" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AB34" t="n">
         <v>24</v>
@@ -5089,7 +5089,7 @@
         <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO34" t="n">
         <v>970</v>
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.44</v>
+        <v>5.7</v>
       </c>
       <c r="G35" t="n">
-        <v>2.62</v>
+        <v>6.6</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="I35" t="n">
-        <v>3.15</v>
+        <v>1.88</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>3.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="O35" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="P35" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="R35" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="S35" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U35" t="n">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="V35" t="n">
-        <v>1.46</v>
+        <v>2.12</v>
       </c>
       <c r="W35" t="n">
-        <v>1.61</v>
+        <v>1.18</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AA35" t="n">
         <v>60</v>
       </c>
       <c r="AB35" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH35" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AI35" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AJ35" t="n">
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="AK35" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AL35" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>500</v>
+      </c>
+      <c r="AO35" t="n">
         <v>55</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="36">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G36" t="n">
         <v>3.3</v>
@@ -5296,7 +5296,7 @@
         <v>1.27</v>
       </c>
       <c r="S36" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="T36" t="n">
         <v>1.74</v>
@@ -5305,7 +5305,7 @@
         <v>1.89</v>
       </c>
       <c r="V36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W36" t="n">
         <v>1.43</v>
@@ -5341,7 +5341,7 @@
         <v>970</v>
       </c>
       <c r="AH36" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI36" t="n">
         <v>500</v>
@@ -5395,13 +5395,13 @@
         <v>4.5</v>
       </c>
       <c r="G37" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H37" t="n">
         <v>1.82</v>
       </c>
       <c r="I37" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
@@ -5422,16 +5422,16 @@
         <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q37" t="n">
         <v>1.76</v>
       </c>
       <c r="R37" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S37" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T37" t="n">
         <v>1.72</v>
@@ -5440,10 +5440,10 @@
         <v>2.22</v>
       </c>
       <c r="V37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W37" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X37" t="n">
         <v>18</v>
@@ -5452,7 +5452,7 @@
         <v>10.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
         <v>21</v>
@@ -5473,7 +5473,7 @@
         <v>36</v>
       </c>
       <c r="AG37" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH37" t="n">
         <v>17.5</v>
@@ -5488,7 +5488,7 @@
         <v>55</v>
       </c>
       <c r="AL37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM37" t="n">
         <v>85</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G38" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="H38" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="I38" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="J38" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K38" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L38" t="n">
         <v>1.29</v>
@@ -5551,37 +5551,37 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P38" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R38" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S38" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T38" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U38" t="n">
         <v>2.3</v>
       </c>
       <c r="V38" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="W38" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y38" t="n">
         <v>12</v>
@@ -5590,49 +5590,49 @@
         <v>11.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC38" t="n">
         <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG38" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH38" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ38" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM38" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AO38" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="39">
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G39" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="I39" t="n">
         <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K39" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L39" t="n">
         <v>1.15</v>
@@ -5692,7 +5692,7 @@
         <v>1.09</v>
       </c>
       <c r="P39" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q39" t="n">
         <v>1.28</v>
@@ -5701,19 +5701,19 @@
         <v>2.2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T39" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U39" t="n">
         <v>3.45</v>
       </c>
       <c r="V39" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W39" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="X39" t="n">
         <v>60</v>
@@ -5728,7 +5728,7 @@
         <v>55</v>
       </c>
       <c r="AB39" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC39" t="n">
         <v>15</v>
@@ -5737,7 +5737,7 @@
         <v>17</v>
       </c>
       <c r="AE39" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF39" t="n">
         <v>27</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G40" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I40" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J40" t="n">
         <v>4.3</v>
@@ -5815,7 +5815,7 @@
         <v>4.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
@@ -5833,22 +5833,22 @@
         <v>1.52</v>
       </c>
       <c r="R40" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S40" t="n">
         <v>2.28</v>
       </c>
       <c r="T40" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="U40" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V40" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W40" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X40" t="n">
         <v>34</v>
@@ -5866,7 +5866,7 @@
         <v>16</v>
       </c>
       <c r="AC40" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD40" t="n">
         <v>21</v>
@@ -5878,10 +5878,10 @@
         <v>14</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI40" t="n">
         <v>50</v>
@@ -5896,13 +5896,13 @@
         <v>32</v>
       </c>
       <c r="AM40" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN40" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AO40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5.8</v>
+        <v>2.56</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>2.64</v>
       </c>
       <c r="H41" t="n">
-        <v>1.82</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>1.86</v>
+        <v>3.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K41" t="n">
         <v>3.6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="R41" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S41" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T41" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="U41" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="V41" t="n">
-        <v>2.16</v>
+        <v>1.47</v>
       </c>
       <c r="W41" t="n">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="X41" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="Z41" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="n">
         <v>60</v>
       </c>
       <c r="AB41" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH41" t="n">
         <v>21</v>
       </c>
-      <c r="AE41" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>70</v>
-      </c>
       <c r="AI41" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="n">
-        <v>900</v>
+        <v>40</v>
       </c>
       <c r="AK41" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AM41" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AO41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="I42" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>3.5</v>
@@ -6106,7 +6106,7 @@
         <v>1.33</v>
       </c>
       <c r="S42" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T42" t="n">
         <v>1.81</v>
@@ -6115,64 +6115,64 @@
         <v>2.1</v>
       </c>
       <c r="V42" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W42" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="X42" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AB42" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC42" t="n">
         <v>7.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE42" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AF42" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI42" t="n">
         <v>50</v>
       </c>
       <c r="AJ42" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO42" t="n">
         <v>34</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>970</v>
       </c>
     </row>
     <row r="43">
@@ -6208,13 +6208,13 @@
         <v>1.34</v>
       </c>
       <c r="H43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I43" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="K43" t="n">
         <v>6.2</v>
@@ -6235,7 +6235,7 @@
         <v>2.28</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R43" t="n">
         <v>1.5</v>
@@ -6250,16 +6250,16 @@
         <v>1.83</v>
       </c>
       <c r="V43" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W43" t="n">
         <v>3.9</v>
       </c>
       <c r="X43" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y43" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="Z43" t="n">
         <v>120</v>
@@ -6268,22 +6268,22 @@
         <v>470</v>
       </c>
       <c r="AB43" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC43" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD43" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE43" t="n">
         <v>210</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH43" t="n">
         <v>36</v>
@@ -6292,19 +6292,19 @@
         <v>520</v>
       </c>
       <c r="AJ43" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AK43" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="n">
         <v>430</v>
       </c>
       <c r="AN43" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO43" t="n">
         <v>270</v>
@@ -6370,7 +6370,7 @@
         <v>2.28</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R44" t="n">
         <v>1.5</v>
@@ -6403,7 +6403,7 @@
         <v>19.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="n">
         <v>9</v>
@@ -6430,13 +6430,13 @@
         <v>100</v>
       </c>
       <c r="AK44" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL44" t="n">
         <v>55</v>
       </c>
       <c r="AM44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN44" t="n">
         <v>50</v>
@@ -6475,70 +6475,70 @@
         <v>1.49</v>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H45" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I45" t="n">
         <v>7.6</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7.8</v>
       </c>
       <c r="J45" t="n">
         <v>5</v>
       </c>
       <c r="K45" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L45" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="R45" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U45" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V45" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W45" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X45" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y45" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z45" t="n">
         <v>65</v>
       </c>
       <c r="AA45" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB45" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC45" t="n">
         <v>11.5</v>
@@ -6547,37 +6547,37 @@
         <v>27</v>
       </c>
       <c r="AE45" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG45" t="n">
         <v>9.6</v>
       </c>
       <c r="AH45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI45" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ45" t="n">
         <v>13.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL45" t="n">
         <v>29</v>
       </c>
       <c r="AM45" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN45" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AO45" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
@@ -6637,10 +6637,10 @@
         <v>1.35</v>
       </c>
       <c r="P46" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R46" t="n">
         <v>1.34</v>
@@ -6649,7 +6649,7 @@
         <v>3.75</v>
       </c>
       <c r="T46" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U46" t="n">
         <v>2.16</v>
@@ -6661,7 +6661,7 @@
         <v>1.73</v>
       </c>
       <c r="X46" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y46" t="n">
         <v>13</v>
@@ -6676,7 +6676,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD46" t="n">
         <v>14.5</v>
@@ -6694,7 +6694,7 @@
         <v>17</v>
       </c>
       <c r="AI46" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ46" t="n">
         <v>30</v>
@@ -6703,13 +6703,13 @@
         <v>25</v>
       </c>
       <c r="AL46" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM46" t="n">
         <v>95</v>
       </c>
       <c r="AN46" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO46" t="n">
         <v>42</v>
@@ -6745,16 +6745,16 @@
         <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I47" t="n">
         <v>1.83</v>
       </c>
       <c r="J47" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K47" t="n">
         <v>3.95</v>
@@ -6787,19 +6787,19 @@
         <v>1.83</v>
       </c>
       <c r="U47" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V47" t="n">
         <v>2.2</v>
       </c>
       <c r="W47" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X47" t="n">
         <v>18</v>
       </c>
       <c r="Y47" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z47" t="n">
         <v>11.5</v>
@@ -6811,7 +6811,7 @@
         <v>19</v>
       </c>
       <c r="AC47" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
         <v>10</v>
@@ -6835,7 +6835,7 @@
         <v>150</v>
       </c>
       <c r="AK47" t="n">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AL47" t="n">
         <v>75</v>
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
         <v>5.2</v>
       </c>
       <c r="H48" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I48" t="n">
         <v>2.2</v>
@@ -6892,7 +6892,7 @@
         <v>2.98</v>
       </c>
       <c r="K48" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L48" t="n">
         <v>1.46</v>
@@ -6910,7 +6910,7 @@
         <v>1.71</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R48" t="n">
         <v>1.26</v>
@@ -6928,7 +6928,7 @@
         <v>1.83</v>
       </c>
       <c r="W48" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X48" t="n">
         <v>14</v>
@@ -6940,7 +6940,7 @@
         <v>15</v>
       </c>
       <c r="AA48" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AB48" t="n">
         <v>25</v>
@@ -6952,7 +6952,7 @@
         <v>21</v>
       </c>
       <c r="AE48" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AF48" t="n">
         <v>100</v>
@@ -6961,7 +6961,7 @@
         <v>970</v>
       </c>
       <c r="AH48" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI48" t="n">
         <v>970</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G49" t="n">
         <v>3.2</v>
       </c>
       <c r="H49" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I49" t="n">
         <v>2.64</v>
       </c>
       <c r="J49" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K49" t="n">
         <v>3.4</v>
@@ -7042,7 +7042,7 @@
         <v>1.38</v>
       </c>
       <c r="P49" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q49" t="n">
         <v>2.12</v>
@@ -7051,19 +7051,19 @@
         <v>1.31</v>
       </c>
       <c r="S49" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T49" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U49" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V49" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W49" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X49" t="n">
         <v>12</v>
@@ -7081,7 +7081,7 @@
         <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD49" t="n">
         <v>12</v>
@@ -7090,7 +7090,7 @@
         <v>32</v>
       </c>
       <c r="AF49" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG49" t="n">
         <v>13.5</v>
@@ -7108,16 +7108,16 @@
         <v>38</v>
       </c>
       <c r="AL49" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AM49" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AN49" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO49" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G50" t="n">
         <v>1.74</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.75</v>
       </c>
       <c r="H50" t="n">
         <v>5.5</v>
@@ -7174,31 +7174,31 @@
         <v>4.4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P50" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R50" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S50" t="n">
         <v>3.1</v>
       </c>
       <c r="T50" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U50" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V50" t="n">
         <v>1.21</v>
       </c>
       <c r="W50" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X50" t="n">
         <v>17</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G51" t="n">
         <v>1.25</v>
       </c>
       <c r="H51" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="I51" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J51" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K51" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="L51" t="n">
         <v>1.29</v>
@@ -7312,10 +7312,10 @@
         <v>1.27</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="R51" t="n">
         <v>1.38</v>
@@ -7324,16 +7324,16 @@
         <v>3.1</v>
       </c>
       <c r="T51" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="U51" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V51" t="n">
         <v>1.04</v>
       </c>
       <c r="W51" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X51" t="n">
         <v>22</v>
@@ -7348,7 +7348,7 @@
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC51" t="n">
         <v>17.5</v>
@@ -7363,13 +7363,13 @@
         <v>7.8</v>
       </c>
       <c r="AG51" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH51" t="n">
         <v>170</v>
       </c>
       <c r="AI51" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
         <v>11</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G52" t="n">
         <v>4.7</v>
@@ -7426,13 +7426,13 @@
         <v>2.1</v>
       </c>
       <c r="I52" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J52" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K52" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L52" t="n">
         <v>1.53</v>
@@ -7441,10 +7441,10 @@
         <v>1.11</v>
       </c>
       <c r="N52" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O52" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P52" t="n">
         <v>1.61</v>
@@ -7456,25 +7456,25 @@
         <v>1.21</v>
       </c>
       <c r="S52" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U52" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V52" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W52" t="n">
         <v>1.27</v>
       </c>
       <c r="X52" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y52" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z52" t="n">
         <v>13</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="G53" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="I53" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="J53" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K53" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="L53" t="n">
         <v>1.28</v>
@@ -7582,7 +7582,7 @@
         <v>1.21</v>
       </c>
       <c r="P53" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="Q53" t="n">
         <v>1.56</v>
@@ -7600,64 +7600,64 @@
         <v>1.87</v>
       </c>
       <c r="V53" t="n">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="W53" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="X53" t="n">
         <v>90</v>
       </c>
       <c r="Y53" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z53" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB53" t="n">
         <v>970</v>
       </c>
       <c r="AC53" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD53" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE53" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AG53" t="n">
         <v>970</v>
       </c>
       <c r="AH53" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AI53" t="n">
         <v>970</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AL53" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO53" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="54">
@@ -7687,13 +7687,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G54" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H54" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I54" t="n">
         <v>11.5</v>
@@ -7702,7 +7702,7 @@
         <v>5.3</v>
       </c>
       <c r="K54" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L54" t="n">
         <v>1.41</v>
@@ -7714,7 +7714,7 @@
         <v>4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P54" t="n">
         <v>2.04</v>
@@ -7732,13 +7732,13 @@
         <v>2.36</v>
       </c>
       <c r="U54" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V54" t="n">
         <v>1.09</v>
       </c>
       <c r="W54" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="X54" t="n">
         <v>17</v>
@@ -7762,13 +7762,13 @@
         <v>42</v>
       </c>
       <c r="AE54" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF54" t="n">
         <v>7.2</v>
       </c>
       <c r="AG54" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH54" t="n">
         <v>34</v>
@@ -7783,7 +7783,7 @@
         <v>15.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM54" t="n">
         <v>230</v>
@@ -7876,7 +7876,7 @@
         <v>1.61</v>
       </c>
       <c r="X55" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y55" t="n">
         <v>12.5</v>
@@ -7885,7 +7885,7 @@
         <v>970</v>
       </c>
       <c r="AA55" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AB55" t="n">
         <v>11</v>
@@ -7894,13 +7894,13 @@
         <v>7.2</v>
       </c>
       <c r="AD55" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AE55" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AF55" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AG55" t="n">
         <v>12</v>
@@ -7909,7 +7909,7 @@
         <v>19</v>
       </c>
       <c r="AI55" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AJ55" t="n">
         <v>38</v>
@@ -7918,16 +7918,16 @@
         <v>970</v>
       </c>
       <c r="AL55" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AM55" t="n">
         <v>110</v>
       </c>
       <c r="AN55" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AO55" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G56" t="n">
         <v>3.1</v>
       </c>
       <c r="H56" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I56" t="n">
         <v>2.94</v>
@@ -7972,7 +7972,7 @@
         <v>3.05</v>
       </c>
       <c r="K56" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L56" t="n">
         <v>1.57</v>
@@ -7981,22 +7981,22 @@
         <v>1.13</v>
       </c>
       <c r="N56" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O56" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P56" t="n">
         <v>1.58</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R56" t="n">
         <v>1.21</v>
       </c>
       <c r="S56" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T56" t="n">
         <v>2.08</v>
@@ -8005,10 +8005,10 @@
         <v>1.86</v>
       </c>
       <c r="V56" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W56" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X56" t="n">
         <v>8.6</v>
@@ -8023,7 +8023,7 @@
         <v>50</v>
       </c>
       <c r="AB56" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC56" t="n">
         <v>7</v>
@@ -8038,7 +8038,7 @@
         <v>18</v>
       </c>
       <c r="AG56" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH56" t="n">
         <v>22</v>
@@ -8092,19 +8092,19 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G57" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I57" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K57" t="n">
         <v>4</v>
@@ -8131,7 +8131,7 @@
         <v>1.55</v>
       </c>
       <c r="S57" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T57" t="n">
         <v>1.62</v>
@@ -8140,13 +8140,13 @@
         <v>2.52</v>
       </c>
       <c r="V57" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W57" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X57" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y57" t="n">
         <v>13</v>
@@ -8227,13 +8227,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G58" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H58" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I58" t="n">
         <v>4.8</v>
@@ -8272,22 +8272,22 @@
         <v>1.66</v>
       </c>
       <c r="U58" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V58" t="n">
         <v>1.27</v>
       </c>
       <c r="W58" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X58" t="n">
         <v>25</v>
       </c>
       <c r="Y58" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z58" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AA58" t="n">
         <v>110</v>
@@ -8296,43 +8296,43 @@
         <v>13</v>
       </c>
       <c r="AC58" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD58" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF58" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AG58" t="n">
         <v>12.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK58" t="n">
         <v>18</v>
       </c>
       <c r="AL58" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM58" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN58" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AO58" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59">
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G59" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
         <v>2.26</v>
       </c>
       <c r="I59" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="J59" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L59" t="n">
         <v>1.29</v>
@@ -8410,10 +8410,10 @@
         <v>2.42</v>
       </c>
       <c r="V59" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="W59" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X59" t="n">
         <v>21</v>
@@ -8422,7 +8422,7 @@
         <v>13.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA59" t="n">
         <v>32</v>
@@ -8461,13 +8461,13 @@
         <v>40</v>
       </c>
       <c r="AM59" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AN59" t="n">
         <v>26</v>
       </c>
       <c r="AO59" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -8509,64 +8509,64 @@
         <v>9.4</v>
       </c>
       <c r="J60" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="K60" t="n">
         <v>6.2</v>
       </c>
       <c r="L60" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M60" t="n">
         <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O60" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P60" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="R60" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="S60" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="T60" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="U60" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="V60" t="n">
         <v>1.11</v>
       </c>
       <c r="W60" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="X60" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y60" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z60" t="n">
         <v>90</v>
       </c>
       <c r="AA60" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AB60" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD60" t="n">
         <v>34</v>
@@ -8575,34 +8575,34 @@
         <v>110</v>
       </c>
       <c r="AF60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG60" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI60" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ60" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK60" t="n">
         <v>14</v>
       </c>
       <c r="AL60" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM60" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN60" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AO60" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G61" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J61" t="n">
         <v>3.2</v>
@@ -8662,10 +8662,10 @@
         <v>1.46</v>
       </c>
       <c r="P61" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R61" t="n">
         <v>1.22</v>
@@ -8680,34 +8680,34 @@
         <v>1.83</v>
       </c>
       <c r="V61" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W61" t="n">
         <v>1.81</v>
       </c>
       <c r="X61" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AA61" t="n">
         <v>900</v>
       </c>
       <c r="AB61" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC61" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD61" t="n">
         <v>22</v>
       </c>
       <c r="AE61" t="n">
-        <v>85</v>
+        <v>370</v>
       </c>
       <c r="AF61" t="n">
         <v>15</v>
@@ -8722,16 +8722,16 @@
         <v>500</v>
       </c>
       <c r="AJ61" t="n">
-        <v>900</v>
+        <v>34</v>
       </c>
       <c r="AK61" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AL61" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AM61" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN61" t="n">
         <v>30</v>
@@ -8779,7 +8779,7 @@
         <v>7.6</v>
       </c>
       <c r="J62" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K62" t="n">
         <v>5.1</v>
@@ -8917,7 +8917,7 @@
         <v>4.2</v>
       </c>
       <c r="K63" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L63" t="n">
         <v>1.36</v>
@@ -8956,7 +8956,7 @@
         <v>2.44</v>
       </c>
       <c r="X63" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -9040,13 +9040,13 @@
         <v>3.15</v>
       </c>
       <c r="G64" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I64" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J64" t="n">
         <v>3.35</v>
@@ -9061,7 +9061,7 @@
         <v>1.08</v>
       </c>
       <c r="N64" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O64" t="n">
         <v>1.36</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G65" t="n">
         <v>1.79</v>
@@ -9181,7 +9181,7 @@
         <v>5.4</v>
       </c>
       <c r="I65" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J65" t="n">
         <v>3.8</v>
@@ -9202,10 +9202,10 @@
         <v>1.34</v>
       </c>
       <c r="P65" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
         <v>1.35</v>
@@ -9214,13 +9214,13 @@
         <v>3.55</v>
       </c>
       <c r="T65" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U65" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V65" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W65" t="n">
         <v>2.26</v>
@@ -9232,7 +9232,7 @@
         <v>18</v>
       </c>
       <c r="Z65" t="n">
-        <v>970</v>
+        <v>190</v>
       </c>
       <c r="AA65" t="n">
         <v>170</v>
@@ -9244,7 +9244,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD65" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AE65" t="n">
         <v>500</v>
@@ -9256,7 +9256,7 @@
         <v>9.6</v>
       </c>
       <c r="AH65" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AI65" t="n">
         <v>500</v>
@@ -9265,19 +9265,19 @@
         <v>18.5</v>
       </c>
       <c r="AK65" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AL65" t="n">
         <v>970</v>
       </c>
       <c r="AM65" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN65" t="n">
         <v>12.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H66" t="n">
         <v>6</v>
@@ -9319,13 +9319,13 @@
         <v>6.2</v>
       </c>
       <c r="J66" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K66" t="n">
         <v>4</v>
       </c>
-      <c r="K66" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L66" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M66" t="n">
         <v>1.07</v>
@@ -9337,7 +9337,7 @@
         <v>1.34</v>
       </c>
       <c r="P66" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q66" t="n">
         <v>2</v>
@@ -9358,28 +9358,28 @@
         <v>1.19</v>
       </c>
       <c r="W66" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="X66" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y66" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA66" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB66" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC66" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD66" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE66" t="n">
         <v>85</v>
@@ -9388,16 +9388,16 @@
         <v>9.6</v>
       </c>
       <c r="AG66" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI66" t="n">
         <v>85</v>
       </c>
       <c r="AJ66" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK66" t="n">
         <v>17.5</v>
@@ -9412,7 +9412,7 @@
         <v>11.5</v>
       </c>
       <c r="AO66" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
@@ -9445,16 +9445,16 @@
         <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H67" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I67" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J67" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K67" t="n">
         <v>3.5</v>
@@ -9499,7 +9499,7 @@
         <v>13</v>
       </c>
       <c r="Y67" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z67" t="n">
         <v>16.5</v>
@@ -9508,7 +9508,7 @@
         <v>38</v>
       </c>
       <c r="AB67" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC67" t="n">
         <v>7.4</v>
@@ -9604,7 +9604,7 @@
         <v>3.05</v>
       </c>
       <c r="O68" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P68" t="n">
         <v>1.71</v>
@@ -9637,7 +9637,7 @@
         <v>17.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AA68" t="n">
         <v>900</v>
@@ -9652,7 +9652,7 @@
         <v>24</v>
       </c>
       <c r="AE68" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AF68" t="n">
         <v>12</v>
@@ -9664,7 +9664,7 @@
         <v>26</v>
       </c>
       <c r="AI68" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AJ68" t="n">
         <v>28</v>
@@ -9676,7 +9676,7 @@
         <v>55</v>
       </c>
       <c r="AM68" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN68" t="n">
         <v>21</v>
@@ -9730,7 +9730,7 @@
         <v>3.85</v>
       </c>
       <c r="L69" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M69" t="n">
         <v>1.11</v>
@@ -9739,7 +9739,7 @@
         <v>2.7</v>
       </c>
       <c r="O69" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P69" t="n">
         <v>1.57</v>
@@ -9751,16 +9751,16 @@
         <v>1.21</v>
       </c>
       <c r="S69" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="T69" t="n">
         <v>1.87</v>
       </c>
       <c r="U69" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="V69" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W69" t="n">
         <v>1.73</v>
@@ -9772,7 +9772,7 @@
         <v>14.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AA69" t="n">
         <v>900</v>
@@ -9787,7 +9787,7 @@
         <v>22</v>
       </c>
       <c r="AE69" t="n">
-        <v>85</v>
+        <v>370</v>
       </c>
       <c r="AF69" t="n">
         <v>15</v>
@@ -9796,25 +9796,25 @@
         <v>14</v>
       </c>
       <c r="AH69" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AI69" t="n">
         <v>500</v>
       </c>
       <c r="AJ69" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK69" t="n">
         <v>65</v>
       </c>
       <c r="AL69" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="AM69" t="n">
         <v>500</v>
       </c>
       <c r="AN69" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AO69" t="n">
         <v>500</v>
@@ -9853,7 +9853,7 @@
         <v>3.3</v>
       </c>
       <c r="H70" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I70" t="n">
         <v>2.92</v>
@@ -9865,7 +9865,7 @@
         <v>3.6</v>
       </c>
       <c r="L70" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M70" t="n">
         <v>1.08</v>
@@ -9901,19 +9901,19 @@
         <v>1.44</v>
       </c>
       <c r="X70" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y70" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AA70" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AB70" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AC70" t="n">
         <v>7.8</v>
@@ -9925,16 +9925,16 @@
         <v>970</v>
       </c>
       <c r="AF70" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AG70" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AH70" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI70" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AJ70" t="n">
         <v>900</v>
@@ -9943,10 +9943,10 @@
         <v>970</v>
       </c>
       <c r="AL70" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AM70" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN70" t="n">
         <v>970</v>
@@ -9991,7 +9991,7 @@
         <v>1.71</v>
       </c>
       <c r="I71" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J71" t="n">
         <v>3.55</v>
@@ -10009,13 +10009,13 @@
         <v>3.35</v>
       </c>
       <c r="O71" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P71" t="n">
         <v>1.81</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R71" t="n">
         <v>1.31</v>
@@ -10024,16 +10024,16 @@
         <v>3.55</v>
       </c>
       <c r="T71" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="U71" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="V71" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W71" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="X71" t="n">
         <v>16.5</v>
@@ -10054,7 +10054,7 @@
         <v>10.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE71" t="n">
         <v>24</v>
@@ -10066,22 +10066,22 @@
         <v>27</v>
       </c>
       <c r="AH71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI71" t="n">
         <v>50</v>
       </c>
       <c r="AJ71" t="n">
-        <v>190</v>
+        <v>900</v>
       </c>
       <c r="AK71" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AL71" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AM71" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN71" t="n">
         <v>140</v>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G72" t="n">
         <v>2.72</v>
@@ -10135,7 +10135,7 @@
         <v>3.25</v>
       </c>
       <c r="L72" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="M72" t="n">
         <v>1.12</v>
@@ -10147,7 +10147,7 @@
         <v>1.51</v>
       </c>
       <c r="P72" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q72" t="n">
         <v>2.56</v>
@@ -10162,7 +10162,7 @@
         <v>2.04</v>
       </c>
       <c r="U72" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="V72" t="n">
         <v>1.35</v>
@@ -10195,16 +10195,16 @@
         <v>70</v>
       </c>
       <c r="AF72" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG72" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH72" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI72" t="n">
-        <v>85</v>
+        <v>460</v>
       </c>
       <c r="AJ72" t="n">
         <v>42</v>
@@ -10219,10 +10219,10 @@
         <v>220</v>
       </c>
       <c r="AN72" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO72" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73">
@@ -10252,16 +10252,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G73" t="n">
         <v>7.2</v>
       </c>
       <c r="H73" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I73" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J73" t="n">
         <v>4.4</v>
@@ -10276,31 +10276,31 @@
         <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O73" t="n">
         <v>1.32</v>
       </c>
       <c r="P73" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R73" t="n">
         <v>1.37</v>
       </c>
       <c r="S73" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T73" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U73" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V73" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="W73" t="n">
         <v>1.16</v>
@@ -10330,7 +10330,7 @@
         <v>17</v>
       </c>
       <c r="AF73" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AG73" t="n">
         <v>27</v>
@@ -10339,10 +10339,10 @@
         <v>25</v>
       </c>
       <c r="AI73" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AJ73" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AK73" t="n">
         <v>110</v>
@@ -10357,7 +10357,7 @@
         <v>150</v>
       </c>
       <c r="AO73" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="74">
@@ -10393,10 +10393,10 @@
         <v>4.4</v>
       </c>
       <c r="H74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I74" t="n">
         <v>2.12</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.14</v>
       </c>
       <c r="J74" t="n">
         <v>3.3</v>
@@ -10423,7 +10423,7 @@
         <v>2.38</v>
       </c>
       <c r="R74" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S74" t="n">
         <v>4.6</v>
@@ -10432,10 +10432,10 @@
         <v>2.02</v>
       </c>
       <c r="U74" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V74" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W74" t="n">
         <v>1.29</v>
@@ -10474,10 +10474,10 @@
         <v>21</v>
       </c>
       <c r="AI74" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ74" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="n">
         <v>65</v>
@@ -10489,7 +10489,7 @@
         <v>150</v>
       </c>
       <c r="AN74" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO74" t="n">
         <v>22</v>
@@ -10594,7 +10594,7 @@
         <v>7.6</v>
       </c>
       <c r="AD75" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AE75" t="n">
         <v>970</v>
@@ -10609,10 +10609,10 @@
         <v>23</v>
       </c>
       <c r="AI75" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ75" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AK75" t="n">
         <v>970</v>
@@ -10663,7 +10663,7 @@
         <v>1.17</v>
       </c>
       <c r="H76" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I76" t="n">
         <v>26</v>
@@ -10672,7 +10672,7 @@
         <v>9.6</v>
       </c>
       <c r="K76" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L76" t="n">
         <v>1.21</v>
@@ -10687,7 +10687,7 @@
         <v>1.13</v>
       </c>
       <c r="P76" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q76" t="n">
         <v>1.38</v>
@@ -10702,7 +10702,7 @@
         <v>2.2</v>
       </c>
       <c r="U76" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="V76" t="n">
         <v>1.04</v>
@@ -10726,10 +10726,10 @@
         <v>14</v>
       </c>
       <c r="AC76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD76" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AE76" t="n">
         <v>410</v>
@@ -10753,7 +10753,7 @@
         <v>17</v>
       </c>
       <c r="AL76" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AM76" t="n">
         <v>250</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="G77" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="I77" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="J77" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L77" t="n">
         <v>1.24</v>
@@ -10816,22 +10816,22 @@
         <v>1.03</v>
       </c>
       <c r="N77" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O77" t="n">
         <v>1.18</v>
       </c>
       <c r="P77" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="R77" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S77" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="T77" t="n">
         <v>1.72</v>
@@ -10840,10 +10840,10 @@
         <v>2.14</v>
       </c>
       <c r="V77" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="W77" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X77" t="n">
         <v>30</v>
@@ -10852,52 +10852,52 @@
         <v>12</v>
       </c>
       <c r="Z77" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA77" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB77" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AC77" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD77" t="n">
         <v>11</v>
       </c>
       <c r="AE77" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF77" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AG77" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AH77" t="n">
         <v>22</v>
       </c>
       <c r="AI77" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AJ77" t="n">
         <v>220</v>
       </c>
       <c r="AK77" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AL77" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AM77" t="n">
         <v>110</v>
       </c>
       <c r="AN77" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AO77" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="78">
@@ -10927,10 +10927,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G78" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
         <v>1.97</v>
@@ -11005,31 +11005,31 @@
         <v>27</v>
       </c>
       <c r="AF78" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG78" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI78" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AJ78" t="n">
         <v>900</v>
       </c>
       <c r="AK78" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AL78" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="AM78" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN78" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AO78" t="n">
         <v>18</v>
@@ -11074,10 +11074,10 @@
         <v>4.9</v>
       </c>
       <c r="J79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K79" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K79" t="n">
-        <v>3.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.52</v>
@@ -11095,7 +11095,7 @@
         <v>1.7</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R79" t="n">
         <v>1.25</v>
@@ -11110,7 +11110,7 @@
         <v>1.89</v>
       </c>
       <c r="V79" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W79" t="n">
         <v>2</v>
@@ -11137,7 +11137,7 @@
         <v>19</v>
       </c>
       <c r="AE79" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF79" t="n">
         <v>11</v>
@@ -11158,7 +11158,7 @@
         <v>24</v>
       </c>
       <c r="AL79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM79" t="n">
         <v>150</v>
@@ -11221,13 +11221,13 @@
         <v>1.15</v>
       </c>
       <c r="N80" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O80" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P80" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q80" t="n">
         <v>3</v>
@@ -11239,7 +11239,7 @@
         <v>6.4</v>
       </c>
       <c r="T80" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="U80" t="n">
         <v>1.68</v>
@@ -11296,7 +11296,7 @@
         <v>75</v>
       </c>
       <c r="AM80" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AN80" t="n">
         <v>40</v>
@@ -11338,10 +11338,10 @@
         <v>2.3</v>
       </c>
       <c r="H81" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I81" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J81" t="n">
         <v>3.45</v>
@@ -11362,7 +11362,7 @@
         <v>1.35</v>
       </c>
       <c r="P81" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q81" t="n">
         <v>2.04</v>
@@ -11383,7 +11383,7 @@
         <v>1.37</v>
       </c>
       <c r="W81" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X81" t="n">
         <v>13</v>
@@ -11419,7 +11419,7 @@
         <v>18</v>
       </c>
       <c r="AI81" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ81" t="n">
         <v>29</v>
@@ -11428,13 +11428,13 @@
         <v>25</v>
       </c>
       <c r="AL81" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM81" t="n">
         <v>100</v>
       </c>
       <c r="AN81" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO81" t="n">
         <v>44</v>
@@ -11482,7 +11482,7 @@
         <v>3.75</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L82" t="n">
         <v>1.34</v>
@@ -11497,13 +11497,13 @@
         <v>1.31</v>
       </c>
       <c r="P82" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q82" t="n">
         <v>1.91</v>
       </c>
       <c r="R82" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S82" t="n">
         <v>3.3</v>
@@ -11521,7 +11521,7 @@
         <v>1.96</v>
       </c>
       <c r="X82" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y82" t="n">
         <v>970</v>
@@ -11605,19 +11605,19 @@
         <v>7</v>
       </c>
       <c r="G83" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="H83" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="I83" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J83" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K83" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L83" t="n">
         <v>1.45</v>
@@ -11626,64 +11626,64 @@
         <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O83" t="n">
         <v>1.39</v>
       </c>
       <c r="P83" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R83" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S83" t="n">
         <v>4</v>
       </c>
       <c r="T83" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U83" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="V83" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W83" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X83" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y83" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Z83" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA83" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB83" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD83" t="n">
         <v>10</v>
       </c>
       <c r="AE83" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF83" t="n">
         <v>60</v>
       </c>
       <c r="AG83" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH83" t="n">
         <v>29</v>
@@ -11701,7 +11701,7 @@
         <v>170</v>
       </c>
       <c r="AM83" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN83" t="n">
         <v>230</v>
@@ -11764,19 +11764,19 @@
         <v>4.7</v>
       </c>
       <c r="O84" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P84" t="n">
         <v>2.28</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R84" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S84" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T84" t="n">
         <v>1.58</v>
@@ -11875,7 +11875,7 @@
         <v>1.98</v>
       </c>
       <c r="G85" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
         <v>4.4</v>
@@ -11887,7 +11887,7 @@
         <v>3.3</v>
       </c>
       <c r="K85" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L85" t="n">
         <v>1.5</v>
@@ -11899,7 +11899,7 @@
         <v>2.9</v>
       </c>
       <c r="O85" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P85" t="n">
         <v>1.7</v>
@@ -11911,7 +11911,7 @@
         <v>1.23</v>
       </c>
       <c r="S85" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T85" t="n">
         <v>2.02</v>
@@ -11923,61 +11923,61 @@
         <v>1.25</v>
       </c>
       <c r="W85" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X85" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y85" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AA85" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AB85" t="n">
         <v>7.6</v>
       </c>
       <c r="AC85" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD85" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE85" t="n">
         <v>75</v>
       </c>
       <c r="AF85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG85" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH85" t="n">
         <v>23</v>
       </c>
       <c r="AI85" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK85" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL85" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM85" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN85" t="n">
         <v>22</v>
       </c>
       <c r="AO85" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86">
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G86" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I86" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J86" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K86" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L86" t="n">
         <v>1.44</v>
@@ -12037,31 +12037,31 @@
         <v>1.37</v>
       </c>
       <c r="P86" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R86" t="n">
         <v>1.32</v>
       </c>
       <c r="S86" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T86" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U86" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V86" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W86" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="X86" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y86" t="n">
         <v>970</v>
@@ -12085,7 +12085,7 @@
         <v>55</v>
       </c>
       <c r="AF86" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG86" t="n">
         <v>11</v>
@@ -12094,16 +12094,16 @@
         <v>20</v>
       </c>
       <c r="AI86" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ86" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK86" t="n">
         <v>27</v>
       </c>
       <c r="AL86" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AM86" t="n">
         <v>130</v>
@@ -12145,25 +12145,25 @@
         <v>4.1</v>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H87" t="n">
         <v>1.95</v>
       </c>
       <c r="I87" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="J87" t="n">
         <v>3.35</v>
       </c>
       <c r="K87" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L87" t="n">
         <v>1.4</v>
       </c>
       <c r="M87" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N87" t="n">
         <v>3.2</v>
@@ -12175,7 +12175,7 @@
         <v>1.75</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R87" t="n">
         <v>1.27</v>
@@ -12190,55 +12190,55 @@
         <v>1.93</v>
       </c>
       <c r="V87" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="W87" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X87" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA87" t="n">
         <v>970</v>
       </c>
-      <c r="Y87" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>32</v>
-      </c>
       <c r="AB87" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC87" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD87" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE87" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AF87" t="n">
         <v>970</v>
       </c>
       <c r="AG87" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH87" t="n">
         <v>24</v>
       </c>
-      <c r="AH87" t="n">
-        <v>28</v>
-      </c>
       <c r="AI87" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AJ87" t="n">
         <v>500</v>
       </c>
       <c r="AK87" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AL87" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AM87" t="n">
         <v>500</v>
@@ -12247,7 +12247,7 @@
         <v>500</v>
       </c>
       <c r="AO87" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88">
@@ -12307,7 +12307,7 @@
         <v>1.41</v>
       </c>
       <c r="P88" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q88" t="n">
         <v>2.22</v>
@@ -12337,7 +12337,7 @@
         <v>12.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AA88" t="n">
         <v>900</v>
@@ -12349,28 +12349,28 @@
         <v>8.4</v>
       </c>
       <c r="AD88" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AE88" t="n">
         <v>55</v>
       </c>
       <c r="AF88" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AG88" t="n">
         <v>14</v>
       </c>
       <c r="AH88" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI88" t="n">
         <v>500</v>
       </c>
       <c r="AJ88" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="AK88" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AL88" t="n">
         <v>60</v>
@@ -12379,7 +12379,7 @@
         <v>500</v>
       </c>
       <c r="AN88" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AO88" t="n">
         <v>60</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G89" t="n">
         <v>5.2</v>
@@ -12466,37 +12466,37 @@
         <v>1.24</v>
       </c>
       <c r="X89" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Y89" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="Z89" t="n">
         <v>970</v>
       </c>
       <c r="AA89" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="AB89" t="n">
         <v>970</v>
       </c>
       <c r="AC89" t="n">
-        <v>26</v>
+        <v>8.6</v>
       </c>
       <c r="AD89" t="n">
         <v>970</v>
       </c>
       <c r="AE89" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AF89" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AG89" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AH89" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AI89" t="n">
         <v>500</v>
@@ -12517,7 +12517,7 @@
         <v>500</v>
       </c>
       <c r="AO89" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
     </row>
     <row r="90">
@@ -12553,16 +12553,16 @@
         <v>1.67</v>
       </c>
       <c r="H90" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I90" t="n">
         <v>6.2</v>
       </c>
       <c r="J90" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K90" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L90" t="n">
         <v>1.36</v>
@@ -12580,7 +12580,7 @@
         <v>2.16</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R90" t="n">
         <v>1.44</v>
@@ -12589,19 +12589,19 @@
         <v>3.1</v>
       </c>
       <c r="T90" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U90" t="n">
         <v>2.1</v>
       </c>
       <c r="V90" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W90" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="X90" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -12610,7 +12610,7 @@
         <v>48</v>
       </c>
       <c r="AA90" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB90" t="n">
         <v>9.199999999999999</v>
@@ -12634,7 +12634,7 @@
         <v>21</v>
       </c>
       <c r="AI90" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ90" t="n">
         <v>16</v>
@@ -12649,7 +12649,7 @@
         <v>110</v>
       </c>
       <c r="AN90" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO90" t="n">
         <v>85</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G91" t="n">
         <v>1.32</v>
@@ -12691,13 +12691,13 @@
         <v>14.5</v>
       </c>
       <c r="I91" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J91" t="n">
         <v>5.8</v>
       </c>
       <c r="K91" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L91" t="n">
         <v>1.39</v>
@@ -12724,10 +12724,10 @@
         <v>3.45</v>
       </c>
       <c r="T91" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U91" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V91" t="n">
         <v>1.07</v>
@@ -12736,7 +12736,7 @@
         <v>4.1</v>
       </c>
       <c r="X91" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y91" t="n">
         <v>36</v>
@@ -12769,7 +12769,7 @@
         <v>42</v>
       </c>
       <c r="AI91" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AJ91" t="n">
         <v>9</v>
@@ -12778,10 +12778,10 @@
         <v>16</v>
       </c>
       <c r="AL91" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM91" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AN91" t="n">
         <v>6.2</v>
@@ -12820,7 +12820,7 @@
         <v>5.5</v>
       </c>
       <c r="G92" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H92" t="n">
         <v>1.62</v>
@@ -12829,7 +12829,7 @@
         <v>1.63</v>
       </c>
       <c r="J92" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K92" t="n">
         <v>4.9</v>
@@ -12901,10 +12901,10 @@
         <v>22</v>
       </c>
       <c r="AH92" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI92" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ92" t="n">
         <v>130</v>
@@ -12922,7 +12922,7 @@
         <v>34</v>
       </c>
       <c r="AO92" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="93">
@@ -12955,13 +12955,13 @@
         <v>1.97</v>
       </c>
       <c r="G93" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H93" t="n">
         <v>4.3</v>
       </c>
       <c r="I93" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J93" t="n">
         <v>3.5</v>
@@ -12970,94 +12970,94 @@
         <v>3.75</v>
       </c>
       <c r="L93" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M93" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S93" t="n">
         <v>3.7</v>
       </c>
-      <c r="O93" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P93" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R93" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S93" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T93" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="U93" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W93" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X93" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Z93" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA93" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB93" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC93" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD93" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE93" t="n">
         <v>60</v>
       </c>
       <c r="AF93" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG93" t="n">
         <v>10.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ93" t="n">
         <v>23</v>
       </c>
       <c r="AK93" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AL93" t="n">
         <v>38</v>
       </c>
       <c r="AM93" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN93" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94">
@@ -13087,19 +13087,19 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="I94" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="J94" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K94" t="n">
         <v>4.7</v>
@@ -13111,31 +13111,31 @@
         <v>1.08</v>
       </c>
       <c r="N94" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O94" t="n">
         <v>1.37</v>
       </c>
       <c r="P94" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q94" t="n">
         <v>2.08</v>
       </c>
       <c r="R94" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S94" t="n">
         <v>3.9</v>
       </c>
       <c r="T94" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U94" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="V94" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="W94" t="n">
         <v>1.12</v>
@@ -13153,7 +13153,7 @@
         <v>13</v>
       </c>
       <c r="AB94" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC94" t="n">
         <v>10</v>
@@ -13165,16 +13165,16 @@
         <v>18</v>
       </c>
       <c r="AF94" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG94" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH94" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI94" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ94" t="n">
         <v>350</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G95" t="n">
         <v>3.35</v>
@@ -13231,13 +13231,13 @@
         <v>2.44</v>
       </c>
       <c r="I95" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J95" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K95" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L95" t="n">
         <v>1.5</v>
@@ -13246,7 +13246,7 @@
         <v>1.09</v>
       </c>
       <c r="N95" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O95" t="n">
         <v>1.45</v>
@@ -13270,7 +13270,7 @@
         <v>1.92</v>
       </c>
       <c r="V95" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W95" t="n">
         <v>1.43</v>
@@ -13300,7 +13300,7 @@
         <v>980</v>
       </c>
       <c r="AF95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG95" t="n">
         <v>16.5</v>
@@ -13312,10 +13312,10 @@
         <v>55</v>
       </c>
       <c r="AJ95" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK95" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AL95" t="n">
         <v>75</v>
@@ -13357,19 +13357,19 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="G96" t="n">
         <v>3.2</v>
       </c>
       <c r="H96" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I96" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="J96" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K96" t="n">
         <v>3.7</v>
@@ -13390,13 +13390,13 @@
         <v>1.95</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R96" t="n">
         <v>1.37</v>
       </c>
       <c r="S96" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T96" t="n">
         <v>1.73</v>
@@ -13405,10 +13405,10 @@
         <v>2.24</v>
       </c>
       <c r="V96" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W96" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X96" t="n">
         <v>17</v>
@@ -13492,112 +13492,112 @@
         </is>
       </c>
       <c r="F97" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K97" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N97" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P97" t="n">
         <v>2.2</v>
       </c>
-      <c r="G97" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H97" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K97" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L97" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N97" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O97" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P97" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Q97" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="R97" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="S97" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T97" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="U97" t="n">
-        <v>1.93</v>
+        <v>2.26</v>
       </c>
       <c r="V97" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W97" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="X97" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF97" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y97" t="n">
+      <c r="AG97" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH97" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z97" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>24</v>
-      </c>
       <c r="AI97" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AJ97" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AK97" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AL97" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM97" t="n">
         <v>500</v>
       </c>
       <c r="AN97" t="n">
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="AO97" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98">
@@ -13633,10 +13633,10 @@
         <v>3.7</v>
       </c>
       <c r="H98" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I98" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J98" t="n">
         <v>3.35</v>
@@ -13645,7 +13645,7 @@
         <v>3.7</v>
       </c>
       <c r="L98" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M98" t="n">
         <v>1.07</v>
@@ -13675,7 +13675,7 @@
         <v>2.1</v>
       </c>
       <c r="V98" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W98" t="n">
         <v>1.37</v>
@@ -13690,7 +13690,7 @@
         <v>18</v>
       </c>
       <c r="AA98" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB98" t="n">
         <v>15.5</v>
@@ -13705,7 +13705,7 @@
         <v>32</v>
       </c>
       <c r="AF98" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG98" t="n">
         <v>18</v>
@@ -13717,10 +13717,10 @@
         <v>50</v>
       </c>
       <c r="AJ98" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK98" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL98" t="n">
         <v>65</v>
@@ -13729,10 +13729,10 @@
         <v>120</v>
       </c>
       <c r="AN98" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO98" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -13795,22 +13795,22 @@
         <v>1.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R99" t="n">
         <v>1.28</v>
       </c>
       <c r="S99" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T99" t="n">
         <v>1.81</v>
       </c>
       <c r="U99" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V99" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W99" t="n">
         <v>1.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="I2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.18</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3.75</v>
       </c>
-      <c r="L2" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>2.58</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>1.46</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="n">
         <v>27</v>
       </c>
-      <c r="AB2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15</v>
-      </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
+        <v>280</v>
+      </c>
+      <c r="AO2" t="n">
         <v>42</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>17.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>2.94</v>
       </c>
       <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.05</v>
       </c>
-      <c r="N3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W3" t="n">
-        <v>2.58</v>
+        <v>4.2</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>9</v>
       </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.02</v>
+        <v>1.46</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>1.49</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S4" t="n">
         <v>4.2</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W4" t="n">
         <v>3</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="AD4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>16</v>
       </c>
-      <c r="AE4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL4" t="n">
         <v>50</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.65</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.67</v>
       </c>
       <c r="H5" t="n">
         <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
         <v>4.6</v>
@@ -1099,13 +1099,13 @@
         <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
         <v>1.6</v>
@@ -1120,16 +1120,16 @@
         <v>2.34</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X5" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y5" t="n">
         <v>26</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>25</v>
       </c>
       <c r="Z5" t="n">
         <v>48</v>
@@ -1156,13 +1156,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
@@ -1174,7 +1174,7 @@
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
         <v>55</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G6" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.92</v>
       </c>
-      <c r="U6" t="n">
-        <v>1.84</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>980</v>
       </c>
-      <c r="AF6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>65</v>
-      </c>
       <c r="AK6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL6" t="n">
         <v>980</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO6" t="n">
         <v>55</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="G7" t="n">
         <v>8.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
         <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
         <v>1.92</v>
@@ -1390,16 +1390,16 @@
         <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X7" t="n">
         <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
         <v>20</v>
@@ -1417,13 +1417,13 @@
         <v>20</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
         <v>230</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
@@ -1441,7 +1441,7 @@
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1477,49 +1477,49 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G8" t="n">
         <v>6.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="I8" t="n">
         <v>1.95</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1531,13 +1531,13 @@
         <v>1.2</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA8" t="n">
         <v>22</v>
@@ -1546,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
@@ -1555,7 +1555,7 @@
         <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="n">
         <v>23</v>
@@ -1564,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
         <v>900</v>
@@ -1573,7 +1573,7 @@
         <v>90</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
@@ -1582,7 +1582,7 @@
         <v>300</v>
       </c>
       <c r="AO8" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="G9" t="n">
         <v>3.05</v>
@@ -1621,7 +1621,7 @@
         <v>2.78</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.05</v>
@@ -1660,10 +1660,10 @@
         <v>1.98</v>
       </c>
       <c r="V9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.48</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1672,40 +1672,40 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="n">
         <v>60</v>
       </c>
       <c r="AK9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="n">
         <v>65</v>
@@ -1717,7 +1717,7 @@
         <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G10" t="n">
         <v>1.28</v>
@@ -1756,7 +1756,7 @@
         <v>13.5</v>
       </c>
       <c r="I10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
         <v>6.6</v>
@@ -1765,28 +1765,28 @@
         <v>7.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
         <v>1.51</v>
       </c>
       <c r="R10" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T10" t="n">
         <v>2.06</v>
@@ -1804,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z10" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>4.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H11" t="n">
         <v>5.4</v>
@@ -1894,10 +1894,10 @@
         <v>5.9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.2</v>
@@ -1924,22 +1924,22 @@
         <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V11" t="n">
         <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="n">
         <v>130</v>
@@ -1948,10 +1948,10 @@
         <v>140</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -1963,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -1975,7 +1975,7 @@
         <v>22</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -1984,7 +1984,7 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO11" t="n">
         <v>980</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
         <v>2.28</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -2044,13 +2044,13 @@
         <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
         <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
         <v>1.51</v>
@@ -2062,28 +2062,28 @@
         <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
         <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
         <v>27</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>8.6</v>
@@ -2116,10 +2116,10 @@
         <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>29</v>
@@ -2182,7 +2182,7 @@
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
         <v>2.16</v>
@@ -2191,13 +2191,13 @@
         <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V13" t="n">
         <v>1.34</v>
@@ -2212,13 +2212,13 @@
         <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
         <v>8</v>
@@ -2227,7 +2227,7 @@
         <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AF13" t="n">
         <v>13.5</v>
@@ -2242,7 +2242,7 @@
         <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
         <v>25</v>
@@ -2257,7 +2257,7 @@
         <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="G14" t="n">
         <v>1.37</v>
       </c>
       <c r="H14" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="K14" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2335,7 +2335,7 @@
         <v>1.85</v>
       </c>
       <c r="V14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
         <v>3.7</v>
@@ -2440,13 +2440,13 @@
         <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
@@ -2467,7 +2467,7 @@
         <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>2.08</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
         <v>2.9</v>
@@ -2587,13 +2587,13 @@
         <v>1.55</v>
       </c>
       <c r="P16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
         <v>5.6</v>
@@ -2602,10 +2602,10 @@
         <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W16" t="n">
         <v>1.48</v>
@@ -2623,7 +2623,7 @@
         <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC16" t="n">
         <v>6.6</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="n">
         <v>2.84</v>
@@ -2734,16 +2734,16 @@
         <v>4.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
         <v>1.43</v>
       </c>
       <c r="W17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X17" t="n">
         <v>10</v>
@@ -2752,7 +2752,7 @@
         <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
         <v>900</v>
@@ -2761,31 +2761,31 @@
         <v>9</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF17" t="n">
         <v>30</v>
       </c>
-      <c r="AE17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>38</v>
-      </c>
       <c r="AG17" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="n">
         <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>970</v>
+        <v>170</v>
       </c>
       <c r="AK17" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AL17" t="n">
         <v>380</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G18" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="I18" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J18" t="n">
         <v>3.3</v>
@@ -2851,31 +2851,31 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
         <v>1.92</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
         <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
         <v>1.47</v>
@@ -2929,7 +2929,7 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
         <v>970</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="G19" t="n">
         <v>990</v>
@@ -2971,10 +2971,10 @@
         <v>1.97</v>
       </c>
       <c r="I19" t="n">
-        <v>990</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="K19" t="n">
         <v>500</v>
@@ -2989,7 +2989,7 @@
         <v>2.66</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P19" t="n">
         <v>1.32</v>
@@ -3010,7 +3010,7 @@
         <v>1.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="W19" t="n">
         <v>1.36</v>
@@ -3130,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R20" t="n">
         <v>1.41</v>
@@ -3238,7 +3238,7 @@
         <v>2.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2.06</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
         <v>11</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="G22" t="n">
         <v>1.24</v>
@@ -3391,7 +3391,7 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
@@ -3418,7 +3418,7 @@
         <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3511,10 +3511,10 @@
         <v>1.85</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="K23" t="n">
         <v>500</v>
@@ -3550,7 +3550,7 @@
         <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W23" t="n">
         <v>1.32</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G24" t="n">
         <v>3.5</v>
       </c>
-      <c r="G24" t="n">
-        <v>3.6</v>
-      </c>
       <c r="H24" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="J24" t="n">
         <v>3.8</v>
@@ -3655,46 +3655,46 @@
         <v>3.85</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
         <v>2.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T24" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U24" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="V24" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W24" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
         <v>16.5</v>
@@ -3703,10 +3703,10 @@
         <v>28</v>
       </c>
       <c r="AB24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD24" t="n">
         <v>11</v>
@@ -3724,10 +3724,10 @@
         <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
         <v>36</v>
@@ -3736,7 +3736,7 @@
         <v>40</v>
       </c>
       <c r="AM24" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AN24" t="n">
         <v>25</v>
@@ -3790,7 +3790,7 @@
         <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3802,13 +3802,13 @@
         <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q25" t="n">
         <v>1.76</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S25" t="n">
         <v>2.86</v>
@@ -3841,13 +3841,13 @@
         <v>14.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
         <v>11.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
         <v>22</v>
@@ -3910,7 +3910,7 @@
         <v>2.6</v>
       </c>
       <c r="G26" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>2.8</v>
@@ -3925,13 +3925,13 @@
         <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.26</v>
@@ -3940,19 +3940,19 @@
         <v>2.18</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
         <v>1.48</v>
       </c>
       <c r="S26" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T26" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U26" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V26" t="n">
         <v>1.53</v>
@@ -3961,10 +3961,10 @@
         <v>1.59</v>
       </c>
       <c r="X26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
@@ -3976,7 +3976,7 @@
         <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD26" t="n">
         <v>12.5</v>
@@ -3985,7 +3985,7 @@
         <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
@@ -4000,7 +4000,7 @@
         <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
         <v>36</v>
@@ -4009,7 +4009,7 @@
         <v>70</v>
       </c>
       <c r="AN26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>21</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G27" t="n">
         <v>2.78</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
         <v>3.6</v>
@@ -4063,16 +4063,16 @@
         <v>1.78</v>
       </c>
       <c r="M27" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="N27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O27" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="P27" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q27" t="n">
         <v>3.55</v>
@@ -4087,7 +4087,7 @@
         <v>2.56</v>
       </c>
       <c r="U27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
         <v>1.38</v>
@@ -4117,16 +4117,16 @@
         <v>17.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
         <v>14.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI27" t="n">
         <v>130</v>
@@ -4144,7 +4144,7 @@
         <v>320</v>
       </c>
       <c r="AN27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO27" t="n">
         <v>120</v>
@@ -4183,7 +4183,7 @@
         <v>2.92</v>
       </c>
       <c r="H28" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I28" t="n">
         <v>2.88</v>
@@ -4201,13 +4201,13 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="Q28" t="n">
         <v>2.06</v>
@@ -4216,10 +4216,10 @@
         <v>1.32</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U28" t="n">
         <v>2.1</v>
@@ -4231,7 +4231,7 @@
         <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
         <v>12.5</v>
@@ -4252,7 +4252,7 @@
         <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF28" t="n">
         <v>21</v>
@@ -4270,7 +4270,7 @@
         <v>55</v>
       </c>
       <c r="AK28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
@@ -4336,28 +4336,28 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O29" t="n">
         <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S29" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="T29" t="n">
         <v>1.63</v>
       </c>
       <c r="U29" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="V29" t="n">
         <v>1.26</v>
@@ -4381,7 +4381,7 @@
         <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
         <v>19.5</v>
@@ -4396,28 +4396,28 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ29" t="n">
         <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM29" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN29" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AO29" t="n">
-        <v>44</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -4471,13 +4471,13 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O30" t="n">
         <v>1.35</v>
       </c>
       <c r="P30" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q30" t="n">
         <v>2.02</v>
@@ -4516,7 +4516,7 @@
         <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
         <v>14</v>
@@ -4525,10 +4525,10 @@
         <v>95</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>18.5</v>
@@ -4540,7 +4540,7 @@
         <v>36</v>
       </c>
       <c r="AK30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL30" t="n">
         <v>160</v>
@@ -4549,7 +4549,7 @@
         <v>330</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>600</v>
@@ -4600,7 +4600,7 @@
         <v>4.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4612,7 +4612,7 @@
         <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q31" t="n">
         <v>2</v>
@@ -4624,10 +4624,10 @@
         <v>3.55</v>
       </c>
       <c r="T31" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U31" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V31" t="n">
         <v>2.16</v>
@@ -4642,7 +4642,7 @@
         <v>8.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA31" t="n">
         <v>20</v>
@@ -4651,7 +4651,7 @@
         <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
         <v>11</v>
@@ -4663,7 +4663,7 @@
         <v>120</v>
       </c>
       <c r="AG31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH31" t="n">
         <v>22</v>
@@ -4726,16 +4726,16 @@
         <v>2.92</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M32" t="n">
         <v>1.08</v>
@@ -4759,16 +4759,16 @@
         <v>3.35</v>
       </c>
       <c r="T32" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U32" t="n">
         <v>1.88</v>
       </c>
       <c r="V32" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W32" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X32" t="n">
         <v>24</v>
@@ -4792,7 +4792,7 @@
         <v>970</v>
       </c>
       <c r="AE32" t="n">
-        <v>970</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="n">
         <v>38</v>
@@ -4807,10 +4807,10 @@
         <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AK32" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AL32" t="n">
         <v>970</v>
@@ -4819,7 +4819,7 @@
         <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AO32" t="n">
         <v>970</v>
@@ -4855,34 +4855,34 @@
         <v>2.12</v>
       </c>
       <c r="G33" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="H33" t="n">
         <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L33" t="n">
         <v>1.54</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O33" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P33" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q33" t="n">
         <v>2.5</v>
@@ -4891,7 +4891,7 @@
         <v>1.19</v>
       </c>
       <c r="S33" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T33" t="n">
         <v>2.08</v>
@@ -4900,10 +4900,10 @@
         <v>1.74</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X33" t="n">
         <v>9.4</v>
@@ -4915,7 +4915,7 @@
         <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB33" t="n">
         <v>7.4</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G34" t="n">
         <v>5.2</v>
       </c>
       <c r="H34" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="I34" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="J34" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K34" t="n">
         <v>3.5</v>
@@ -5020,7 +5020,7 @@
         <v>1.52</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R34" t="n">
         <v>1.19</v>
@@ -5035,7 +5035,7 @@
         <v>1.72</v>
       </c>
       <c r="V34" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="W34" t="n">
         <v>1.23</v>
@@ -5044,16 +5044,16 @@
         <v>17.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z34" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AA34" t="n">
         <v>970</v>
       </c>
       <c r="AB34" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AC34" t="n">
         <v>7.8</v>
@@ -5062,7 +5062,7 @@
         <v>23</v>
       </c>
       <c r="AE34" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AF34" t="n">
         <v>970</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G35" t="n">
         <v>6.6</v>
       </c>
       <c r="H35" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="I35" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J35" t="n">
         <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L35" t="n">
         <v>1.51</v>
@@ -5155,7 +5155,7 @@
         <v>1.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="R35" t="n">
         <v>1.22</v>
@@ -5179,7 +5179,7 @@
         <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z35" t="n">
         <v>10.5</v>
@@ -5266,13 +5266,13 @@
         <v>2.52</v>
       </c>
       <c r="I36" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.45</v>
@@ -5290,7 +5290,7 @@
         <v>1.72</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="R36" t="n">
         <v>1.27</v>
@@ -5305,10 +5305,10 @@
         <v>1.89</v>
       </c>
       <c r="V36" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W36" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X36" t="n">
         <v>22</v>
@@ -5347,7 +5347,7 @@
         <v>500</v>
       </c>
       <c r="AJ36" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK36" t="n">
         <v>970</v>
@@ -5356,7 +5356,7 @@
         <v>500</v>
       </c>
       <c r="AM36" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
         <v>970</v>
@@ -5398,10 +5398,10 @@
         <v>4.7</v>
       </c>
       <c r="H37" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I37" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
@@ -5416,16 +5416,16 @@
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R37" t="n">
         <v>1.48</v>
@@ -5434,13 +5434,13 @@
         <v>2.92</v>
       </c>
       <c r="T37" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U37" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V37" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="W37" t="n">
         <v>1.27</v>
@@ -5452,7 +5452,7 @@
         <v>10.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA37" t="n">
         <v>21</v>
@@ -5461,13 +5461,13 @@
         <v>19</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE37" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF37" t="n">
         <v>36</v>
@@ -5479,7 +5479,7 @@
         <v>17.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ37" t="n">
         <v>110</v>
@@ -5530,13 +5530,13 @@
         <v>5.5</v>
       </c>
       <c r="G38" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H38" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="I38" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J38" t="n">
         <v>4.5</v>
@@ -5545,37 +5545,37 @@
         <v>4.7</v>
       </c>
       <c r="L38" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O38" t="n">
         <v>1.21</v>
       </c>
       <c r="P38" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R38" t="n">
         <v>1.59</v>
       </c>
       <c r="S38" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T38" t="n">
         <v>1.71</v>
       </c>
       <c r="U38" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V38" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W38" t="n">
         <v>1.2</v>
@@ -5584,7 +5584,7 @@
         <v>24</v>
       </c>
       <c r="Y38" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z38" t="n">
         <v>11.5</v>
@@ -5596,43 +5596,43 @@
         <v>26</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD38" t="n">
         <v>10</v>
       </c>
       <c r="AE38" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF38" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG38" t="n">
         <v>22</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ38" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM38" t="n">
         <v>80</v>
       </c>
       <c r="AN38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO38" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -5665,28 +5665,28 @@
         <v>2.22</v>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H39" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K39" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O39" t="n">
         <v>1.09</v>
@@ -5695,31 +5695,31 @@
         <v>3.8</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="S39" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="T39" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="U39" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="V39" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W39" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y39" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z39" t="n">
         <v>36</v>
@@ -5728,46 +5728,46 @@
         <v>55</v>
       </c>
       <c r="AB39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC39" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF39" t="n">
         <v>27</v>
       </c>
       <c r="AG39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH39" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH39" t="n">
-        <v>17</v>
-      </c>
       <c r="AI39" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ39" t="n">
         <v>36</v>
       </c>
       <c r="AK39" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM39" t="n">
         <v>36</v>
       </c>
       <c r="AN39" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AO39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -5800,10 +5800,10 @@
         <v>1.71</v>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H40" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I40" t="n">
         <v>5.1</v>
@@ -5815,40 +5815,40 @@
         <v>4.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R40" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S40" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="T40" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="U40" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="V40" t="n">
         <v>1.24</v>
       </c>
       <c r="W40" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X40" t="n">
         <v>34</v>
@@ -5863,7 +5863,7 @@
         <v>120</v>
       </c>
       <c r="AB40" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC40" t="n">
         <v>11.5</v>
@@ -5878,22 +5878,22 @@
         <v>14</v>
       </c>
       <c r="AG40" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
         <v>17.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AJ40" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK40" t="n">
         <v>17</v>
       </c>
       <c r="AL40" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
@@ -5932,61 +5932,61 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="G41" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H41" t="n">
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J41" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K41" t="n">
         <v>3.6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M41" t="n">
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="O41" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P41" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R41" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S41" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="T41" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U41" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V41" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W41" t="n">
         <v>1.61</v>
       </c>
       <c r="X41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -5998,7 +5998,7 @@
         <v>60</v>
       </c>
       <c r="AB41" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC41" t="n">
         <v>7.8</v>
@@ -6007,19 +6007,19 @@
         <v>13.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AF41" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH41" t="n">
         <v>21</v>
       </c>
       <c r="AI41" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ41" t="n">
         <v>40</v>
@@ -6031,13 +6031,13 @@
         <v>55</v>
       </c>
       <c r="AM41" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN41" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO41" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42">
@@ -6067,13 +6067,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G42" t="n">
         <v>2.7</v>
       </c>
       <c r="H42" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="I42" t="n">
         <v>3</v>
@@ -6085,13 +6085,13 @@
         <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M42" t="n">
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -6100,7 +6100,7 @@
         <v>1.84</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R42" t="n">
         <v>1.33</v>
@@ -6112,7 +6112,7 @@
         <v>1.81</v>
       </c>
       <c r="U42" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V42" t="n">
         <v>1.5</v>
@@ -6121,7 +6121,7 @@
         <v>1.58</v>
       </c>
       <c r="X42" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y42" t="n">
         <v>11.5</v>
@@ -6136,7 +6136,7 @@
         <v>11</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD42" t="n">
         <v>13</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="G43" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H43" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I43" t="n">
         <v>13</v>
@@ -6217,49 +6217,49 @@
         <v>5.8</v>
       </c>
       <c r="K43" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L43" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O43" t="n">
         <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q43" t="n">
         <v>1.67</v>
       </c>
       <c r="R43" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S43" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="T43" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U43" t="n">
         <v>1.83</v>
       </c>
       <c r="V43" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W43" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="X43" t="n">
         <v>24</v>
       </c>
       <c r="Y43" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="Z43" t="n">
         <v>120</v>
@@ -6268,25 +6268,25 @@
         <v>470</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC43" t="n">
         <v>14</v>
       </c>
       <c r="AD43" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE43" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AF43" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG43" t="n">
         <v>10.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI43" t="n">
         <v>520</v>
@@ -6295,19 +6295,19 @@
         <v>12</v>
       </c>
       <c r="AK43" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM43" t="n">
         <v>430</v>
       </c>
       <c r="AN43" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AO43" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44">
@@ -6343,10 +6343,10 @@
         <v>4.7</v>
       </c>
       <c r="H44" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I44" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J44" t="n">
         <v>4.1</v>
@@ -6364,28 +6364,28 @@
         <v>4.8</v>
       </c>
       <c r="O44" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S44" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="T44" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U44" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V44" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W44" t="n">
         <v>1.27</v>
@@ -6421,7 +6421,7 @@
         <v>18.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI44" t="n">
         <v>28</v>
@@ -6439,10 +6439,10 @@
         <v>75</v>
       </c>
       <c r="AN44" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO44" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="45">
@@ -6475,13 +6475,13 @@
         <v>1.49</v>
       </c>
       <c r="G45" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I45" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J45" t="n">
         <v>5</v>
@@ -6496,34 +6496,34 @@
         <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R45" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S45" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="T45" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U45" t="n">
         <v>2.18</v>
       </c>
       <c r="V45" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W45" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
         <v>25</v>
@@ -6670,7 +6670,7 @@
         <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB46" t="n">
         <v>9.800000000000001</v>
@@ -6745,7 +6745,7 @@
         <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H47" t="n">
         <v>1.8</v>
@@ -6754,37 +6754,37 @@
         <v>1.83</v>
       </c>
       <c r="J47" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K47" t="n">
         <v>3.95</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M47" t="n">
         <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O47" t="n">
         <v>1.3</v>
       </c>
       <c r="P47" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R47" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S47" t="n">
         <v>3.3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U47" t="n">
         <v>2.08</v>
@@ -6796,7 +6796,7 @@
         <v>1.23</v>
       </c>
       <c r="X47" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y47" t="n">
         <v>9.4</v>
@@ -6841,7 +6841,7 @@
         <v>75</v>
       </c>
       <c r="AM47" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
         <v>300</v>
@@ -6880,34 +6880,34 @@
         <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="H48" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="I48" t="n">
         <v>2.2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L48" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M48" t="n">
         <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
       </c>
       <c r="P48" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q48" t="n">
         <v>2.16</v>
@@ -6919,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U48" t="n">
         <v>1.83</v>
@@ -6946,22 +6946,22 @@
         <v>25</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD48" t="n">
         <v>21</v>
       </c>
       <c r="AE48" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AF48" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG48" t="n">
         <v>970</v>
       </c>
       <c r="AH48" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI48" t="n">
         <v>970</v>
@@ -6976,13 +6976,13 @@
         <v>500</v>
       </c>
       <c r="AM48" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN48" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO48" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
@@ -7018,7 +7018,7 @@
         <v>3.2</v>
       </c>
       <c r="H49" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I49" t="n">
         <v>2.64</v>
@@ -7030,7 +7030,7 @@
         <v>3.4</v>
       </c>
       <c r="L49" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M49" t="n">
         <v>1.08</v>
@@ -7048,7 +7048,7 @@
         <v>2.12</v>
       </c>
       <c r="R49" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S49" t="n">
         <v>3.9</v>
@@ -7060,10 +7060,10 @@
         <v>2.12</v>
       </c>
       <c r="V49" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W49" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X49" t="n">
         <v>12</v>
@@ -7075,7 +7075,7 @@
         <v>16.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="n">
         <v>11.5</v>
@@ -7087,19 +7087,19 @@
         <v>12</v>
       </c>
       <c r="AE49" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG49" t="n">
         <v>13.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ49" t="n">
         <v>55</v>
@@ -7108,7 +7108,7 @@
         <v>38</v>
       </c>
       <c r="AL49" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="AM49" t="n">
         <v>500</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G50" t="n">
         <v>1.73</v>
       </c>
-      <c r="G50" t="n">
-        <v>1.74</v>
-      </c>
       <c r="H50" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I50" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J50" t="n">
         <v>4</v>
       </c>
       <c r="K50" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L50" t="n">
         <v>1.37</v>
@@ -7171,13 +7171,13 @@
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.27</v>
       </c>
       <c r="P50" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q50" t="n">
         <v>1.82</v>
@@ -7189,16 +7189,16 @@
         <v>3.1</v>
       </c>
       <c r="T50" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U50" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V50" t="n">
         <v>1.21</v>
       </c>
       <c r="W50" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X50" t="n">
         <v>17</v>
@@ -7207,13 +7207,13 @@
         <v>21</v>
       </c>
       <c r="Z50" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA50" t="n">
         <v>140</v>
       </c>
       <c r="AB50" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC50" t="n">
         <v>8.800000000000001</v>
@@ -7222,7 +7222,7 @@
         <v>21</v>
       </c>
       <c r="AE50" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF50" t="n">
         <v>11</v>
@@ -7240,16 +7240,16 @@
         <v>17</v>
       </c>
       <c r="AK50" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL50" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM50" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN50" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO50" t="n">
         <v>75</v>
@@ -7300,7 +7300,7 @@
         <v>8</v>
       </c>
       <c r="L51" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -7315,16 +7315,16 @@
         <v>2.02</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R51" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S51" t="n">
         <v>3.1</v>
       </c>
       <c r="T51" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="U51" t="n">
         <v>1.44</v>
@@ -7348,25 +7348,25 @@
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC51" t="n">
         <v>17.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="n">
         <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG51" t="n">
         <v>12</v>
       </c>
       <c r="AH51" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
@@ -7384,7 +7384,7 @@
         <v>430</v>
       </c>
       <c r="AN51" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO51" t="n">
         <v>1000</v>
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H52" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="I52" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="J52" t="n">
         <v>3.05</v>
@@ -7465,10 +7465,10 @@
         <v>1.9</v>
       </c>
       <c r="V52" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="W52" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X52" t="n">
         <v>9.800000000000001</v>
@@ -7483,7 +7483,7 @@
         <v>75</v>
       </c>
       <c r="AB52" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC52" t="n">
         <v>7.6</v>
@@ -7507,7 +7507,7 @@
         <v>130</v>
       </c>
       <c r="AJ52" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK52" t="n">
         <v>190</v>
@@ -7519,7 +7519,7 @@
         <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="AO52" t="n">
         <v>27</v>
@@ -7552,58 +7552,58 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G53" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="H53" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I53" t="n">
         <v>1.57</v>
       </c>
       <c r="J53" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K53" t="n">
         <v>5.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
         <v>1.21</v>
       </c>
       <c r="P53" t="n">
-        <v>1.44</v>
+        <v>2.38</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="R53" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="S53" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="T53" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="U53" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="V53" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="W53" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X53" t="n">
         <v>90</v>
@@ -7615,7 +7615,7 @@
         <v>10.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AB53" t="n">
         <v>970</v>
@@ -7624,10 +7624,10 @@
         <v>12</v>
       </c>
       <c r="AD53" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AF53" t="n">
         <v>170</v>
@@ -7636,13 +7636,13 @@
         <v>970</v>
       </c>
       <c r="AH53" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AI53" t="n">
         <v>970</v>
       </c>
       <c r="AJ53" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AK53" t="n">
         <v>260</v>
@@ -7654,10 +7654,10 @@
         <v>120</v>
       </c>
       <c r="AN53" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO53" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="54">
@@ -7699,7 +7699,7 @@
         <v>11.5</v>
       </c>
       <c r="J54" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K54" t="n">
         <v>5.5</v>
@@ -7714,10 +7714,10 @@
         <v>4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P54" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q54" t="n">
         <v>1.94</v>
@@ -7726,13 +7726,13 @@
         <v>1.39</v>
       </c>
       <c r="S54" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T54" t="n">
         <v>2.36</v>
       </c>
       <c r="U54" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V54" t="n">
         <v>1.09</v>
@@ -7741,7 +7741,7 @@
         <v>3.55</v>
       </c>
       <c r="X54" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y54" t="n">
         <v>29</v>
@@ -7750,7 +7750,7 @@
         <v>100</v>
       </c>
       <c r="AA54" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="AB54" t="n">
         <v>6.8</v>
@@ -7768,7 +7768,7 @@
         <v>7.2</v>
       </c>
       <c r="AG54" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH54" t="n">
         <v>34</v>
@@ -7825,7 +7825,7 @@
         <v>2.5</v>
       </c>
       <c r="G55" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H55" t="n">
         <v>3.15</v>
@@ -7840,7 +7840,7 @@
         <v>3.4</v>
       </c>
       <c r="L55" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M55" t="n">
         <v>1.09</v>
@@ -7864,7 +7864,7 @@
         <v>3.55</v>
       </c>
       <c r="T55" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U55" t="n">
         <v>2.16</v>
@@ -7873,7 +7873,7 @@
         <v>1.43</v>
       </c>
       <c r="W55" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X55" t="n">
         <v>12.5</v>
@@ -7897,7 +7897,7 @@
         <v>22</v>
       </c>
       <c r="AE55" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF55" t="n">
         <v>30</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
         <v>3.1</v>
@@ -7966,7 +7966,7 @@
         <v>2.84</v>
       </c>
       <c r="I56" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="J56" t="n">
         <v>3.05</v>
@@ -7975,55 +7975,55 @@
         <v>3.15</v>
       </c>
       <c r="L56" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M56" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N56" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="O56" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="P56" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="R56" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S56" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T56" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U56" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V56" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W56" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X56" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z56" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA56" t="n">
         <v>50</v>
       </c>
       <c r="AB56" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC56" t="n">
         <v>7</v>
@@ -8032,19 +8032,19 @@
         <v>13.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF56" t="n">
         <v>18</v>
       </c>
       <c r="AG56" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI56" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ56" t="n">
         <v>55</v>
@@ -8053,16 +8053,16 @@
         <v>44</v>
       </c>
       <c r="AL56" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM56" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN56" t="n">
         <v>55</v>
       </c>
       <c r="AO56" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57">
@@ -8092,28 +8092,28 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H57" t="n">
         <v>2.14</v>
       </c>
       <c r="I57" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="J57" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K57" t="n">
         <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M57" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
         <v>5</v>
@@ -8137,19 +8137,19 @@
         <v>1.62</v>
       </c>
       <c r="U57" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V57" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W57" t="n">
         <v>1.39</v>
       </c>
       <c r="X57" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Y57" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z57" t="n">
         <v>16</v>
@@ -8158,10 +8158,10 @@
         <v>28</v>
       </c>
       <c r="AB57" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC57" t="n">
-        <v>9.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="AD57" t="n">
         <v>11</v>
@@ -8170,13 +8170,13 @@
         <v>20</v>
       </c>
       <c r="AF57" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AG57" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI57" t="n">
         <v>29</v>
@@ -8185,19 +8185,19 @@
         <v>65</v>
       </c>
       <c r="AK57" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AL57" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM57" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AN57" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -8251,28 +8251,28 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O58" t="n">
         <v>1.19</v>
       </c>
       <c r="P58" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q58" t="n">
         <v>1.61</v>
       </c>
       <c r="R58" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S58" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T58" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="U58" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V58" t="n">
         <v>1.27</v>
@@ -8302,19 +8302,19 @@
         <v>19.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AF58" t="n">
         <v>14</v>
       </c>
       <c r="AG58" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH58" t="n">
         <v>17.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AJ58" t="n">
         <v>21</v>
@@ -8326,13 +8326,13 @@
         <v>29</v>
       </c>
       <c r="AM58" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN58" t="n">
         <v>8.6</v>
       </c>
       <c r="AO58" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H59" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I59" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J59" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K59" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
         <v>1.29</v>
@@ -8410,10 +8410,10 @@
         <v>2.42</v>
       </c>
       <c r="V59" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="W59" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X59" t="n">
         <v>21</v>
@@ -8431,7 +8431,7 @@
         <v>16.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD59" t="n">
         <v>12</v>
@@ -8500,13 +8500,13 @@
         <v>1.37</v>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H60" t="n">
         <v>8.6</v>
       </c>
       <c r="I60" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J60" t="n">
         <v>5.7</v>
@@ -8530,19 +8530,19 @@
         <v>2.94</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R60" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S60" t="n">
         <v>2.12</v>
       </c>
       <c r="T60" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U60" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V60" t="n">
         <v>1.11</v>
@@ -8590,10 +8590,10 @@
         <v>13</v>
       </c>
       <c r="AK60" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL60" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM60" t="n">
         <v>90</v>
@@ -8638,7 +8638,7 @@
         <v>2.22</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I61" t="n">
         <v>4.4</v>
@@ -8656,7 +8656,7 @@
         <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O61" t="n">
         <v>1.46</v>
@@ -8671,13 +8671,13 @@
         <v>1.22</v>
       </c>
       <c r="S61" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T61" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="V61" t="n">
         <v>1.3</v>
@@ -8692,7 +8692,7 @@
         <v>14.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AA61" t="n">
         <v>900</v>
@@ -8701,7 +8701,7 @@
         <v>8.4</v>
       </c>
       <c r="AC61" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD61" t="n">
         <v>22</v>
@@ -8728,7 +8728,7 @@
         <v>34</v>
       </c>
       <c r="AL61" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="AM61" t="n">
         <v>580</v>
@@ -8737,7 +8737,7 @@
         <v>30</v>
       </c>
       <c r="AO61" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62">
@@ -8770,10 +8770,10 @@
         <v>1.58</v>
       </c>
       <c r="G62" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H62" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="I62" t="n">
         <v>7.6</v>
@@ -8908,16 +8908,16 @@
         <v>1.69</v>
       </c>
       <c r="H63" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I63" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J63" t="n">
         <v>4.2</v>
       </c>
       <c r="K63" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L63" t="n">
         <v>1.36</v>
@@ -8935,7 +8935,7 @@
         <v>2.12</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R63" t="n">
         <v>1.43</v>
@@ -8956,7 +8956,7 @@
         <v>2.44</v>
       </c>
       <c r="X63" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -8965,7 +8965,7 @@
         <v>46</v>
       </c>
       <c r="AA63" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB63" t="n">
         <v>8.800000000000001</v>
@@ -8989,7 +8989,7 @@
         <v>20</v>
       </c>
       <c r="AI63" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ63" t="n">
         <v>16.5</v>
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G64" t="n">
         <v>3.15</v>
       </c>
-      <c r="G64" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H64" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I64" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="J64" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K64" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3.4</v>
       </c>
       <c r="L64" t="n">
         <v>1.44</v>
@@ -9076,7 +9076,7 @@
         <v>1.33</v>
       </c>
       <c r="S64" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T64" t="n">
         <v>1.81</v>
@@ -9085,10 +9085,10 @@
         <v>2.16</v>
       </c>
       <c r="V64" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W64" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X64" t="n">
         <v>12.5</v>
@@ -9097,13 +9097,13 @@
         <v>10.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA64" t="n">
         <v>38</v>
       </c>
       <c r="AB64" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC64" t="n">
         <v>7.4</v>
@@ -9127,19 +9127,19 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK64" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL64" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM64" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN64" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO64" t="n">
         <v>24</v>
@@ -9184,7 +9184,7 @@
         <v>5.8</v>
       </c>
       <c r="J65" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K65" t="n">
         <v>4</v>
@@ -9220,7 +9220,7 @@
         <v>1.97</v>
       </c>
       <c r="V65" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W65" t="n">
         <v>2.26</v>
@@ -9232,7 +9232,7 @@
         <v>18</v>
       </c>
       <c r="Z65" t="n">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="AA65" t="n">
         <v>170</v>
@@ -9313,16 +9313,16 @@
         <v>1.72</v>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I66" t="n">
         <v>6.2</v>
       </c>
       <c r="J66" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L66" t="n">
         <v>1.42</v>
@@ -9361,7 +9361,7 @@
         <v>2.38</v>
       </c>
       <c r="X66" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y66" t="n">
         <v>18.5</v>
@@ -9373,7 +9373,7 @@
         <v>160</v>
       </c>
       <c r="AB66" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC66" t="n">
         <v>8.800000000000001</v>
@@ -9382,13 +9382,13 @@
         <v>22</v>
       </c>
       <c r="AE66" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF66" t="n">
         <v>9.6</v>
       </c>
       <c r="AG66" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AH66" t="n">
         <v>21</v>
@@ -9397,7 +9397,7 @@
         <v>85</v>
       </c>
       <c r="AJ66" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK66" t="n">
         <v>17.5</v>
@@ -9448,10 +9448,10 @@
         <v>3.05</v>
       </c>
       <c r="H67" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I67" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J67" t="n">
         <v>3.4</v>
@@ -9466,22 +9466,22 @@
         <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O67" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P67" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q67" t="n">
         <v>2.08</v>
       </c>
       <c r="R67" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S67" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T67" t="n">
         <v>1.81</v>
@@ -9490,7 +9490,7 @@
         <v>2.2</v>
       </c>
       <c r="V67" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W67" t="n">
         <v>1.48</v>
@@ -9514,13 +9514,13 @@
         <v>7.4</v>
       </c>
       <c r="AD67" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE67" t="n">
         <v>29</v>
       </c>
       <c r="AF67" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG67" t="n">
         <v>13</v>
@@ -9721,7 +9721,7 @@
         <v>3.9</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J69" t="n">
         <v>2.76</v>
@@ -9739,7 +9739,7 @@
         <v>2.7</v>
       </c>
       <c r="O69" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P69" t="n">
         <v>1.57</v>
@@ -9751,7 +9751,7 @@
         <v>1.21</v>
       </c>
       <c r="S69" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T69" t="n">
         <v>1.87</v>
@@ -9760,7 +9760,7 @@
         <v>1.83</v>
       </c>
       <c r="V69" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="W69" t="n">
         <v>1.73</v>
@@ -9865,7 +9865,7 @@
         <v>3.6</v>
       </c>
       <c r="L70" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M70" t="n">
         <v>1.08</v>
@@ -9925,7 +9925,7 @@
         <v>970</v>
       </c>
       <c r="AF70" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AG70" t="n">
         <v>28</v>
@@ -10012,10 +10012,10 @@
         <v>1.36</v>
       </c>
       <c r="P71" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="R71" t="n">
         <v>1.31</v>
@@ -10135,7 +10135,7 @@
         <v>3.25</v>
       </c>
       <c r="L72" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="M72" t="n">
         <v>1.12</v>
@@ -10297,7 +10297,7 @@
         <v>2</v>
       </c>
       <c r="U73" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V73" t="n">
         <v>2.66</v>
@@ -10318,7 +10318,7 @@
         <v>15</v>
       </c>
       <c r="AB73" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC73" t="n">
         <v>10</v>
@@ -10390,7 +10390,7 @@
         <v>4.3</v>
       </c>
       <c r="G74" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H74" t="n">
         <v>2.1</v>
@@ -10417,10 +10417,10 @@
         <v>1.45</v>
       </c>
       <c r="P74" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R74" t="n">
         <v>1.26</v>
@@ -10489,7 +10489,7 @@
         <v>150</v>
       </c>
       <c r="AN74" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO74" t="n">
         <v>22</v>
@@ -10540,7 +10540,7 @@
         <v>3.45</v>
       </c>
       <c r="L75" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M75" t="n">
         <v>1.09</v>
@@ -10669,7 +10669,7 @@
         <v>26</v>
       </c>
       <c r="J76" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="K76" t="n">
         <v>11.5</v>
@@ -10738,10 +10738,10 @@
         <v>10.5</v>
       </c>
       <c r="AG76" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI76" t="n">
         <v>270</v>
@@ -10750,7 +10750,7 @@
         <v>9.6</v>
       </c>
       <c r="AK76" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL76" t="n">
         <v>160</v>
@@ -10798,13 +10798,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I77" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K77" t="n">
         <v>5.7</v>
@@ -10816,16 +10816,16 @@
         <v>1.03</v>
       </c>
       <c r="N77" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O77" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P77" t="n">
         <v>2.6</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R77" t="n">
         <v>1.64</v>
@@ -10927,25 +10927,25 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G78" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H78" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="I78" t="n">
         <v>2.16</v>
       </c>
       <c r="J78" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K78" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L78" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M78" t="n">
         <v>1.06</v>
@@ -10960,7 +10960,7 @@
         <v>1.94</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R78" t="n">
         <v>1.36</v>
@@ -11005,7 +11005,7 @@
         <v>27</v>
       </c>
       <c r="AF78" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AG78" t="n">
         <v>17.5</v>
@@ -11086,28 +11086,28 @@
         <v>1.1</v>
       </c>
       <c r="N79" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O79" t="n">
         <v>1.46</v>
       </c>
       <c r="P79" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q79" t="n">
         <v>2.38</v>
       </c>
       <c r="R79" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S79" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T79" t="n">
         <v>2.08</v>
       </c>
       <c r="U79" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V79" t="n">
         <v>1.25</v>
@@ -11164,10 +11164,10 @@
         <v>150</v>
       </c>
       <c r="AN79" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO79" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80">
@@ -11269,7 +11269,7 @@
         <v>7</v>
       </c>
       <c r="AD80" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE80" t="n">
         <v>90</v>
@@ -11338,10 +11338,10 @@
         <v>2.3</v>
       </c>
       <c r="H81" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I81" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J81" t="n">
         <v>3.45</v>
@@ -11353,7 +11353,7 @@
         <v>1.42</v>
       </c>
       <c r="M81" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N81" t="n">
         <v>3.6</v>
@@ -11362,7 +11362,7 @@
         <v>1.35</v>
       </c>
       <c r="P81" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q81" t="n">
         <v>2.04</v>
@@ -11371,7 +11371,7 @@
         <v>1.33</v>
       </c>
       <c r="S81" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T81" t="n">
         <v>1.82</v>
@@ -11407,7 +11407,7 @@
         <v>15</v>
       </c>
       <c r="AE81" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AF81" t="n">
         <v>14</v>
@@ -11431,13 +11431,13 @@
         <v>40</v>
       </c>
       <c r="AM81" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN81" t="n">
         <v>21</v>
       </c>
       <c r="AO81" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G82" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I82" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J82" t="n">
         <v>3.75</v>
       </c>
       <c r="K82" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
         <v>1.34</v>
@@ -11500,31 +11500,31 @@
         <v>2</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R82" t="n">
         <v>1.38</v>
       </c>
       <c r="S82" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T82" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U82" t="n">
         <v>2.1</v>
       </c>
       <c r="V82" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W82" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X82" t="n">
         <v>17.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="Z82" t="n">
         <v>970</v>
@@ -11539,40 +11539,40 @@
         <v>8.6</v>
       </c>
       <c r="AD82" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AE82" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF82" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG82" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AI82" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ82" t="n">
         <v>28</v>
       </c>
       <c r="AK82" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL82" t="n">
         <v>970</v>
       </c>
       <c r="AM82" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN82" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AO82" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83">
@@ -11632,7 +11632,7 @@
         <v>1.39</v>
       </c>
       <c r="P83" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q83" t="n">
         <v>2.16</v>
@@ -11644,7 +11644,7 @@
         <v>4</v>
       </c>
       <c r="T83" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U83" t="n">
         <v>1.78</v>
@@ -11683,13 +11683,13 @@
         <v>60</v>
       </c>
       <c r="AG83" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH83" t="n">
         <v>29</v>
       </c>
       <c r="AI83" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ83" t="n">
         <v>290</v>
@@ -11740,7 +11740,7 @@
         <v>2.7</v>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>2.38</v>
@@ -11752,7 +11752,7 @@
         <v>3.65</v>
       </c>
       <c r="K84" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L84" t="n">
         <v>1.28</v>
@@ -11761,22 +11761,22 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O84" t="n">
         <v>1.21</v>
       </c>
       <c r="P84" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q84" t="n">
         <v>1.65</v>
       </c>
       <c r="R84" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="S84" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="T84" t="n">
         <v>1.58</v>
@@ -11788,61 +11788,61 @@
         <v>1.6</v>
       </c>
       <c r="W84" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X84" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y84" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AA84" t="n">
         <v>40</v>
       </c>
       <c r="AB84" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC84" t="n">
         <v>11</v>
       </c>
       <c r="AD84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG84" t="n">
         <v>14</v>
       </c>
-      <c r="AE84" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH84" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI84" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ84" t="n">
         <v>46</v>
       </c>
       <c r="AK84" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL84" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM84" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN84" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO84" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -11875,19 +11875,19 @@
         <v>1.98</v>
       </c>
       <c r="G85" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H85" t="n">
         <v>4.4</v>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J85" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K85" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L85" t="n">
         <v>1.5</v>
@@ -11926,7 +11926,7 @@
         <v>1.92</v>
       </c>
       <c r="X85" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y85" t="n">
         <v>13.5</v>
@@ -12013,7 +12013,7 @@
         <v>2.2</v>
       </c>
       <c r="H86" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I86" t="n">
         <v>4.1</v>
@@ -12049,10 +12049,10 @@
         <v>3.65</v>
       </c>
       <c r="T86" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U86" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V86" t="n">
         <v>1.32</v>
@@ -12064,7 +12064,7 @@
         <v>15</v>
       </c>
       <c r="Y86" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="Z86" t="n">
         <v>34</v>
@@ -12082,7 +12082,7 @@
         <v>18</v>
       </c>
       <c r="AE86" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF86" t="n">
         <v>15</v>
@@ -12091,13 +12091,13 @@
         <v>11</v>
       </c>
       <c r="AH86" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI86" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AJ86" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK86" t="n">
         <v>27</v>
@@ -12106,13 +12106,13 @@
         <v>970</v>
       </c>
       <c r="AM86" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN86" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO86" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87">
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G87" t="n">
         <v>4.8</v>
@@ -12151,7 +12151,7 @@
         <v>1.95</v>
       </c>
       <c r="I87" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J87" t="n">
         <v>3.35</v>
@@ -12160,34 +12160,34 @@
         <v>3.7</v>
       </c>
       <c r="L87" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M87" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N87" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O87" t="n">
         <v>1.37</v>
       </c>
       <c r="P87" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q87" t="n">
         <v>2.12</v>
       </c>
       <c r="R87" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S87" t="n">
         <v>3.9</v>
       </c>
       <c r="T87" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U87" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V87" t="n">
         <v>1.92</v>
@@ -12196,7 +12196,7 @@
         <v>1.26</v>
       </c>
       <c r="X87" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y87" t="n">
         <v>8.4</v>
@@ -12205,7 +12205,7 @@
         <v>12.5</v>
       </c>
       <c r="AA87" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AB87" t="n">
         <v>15</v>
@@ -12220,13 +12220,13 @@
         <v>65</v>
       </c>
       <c r="AF87" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AG87" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AH87" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AI87" t="n">
         <v>970</v>
@@ -12235,19 +12235,19 @@
         <v>500</v>
       </c>
       <c r="AK87" t="n">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="AL87" t="n">
         <v>500</v>
       </c>
       <c r="AM87" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN87" t="n">
         <v>500</v>
       </c>
       <c r="AO87" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G88" t="n">
         <v>2.74</v>
@@ -12289,13 +12289,13 @@
         <v>3.55</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K88" t="n">
         <v>3.5</v>
       </c>
       <c r="L88" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M88" t="n">
         <v>1.08</v>
@@ -12331,10 +12331,10 @@
         <v>1.57</v>
       </c>
       <c r="X88" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Y88" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Z88" t="n">
         <v>970</v>
@@ -12343,37 +12343,37 @@
         <v>900</v>
       </c>
       <c r="AB88" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AC88" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD88" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AE88" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AF88" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AG88" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AH88" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AI88" t="n">
         <v>500</v>
       </c>
       <c r="AJ88" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK88" t="n">
         <v>970</v>
       </c>
       <c r="AL88" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AM88" t="n">
         <v>500</v>
@@ -12382,7 +12382,7 @@
         <v>970</v>
       </c>
       <c r="AO88" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
@@ -12412,25 +12412,25 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G89" t="n">
         <v>5.2</v>
       </c>
       <c r="H89" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
         <v>2.22</v>
       </c>
       <c r="J89" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
         <v>3.75</v>
       </c>
       <c r="L89" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M89" t="n">
         <v>1.11</v>
@@ -12466,28 +12466,28 @@
         <v>1.24</v>
       </c>
       <c r="X89" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="Y89" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="Z89" t="n">
         <v>970</v>
       </c>
       <c r="AA89" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AB89" t="n">
         <v>970</v>
       </c>
       <c r="AC89" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD89" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AE89" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AF89" t="n">
         <v>970</v>
@@ -12547,13 +12547,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G90" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H90" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I90" t="n">
         <v>6.2</v>
@@ -12577,7 +12577,7 @@
         <v>1.27</v>
       </c>
       <c r="P90" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q90" t="n">
         <v>1.82</v>
@@ -12589,16 +12589,16 @@
         <v>3.1</v>
       </c>
       <c r="T90" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U90" t="n">
         <v>2.1</v>
       </c>
       <c r="V90" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W90" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X90" t="n">
         <v>17</v>
@@ -12610,13 +12610,13 @@
         <v>48</v>
       </c>
       <c r="AA90" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB90" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC90" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD90" t="n">
         <v>22</v>
@@ -12637,19 +12637,19 @@
         <v>75</v>
       </c>
       <c r="AJ90" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK90" t="n">
         <v>16.5</v>
       </c>
       <c r="AL90" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM90" t="n">
         <v>110</v>
       </c>
       <c r="AN90" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO90" t="n">
         <v>85</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G91" t="n">
         <v>1.32</v>
@@ -12691,7 +12691,7 @@
         <v>14.5</v>
       </c>
       <c r="I91" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J91" t="n">
         <v>5.8</v>
@@ -12706,7 +12706,7 @@
         <v>1.06</v>
       </c>
       <c r="N91" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O91" t="n">
         <v>1.31</v>
@@ -12715,7 +12715,7 @@
         <v>2.04</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R91" t="n">
         <v>1.39</v>
@@ -12724,16 +12724,16 @@
         <v>3.45</v>
       </c>
       <c r="T91" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="U91" t="n">
         <v>1.6</v>
       </c>
       <c r="V91" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W91" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X91" t="n">
         <v>16.5</v>
@@ -12751,7 +12751,7 @@
         <v>6.8</v>
       </c>
       <c r="AC91" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD91" t="n">
         <v>60</v>
@@ -12766,10 +12766,10 @@
         <v>11</v>
       </c>
       <c r="AH91" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI91" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AJ91" t="n">
         <v>9</v>
@@ -12781,7 +12781,7 @@
         <v>55</v>
       </c>
       <c r="AM91" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AN91" t="n">
         <v>6.2</v>
@@ -12817,19 +12817,19 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="G92" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H92" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I92" t="n">
         <v>1.62</v>
       </c>
-      <c r="I92" t="n">
-        <v>1.63</v>
-      </c>
       <c r="J92" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K92" t="n">
         <v>4.9</v>
@@ -12838,7 +12838,7 @@
         <v>1.24</v>
       </c>
       <c r="M92" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N92" t="n">
         <v>7.6</v>
@@ -12847,28 +12847,28 @@
         <v>1.14</v>
       </c>
       <c r="P92" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R92" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S92" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T92" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U92" t="n">
         <v>2.76</v>
       </c>
       <c r="V92" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="W92" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X92" t="n">
         <v>32</v>
@@ -12880,7 +12880,7 @@
         <v>14</v>
       </c>
       <c r="AA92" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB92" t="n">
         <v>34</v>
@@ -12892,7 +12892,7 @@
         <v>10.5</v>
       </c>
       <c r="AE92" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF92" t="n">
         <v>55</v>
@@ -12901,7 +12901,7 @@
         <v>22</v>
       </c>
       <c r="AH92" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI92" t="n">
         <v>21</v>
@@ -12919,7 +12919,7 @@
         <v>55</v>
       </c>
       <c r="AN92" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AO92" t="n">
         <v>5.3</v>
@@ -12952,10 +12952,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G93" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H93" t="n">
         <v>4.3</v>
@@ -12964,10 +12964,10 @@
         <v>4.7</v>
       </c>
       <c r="J93" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K93" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L93" t="n">
         <v>1.45</v>
@@ -12979,37 +12979,37 @@
         <v>3.5</v>
       </c>
       <c r="O93" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P93" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T93" t="n">
         <v>1.9</v>
       </c>
-      <c r="Q93" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R93" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S93" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T93" t="n">
-        <v>1.88</v>
-      </c>
       <c r="U93" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V93" t="n">
         <v>1.27</v>
       </c>
       <c r="W93" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X93" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z93" t="n">
         <v>34</v>
@@ -13018,7 +13018,7 @@
         <v>120</v>
       </c>
       <c r="AB93" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC93" t="n">
         <v>8.199999999999999</v>
@@ -13027,10 +13027,10 @@
         <v>18</v>
       </c>
       <c r="AE93" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF93" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG93" t="n">
         <v>10.5</v>
@@ -13042,22 +13042,22 @@
         <v>70</v>
       </c>
       <c r="AJ93" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK93" t="n">
         <v>23</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>22</v>
       </c>
       <c r="AL93" t="n">
         <v>38</v>
       </c>
       <c r="AM93" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN93" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
@@ -13093,10 +13093,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="I94" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J94" t="n">
         <v>4.5</v>
@@ -13111,13 +13111,13 @@
         <v>1.08</v>
       </c>
       <c r="N94" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O94" t="n">
         <v>1.37</v>
       </c>
       <c r="P94" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q94" t="n">
         <v>2.08</v>
@@ -13126,16 +13126,16 @@
         <v>1.31</v>
       </c>
       <c r="S94" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T94" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U94" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V94" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="W94" t="n">
         <v>1.12</v>
@@ -13177,7 +13177,7 @@
         <v>48</v>
       </c>
       <c r="AJ94" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AK94" t="n">
         <v>170</v>
@@ -13186,7 +13186,7 @@
         <v>170</v>
       </c>
       <c r="AM94" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN94" t="n">
         <v>300</v>
@@ -13276,7 +13276,7 @@
         <v>1.43</v>
       </c>
       <c r="X95" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y95" t="n">
         <v>8.800000000000001</v>
@@ -13303,7 +13303,7 @@
         <v>21</v>
       </c>
       <c r="AG95" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH95" t="n">
         <v>21</v>
@@ -13360,7 +13360,7 @@
         <v>2.98</v>
       </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H96" t="n">
         <v>2.5</v>
@@ -13378,7 +13378,7 @@
         <v>1.4</v>
       </c>
       <c r="M96" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N96" t="n">
         <v>3.75</v>
@@ -13390,7 +13390,7 @@
         <v>1.95</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R96" t="n">
         <v>1.37</v>
@@ -13459,10 +13459,10 @@
         <v>100</v>
       </c>
       <c r="AN96" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO96" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
@@ -13492,112 +13492,112 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G97" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H97" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I97" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J97" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K97" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L97" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M97" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N97" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O97" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P97" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="R97" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="S97" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T97" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="U97" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="V97" t="n">
         <v>1.4</v>
       </c>
       <c r="W97" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X97" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="Y97" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF97" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z97" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA97" t="n">
+      <c r="AG97" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI97" t="n">
         <v>55</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>46</v>
       </c>
       <c r="AJ97" t="n">
         <v>28</v>
       </c>
       <c r="AK97" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL97" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM97" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AN97" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AO97" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98">
@@ -13705,7 +13705,7 @@
         <v>32</v>
       </c>
       <c r="AF98" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG98" t="n">
         <v>18</v>
@@ -13720,7 +13720,7 @@
         <v>70</v>
       </c>
       <c r="AK98" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL98" t="n">
         <v>65</v>
@@ -13729,7 +13729,7 @@
         <v>120</v>
       </c>
       <c r="AN98" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO98" t="n">
         <v>22</v>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G99" t="n">
         <v>2.1</v>
@@ -13771,7 +13771,7 @@
         <v>4.2</v>
       </c>
       <c r="I99" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J99" t="n">
         <v>3.35</v>
@@ -13795,7 +13795,7 @@
         <v>1.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R99" t="n">
         <v>1.28</v>
@@ -13804,10 +13804,10 @@
         <v>3.9</v>
       </c>
       <c r="T99" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U99" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V99" t="n">
         <v>1.23</v>
@@ -13819,7 +13819,7 @@
         <v>14</v>
       </c>
       <c r="Y99" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z99" t="n">
         <v>980</v>
@@ -13831,7 +13831,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC99" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD99" t="n">
         <v>21</v>
@@ -13855,7 +13855,7 @@
         <v>28</v>
       </c>
       <c r="AK99" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL99" t="n">
         <v>980</v>
@@ -13867,7 +13867,7 @@
         <v>21</v>
       </c>
       <c r="AO99" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>2.42</v>
+        <v>1.07</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58</v>
+        <v>1.08</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>15.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="S2" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>1.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.65</v>
+        <v>7.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>1.69</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:06:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>CF America</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.28</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>2.64</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.45</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.79</v>
-      </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>75</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>29</v>
-      </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AO3" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,60 +923,60 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:06:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CF America</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>2.34</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -985,199 +985,64 @@
         <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG4" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-18</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Aguilas Doradas</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
